--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="441">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -952,6 +952,57 @@
     <t>['15', '45+1', '76']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['4', '9']</t>
+  </si>
+  <si>
+    <t>['30', '36']</t>
+  </si>
+  <si>
+    <t>['9', '11', '33']</t>
+  </si>
+  <si>
+    <t>['19', '64']</t>
+  </si>
+  <si>
+    <t>['1', '72']</t>
+  </si>
+  <si>
+    <t>['72', '82', '90+2']</t>
+  </si>
+  <si>
+    <t>['29', '31']</t>
+  </si>
+  <si>
+    <t>['45', '45+7', '49', '73']</t>
+  </si>
+  <si>
+    <t>['23', '81']</t>
+  </si>
+  <si>
+    <t>['42', '74', '90+9']</t>
+  </si>
+  <si>
+    <t>['28', '40', '80']</t>
+  </si>
+  <si>
+    <t>['2', '53', '81']</t>
+  </si>
+  <si>
+    <t>['17', '19']</t>
+  </si>
+  <si>
+    <t>['28', '30', '80']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['2', '10', '23', '90+4']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -959,9 +1010,6 @@
   </si>
   <si>
     <t>['66', '83']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['24', '78', '86']</t>
@@ -1268,6 +1316,27 @@
   </si>
   <si>
     <t>['60', '76', '90+1']</t>
+  </si>
+  <si>
+    <t>['80', '90+3']</t>
+  </si>
+  <si>
+    <t>['15', '20', '87']</t>
+  </si>
+  <si>
+    <t>['46', '72']</t>
+  </si>
+  <si>
+    <t>['40', '84']</t>
+  </si>
+  <si>
+    <t>['25', '60']</t>
+  </si>
+  <si>
+    <t>['45+3', '65']</t>
+  </si>
+  <si>
+    <t>['61', '74']</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK313"/>
+  <dimension ref="A1:BK337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1960,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT2">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2064,7 +2133,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2151,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0.64</v>
@@ -2446,7 +2515,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2533,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT5">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2637,7 +2706,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2727,7 +2796,7 @@
         <v>1.45</v>
       </c>
       <c r="AT6">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2918,7 +2987,7 @@
         <v>1.27</v>
       </c>
       <c r="AT7">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3109,7 +3178,7 @@
         <v>1.58</v>
       </c>
       <c r="AT8">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3210,7 +3279,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3297,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT9">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3401,7 +3470,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3488,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3592,7 +3661,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3682,7 +3751,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3783,7 +3852,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3870,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT12">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4061,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT13">
         <v>0.82</v>
@@ -4252,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT14">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4356,7 +4425,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4443,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4634,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU16">
         <v>2.25</v>
@@ -4828,7 +4897,7 @@
         <v>2.25</v>
       </c>
       <c r="AT17">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5019,7 +5088,7 @@
         <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -5207,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT19">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5398,10 +5467,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT20">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5592,7 +5661,7 @@
         <v>1.58</v>
       </c>
       <c r="AT21">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU21">
         <v>0.93</v>
@@ -5780,10 +5849,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT22">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU22">
         <v>1.37</v>
@@ -5884,7 +5953,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5971,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6165,7 +6234,7 @@
         <v>1.82</v>
       </c>
       <c r="AT24">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU24">
         <v>1.31</v>
@@ -6353,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT25">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6544,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT26">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6735,10 +6804,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
+        <v>1.69</v>
+      </c>
+      <c r="AT27">
         <v>1.75</v>
-      </c>
-      <c r="AT27">
-        <v>1.82</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -6926,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT28">
         <v>0.67</v>
@@ -7030,7 +7099,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7120,7 +7189,7 @@
         <v>1.27</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU29">
         <v>1.85</v>
@@ -7308,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT30">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU30">
         <v>2.28</v>
@@ -7499,10 +7568,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT31">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7693,7 +7762,7 @@
         <v>1.45</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU32">
         <v>1.43</v>
@@ -7884,7 +7953,7 @@
         <v>1.6</v>
       </c>
       <c r="AT33">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -8072,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -8266,7 +8335,7 @@
         <v>1.25</v>
       </c>
       <c r="AT35">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8454,10 +8523,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT36">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8645,10 +8714,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT37">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8836,10 +8905,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT38">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU38">
         <v>1.41</v>
@@ -8940,7 +9009,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9027,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9131,7 +9200,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9218,10 +9287,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT40">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU40">
         <v>1.06</v>
@@ -9409,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT41">
         <v>0.82</v>
@@ -9600,7 +9669,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>1.18</v>
@@ -9791,10 +9860,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT43">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU43">
         <v>2</v>
@@ -9982,10 +10051,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>2.1</v>
@@ -10086,7 +10155,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10173,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10364,10 +10433,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT46">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10468,7 +10537,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10555,10 +10624,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT47">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU47">
         <v>1.15</v>
@@ -10659,7 +10728,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10749,7 +10818,7 @@
         <v>1.6</v>
       </c>
       <c r="AT48">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU48">
         <v>1.74</v>
@@ -10850,7 +10919,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10940,7 +11009,7 @@
         <v>1.58</v>
       </c>
       <c r="AT49">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>0.89</v>
@@ -11131,7 +11200,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -11232,7 +11301,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11319,10 +11388,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT51">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU51">
         <v>0.99</v>
@@ -11423,7 +11492,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11513,7 +11582,7 @@
         <v>1.82</v>
       </c>
       <c r="AT52">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52">
         <v>1.33</v>
@@ -11701,10 +11770,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT53">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11892,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT54">
         <v>0.64</v>
@@ -11996,7 +12065,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12083,10 +12152,10 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT55">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -12465,10 +12534,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT57">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -12569,7 +12638,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12656,10 +12725,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU58">
         <v>1.5</v>
@@ -12760,7 +12829,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12951,7 +13020,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13142,7 +13211,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13232,7 +13301,7 @@
         <v>1.27</v>
       </c>
       <c r="AT61">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU61">
         <v>1.6</v>
@@ -13333,7 +13402,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13423,7 +13492,7 @@
         <v>2.25</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU62">
         <v>1.31</v>
@@ -13611,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT63">
         <v>0.82</v>
@@ -13802,10 +13871,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT64">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU64">
         <v>1.56</v>
@@ -13906,7 +13975,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13993,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT65">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU65">
         <v>2.67</v>
@@ -14184,7 +14253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT66">
         <v>0.67</v>
@@ -14288,7 +14357,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14375,10 +14444,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT67">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU67">
         <v>1.3</v>
@@ -14479,7 +14548,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14566,10 +14635,10 @@
         <v>3</v>
       </c>
       <c r="AS68">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT68">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU68">
         <v>1.9</v>
@@ -14670,7 +14739,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14757,10 +14826,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -14948,10 +15017,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT70">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU70">
         <v>1.67</v>
@@ -15052,7 +15121,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15142,7 +15211,7 @@
         <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.3</v>
@@ -15243,7 +15312,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15333,7 +15402,7 @@
         <v>1.58</v>
       </c>
       <c r="AT72">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.24</v>
@@ -15521,10 +15590,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT73">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU73">
         <v>1.3</v>
@@ -15625,7 +15694,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15715,7 +15784,7 @@
         <v>1.4</v>
       </c>
       <c r="AT74">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15906,7 +15975,7 @@
         <v>2.25</v>
       </c>
       <c r="AT75">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU75">
         <v>1.48</v>
@@ -16094,10 +16163,10 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT76">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU76">
         <v>1.31</v>
@@ -16285,10 +16354,10 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT77">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU77">
         <v>2.05</v>
@@ -16476,10 +16545,10 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT78">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU78">
         <v>1.12</v>
@@ -16670,7 +16739,7 @@
         <v>1.82</v>
       </c>
       <c r="AT79">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU79">
         <v>1.27</v>
@@ -16858,10 +16927,10 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT80">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.69</v>
@@ -17049,10 +17118,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT81">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -17240,10 +17309,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT82">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU82">
         <v>1.36</v>
@@ -17344,7 +17413,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17431,10 +17500,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT83">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17622,10 +17691,10 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT84">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU84">
         <v>1.84</v>
@@ -17816,7 +17885,7 @@
         <v>1.6</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU85">
         <v>1.58</v>
@@ -18004,10 +18073,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT86">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU86">
         <v>1.24</v>
@@ -18198,7 +18267,7 @@
         <v>1.27</v>
       </c>
       <c r="AT87">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -18386,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT88">
         <v>0.64</v>
@@ -18490,7 +18559,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18580,7 +18649,7 @@
         <v>1.45</v>
       </c>
       <c r="AT89">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU89">
         <v>1.59</v>
@@ -18768,10 +18837,10 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU90">
         <v>1.26</v>
@@ -18959,10 +19028,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT91">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>1.97</v>
@@ -19150,10 +19219,10 @@
         <v>3</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT92">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU92">
         <v>1.11</v>
@@ -19341,10 +19410,10 @@
         <v>0.67</v>
       </c>
       <c r="AS93">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT93">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU93">
         <v>1.29</v>
@@ -19532,7 +19601,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT94">
         <v>0.82</v>
@@ -19723,10 +19792,10 @@
         <v>0.67</v>
       </c>
       <c r="AS95">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT95">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU95">
         <v>1.36</v>
@@ -19914,10 +19983,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT96">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.86</v>
@@ -20105,10 +20174,10 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT97">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU97">
         <v>1.83</v>
@@ -20296,10 +20365,10 @@
         <v>0.33</v>
       </c>
       <c r="AS98">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT98">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>2.05</v>
@@ -20490,7 +20559,7 @@
         <v>1.6</v>
       </c>
       <c r="AT99">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.49</v>
@@ -20678,10 +20747,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT100">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU100">
         <v>1.48</v>
@@ -20782,7 +20851,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20872,7 +20941,7 @@
         <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU101">
         <v>1.25</v>
@@ -20973,7 +21042,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21442,10 +21511,10 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT104">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU104">
         <v>1.41</v>
@@ -21633,7 +21702,7 @@
         <v>0.67</v>
       </c>
       <c r="AS105">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT105">
         <v>0.67</v>
@@ -21824,10 +21893,10 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU106">
         <v>1.15</v>
@@ -22018,7 +22087,7 @@
         <v>1.82</v>
       </c>
       <c r="AT107">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU107">
         <v>1.38</v>
@@ -22119,7 +22188,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22206,10 +22275,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT108">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU108">
         <v>1.02</v>
@@ -22397,10 +22466,10 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT109">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU109">
         <v>1.13</v>
@@ -22588,10 +22657,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT110">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU110">
         <v>1.56</v>
@@ -22692,7 +22761,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22779,10 +22848,10 @@
         <v>1.67</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT111">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU111">
         <v>1.69</v>
@@ -22883,7 +22952,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22973,7 +23042,7 @@
         <v>1.4</v>
       </c>
       <c r="AT112">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU112">
         <v>2.2</v>
@@ -23164,7 +23233,7 @@
         <v>1.27</v>
       </c>
       <c r="AT113">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU113">
         <v>1.37</v>
@@ -23352,10 +23421,10 @@
         <v>0.25</v>
       </c>
       <c r="AS114">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT114">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU114">
         <v>1.17</v>
@@ -23543,10 +23612,10 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT115">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU115">
         <v>1.21</v>
@@ -23647,7 +23716,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23734,10 +23803,10 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT116">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU116">
         <v>1.46</v>
@@ -23838,7 +23907,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23928,7 +23997,7 @@
         <v>1.6</v>
       </c>
       <c r="AT117">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU117">
         <v>1.49</v>
@@ -24029,7 +24098,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24119,7 +24188,7 @@
         <v>1.58</v>
       </c>
       <c r="AT118">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU118">
         <v>1.38</v>
@@ -24220,7 +24289,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24307,10 +24376,10 @@
         <v>0.75</v>
       </c>
       <c r="AS119">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT119">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU119">
         <v>1.66</v>
@@ -24498,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="AS120">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT120">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU120">
         <v>1.28</v>
@@ -24602,7 +24671,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24689,10 +24758,10 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT121">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU121">
         <v>1.3</v>
@@ -24880,7 +24949,7 @@
         <v>0.33</v>
       </c>
       <c r="AS122">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT122">
         <v>0.64</v>
@@ -25071,10 +25140,10 @@
         <v>2.25</v>
       </c>
       <c r="AS123">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT123">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25265,7 +25334,7 @@
         <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -25453,10 +25522,10 @@
         <v>2.25</v>
       </c>
       <c r="AS125">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT125">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU125">
         <v>1.74</v>
@@ -25644,7 +25713,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25835,10 +25904,10 @@
         <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU127">
         <v>1.32</v>
@@ -25939,7 +26008,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26029,7 +26098,7 @@
         <v>2.25</v>
       </c>
       <c r="AT128">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU128">
         <v>1.75</v>
@@ -26220,7 +26289,7 @@
         <v>1.45</v>
       </c>
       <c r="AT129">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU129">
         <v>1.59</v>
@@ -26408,10 +26477,10 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT130">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26602,7 +26671,7 @@
         <v>1.58</v>
       </c>
       <c r="AT131">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26793,7 +26862,7 @@
         <v>1.25</v>
       </c>
       <c r="AT132">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU132">
         <v>1.23</v>
@@ -26894,7 +26963,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26981,10 +27050,10 @@
         <v>0.2</v>
       </c>
       <c r="AS133">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT133">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU133">
         <v>1.66</v>
@@ -27085,7 +27154,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27172,10 +27241,10 @@
         <v>0</v>
       </c>
       <c r="AS134">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT134">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU134">
         <v>1.68</v>
@@ -27363,10 +27432,10 @@
         <v>0.4</v>
       </c>
       <c r="AS135">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT135">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU135">
         <v>1.16</v>
@@ -27467,7 +27536,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27554,7 +27623,7 @@
         <v>0.25</v>
       </c>
       <c r="AS136">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT136">
         <v>0.64</v>
@@ -27745,10 +27814,10 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -27936,7 +28005,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT138">
         <v>0.82</v>
@@ -28127,10 +28196,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT139">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU139">
         <v>1.22</v>
@@ -28509,10 +28578,10 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT141">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU141">
         <v>1.54</v>
@@ -28613,7 +28682,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28703,7 +28772,7 @@
         <v>1.27</v>
       </c>
       <c r="AT142">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU142">
         <v>1.33</v>
@@ -28891,10 +28960,10 @@
         <v>1.4</v>
       </c>
       <c r="AS143">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT143">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU143">
         <v>1.25</v>
@@ -29085,7 +29154,7 @@
         <v>1.27</v>
       </c>
       <c r="AT144">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -29273,10 +29342,10 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT145">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU145">
         <v>1.17</v>
@@ -29464,10 +29533,10 @@
         <v>0.25</v>
       </c>
       <c r="AS146">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29655,10 +29724,10 @@
         <v>0.75</v>
       </c>
       <c r="AS147">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT147">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU147">
         <v>1.24</v>
@@ -29846,7 +29915,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29950,7 +30019,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30141,7 +30210,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30228,10 +30297,10 @@
         <v>1.8</v>
       </c>
       <c r="AS150">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT150">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU150">
         <v>2</v>
@@ -30332,7 +30401,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30419,10 +30488,10 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT151">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>1.3</v>
@@ -30523,7 +30592,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30610,10 +30679,10 @@
         <v>0.33</v>
       </c>
       <c r="AS152">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT152">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU152">
         <v>1.67</v>
@@ -30801,10 +30870,10 @@
         <v>2</v>
       </c>
       <c r="AS153">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT153">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU153">
         <v>1.16</v>
@@ -30992,10 +31061,10 @@
         <v>0.33</v>
       </c>
       <c r="AS154">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT154">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -31096,7 +31165,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31183,10 +31252,10 @@
         <v>0.8</v>
       </c>
       <c r="AS155">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT155">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU155">
         <v>1.67</v>
@@ -31287,7 +31356,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31377,7 +31446,7 @@
         <v>2.25</v>
       </c>
       <c r="AT156">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU156">
         <v>1.85</v>
@@ -31478,7 +31547,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31568,7 +31637,7 @@
         <v>1.45</v>
       </c>
       <c r="AT157">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU157">
         <v>1.54</v>
@@ -31947,10 +32016,10 @@
         <v>0.6</v>
       </c>
       <c r="AS159">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT159">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU159">
         <v>1.17</v>
@@ -32138,10 +32207,10 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT160">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU160">
         <v>1.68</v>
@@ -32329,10 +32398,10 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT161">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU161">
         <v>1.45</v>
@@ -32433,7 +32502,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32520,10 +32589,10 @@
         <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT162">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU162">
         <v>1.32</v>
@@ -32624,7 +32693,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32711,10 +32780,10 @@
         <v>0.8</v>
       </c>
       <c r="AS163">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32815,7 +32884,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32902,10 +32971,10 @@
         <v>1.2</v>
       </c>
       <c r="AS164">
+        <v>1.33</v>
+      </c>
+      <c r="AT164">
         <v>1.18</v>
-      </c>
-      <c r="AT164">
-        <v>1.2</v>
       </c>
       <c r="AU164">
         <v>1.78</v>
@@ -33093,7 +33162,7 @@
         <v>0.75</v>
       </c>
       <c r="AS165">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT165">
         <v>0.67</v>
@@ -33478,7 +33547,7 @@
         <v>1.58</v>
       </c>
       <c r="AT167">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -33669,7 +33738,7 @@
         <v>1.25</v>
       </c>
       <c r="AT168">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU168">
         <v>1.41</v>
@@ -33857,7 +33926,7 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT169">
         <v>0.82</v>
@@ -33961,7 +34030,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34239,10 +34308,10 @@
         <v>0.5</v>
       </c>
       <c r="AS171">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT171">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU171">
         <v>1.27</v>
@@ -34433,7 +34502,7 @@
         <v>2.25</v>
       </c>
       <c r="AT172">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU172">
         <v>1.99</v>
@@ -34621,10 +34690,10 @@
         <v>1.17</v>
       </c>
       <c r="AS173">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT173">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU173">
         <v>1.67</v>
@@ -34725,7 +34794,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34812,10 +34881,10 @@
         <v>0.6</v>
       </c>
       <c r="AS174">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT174">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU174">
         <v>1.55</v>
@@ -35003,10 +35072,10 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT175">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -35298,7 +35367,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35385,10 +35454,10 @@
         <v>0.71</v>
       </c>
       <c r="AS177">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT177">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU177">
         <v>1.99</v>
@@ -35489,7 +35558,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35576,10 +35645,10 @@
         <v>0.8</v>
       </c>
       <c r="AS178">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT178">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU178">
         <v>1.6</v>
@@ -35767,10 +35836,10 @@
         <v>0.67</v>
       </c>
       <c r="AS179">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT179">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU179">
         <v>1.84</v>
@@ -35871,7 +35940,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35958,10 +36027,10 @@
         <v>0.43</v>
       </c>
       <c r="AS180">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT180">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU180">
         <v>1.57</v>
@@ -36149,7 +36218,7 @@
         <v>1.67</v>
       </c>
       <c r="AS181">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT181">
         <v>1.18</v>
@@ -36253,7 +36322,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36343,7 +36412,7 @@
         <v>1.27</v>
       </c>
       <c r="AT182">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36534,7 +36603,7 @@
         <v>1.45</v>
       </c>
       <c r="AT183">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU183">
         <v>1.47</v>
@@ -36635,7 +36704,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36722,10 +36791,10 @@
         <v>0.8</v>
       </c>
       <c r="AS184">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT184">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU184">
         <v>1.32</v>
@@ -36826,7 +36895,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36916,7 +36985,7 @@
         <v>1.27</v>
       </c>
       <c r="AT185">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU185">
         <v>1.29</v>
@@ -37104,10 +37173,10 @@
         <v>0.5</v>
       </c>
       <c r="AS186">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT186">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU186">
         <v>1.45</v>
@@ -37208,7 +37277,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37295,10 +37364,10 @@
         <v>0.83</v>
       </c>
       <c r="AS187">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT187">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU187">
         <v>1.19</v>
@@ -37489,7 +37558,7 @@
         <v>1.82</v>
       </c>
       <c r="AT188">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU188">
         <v>1.27</v>
@@ -37590,7 +37659,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37677,10 +37746,10 @@
         <v>0.8</v>
       </c>
       <c r="AS189">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT189">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU189">
         <v>1.61</v>
@@ -37868,10 +37937,10 @@
         <v>0.75</v>
       </c>
       <c r="AS190">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT190">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU190">
         <v>1.53</v>
@@ -38059,7 +38128,7 @@
         <v>0.33</v>
       </c>
       <c r="AS191">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT191">
         <v>0.64</v>
@@ -38163,7 +38232,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38250,10 +38319,10 @@
         <v>1.29</v>
       </c>
       <c r="AS192">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT192">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU192">
         <v>1.4</v>
@@ -38441,10 +38510,10 @@
         <v>1.67</v>
       </c>
       <c r="AS193">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT193">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU193">
         <v>2.02</v>
@@ -38545,7 +38614,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38635,7 +38704,7 @@
         <v>1.25</v>
       </c>
       <c r="AT194">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU194">
         <v>1.42</v>
@@ -38826,7 +38895,7 @@
         <v>1.58</v>
       </c>
       <c r="AT195">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU195">
         <v>1.42</v>
@@ -38927,7 +38996,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39017,7 +39086,7 @@
         <v>1.6</v>
       </c>
       <c r="AT196">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU196">
         <v>1.54</v>
@@ -39118,7 +39187,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39205,7 +39274,7 @@
         <v>0.6</v>
       </c>
       <c r="AS197">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT197">
         <v>1</v>
@@ -39396,10 +39465,10 @@
         <v>0.5</v>
       </c>
       <c r="AS198">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT198">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU198">
         <v>1.31</v>
@@ -39587,10 +39656,10 @@
         <v>1.17</v>
       </c>
       <c r="AS199">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT199">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU199">
         <v>1.21</v>
@@ -39691,7 +39760,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39778,10 +39847,10 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT200">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU200">
         <v>1.44</v>
@@ -39969,7 +40038,7 @@
         <v>0.5</v>
       </c>
       <c r="AS201">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT201">
         <v>0.67</v>
@@ -40073,7 +40142,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40160,10 +40229,10 @@
         <v>1.2</v>
       </c>
       <c r="AS202">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT202">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU202">
         <v>1.6</v>
@@ -40264,7 +40333,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40354,7 +40423,7 @@
         <v>1.4</v>
       </c>
       <c r="AT203">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU203">
         <v>2</v>
@@ -40542,10 +40611,10 @@
         <v>1.33</v>
       </c>
       <c r="AS204">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT204">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU204">
         <v>1.47</v>
@@ -40733,10 +40802,10 @@
         <v>0.57</v>
       </c>
       <c r="AS205">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT205">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU205">
         <v>1.65</v>
@@ -40837,7 +40906,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40924,10 +40993,10 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT206">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU206">
         <v>1.61</v>
@@ -41028,7 +41097,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41115,10 +41184,10 @@
         <v>0.67</v>
       </c>
       <c r="AS207">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT207">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU207">
         <v>1.6</v>
@@ -41219,7 +41288,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41306,7 +41375,7 @@
         <v>1.43</v>
       </c>
       <c r="AS208">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT208">
         <v>1.18</v>
@@ -41410,7 +41479,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41500,7 +41569,7 @@
         <v>1.6</v>
       </c>
       <c r="AT209">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU209">
         <v>1.63</v>
@@ -41688,10 +41757,10 @@
         <v>1.43</v>
       </c>
       <c r="AS210">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT210">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU210">
         <v>1.73</v>
@@ -41983,7 +42052,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42073,7 +42142,7 @@
         <v>1.45</v>
       </c>
       <c r="AT212">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU212">
         <v>1.51</v>
@@ -42174,7 +42243,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42455,7 +42524,7 @@
         <v>1.27</v>
       </c>
       <c r="AT214">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU214">
         <v>1.34</v>
@@ -42643,10 +42712,10 @@
         <v>1.5</v>
       </c>
       <c r="AS215">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT215">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU215">
         <v>1.48</v>
@@ -42747,7 +42816,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42834,10 +42903,10 @@
         <v>0.29</v>
       </c>
       <c r="AS216">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT216">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU216">
         <v>1.87</v>
@@ -43025,10 +43094,10 @@
         <v>1.29</v>
       </c>
       <c r="AS217">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT217">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU217">
         <v>1.69</v>
@@ -43129,7 +43198,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43216,7 +43285,7 @@
         <v>0.29</v>
       </c>
       <c r="AS218">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT218">
         <v>0.64</v>
@@ -43320,7 +43389,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43407,10 +43476,10 @@
         <v>0.33</v>
       </c>
       <c r="AS219">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT219">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU219">
         <v>2</v>
@@ -43789,10 +43858,10 @@
         <v>0.63</v>
       </c>
       <c r="AS221">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT221">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU221">
         <v>1.75</v>
@@ -43980,10 +44049,10 @@
         <v>0.44</v>
       </c>
       <c r="AS222">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT222">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU222">
         <v>1.7</v>
@@ -44084,7 +44153,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44171,10 +44240,10 @@
         <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT223">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU223">
         <v>1.62</v>
@@ -44275,7 +44344,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44365,7 +44434,7 @@
         <v>1.27</v>
       </c>
       <c r="AT224">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU224">
         <v>1.34</v>
@@ -44553,7 +44622,7 @@
         <v>0.71</v>
       </c>
       <c r="AS225">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT225">
         <v>1</v>
@@ -44657,7 +44726,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44747,7 +44816,7 @@
         <v>2.25</v>
       </c>
       <c r="AT226">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU226">
         <v>1.93</v>
@@ -44848,7 +44917,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -44935,10 +45004,10 @@
         <v>1.14</v>
       </c>
       <c r="AS227">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT227">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU227">
         <v>1.5</v>
@@ -45039,7 +45108,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45129,7 +45198,7 @@
         <v>1.82</v>
       </c>
       <c r="AT228">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU228">
         <v>1.31</v>
@@ -45317,10 +45386,10 @@
         <v>0.43</v>
       </c>
       <c r="AS229">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT229">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU229">
         <v>1.51</v>
@@ -45508,10 +45577,10 @@
         <v>0.29</v>
       </c>
       <c r="AS230">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT230">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU230">
         <v>1.61</v>
@@ -45699,7 +45768,7 @@
         <v>0.63</v>
       </c>
       <c r="AS231">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT231">
         <v>0.64</v>
@@ -45803,7 +45872,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45890,10 +45959,10 @@
         <v>0.67</v>
       </c>
       <c r="AS232">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT232">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU232">
         <v>2</v>
@@ -46084,7 +46153,7 @@
         <v>1.82</v>
       </c>
       <c r="AT233">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU233">
         <v>1.33</v>
@@ -46272,10 +46341,10 @@
         <v>0.88</v>
       </c>
       <c r="AS234">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT234">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU234">
         <v>1.99</v>
@@ -46376,7 +46445,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -46466,7 +46535,7 @@
         <v>1.27</v>
       </c>
       <c r="AT235">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU235">
         <v>1.32</v>
@@ -46657,7 +46726,7 @@
         <v>1.25</v>
       </c>
       <c r="AT236">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU236">
         <v>1.52</v>
@@ -46845,10 +46914,10 @@
         <v>1.22</v>
       </c>
       <c r="AS237">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT237">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU237">
         <v>1.85</v>
@@ -46949,7 +47018,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47036,10 +47105,10 @@
         <v>0.43</v>
       </c>
       <c r="AS238">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT238">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU238">
         <v>1.57</v>
@@ -47227,10 +47296,10 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT239">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU239">
         <v>1.34</v>
@@ -47609,10 +47678,10 @@
         <v>1.5</v>
       </c>
       <c r="AS241">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT241">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU241">
         <v>1.31</v>
@@ -47713,7 +47782,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -47800,10 +47869,10 @@
         <v>0.57</v>
       </c>
       <c r="AS242">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT242">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU242">
         <v>1.19</v>
@@ -47904,7 +47973,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -47991,10 +48060,10 @@
         <v>1</v>
       </c>
       <c r="AS243">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT243">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -48182,10 +48251,10 @@
         <v>0.38</v>
       </c>
       <c r="AS244">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT244">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU244">
         <v>1.94</v>
@@ -48373,10 +48442,10 @@
         <v>1.71</v>
       </c>
       <c r="AS245">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT245">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU245">
         <v>1.89</v>
@@ -48564,10 +48633,10 @@
         <v>1.43</v>
       </c>
       <c r="AS246">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT246">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU246">
         <v>1.41</v>
@@ -48755,10 +48824,10 @@
         <v>0.63</v>
       </c>
       <c r="AS247">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT247">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU247">
         <v>1.58</v>
@@ -48946,10 +49015,10 @@
         <v>1.13</v>
       </c>
       <c r="AS248">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT248">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU248">
         <v>1.53</v>
@@ -49137,10 +49206,10 @@
         <v>0.25</v>
       </c>
       <c r="AS249">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT249">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU249">
         <v>2.06</v>
@@ -49241,7 +49310,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49331,7 +49400,7 @@
         <v>1.6</v>
       </c>
       <c r="AT250">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU250">
         <v>1.62</v>
@@ -49432,7 +49501,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49522,7 +49591,7 @@
         <v>1.45</v>
       </c>
       <c r="AT251">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU251">
         <v>1.53</v>
@@ -49710,10 +49779,10 @@
         <v>2</v>
       </c>
       <c r="AS252">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT252">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU252">
         <v>1.53</v>
@@ -49814,7 +49883,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -49901,10 +49970,10 @@
         <v>1.29</v>
       </c>
       <c r="AS253">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT253">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU253">
         <v>1.69</v>
@@ -50005,7 +50074,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50092,10 +50161,10 @@
         <v>1.43</v>
       </c>
       <c r="AS254">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT254">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU254">
         <v>1.66</v>
@@ -50283,10 +50352,10 @@
         <v>0.67</v>
       </c>
       <c r="AS255">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT255">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU255">
         <v>1.38</v>
@@ -50387,7 +50456,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50477,7 +50546,7 @@
         <v>1.58</v>
       </c>
       <c r="AT256">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU256">
         <v>1.52</v>
@@ -50578,7 +50647,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -50665,10 +50734,10 @@
         <v>1.11</v>
       </c>
       <c r="AS257">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT257">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU257">
         <v>1.57</v>
@@ -50856,10 +50925,10 @@
         <v>1.5</v>
       </c>
       <c r="AS258">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT258">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU258">
         <v>1.37</v>
@@ -50960,7 +51029,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51047,10 +51116,10 @@
         <v>0.44</v>
       </c>
       <c r="AS259">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT259">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU259">
         <v>1.76</v>
@@ -51238,10 +51307,10 @@
         <v>0.5</v>
       </c>
       <c r="AS260">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT260">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU260">
         <v>1.3</v>
@@ -51342,7 +51411,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51429,7 +51498,7 @@
         <v>0.67</v>
       </c>
       <c r="AS261">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT261">
         <v>0.64</v>
@@ -51533,7 +51602,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -51620,10 +51689,10 @@
         <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT262">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU262">
         <v>1.65</v>
@@ -51811,10 +51880,10 @@
         <v>1.38</v>
       </c>
       <c r="AS263">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT263">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU263">
         <v>1.98</v>
@@ -51915,7 +51984,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52005,7 +52074,7 @@
         <v>1.4</v>
       </c>
       <c r="AT264">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU264">
         <v>1.93</v>
@@ -52193,7 +52262,7 @@
         <v>0.63</v>
       </c>
       <c r="AS265">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT265">
         <v>1</v>
@@ -52384,10 +52453,10 @@
         <v>1</v>
       </c>
       <c r="AS266">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT266">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU266">
         <v>1.5</v>
@@ -52488,7 +52557,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52575,10 +52644,10 @@
         <v>0.44</v>
       </c>
       <c r="AS267">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT267">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU267">
         <v>1.53</v>
@@ -52679,7 +52748,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -52766,10 +52835,10 @@
         <v>0.38</v>
       </c>
       <c r="AS268">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT268">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU268">
         <v>1.74</v>
@@ -52960,7 +53029,7 @@
         <v>1.45</v>
       </c>
       <c r="AT269">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU269">
         <v>1.49</v>
@@ -53151,7 +53220,7 @@
         <v>2.25</v>
       </c>
       <c r="AT270">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU270">
         <v>1.94</v>
@@ -53339,10 +53408,10 @@
         <v>0.89</v>
       </c>
       <c r="AS271">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT271">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU271">
         <v>1.58</v>
@@ -53533,7 +53602,7 @@
         <v>1.27</v>
       </c>
       <c r="AT272">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU272">
         <v>1.3</v>
@@ -53721,7 +53790,7 @@
         <v>0.89</v>
       </c>
       <c r="AS273">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT273">
         <v>1</v>
@@ -53912,10 +53981,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS274">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT274">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU274">
         <v>1.55</v>
@@ -54103,10 +54172,10 @@
         <v>0.67</v>
       </c>
       <c r="AS275">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT275">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU275">
         <v>1.54</v>
@@ -54207,7 +54276,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54294,10 +54363,10 @@
         <v>1.2</v>
       </c>
       <c r="AS276">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT276">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU276">
         <v>1.93</v>
@@ -54398,7 +54467,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54485,7 +54554,7 @@
         <v>0.43</v>
       </c>
       <c r="AS277">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT277">
         <v>0.67</v>
@@ -54676,10 +54745,10 @@
         <v>1.75</v>
       </c>
       <c r="AS278">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT278">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU278">
         <v>1.66</v>
@@ -54780,7 +54849,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -54867,10 +54936,10 @@
         <v>1.25</v>
       </c>
       <c r="AS279">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT279">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU279">
         <v>1.38</v>
@@ -54971,7 +55040,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55058,10 +55127,10 @@
         <v>0.5</v>
       </c>
       <c r="AS280">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT280">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU280">
         <v>1.61</v>
@@ -55162,7 +55231,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55252,7 +55321,7 @@
         <v>1.27</v>
       </c>
       <c r="AT281">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU281">
         <v>1.25</v>
@@ -55443,7 +55512,7 @@
         <v>2.25</v>
       </c>
       <c r="AT282">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU282">
         <v>1.9</v>
@@ -55544,7 +55613,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -55631,7 +55700,7 @@
         <v>1.33</v>
       </c>
       <c r="AS283">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT283">
         <v>1.18</v>
@@ -56016,7 +56085,7 @@
         <v>1.25</v>
       </c>
       <c r="AT285">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU285">
         <v>1.47</v>
@@ -56204,7 +56273,7 @@
         <v>0.75</v>
       </c>
       <c r="AS286">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT286">
         <v>0.67</v>
@@ -56398,7 +56467,7 @@
         <v>1.82</v>
       </c>
       <c r="AT287">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU287">
         <v>1.33</v>
@@ -56586,10 +56655,10 @@
         <v>0.7</v>
       </c>
       <c r="AS288">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT288">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU288">
         <v>1.54</v>
@@ -56777,10 +56846,10 @@
         <v>1.1</v>
       </c>
       <c r="AS289">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT289">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU289">
         <v>1.63</v>
@@ -56968,7 +57037,7 @@
         <v>0.9</v>
       </c>
       <c r="AS290">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT290">
         <v>0.82</v>
@@ -57072,7 +57141,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57159,10 +57228,10 @@
         <v>0.55</v>
       </c>
       <c r="AS291">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT291">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU291">
         <v>1.4</v>
@@ -57263,7 +57332,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -57350,10 +57419,10 @@
         <v>0.7</v>
       </c>
       <c r="AS292">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT292">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU292">
         <v>1.43</v>
@@ -57541,10 +57610,10 @@
         <v>0.5</v>
       </c>
       <c r="AS293">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT293">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU293">
         <v>1.64</v>
@@ -57732,10 +57801,10 @@
         <v>1.22</v>
       </c>
       <c r="AS294">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT294">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU294">
         <v>1.7</v>
@@ -57836,7 +57905,7 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -57926,7 +57995,7 @@
         <v>1.27</v>
       </c>
       <c r="AT295">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU295">
         <v>1.31</v>
@@ -58117,7 +58186,7 @@
         <v>1.58</v>
       </c>
       <c r="AT296">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU296">
         <v>1.54</v>
@@ -58218,7 +58287,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -58308,7 +58377,7 @@
         <v>1.82</v>
       </c>
       <c r="AT297">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU297">
         <v>1.26</v>
@@ -58499,7 +58568,7 @@
         <v>1.4</v>
       </c>
       <c r="AT298">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU298">
         <v>1.81</v>
@@ -58690,7 +58759,7 @@
         <v>1.6</v>
       </c>
       <c r="AT299">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU299">
         <v>1.6</v>
@@ -58791,7 +58860,7 @@
         <v>303</v>
       </c>
       <c r="P300" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -58881,7 +58950,7 @@
         <v>1.27</v>
       </c>
       <c r="AT300">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU300">
         <v>1.31</v>
@@ -59069,7 +59138,7 @@
         <v>1.3</v>
       </c>
       <c r="AS301">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT301">
         <v>1.18</v>
@@ -59263,7 +59332,7 @@
         <v>2.25</v>
       </c>
       <c r="AT302">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU302">
         <v>1.81</v>
@@ -59364,7 +59433,7 @@
         <v>96</v>
       </c>
       <c r="P303" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q303">
         <v>5</v>
@@ -59454,7 +59523,7 @@
         <v>1.25</v>
       </c>
       <c r="AT303">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU303">
         <v>1.43</v>
@@ -59555,7 +59624,7 @@
         <v>305</v>
       </c>
       <c r="P304" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="Q304">
         <v>6</v>
@@ -59645,7 +59714,7 @@
         <v>1.45</v>
       </c>
       <c r="AT304">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU304">
         <v>1.5</v>
@@ -59746,7 +59815,7 @@
         <v>96</v>
       </c>
       <c r="P305" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="Q305">
         <v>3</v>
@@ -59833,10 +59902,10 @@
         <v>0.8</v>
       </c>
       <c r="AS305">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT305">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU305">
         <v>1.4</v>
@@ -60024,10 +60093,10 @@
         <v>1.2</v>
       </c>
       <c r="AS306">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT306">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU306">
         <v>1.16</v>
@@ -60128,7 +60197,7 @@
         <v>306</v>
       </c>
       <c r="P307" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60215,10 +60284,10 @@
         <v>0.73</v>
       </c>
       <c r="AS307">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT307">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU307">
         <v>1.35</v>
@@ -60319,7 +60388,7 @@
         <v>307</v>
       </c>
       <c r="P308" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="Q308">
         <v>14</v>
@@ -60406,10 +60475,10 @@
         <v>0.89</v>
       </c>
       <c r="AS308">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT308">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU308">
         <v>1.62</v>
@@ -60597,10 +60666,10 @@
         <v>0.9</v>
       </c>
       <c r="AS309">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT309">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU309">
         <v>1.48</v>
@@ -60788,10 +60857,10 @@
         <v>1.67</v>
       </c>
       <c r="AS310">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT310">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU310">
         <v>1.96</v>
@@ -60892,7 +60961,7 @@
         <v>310</v>
       </c>
       <c r="P311" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="Q311">
         <v>8</v>
@@ -60979,10 +61048,10 @@
         <v>1.22</v>
       </c>
       <c r="AS311">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AT311">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU311">
         <v>1.82</v>
@@ -61170,7 +61239,7 @@
         <v>0.6</v>
       </c>
       <c r="AS312">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT312">
         <v>0.64</v>
@@ -61364,7 +61433,7 @@
         <v>1.4</v>
       </c>
       <c r="AT313">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU313">
         <v>1.76</v>
@@ -61416,6 +61485,4590 @@
       </c>
       <c r="BK313">
         <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:63">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>4926258</v>
+      </c>
+      <c r="C314" t="s">
+        <v>63</v>
+      </c>
+      <c r="D314" t="s">
+        <v>64</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45119.85416666666</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314" t="s">
+        <v>81</v>
+      </c>
+      <c r="H314" t="s">
+        <v>68</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>1</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314">
+        <v>2</v>
+      </c>
+      <c r="N314">
+        <v>3</v>
+      </c>
+      <c r="O314" t="s">
+        <v>312</v>
+      </c>
+      <c r="P314" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q314">
+        <v>5</v>
+      </c>
+      <c r="R314">
+        <v>4</v>
+      </c>
+      <c r="S314">
+        <v>9</v>
+      </c>
+      <c r="T314">
+        <v>2.75</v>
+      </c>
+      <c r="U314">
+        <v>2.1</v>
+      </c>
+      <c r="V314">
+        <v>3.5</v>
+      </c>
+      <c r="W314">
+        <v>1.36</v>
+      </c>
+      <c r="X314">
+        <v>2.9</v>
+      </c>
+      <c r="Y314">
+        <v>2.55</v>
+      </c>
+      <c r="Z314">
+        <v>1.44</v>
+      </c>
+      <c r="AA314">
+        <v>6.25</v>
+      </c>
+      <c r="AB314">
+        <v>1.1</v>
+      </c>
+      <c r="AC314">
+        <v>1.88</v>
+      </c>
+      <c r="AD314">
+        <v>3.4</v>
+      </c>
+      <c r="AE314">
+        <v>3.7</v>
+      </c>
+      <c r="AF314">
+        <v>1.04</v>
+      </c>
+      <c r="AG314">
+        <v>13.25</v>
+      </c>
+      <c r="AH314">
+        <v>1.23</v>
+      </c>
+      <c r="AI314">
+        <v>3.75</v>
+      </c>
+      <c r="AJ314">
+        <v>1.87</v>
+      </c>
+      <c r="AK314">
+        <v>1.87</v>
+      </c>
+      <c r="AL314">
+        <v>1.63</v>
+      </c>
+      <c r="AM314">
+        <v>2.1</v>
+      </c>
+      <c r="AN314">
+        <v>1.35</v>
+      </c>
+      <c r="AO314">
+        <v>1.3</v>
+      </c>
+      <c r="AP314">
+        <v>1.62</v>
+      </c>
+      <c r="AQ314">
+        <v>1.73</v>
+      </c>
+      <c r="AR314">
+        <v>1.4</v>
+      </c>
+      <c r="AS314">
+        <v>1.58</v>
+      </c>
+      <c r="AT314">
+        <v>1.55</v>
+      </c>
+      <c r="AU314">
+        <v>1.61</v>
+      </c>
+      <c r="AV314">
+        <v>1.43</v>
+      </c>
+      <c r="AW314">
+        <v>3.04</v>
+      </c>
+      <c r="AX314">
+        <v>1.55</v>
+      </c>
+      <c r="AY314">
+        <v>8</v>
+      </c>
+      <c r="AZ314">
+        <v>3.02</v>
+      </c>
+      <c r="BA314">
+        <v>1.36</v>
+      </c>
+      <c r="BB314">
+        <v>1.65</v>
+      </c>
+      <c r="BC314">
+        <v>2.12</v>
+      </c>
+      <c r="BD314">
+        <v>2.88</v>
+      </c>
+      <c r="BE314">
+        <v>4.1</v>
+      </c>
+      <c r="BF314">
+        <v>2</v>
+      </c>
+      <c r="BG314">
+        <v>4</v>
+      </c>
+      <c r="BH314">
+        <v>8</v>
+      </c>
+      <c r="BI314">
+        <v>2</v>
+      </c>
+      <c r="BJ314">
+        <v>10</v>
+      </c>
+      <c r="BK314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:63">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>4926257</v>
+      </c>
+      <c r="C315" t="s">
+        <v>63</v>
+      </c>
+      <c r="D315" t="s">
+        <v>64</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45119.85416666666</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315" t="s">
+        <v>80</v>
+      </c>
+      <c r="H315" t="s">
+        <v>66</v>
+      </c>
+      <c r="I315">
+        <v>2</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>2</v>
+      </c>
+      <c r="L315">
+        <v>2</v>
+      </c>
+      <c r="M315">
+        <v>1</v>
+      </c>
+      <c r="N315">
+        <v>3</v>
+      </c>
+      <c r="O315" t="s">
+        <v>313</v>
+      </c>
+      <c r="P315" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q315">
+        <v>5</v>
+      </c>
+      <c r="R315">
+        <v>7</v>
+      </c>
+      <c r="S315">
+        <v>12</v>
+      </c>
+      <c r="T315">
+        <v>2.45</v>
+      </c>
+      <c r="U315">
+        <v>2.4</v>
+      </c>
+      <c r="V315">
+        <v>4</v>
+      </c>
+      <c r="W315">
+        <v>1.28</v>
+      </c>
+      <c r="X315">
+        <v>3.6</v>
+      </c>
+      <c r="Y315">
+        <v>2.3</v>
+      </c>
+      <c r="Z315">
+        <v>1.57</v>
+      </c>
+      <c r="AA315">
+        <v>5</v>
+      </c>
+      <c r="AB315">
+        <v>1.15</v>
+      </c>
+      <c r="AC315">
+        <v>2</v>
+      </c>
+      <c r="AD315">
+        <v>3.5</v>
+      </c>
+      <c r="AE315">
+        <v>3.2</v>
+      </c>
+      <c r="AF315">
+        <v>1.02</v>
+      </c>
+      <c r="AG315">
+        <v>17</v>
+      </c>
+      <c r="AH315">
+        <v>1.18</v>
+      </c>
+      <c r="AI315">
+        <v>4.75</v>
+      </c>
+      <c r="AJ315">
+        <v>1.67</v>
+      </c>
+      <c r="AK315">
+        <v>2.1</v>
+      </c>
+      <c r="AL315">
+        <v>1.53</v>
+      </c>
+      <c r="AM315">
+        <v>2.5</v>
+      </c>
+      <c r="AN315">
+        <v>1.25</v>
+      </c>
+      <c r="AO315">
+        <v>1.2</v>
+      </c>
+      <c r="AP315">
+        <v>1.95</v>
+      </c>
+      <c r="AQ315">
+        <v>2.4</v>
+      </c>
+      <c r="AR315">
+        <v>1</v>
+      </c>
+      <c r="AS315">
+        <v>2.5</v>
+      </c>
+      <c r="AT315">
+        <v>0.92</v>
+      </c>
+      <c r="AU315">
+        <v>1.5</v>
+      </c>
+      <c r="AV315">
+        <v>1.17</v>
+      </c>
+      <c r="AW315">
+        <v>2.67</v>
+      </c>
+      <c r="AX315">
+        <v>1.95</v>
+      </c>
+      <c r="AY315">
+        <v>8</v>
+      </c>
+      <c r="AZ315">
+        <v>2.1</v>
+      </c>
+      <c r="BA315">
+        <v>1.26</v>
+      </c>
+      <c r="BB315">
+        <v>1.48</v>
+      </c>
+      <c r="BC315">
+        <v>1.88</v>
+      </c>
+      <c r="BD315">
+        <v>2.43</v>
+      </c>
+      <c r="BE315">
+        <v>3.3</v>
+      </c>
+      <c r="BF315">
+        <v>7</v>
+      </c>
+      <c r="BG315">
+        <v>12</v>
+      </c>
+      <c r="BH315">
+        <v>5</v>
+      </c>
+      <c r="BI315">
+        <v>10</v>
+      </c>
+      <c r="BJ315">
+        <v>12</v>
+      </c>
+      <c r="BK315">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="316" spans="1:63">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>4926260</v>
+      </c>
+      <c r="C316" t="s">
+        <v>63</v>
+      </c>
+      <c r="D316" t="s">
+        <v>64</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45119.89583333334</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316" t="s">
+        <v>92</v>
+      </c>
+      <c r="H316" t="s">
+        <v>89</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>2</v>
+      </c>
+      <c r="K316">
+        <v>2</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="M316">
+        <v>3</v>
+      </c>
+      <c r="N316">
+        <v>3</v>
+      </c>
+      <c r="O316" t="s">
+        <v>96</v>
+      </c>
+      <c r="P316" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q316">
+        <v>9</v>
+      </c>
+      <c r="R316">
+        <v>1</v>
+      </c>
+      <c r="S316">
+        <v>10</v>
+      </c>
+      <c r="T316">
+        <v>2.4</v>
+      </c>
+      <c r="U316">
+        <v>2.25</v>
+      </c>
+      <c r="V316">
+        <v>3.7</v>
+      </c>
+      <c r="W316">
+        <v>1.3</v>
+      </c>
+      <c r="X316">
+        <v>3.3</v>
+      </c>
+      <c r="Y316">
+        <v>2.35</v>
+      </c>
+      <c r="Z316">
+        <v>1.52</v>
+      </c>
+      <c r="AA316">
+        <v>5.75</v>
+      </c>
+      <c r="AB316">
+        <v>1.13</v>
+      </c>
+      <c r="AC316">
+        <v>1.79</v>
+      </c>
+      <c r="AD316">
+        <v>3.6</v>
+      </c>
+      <c r="AE316">
+        <v>3.8</v>
+      </c>
+      <c r="AF316">
+        <v>1.03</v>
+      </c>
+      <c r="AG316">
+        <v>16.75</v>
+      </c>
+      <c r="AH316">
+        <v>1.2</v>
+      </c>
+      <c r="AI316">
+        <v>4.6</v>
+      </c>
+      <c r="AJ316">
+        <v>1.59</v>
+      </c>
+      <c r="AK316">
+        <v>2.26</v>
+      </c>
+      <c r="AL316">
+        <v>1.58</v>
+      </c>
+      <c r="AM316">
+        <v>2.3</v>
+      </c>
+      <c r="AN316">
+        <v>1.3</v>
+      </c>
+      <c r="AO316">
+        <v>1.28</v>
+      </c>
+      <c r="AP316">
+        <v>1.85</v>
+      </c>
+      <c r="AQ316">
+        <v>2.3</v>
+      </c>
+      <c r="AR316">
+        <v>1.18</v>
+      </c>
+      <c r="AS316">
+        <v>2.09</v>
+      </c>
+      <c r="AT316">
+        <v>1.33</v>
+      </c>
+      <c r="AU316">
+        <v>1.39</v>
+      </c>
+      <c r="AV316">
+        <v>1.33</v>
+      </c>
+      <c r="AW316">
+        <v>2.72</v>
+      </c>
+      <c r="AX316">
+        <v>1.82</v>
+      </c>
+      <c r="AY316">
+        <v>8</v>
+      </c>
+      <c r="AZ316">
+        <v>2.33</v>
+      </c>
+      <c r="BA316">
+        <v>1.22</v>
+      </c>
+      <c r="BB316">
+        <v>1.42</v>
+      </c>
+      <c r="BC316">
+        <v>1.74</v>
+      </c>
+      <c r="BD316">
+        <v>2.23</v>
+      </c>
+      <c r="BE316">
+        <v>3</v>
+      </c>
+      <c r="BF316">
+        <v>7</v>
+      </c>
+      <c r="BG316">
+        <v>5</v>
+      </c>
+      <c r="BH316">
+        <v>10</v>
+      </c>
+      <c r="BI316">
+        <v>1</v>
+      </c>
+      <c r="BJ316">
+        <v>17</v>
+      </c>
+      <c r="BK316">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:63">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>4926261</v>
+      </c>
+      <c r="C317" t="s">
+        <v>63</v>
+      </c>
+      <c r="D317" t="s">
+        <v>64</v>
+      </c>
+      <c r="E317" s="2">
+        <v>45119.89583333334</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317" t="s">
+        <v>88</v>
+      </c>
+      <c r="H317" t="s">
+        <v>90</v>
+      </c>
+      <c r="I317">
+        <v>2</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>2</v>
+      </c>
+      <c r="L317">
+        <v>2</v>
+      </c>
+      <c r="M317">
+        <v>2</v>
+      </c>
+      <c r="N317">
+        <v>4</v>
+      </c>
+      <c r="O317" t="s">
+        <v>314</v>
+      </c>
+      <c r="P317" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q317">
+        <v>4</v>
+      </c>
+      <c r="R317">
+        <v>3</v>
+      </c>
+      <c r="S317">
+        <v>7</v>
+      </c>
+      <c r="T317">
+        <v>2.25</v>
+      </c>
+      <c r="U317">
+        <v>2.3</v>
+      </c>
+      <c r="V317">
+        <v>4.3</v>
+      </c>
+      <c r="W317">
+        <v>1.32</v>
+      </c>
+      <c r="X317">
+        <v>3.2</v>
+      </c>
+      <c r="Y317">
+        <v>2.4</v>
+      </c>
+      <c r="Z317">
+        <v>1.5</v>
+      </c>
+      <c r="AA317">
+        <v>6</v>
+      </c>
+      <c r="AB317">
+        <v>1.12</v>
+      </c>
+      <c r="AC317">
+        <v>2.11</v>
+      </c>
+      <c r="AD317">
+        <v>3.5</v>
+      </c>
+      <c r="AE317">
+        <v>3</v>
+      </c>
+      <c r="AF317">
+        <v>1.04</v>
+      </c>
+      <c r="AG317">
+        <v>15.5</v>
+      </c>
+      <c r="AH317">
+        <v>1.22</v>
+      </c>
+      <c r="AI317">
+        <v>4.4</v>
+      </c>
+      <c r="AJ317">
+        <v>1.59</v>
+      </c>
+      <c r="AK317">
+        <v>2.26</v>
+      </c>
+      <c r="AL317">
+        <v>1.67</v>
+      </c>
+      <c r="AM317">
+        <v>2.1</v>
+      </c>
+      <c r="AN317">
+        <v>1.24</v>
+      </c>
+      <c r="AO317">
+        <v>1.27</v>
+      </c>
+      <c r="AP317">
+        <v>2</v>
+      </c>
+      <c r="AQ317">
+        <v>1.45</v>
+      </c>
+      <c r="AR317">
+        <v>1.82</v>
+      </c>
+      <c r="AS317">
+        <v>1.42</v>
+      </c>
+      <c r="AT317">
+        <v>1.75</v>
+      </c>
+      <c r="AU317">
+        <v>1.72</v>
+      </c>
+      <c r="AV317">
+        <v>1.5</v>
+      </c>
+      <c r="AW317">
+        <v>3.22</v>
+      </c>
+      <c r="AX317">
+        <v>1.55</v>
+      </c>
+      <c r="AY317">
+        <v>8.5</v>
+      </c>
+      <c r="AZ317">
+        <v>3.01</v>
+      </c>
+      <c r="BA317">
+        <v>1.29</v>
+      </c>
+      <c r="BB317">
+        <v>1.53</v>
+      </c>
+      <c r="BC317">
+        <v>1.95</v>
+      </c>
+      <c r="BD317">
+        <v>2.55</v>
+      </c>
+      <c r="BE317">
+        <v>3.5</v>
+      </c>
+      <c r="BF317">
+        <v>5</v>
+      </c>
+      <c r="BG317">
+        <v>10</v>
+      </c>
+      <c r="BH317">
+        <v>6</v>
+      </c>
+      <c r="BI317">
+        <v>2</v>
+      </c>
+      <c r="BJ317">
+        <v>11</v>
+      </c>
+      <c r="BK317">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:63">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>4926262</v>
+      </c>
+      <c r="C318" t="s">
+        <v>63</v>
+      </c>
+      <c r="D318" t="s">
+        <v>64</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45119.89583333334</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318" t="s">
+        <v>65</v>
+      </c>
+      <c r="H318" t="s">
+        <v>72</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>1</v>
+      </c>
+      <c r="K318">
+        <v>1</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+      <c r="M318">
+        <v>2</v>
+      </c>
+      <c r="N318">
+        <v>2</v>
+      </c>
+      <c r="O318" t="s">
+        <v>96</v>
+      </c>
+      <c r="P318" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q318">
+        <v>7</v>
+      </c>
+      <c r="R318">
+        <v>3</v>
+      </c>
+      <c r="S318">
+        <v>10</v>
+      </c>
+      <c r="T318">
+        <v>2.55</v>
+      </c>
+      <c r="U318">
+        <v>2.25</v>
+      </c>
+      <c r="V318">
+        <v>4.2</v>
+      </c>
+      <c r="W318">
+        <v>1.36</v>
+      </c>
+      <c r="X318">
+        <v>3.1</v>
+      </c>
+      <c r="Y318">
+        <v>2.75</v>
+      </c>
+      <c r="Z318">
+        <v>1.42</v>
+      </c>
+      <c r="AA318">
+        <v>6.5</v>
+      </c>
+      <c r="AB318">
+        <v>1.09</v>
+      </c>
+      <c r="AC318">
+        <v>1.98</v>
+      </c>
+      <c r="AD318">
+        <v>3.3</v>
+      </c>
+      <c r="AE318">
+        <v>3.5</v>
+      </c>
+      <c r="AF318">
+        <v>1.03</v>
+      </c>
+      <c r="AG318">
+        <v>13</v>
+      </c>
+      <c r="AH318">
+        <v>1.28</v>
+      </c>
+      <c r="AI318">
+        <v>3.75</v>
+      </c>
+      <c r="AJ318">
+        <v>1.82</v>
+      </c>
+      <c r="AK318">
+        <v>1.92</v>
+      </c>
+      <c r="AL318">
+        <v>1.72</v>
+      </c>
+      <c r="AM318">
+        <v>2.05</v>
+      </c>
+      <c r="AN318">
+        <v>1.28</v>
+      </c>
+      <c r="AO318">
+        <v>1.22</v>
+      </c>
+      <c r="AP318">
+        <v>1.9</v>
+      </c>
+      <c r="AQ318">
+        <v>2.36</v>
+      </c>
+      <c r="AR318">
+        <v>1</v>
+      </c>
+      <c r="AS318">
+        <v>2.17</v>
+      </c>
+      <c r="AT318">
+        <v>1.17</v>
+      </c>
+      <c r="AU318">
+        <v>1.59</v>
+      </c>
+      <c r="AV318">
+        <v>1.38</v>
+      </c>
+      <c r="AW318">
+        <v>2.97</v>
+      </c>
+      <c r="AX318">
+        <v>1.64</v>
+      </c>
+      <c r="AY318">
+        <v>8</v>
+      </c>
+      <c r="AZ318">
+        <v>2.67</v>
+      </c>
+      <c r="BA318">
+        <v>1.28</v>
+      </c>
+      <c r="BB318">
+        <v>1.5</v>
+      </c>
+      <c r="BC318">
+        <v>1.93</v>
+      </c>
+      <c r="BD318">
+        <v>2.5</v>
+      </c>
+      <c r="BE318">
+        <v>3.45</v>
+      </c>
+      <c r="BF318">
+        <v>4</v>
+      </c>
+      <c r="BG318">
+        <v>6</v>
+      </c>
+      <c r="BH318">
+        <v>12</v>
+      </c>
+      <c r="BI318">
+        <v>3</v>
+      </c>
+      <c r="BJ318">
+        <v>16</v>
+      </c>
+      <c r="BK318">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:63">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>4926237</v>
+      </c>
+      <c r="C319" t="s">
+        <v>63</v>
+      </c>
+      <c r="D319" t="s">
+        <v>64</v>
+      </c>
+      <c r="E319" s="2">
+        <v>45119.91666666666</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319" t="s">
+        <v>84</v>
+      </c>
+      <c r="H319" t="s">
+        <v>77</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319">
+        <v>0</v>
+      </c>
+      <c r="O319" t="s">
+        <v>96</v>
+      </c>
+      <c r="P319" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q319">
+        <v>6</v>
+      </c>
+      <c r="R319">
+        <v>3</v>
+      </c>
+      <c r="S319">
+        <v>9</v>
+      </c>
+      <c r="T319">
+        <v>2.88</v>
+      </c>
+      <c r="U319">
+        <v>2.1</v>
+      </c>
+      <c r="V319">
+        <v>3.75</v>
+      </c>
+      <c r="W319">
+        <v>1.44</v>
+      </c>
+      <c r="X319">
+        <v>2.63</v>
+      </c>
+      <c r="Y319">
+        <v>3.25</v>
+      </c>
+      <c r="Z319">
+        <v>1.33</v>
+      </c>
+      <c r="AA319">
+        <v>9</v>
+      </c>
+      <c r="AB319">
+        <v>1.07</v>
+      </c>
+      <c r="AC319">
+        <v>2.2</v>
+      </c>
+      <c r="AD319">
+        <v>3.3</v>
+      </c>
+      <c r="AE319">
+        <v>3.3</v>
+      </c>
+      <c r="AF319">
+        <v>1.04</v>
+      </c>
+      <c r="AG319">
+        <v>13</v>
+      </c>
+      <c r="AH319">
+        <v>1.25</v>
+      </c>
+      <c r="AI319">
+        <v>3.6</v>
+      </c>
+      <c r="AJ319">
+        <v>1.89</v>
+      </c>
+      <c r="AK319">
+        <v>1.81</v>
+      </c>
+      <c r="AL319">
+        <v>1.91</v>
+      </c>
+      <c r="AM319">
+        <v>1.91</v>
+      </c>
+      <c r="AN319">
+        <v>1.29</v>
+      </c>
+      <c r="AO319">
+        <v>1.3</v>
+      </c>
+      <c r="AP319">
+        <v>1.7</v>
+      </c>
+      <c r="AQ319">
+        <v>0.8</v>
+      </c>
+      <c r="AR319">
+        <v>0.64</v>
+      </c>
+      <c r="AS319">
+        <v>0.83</v>
+      </c>
+      <c r="AT319">
+        <v>0.67</v>
+      </c>
+      <c r="AU319">
+        <v>1.46</v>
+      </c>
+      <c r="AV319">
+        <v>1.18</v>
+      </c>
+      <c r="AW319">
+        <v>2.64</v>
+      </c>
+      <c r="AX319">
+        <v>1.54</v>
+      </c>
+      <c r="AY319">
+        <v>6.25</v>
+      </c>
+      <c r="AZ319">
+        <v>3</v>
+      </c>
+      <c r="BA319">
+        <v>1.23</v>
+      </c>
+      <c r="BB319">
+        <v>1.44</v>
+      </c>
+      <c r="BC319">
+        <v>1.78</v>
+      </c>
+      <c r="BD319">
+        <v>2.35</v>
+      </c>
+      <c r="BE319">
+        <v>3.25</v>
+      </c>
+      <c r="BF319">
+        <v>2</v>
+      </c>
+      <c r="BG319">
+        <v>3</v>
+      </c>
+      <c r="BH319">
+        <v>7</v>
+      </c>
+      <c r="BI319">
+        <v>4</v>
+      </c>
+      <c r="BJ319">
+        <v>9</v>
+      </c>
+      <c r="BK319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:63">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>4926259</v>
+      </c>
+      <c r="C320" t="s">
+        <v>63</v>
+      </c>
+      <c r="D320" t="s">
+        <v>64</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45119.94722222222</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320" t="s">
+        <v>82</v>
+      </c>
+      <c r="H320" t="s">
+        <v>91</v>
+      </c>
+      <c r="I320">
+        <v>3</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>3</v>
+      </c>
+      <c r="L320">
+        <v>3</v>
+      </c>
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320">
+        <v>3</v>
+      </c>
+      <c r="O320" t="s">
+        <v>315</v>
+      </c>
+      <c r="P320" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>7</v>
+      </c>
+      <c r="S320">
+        <v>7</v>
+      </c>
+      <c r="T320">
+        <v>2.3</v>
+      </c>
+      <c r="U320">
+        <v>2.35</v>
+      </c>
+      <c r="V320">
+        <v>4.5</v>
+      </c>
+      <c r="W320">
+        <v>1.33</v>
+      </c>
+      <c r="X320">
+        <v>3.25</v>
+      </c>
+      <c r="Y320">
+        <v>2.5</v>
+      </c>
+      <c r="Z320">
+        <v>1.5</v>
+      </c>
+      <c r="AA320">
+        <v>5.5</v>
+      </c>
+      <c r="AB320">
+        <v>1.12</v>
+      </c>
+      <c r="AC320">
+        <v>1.73</v>
+      </c>
+      <c r="AD320">
+        <v>3.7</v>
+      </c>
+      <c r="AE320">
+        <v>4.15</v>
+      </c>
+      <c r="AF320">
+        <v>1.04</v>
+      </c>
+      <c r="AG320">
+        <v>10</v>
+      </c>
+      <c r="AH320">
+        <v>1.25</v>
+      </c>
+      <c r="AI320">
+        <v>3.75</v>
+      </c>
+      <c r="AJ320">
+        <v>1.69</v>
+      </c>
+      <c r="AK320">
+        <v>2.07</v>
+      </c>
+      <c r="AL320">
+        <v>1.7</v>
+      </c>
+      <c r="AM320">
+        <v>2.05</v>
+      </c>
+      <c r="AN320">
+        <v>1.18</v>
+      </c>
+      <c r="AO320">
+        <v>1.25</v>
+      </c>
+      <c r="AP320">
+        <v>2.1</v>
+      </c>
+      <c r="AQ320">
+        <v>1.5</v>
+      </c>
+      <c r="AR320">
+        <v>0.45</v>
+      </c>
+      <c r="AS320">
+        <v>1.75</v>
+      </c>
+      <c r="AT320">
+        <v>0.42</v>
+      </c>
+      <c r="AU320">
+        <v>1.12</v>
+      </c>
+      <c r="AV320">
+        <v>1.14</v>
+      </c>
+      <c r="AW320">
+        <v>2.26</v>
+      </c>
+      <c r="AX320">
+        <v>1.64</v>
+      </c>
+      <c r="AY320">
+        <v>8</v>
+      </c>
+      <c r="AZ320">
+        <v>2.67</v>
+      </c>
+      <c r="BA320">
+        <v>1.29</v>
+      </c>
+      <c r="BB320">
+        <v>1.53</v>
+      </c>
+      <c r="BC320">
+        <v>1.95</v>
+      </c>
+      <c r="BD320">
+        <v>2.55</v>
+      </c>
+      <c r="BE320">
+        <v>3.5</v>
+      </c>
+      <c r="BF320">
+        <v>6</v>
+      </c>
+      <c r="BG320">
+        <v>5</v>
+      </c>
+      <c r="BH320">
+        <v>0</v>
+      </c>
+      <c r="BI320">
+        <v>8</v>
+      </c>
+      <c r="BJ320">
+        <v>6</v>
+      </c>
+      <c r="BK320">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:63">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>4926263</v>
+      </c>
+      <c r="C321" t="s">
+        <v>63</v>
+      </c>
+      <c r="D321" t="s">
+        <v>64</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45119.97916666666</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321" t="s">
+        <v>85</v>
+      </c>
+      <c r="H321" t="s">
+        <v>76</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>1</v>
+      </c>
+      <c r="L321">
+        <v>2</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>2</v>
+      </c>
+      <c r="O321" t="s">
+        <v>316</v>
+      </c>
+      <c r="P321" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q321">
+        <v>5</v>
+      </c>
+      <c r="R321">
+        <v>3</v>
+      </c>
+      <c r="S321">
+        <v>8</v>
+      </c>
+      <c r="T321">
+        <v>2.9</v>
+      </c>
+      <c r="U321">
+        <v>2.15</v>
+      </c>
+      <c r="V321">
+        <v>3.3</v>
+      </c>
+      <c r="W321">
+        <v>1.35</v>
+      </c>
+      <c r="X321">
+        <v>2.95</v>
+      </c>
+      <c r="Y321">
+        <v>2.6</v>
+      </c>
+      <c r="Z321">
+        <v>1.45</v>
+      </c>
+      <c r="AA321">
+        <v>6.75</v>
+      </c>
+      <c r="AB321">
+        <v>1.1</v>
+      </c>
+      <c r="AC321">
+        <v>2.6</v>
+      </c>
+      <c r="AD321">
+        <v>3.2</v>
+      </c>
+      <c r="AE321">
+        <v>2.5</v>
+      </c>
+      <c r="AF321">
+        <v>1.05</v>
+      </c>
+      <c r="AG321">
+        <v>12.75</v>
+      </c>
+      <c r="AH321">
+        <v>1.26</v>
+      </c>
+      <c r="AI321">
+        <v>3.92</v>
+      </c>
+      <c r="AJ321">
+        <v>1.82</v>
+      </c>
+      <c r="AK321">
+        <v>1.92</v>
+      </c>
+      <c r="AL321">
+        <v>1.57</v>
+      </c>
+      <c r="AM321">
+        <v>2.25</v>
+      </c>
+      <c r="AN321">
+        <v>1.42</v>
+      </c>
+      <c r="AO321">
+        <v>1.32</v>
+      </c>
+      <c r="AP321">
+        <v>1.55</v>
+      </c>
+      <c r="AQ321">
+        <v>2</v>
+      </c>
+      <c r="AR321">
+        <v>1.4</v>
+      </c>
+      <c r="AS321">
+        <v>2.08</v>
+      </c>
+      <c r="AT321">
+        <v>1.27</v>
+      </c>
+      <c r="AU321">
+        <v>1.43</v>
+      </c>
+      <c r="AV321">
+        <v>1.29</v>
+      </c>
+      <c r="AW321">
+        <v>2.72</v>
+      </c>
+      <c r="AX321">
+        <v>1.75</v>
+      </c>
+      <c r="AY321">
+        <v>8</v>
+      </c>
+      <c r="AZ321">
+        <v>2.44</v>
+      </c>
+      <c r="BA321">
+        <v>1.22</v>
+      </c>
+      <c r="BB321">
+        <v>1.42</v>
+      </c>
+      <c r="BC321">
+        <v>1.74</v>
+      </c>
+      <c r="BD321">
+        <v>2.23</v>
+      </c>
+      <c r="BE321">
+        <v>3</v>
+      </c>
+      <c r="BF321">
+        <v>4</v>
+      </c>
+      <c r="BG321">
+        <v>3</v>
+      </c>
+      <c r="BH321">
+        <v>8</v>
+      </c>
+      <c r="BI321">
+        <v>1</v>
+      </c>
+      <c r="BJ321">
+        <v>12</v>
+      </c>
+      <c r="BK321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:63">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>4926264</v>
+      </c>
+      <c r="C322" t="s">
+        <v>63</v>
+      </c>
+      <c r="D322" t="s">
+        <v>64</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45119.97916666666</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322" t="s">
+        <v>75</v>
+      </c>
+      <c r="H322" t="s">
+        <v>73</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>1</v>
+      </c>
+      <c r="L322">
+        <v>2</v>
+      </c>
+      <c r="M322">
+        <v>1</v>
+      </c>
+      <c r="N322">
+        <v>3</v>
+      </c>
+      <c r="O322" t="s">
+        <v>317</v>
+      </c>
+      <c r="P322" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q322">
+        <v>7</v>
+      </c>
+      <c r="R322">
+        <v>3</v>
+      </c>
+      <c r="S322">
+        <v>10</v>
+      </c>
+      <c r="T322">
+        <v>2.2</v>
+      </c>
+      <c r="U322">
+        <v>2.35</v>
+      </c>
+      <c r="V322">
+        <v>4.5</v>
+      </c>
+      <c r="W322">
+        <v>1.3</v>
+      </c>
+      <c r="X322">
+        <v>3.3</v>
+      </c>
+      <c r="Y322">
+        <v>2.35</v>
+      </c>
+      <c r="Z322">
+        <v>1.52</v>
+      </c>
+      <c r="AA322">
+        <v>5.75</v>
+      </c>
+      <c r="AB322">
+        <v>1.13</v>
+      </c>
+      <c r="AC322">
+        <v>1.67</v>
+      </c>
+      <c r="AD322">
+        <v>4</v>
+      </c>
+      <c r="AE322">
+        <v>4</v>
+      </c>
+      <c r="AF322">
+        <v>1.02</v>
+      </c>
+      <c r="AG322">
+        <v>19</v>
+      </c>
+      <c r="AH322">
+        <v>1.18</v>
+      </c>
+      <c r="AI322">
+        <v>4.75</v>
+      </c>
+      <c r="AJ322">
+        <v>1.67</v>
+      </c>
+      <c r="AK322">
+        <v>2.1</v>
+      </c>
+      <c r="AL322">
+        <v>1.68</v>
+      </c>
+      <c r="AM322">
+        <v>2.05</v>
+      </c>
+      <c r="AN322">
+        <v>1.22</v>
+      </c>
+      <c r="AO322">
+        <v>1.18</v>
+      </c>
+      <c r="AP322">
+        <v>2.15</v>
+      </c>
+      <c r="AQ322">
+        <v>1.73</v>
+      </c>
+      <c r="AR322">
+        <v>1.1</v>
+      </c>
+      <c r="AS322">
+        <v>1.92</v>
+      </c>
+      <c r="AT322">
+        <v>1</v>
+      </c>
+      <c r="AU322">
+        <v>1.79</v>
+      </c>
+      <c r="AV322">
+        <v>1.27</v>
+      </c>
+      <c r="AW322">
+        <v>3.06</v>
+      </c>
+      <c r="AX322">
+        <v>1.41</v>
+      </c>
+      <c r="AY322">
+        <v>9</v>
+      </c>
+      <c r="AZ322">
+        <v>3.49</v>
+      </c>
+      <c r="BA322">
+        <v>1.24</v>
+      </c>
+      <c r="BB322">
+        <v>1.44</v>
+      </c>
+      <c r="BC322">
+        <v>1.8</v>
+      </c>
+      <c r="BD322">
+        <v>2.3</v>
+      </c>
+      <c r="BE322">
+        <v>3.1</v>
+      </c>
+      <c r="BF322">
+        <v>5</v>
+      </c>
+      <c r="BG322">
+        <v>3</v>
+      </c>
+      <c r="BH322">
+        <v>8</v>
+      </c>
+      <c r="BI322">
+        <v>5</v>
+      </c>
+      <c r="BJ322">
+        <v>13</v>
+      </c>
+      <c r="BK322">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:63">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>4926156</v>
+      </c>
+      <c r="C323" t="s">
+        <v>63</v>
+      </c>
+      <c r="D323" t="s">
+        <v>64</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45119.97916666666</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323" t="s">
+        <v>78</v>
+      </c>
+      <c r="H323" t="s">
+        <v>83</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>3</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>3</v>
+      </c>
+      <c r="O323" t="s">
+        <v>318</v>
+      </c>
+      <c r="P323" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q323">
+        <v>4</v>
+      </c>
+      <c r="R323">
+        <v>5</v>
+      </c>
+      <c r="S323">
+        <v>9</v>
+      </c>
+      <c r="T323">
+        <v>2.06</v>
+      </c>
+      <c r="U323">
+        <v>2.71</v>
+      </c>
+      <c r="V323">
+        <v>5.35</v>
+      </c>
+      <c r="W323">
+        <v>1.25</v>
+      </c>
+      <c r="X323">
+        <v>3.7</v>
+      </c>
+      <c r="Y323">
+        <v>2.25</v>
+      </c>
+      <c r="Z323">
+        <v>1.68</v>
+      </c>
+      <c r="AA323">
+        <v>4.65</v>
+      </c>
+      <c r="AB323">
+        <v>1.18</v>
+      </c>
+      <c r="AC323">
+        <v>1.48</v>
+      </c>
+      <c r="AD323">
+        <v>4.33</v>
+      </c>
+      <c r="AE323">
+        <v>5.5</v>
+      </c>
+      <c r="AF323">
+        <v>1.02</v>
+      </c>
+      <c r="AG323">
+        <v>19</v>
+      </c>
+      <c r="AH323">
+        <v>1.13</v>
+      </c>
+      <c r="AI323">
+        <v>5</v>
+      </c>
+      <c r="AJ323">
+        <v>1.5</v>
+      </c>
+      <c r="AK323">
+        <v>2.48</v>
+      </c>
+      <c r="AL323">
+        <v>1.57</v>
+      </c>
+      <c r="AM323">
+        <v>2.3</v>
+      </c>
+      <c r="AN323">
+        <v>1.18</v>
+      </c>
+      <c r="AO323">
+        <v>1.21</v>
+      </c>
+      <c r="AP323">
+        <v>2.57</v>
+      </c>
+      <c r="AQ323">
+        <v>1.91</v>
+      </c>
+      <c r="AR323">
+        <v>1.6</v>
+      </c>
+      <c r="AS323">
+        <v>2</v>
+      </c>
+      <c r="AT323">
+        <v>1.45</v>
+      </c>
+      <c r="AU323">
+        <v>1.93</v>
+      </c>
+      <c r="AV323">
+        <v>1.42</v>
+      </c>
+      <c r="AW323">
+        <v>3.35</v>
+      </c>
+      <c r="AX323">
+        <v>1.45</v>
+      </c>
+      <c r="AY323">
+        <v>9</v>
+      </c>
+      <c r="AZ323">
+        <v>3.32</v>
+      </c>
+      <c r="BA323">
+        <v>1.22</v>
+      </c>
+      <c r="BB323">
+        <v>1.42</v>
+      </c>
+      <c r="BC323">
+        <v>1.74</v>
+      </c>
+      <c r="BD323">
+        <v>2.23</v>
+      </c>
+      <c r="BE323">
+        <v>3</v>
+      </c>
+      <c r="BF323">
+        <v>4</v>
+      </c>
+      <c r="BG323">
+        <v>3</v>
+      </c>
+      <c r="BH323">
+        <v>5</v>
+      </c>
+      <c r="BI323">
+        <v>5</v>
+      </c>
+      <c r="BJ323">
+        <v>9</v>
+      </c>
+      <c r="BK323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:63">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>4926266</v>
+      </c>
+      <c r="C324" t="s">
+        <v>63</v>
+      </c>
+      <c r="D324" t="s">
+        <v>64</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45122.85416666666</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324" t="s">
+        <v>66</v>
+      </c>
+      <c r="H324" t="s">
+        <v>71</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>1</v>
+      </c>
+      <c r="K324">
+        <v>2</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324">
+        <v>2</v>
+      </c>
+      <c r="N324">
+        <v>3</v>
+      </c>
+      <c r="O324" t="s">
+        <v>124</v>
+      </c>
+      <c r="P324" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q324">
+        <v>7</v>
+      </c>
+      <c r="R324">
+        <v>1</v>
+      </c>
+      <c r="S324">
+        <v>8</v>
+      </c>
+      <c r="T324">
+        <v>2.63</v>
+      </c>
+      <c r="U324">
+        <v>2.25</v>
+      </c>
+      <c r="V324">
+        <v>3.75</v>
+      </c>
+      <c r="W324">
+        <v>1.33</v>
+      </c>
+      <c r="X324">
+        <v>3.25</v>
+      </c>
+      <c r="Y324">
+        <v>2.63</v>
+      </c>
+      <c r="Z324">
+        <v>1.44</v>
+      </c>
+      <c r="AA324">
+        <v>6.5</v>
+      </c>
+      <c r="AB324">
+        <v>1.11</v>
+      </c>
+      <c r="AC324">
+        <v>2.6</v>
+      </c>
+      <c r="AD324">
+        <v>3.4</v>
+      </c>
+      <c r="AE324">
+        <v>2.6</v>
+      </c>
+      <c r="AF324">
+        <v>1.04</v>
+      </c>
+      <c r="AG324">
+        <v>14</v>
+      </c>
+      <c r="AH324">
+        <v>1.23</v>
+      </c>
+      <c r="AI324">
+        <v>4.2</v>
+      </c>
+      <c r="AJ324">
+        <v>1.66</v>
+      </c>
+      <c r="AK324">
+        <v>2.14</v>
+      </c>
+      <c r="AL324">
+        <v>1.62</v>
+      </c>
+      <c r="AM324">
+        <v>2.2</v>
+      </c>
+      <c r="AN324">
+        <v>1.33</v>
+      </c>
+      <c r="AO324">
+        <v>1.28</v>
+      </c>
+      <c r="AP324">
+        <v>1.74</v>
+      </c>
+      <c r="AQ324">
+        <v>2.18</v>
+      </c>
+      <c r="AR324">
+        <v>1.5</v>
+      </c>
+      <c r="AS324">
+        <v>2</v>
+      </c>
+      <c r="AT324">
+        <v>1.64</v>
+      </c>
+      <c r="AU324">
+        <v>1.68</v>
+      </c>
+      <c r="AV324">
+        <v>1.28</v>
+      </c>
+      <c r="AW324">
+        <v>2.96</v>
+      </c>
+      <c r="AX324">
+        <v>1.62</v>
+      </c>
+      <c r="AY324">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ324">
+        <v>2.72</v>
+      </c>
+      <c r="BA324">
+        <v>1.23</v>
+      </c>
+      <c r="BB324">
+        <v>1.44</v>
+      </c>
+      <c r="BC324">
+        <v>1.95</v>
+      </c>
+      <c r="BD324">
+        <v>2.35</v>
+      </c>
+      <c r="BE324">
+        <v>3.25</v>
+      </c>
+      <c r="BF324">
+        <v>5</v>
+      </c>
+      <c r="BG324">
+        <v>5</v>
+      </c>
+      <c r="BH324">
+        <v>9</v>
+      </c>
+      <c r="BI324">
+        <v>5</v>
+      </c>
+      <c r="BJ324">
+        <v>14</v>
+      </c>
+      <c r="BK324">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:63">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>4926268</v>
+      </c>
+      <c r="C325" t="s">
+        <v>63</v>
+      </c>
+      <c r="D325" t="s">
+        <v>64</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45122.85416666666</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325" t="s">
+        <v>91</v>
+      </c>
+      <c r="H325" t="s">
+        <v>67</v>
+      </c>
+      <c r="I325">
+        <v>2</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>2</v>
+      </c>
+      <c r="L325">
+        <v>2</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>2</v>
+      </c>
+      <c r="O325" t="s">
+        <v>319</v>
+      </c>
+      <c r="P325" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q325">
+        <v>6</v>
+      </c>
+      <c r="R325">
+        <v>6</v>
+      </c>
+      <c r="S325">
+        <v>12</v>
+      </c>
+      <c r="T325">
+        <v>2.88</v>
+      </c>
+      <c r="U325">
+        <v>2.2</v>
+      </c>
+      <c r="V325">
+        <v>3.6</v>
+      </c>
+      <c r="W325">
+        <v>1.36</v>
+      </c>
+      <c r="X325">
+        <v>3</v>
+      </c>
+      <c r="Y325">
+        <v>2.75</v>
+      </c>
+      <c r="Z325">
+        <v>1.4</v>
+      </c>
+      <c r="AA325">
+        <v>7</v>
+      </c>
+      <c r="AB325">
+        <v>1.1</v>
+      </c>
+      <c r="AC325">
+        <v>2.3</v>
+      </c>
+      <c r="AD325">
+        <v>3.4</v>
+      </c>
+      <c r="AE325">
+        <v>2.88</v>
+      </c>
+      <c r="AF325">
+        <v>1.04</v>
+      </c>
+      <c r="AG325">
+        <v>12</v>
+      </c>
+      <c r="AH325">
+        <v>1.28</v>
+      </c>
+      <c r="AI325">
+        <v>3.6</v>
+      </c>
+      <c r="AJ325">
+        <v>1.76</v>
+      </c>
+      <c r="AK325">
+        <v>1.99</v>
+      </c>
+      <c r="AL325">
+        <v>1.7</v>
+      </c>
+      <c r="AM325">
+        <v>2.05</v>
+      </c>
+      <c r="AN325">
+        <v>1.4</v>
+      </c>
+      <c r="AO325">
+        <v>1.25</v>
+      </c>
+      <c r="AP325">
+        <v>1.63</v>
+      </c>
+      <c r="AQ325">
+        <v>2.1</v>
+      </c>
+      <c r="AR325">
+        <v>1.09</v>
+      </c>
+      <c r="AS325">
+        <v>2.18</v>
+      </c>
+      <c r="AT325">
+        <v>1</v>
+      </c>
+      <c r="AU325">
+        <v>1.39</v>
+      </c>
+      <c r="AV325">
+        <v>1.09</v>
+      </c>
+      <c r="AW325">
+        <v>2.48</v>
+      </c>
+      <c r="AX325">
+        <v>1.64</v>
+      </c>
+      <c r="AY325">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ325">
+        <v>2.67</v>
+      </c>
+      <c r="BA325">
+        <v>1.23</v>
+      </c>
+      <c r="BB325">
+        <v>1.44</v>
+      </c>
+      <c r="BC325">
+        <v>1.95</v>
+      </c>
+      <c r="BD325">
+        <v>2.35</v>
+      </c>
+      <c r="BE325">
+        <v>3.25</v>
+      </c>
+      <c r="BF325">
+        <v>8</v>
+      </c>
+      <c r="BG325">
+        <v>0</v>
+      </c>
+      <c r="BH325">
+        <v>6</v>
+      </c>
+      <c r="BI325">
+        <v>3</v>
+      </c>
+      <c r="BJ325">
+        <v>14</v>
+      </c>
+      <c r="BK325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:63">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>4926269</v>
+      </c>
+      <c r="C326" t="s">
+        <v>63</v>
+      </c>
+      <c r="D326" t="s">
+        <v>64</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45122.85416666666</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326" t="s">
+        <v>80</v>
+      </c>
+      <c r="H326" t="s">
+        <v>69</v>
+      </c>
+      <c r="I326">
+        <v>2</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>2</v>
+      </c>
+      <c r="L326">
+        <v>4</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>4</v>
+      </c>
+      <c r="O326" t="s">
+        <v>320</v>
+      </c>
+      <c r="P326" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q326">
+        <v>6</v>
+      </c>
+      <c r="R326">
+        <v>2</v>
+      </c>
+      <c r="S326">
+        <v>8</v>
+      </c>
+      <c r="T326">
+        <v>2.63</v>
+      </c>
+      <c r="U326">
+        <v>2.25</v>
+      </c>
+      <c r="V326">
+        <v>3.75</v>
+      </c>
+      <c r="W326">
+        <v>1.33</v>
+      </c>
+      <c r="X326">
+        <v>3.25</v>
+      </c>
+      <c r="Y326">
+        <v>2.63</v>
+      </c>
+      <c r="Z326">
+        <v>1.44</v>
+      </c>
+      <c r="AA326">
+        <v>6.5</v>
+      </c>
+      <c r="AB326">
+        <v>1.11</v>
+      </c>
+      <c r="AC326">
+        <v>2.1</v>
+      </c>
+      <c r="AD326">
+        <v>3.4</v>
+      </c>
+      <c r="AE326">
+        <v>3.4</v>
+      </c>
+      <c r="AF326">
+        <v>1.04</v>
+      </c>
+      <c r="AG326">
+        <v>13.5</v>
+      </c>
+      <c r="AH326">
+        <v>1.23</v>
+      </c>
+      <c r="AI326">
+        <v>4.18</v>
+      </c>
+      <c r="AJ326">
+        <v>1.7</v>
+      </c>
+      <c r="AK326">
+        <v>2.08</v>
+      </c>
+      <c r="AL326">
+        <v>1.62</v>
+      </c>
+      <c r="AM326">
+        <v>2.2</v>
+      </c>
+      <c r="AN326">
+        <v>1.35</v>
+      </c>
+      <c r="AO326">
+        <v>1.28</v>
+      </c>
+      <c r="AP326">
+        <v>1.71</v>
+      </c>
+      <c r="AQ326">
+        <v>2.45</v>
+      </c>
+      <c r="AR326">
+        <v>1.17</v>
+      </c>
+      <c r="AS326">
+        <v>2.5</v>
+      </c>
+      <c r="AT326">
+        <v>1.08</v>
+      </c>
+      <c r="AU326">
+        <v>1.51</v>
+      </c>
+      <c r="AV326">
+        <v>1.49</v>
+      </c>
+      <c r="AW326">
+        <v>3</v>
+      </c>
+      <c r="AX326">
+        <v>1.65</v>
+      </c>
+      <c r="AY326">
+        <v>9.1</v>
+      </c>
+      <c r="AZ326">
+        <v>2.65</v>
+      </c>
+      <c r="BA326">
+        <v>1.26</v>
+      </c>
+      <c r="BB326">
+        <v>1.5</v>
+      </c>
+      <c r="BC326">
+        <v>1.98</v>
+      </c>
+      <c r="BD326">
+        <v>2.5</v>
+      </c>
+      <c r="BE326">
+        <v>3.5</v>
+      </c>
+      <c r="BF326">
+        <v>9</v>
+      </c>
+      <c r="BG326">
+        <v>5</v>
+      </c>
+      <c r="BH326">
+        <v>7</v>
+      </c>
+      <c r="BI326">
+        <v>6</v>
+      </c>
+      <c r="BJ326">
+        <v>16</v>
+      </c>
+      <c r="BK326">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:63">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>4926270</v>
+      </c>
+      <c r="C327" t="s">
+        <v>63</v>
+      </c>
+      <c r="D327" t="s">
+        <v>64</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45122.85416666666</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327" t="s">
+        <v>72</v>
+      </c>
+      <c r="H327" t="s">
+        <v>86</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>1</v>
+      </c>
+      <c r="L327">
+        <v>2</v>
+      </c>
+      <c r="M327">
+        <v>1</v>
+      </c>
+      <c r="N327">
+        <v>3</v>
+      </c>
+      <c r="O327" t="s">
+        <v>321</v>
+      </c>
+      <c r="P327" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q327">
+        <v>3</v>
+      </c>
+      <c r="R327">
+        <v>6</v>
+      </c>
+      <c r="S327">
+        <v>9</v>
+      </c>
+      <c r="T327">
+        <v>2.4</v>
+      </c>
+      <c r="U327">
+        <v>2.25</v>
+      </c>
+      <c r="V327">
+        <v>4.5</v>
+      </c>
+      <c r="W327">
+        <v>1.33</v>
+      </c>
+      <c r="X327">
+        <v>3.25</v>
+      </c>
+      <c r="Y327">
+        <v>2.63</v>
+      </c>
+      <c r="Z327">
+        <v>1.44</v>
+      </c>
+      <c r="AA327">
+        <v>7</v>
+      </c>
+      <c r="AB327">
+        <v>1.1</v>
+      </c>
+      <c r="AC327">
+        <v>1.85</v>
+      </c>
+      <c r="AD327">
+        <v>3.5</v>
+      </c>
+      <c r="AE327">
+        <v>4</v>
+      </c>
+      <c r="AF327">
+        <v>1.03</v>
+      </c>
+      <c r="AG327">
+        <v>13</v>
+      </c>
+      <c r="AH327">
+        <v>1.22</v>
+      </c>
+      <c r="AI327">
+        <v>4</v>
+      </c>
+      <c r="AJ327">
+        <v>1.75</v>
+      </c>
+      <c r="AK327">
+        <v>2.01</v>
+      </c>
+      <c r="AL327">
+        <v>1.7</v>
+      </c>
+      <c r="AM327">
+        <v>2.05</v>
+      </c>
+      <c r="AN327">
+        <v>1.22</v>
+      </c>
+      <c r="AO327">
+        <v>1.22</v>
+      </c>
+      <c r="AP327">
+        <v>2</v>
+      </c>
+      <c r="AQ327">
+        <v>2.3</v>
+      </c>
+      <c r="AR327">
+        <v>0.77</v>
+      </c>
+      <c r="AS327">
+        <v>2.36</v>
+      </c>
+      <c r="AT327">
+        <v>0.71</v>
+      </c>
+      <c r="AU327">
+        <v>1.67</v>
+      </c>
+      <c r="AV327">
+        <v>1.12</v>
+      </c>
+      <c r="AW327">
+        <v>2.79</v>
+      </c>
+      <c r="AX327">
+        <v>1.42</v>
+      </c>
+      <c r="AY327">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ327">
+        <v>3.48</v>
+      </c>
+      <c r="BA327">
+        <v>1.3</v>
+      </c>
+      <c r="BB327">
+        <v>1.57</v>
+      </c>
+      <c r="BC327">
+        <v>1.98</v>
+      </c>
+      <c r="BD327">
+        <v>2.7</v>
+      </c>
+      <c r="BE327">
+        <v>3.8</v>
+      </c>
+      <c r="BF327">
+        <v>4</v>
+      </c>
+      <c r="BG327">
+        <v>4</v>
+      </c>
+      <c r="BH327">
+        <v>1</v>
+      </c>
+      <c r="BI327">
+        <v>6</v>
+      </c>
+      <c r="BJ327">
+        <v>5</v>
+      </c>
+      <c r="BK327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:63">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>4926273</v>
+      </c>
+      <c r="C328" t="s">
+        <v>63</v>
+      </c>
+      <c r="D328" t="s">
+        <v>64</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45122.89583333334</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328" t="s">
+        <v>89</v>
+      </c>
+      <c r="H328" t="s">
+        <v>78</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328">
+        <v>1</v>
+      </c>
+      <c r="K328">
+        <v>2</v>
+      </c>
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328">
+        <v>1</v>
+      </c>
+      <c r="N328">
+        <v>2</v>
+      </c>
+      <c r="O328" t="s">
+        <v>103</v>
+      </c>
+      <c r="P328" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q328">
+        <v>11</v>
+      </c>
+      <c r="R328">
+        <v>4</v>
+      </c>
+      <c r="S328">
+        <v>15</v>
+      </c>
+      <c r="T328">
+        <v>3.4</v>
+      </c>
+      <c r="U328">
+        <v>2.2</v>
+      </c>
+      <c r="V328">
+        <v>3.1</v>
+      </c>
+      <c r="W328">
+        <v>1.36</v>
+      </c>
+      <c r="X328">
+        <v>3</v>
+      </c>
+      <c r="Y328">
+        <v>2.75</v>
+      </c>
+      <c r="Z328">
+        <v>1.4</v>
+      </c>
+      <c r="AA328">
+        <v>7</v>
+      </c>
+      <c r="AB328">
+        <v>1.1</v>
+      </c>
+      <c r="AC328">
+        <v>2.5</v>
+      </c>
+      <c r="AD328">
+        <v>3.6</v>
+      </c>
+      <c r="AE328">
+        <v>2.6</v>
+      </c>
+      <c r="AF328">
+        <v>1.05</v>
+      </c>
+      <c r="AG328">
+        <v>13.25</v>
+      </c>
+      <c r="AH328">
+        <v>1.28</v>
+      </c>
+      <c r="AI328">
+        <v>3.7</v>
+      </c>
+      <c r="AJ328">
+        <v>1.62</v>
+      </c>
+      <c r="AK328">
+        <v>2.21</v>
+      </c>
+      <c r="AL328">
+        <v>1.75</v>
+      </c>
+      <c r="AM328">
+        <v>2</v>
+      </c>
+      <c r="AN328">
+        <v>1.54</v>
+      </c>
+      <c r="AO328">
+        <v>1.3</v>
+      </c>
+      <c r="AP328">
+        <v>1.45</v>
+      </c>
+      <c r="AQ328">
+        <v>1.22</v>
+      </c>
+      <c r="AR328">
+        <v>1.2</v>
+      </c>
+      <c r="AS328">
+        <v>1.2</v>
+      </c>
+      <c r="AT328">
+        <v>1.18</v>
+      </c>
+      <c r="AU328">
+        <v>1.7</v>
+      </c>
+      <c r="AV328">
+        <v>1.52</v>
+      </c>
+      <c r="AW328">
+        <v>3.22</v>
+      </c>
+      <c r="AX328">
+        <v>1.9</v>
+      </c>
+      <c r="AY328">
+        <v>9.4</v>
+      </c>
+      <c r="AZ328">
+        <v>2.17</v>
+      </c>
+      <c r="BA328">
+        <v>1.13</v>
+      </c>
+      <c r="BB328">
+        <v>1.31</v>
+      </c>
+      <c r="BC328">
+        <v>1.57</v>
+      </c>
+      <c r="BD328">
+        <v>1.98</v>
+      </c>
+      <c r="BE328">
+        <v>2.6</v>
+      </c>
+      <c r="BF328">
+        <v>4</v>
+      </c>
+      <c r="BG328">
+        <v>3</v>
+      </c>
+      <c r="BH328">
+        <v>9</v>
+      </c>
+      <c r="BI328">
+        <v>8</v>
+      </c>
+      <c r="BJ328">
+        <v>13</v>
+      </c>
+      <c r="BK328">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:63">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>4926272</v>
+      </c>
+      <c r="C329" t="s">
+        <v>63</v>
+      </c>
+      <c r="D329" t="s">
+        <v>64</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45122.89583333334</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329" t="s">
+        <v>82</v>
+      </c>
+      <c r="H329" t="s">
+        <v>87</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329">
+        <v>1</v>
+      </c>
+      <c r="O329" t="s">
+        <v>121</v>
+      </c>
+      <c r="P329" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q329">
+        <v>6</v>
+      </c>
+      <c r="R329">
+        <v>2</v>
+      </c>
+      <c r="S329">
+        <v>8</v>
+      </c>
+      <c r="T329">
+        <v>2.38</v>
+      </c>
+      <c r="U329">
+        <v>2.2</v>
+      </c>
+      <c r="V329">
+        <v>5</v>
+      </c>
+      <c r="W329">
+        <v>1.4</v>
+      </c>
+      <c r="X329">
+        <v>2.75</v>
+      </c>
+      <c r="Y329">
+        <v>3</v>
+      </c>
+      <c r="Z329">
+        <v>1.36</v>
+      </c>
+      <c r="AA329">
+        <v>8</v>
+      </c>
+      <c r="AB329">
+        <v>1.08</v>
+      </c>
+      <c r="AC329">
+        <v>1.8</v>
+      </c>
+      <c r="AD329">
+        <v>3.4</v>
+      </c>
+      <c r="AE329">
+        <v>4.6</v>
+      </c>
+      <c r="AF329">
+        <v>1.07</v>
+      </c>
+      <c r="AG329">
+        <v>10</v>
+      </c>
+      <c r="AH329">
+        <v>1.32</v>
+      </c>
+      <c r="AI329">
+        <v>3.42</v>
+      </c>
+      <c r="AJ329">
+        <v>1.72</v>
+      </c>
+      <c r="AK329">
+        <v>2.05</v>
+      </c>
+      <c r="AL329">
+        <v>1.91</v>
+      </c>
+      <c r="AM329">
+        <v>1.91</v>
+      </c>
+      <c r="AN329">
+        <v>1.18</v>
+      </c>
+      <c r="AO329">
+        <v>1.3</v>
+      </c>
+      <c r="AP329">
+        <v>2.04</v>
+      </c>
+      <c r="AQ329">
+        <v>1.64</v>
+      </c>
+      <c r="AR329">
+        <v>0.36</v>
+      </c>
+      <c r="AS329">
+        <v>1.75</v>
+      </c>
+      <c r="AT329">
+        <v>0.33</v>
+      </c>
+      <c r="AU329">
+        <v>1.11</v>
+      </c>
+      <c r="AV329">
+        <v>1.04</v>
+      </c>
+      <c r="AW329">
+        <v>2.15</v>
+      </c>
+      <c r="AX329">
+        <v>1.47</v>
+      </c>
+      <c r="AY329">
+        <v>9.6</v>
+      </c>
+      <c r="AZ329">
+        <v>3.32</v>
+      </c>
+      <c r="BA329">
+        <v>1.27</v>
+      </c>
+      <c r="BB329">
+        <v>1.5</v>
+      </c>
+      <c r="BC329">
+        <v>2</v>
+      </c>
+      <c r="BD329">
+        <v>2.5</v>
+      </c>
+      <c r="BE329">
+        <v>3.5</v>
+      </c>
+      <c r="BF329">
+        <v>6</v>
+      </c>
+      <c r="BG329">
+        <v>2</v>
+      </c>
+      <c r="BH329">
+        <v>7</v>
+      </c>
+      <c r="BI329">
+        <v>5</v>
+      </c>
+      <c r="BJ329">
+        <v>13</v>
+      </c>
+      <c r="BK329">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:63">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>4926267</v>
+      </c>
+      <c r="C330" t="s">
+        <v>63</v>
+      </c>
+      <c r="D330" t="s">
+        <v>64</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45122.89722222222</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330" t="s">
+        <v>68</v>
+      </c>
+      <c r="H330" t="s">
+        <v>65</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+      <c r="K330">
+        <v>2</v>
+      </c>
+      <c r="L330">
+        <v>3</v>
+      </c>
+      <c r="M330">
+        <v>1</v>
+      </c>
+      <c r="N330">
+        <v>4</v>
+      </c>
+      <c r="O330" t="s">
+        <v>322</v>
+      </c>
+      <c r="P330" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q330">
+        <v>7</v>
+      </c>
+      <c r="R330">
+        <v>0</v>
+      </c>
+      <c r="S330">
+        <v>7</v>
+      </c>
+      <c r="T330">
+        <v>2.75</v>
+      </c>
+      <c r="U330">
+        <v>2.2</v>
+      </c>
+      <c r="V330">
+        <v>4</v>
+      </c>
+      <c r="W330">
+        <v>1.4</v>
+      </c>
+      <c r="X330">
+        <v>2.75</v>
+      </c>
+      <c r="Y330">
+        <v>2.75</v>
+      </c>
+      <c r="Z330">
+        <v>1.4</v>
+      </c>
+      <c r="AA330">
+        <v>8</v>
+      </c>
+      <c r="AB330">
+        <v>1.08</v>
+      </c>
+      <c r="AC330">
+        <v>2.15</v>
+      </c>
+      <c r="AD330">
+        <v>3.3</v>
+      </c>
+      <c r="AE330">
+        <v>3.4</v>
+      </c>
+      <c r="AF330">
+        <v>1.06</v>
+      </c>
+      <c r="AG330">
+        <v>11.25</v>
+      </c>
+      <c r="AH330">
+        <v>1.31</v>
+      </c>
+      <c r="AI330">
+        <v>3.5</v>
+      </c>
+      <c r="AJ330">
+        <v>1.85</v>
+      </c>
+      <c r="AK330">
+        <v>1.89</v>
+      </c>
+      <c r="AL330">
+        <v>1.75</v>
+      </c>
+      <c r="AM330">
+        <v>2</v>
+      </c>
+      <c r="AN330">
+        <v>1.31</v>
+      </c>
+      <c r="AO330">
+        <v>1.3</v>
+      </c>
+      <c r="AP330">
+        <v>1.73</v>
+      </c>
+      <c r="AQ330">
+        <v>2.82</v>
+      </c>
+      <c r="AR330">
+        <v>1.09</v>
+      </c>
+      <c r="AS330">
+        <v>2.83</v>
+      </c>
+      <c r="AT330">
+        <v>1</v>
+      </c>
+      <c r="AU330">
+        <v>1.4</v>
+      </c>
+      <c r="AV330">
+        <v>1.12</v>
+      </c>
+      <c r="AW330">
+        <v>2.52</v>
+      </c>
+      <c r="AX330">
+        <v>1.66</v>
+      </c>
+      <c r="AY330">
+        <v>9.1</v>
+      </c>
+      <c r="AZ330">
+        <v>2.62</v>
+      </c>
+      <c r="BA330">
+        <v>1.26</v>
+      </c>
+      <c r="BB330">
+        <v>1.5</v>
+      </c>
+      <c r="BC330">
+        <v>2</v>
+      </c>
+      <c r="BD330">
+        <v>2.5</v>
+      </c>
+      <c r="BE330">
+        <v>3.5</v>
+      </c>
+      <c r="BF330">
+        <v>8</v>
+      </c>
+      <c r="BG330">
+        <v>2</v>
+      </c>
+      <c r="BH330">
+        <v>3</v>
+      </c>
+      <c r="BI330">
+        <v>4</v>
+      </c>
+      <c r="BJ330">
+        <v>11</v>
+      </c>
+      <c r="BK330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:63">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>4926274</v>
+      </c>
+      <c r="C331" t="s">
+        <v>63</v>
+      </c>
+      <c r="D331" t="s">
+        <v>64</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45122.91597222222</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331" t="s">
+        <v>83</v>
+      </c>
+      <c r="H331" t="s">
+        <v>70</v>
+      </c>
+      <c r="I331">
+        <v>2</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>2</v>
+      </c>
+      <c r="L331">
+        <v>3</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>3</v>
+      </c>
+      <c r="O331" t="s">
+        <v>323</v>
+      </c>
+      <c r="P331" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q331">
+        <v>8</v>
+      </c>
+      <c r="R331">
+        <v>6</v>
+      </c>
+      <c r="S331">
+        <v>14</v>
+      </c>
+      <c r="T331">
+        <v>2</v>
+      </c>
+      <c r="U331">
+        <v>2.35</v>
+      </c>
+      <c r="V331">
+        <v>5.25</v>
+      </c>
+      <c r="W331">
+        <v>1.3</v>
+      </c>
+      <c r="X331">
+        <v>3.3</v>
+      </c>
+      <c r="Y331">
+        <v>2.4</v>
+      </c>
+      <c r="Z331">
+        <v>1.52</v>
+      </c>
+      <c r="AA331">
+        <v>5.75</v>
+      </c>
+      <c r="AB331">
+        <v>1.13</v>
+      </c>
+      <c r="AC331">
+        <v>1.5</v>
+      </c>
+      <c r="AD331">
+        <v>4.2</v>
+      </c>
+      <c r="AE331">
+        <v>6</v>
+      </c>
+      <c r="AF331">
+        <v>1.03</v>
+      </c>
+      <c r="AG331">
+        <v>16</v>
+      </c>
+      <c r="AH331">
+        <v>1.21</v>
+      </c>
+      <c r="AI331">
+        <v>4.48</v>
+      </c>
+      <c r="AJ331">
+        <v>1.56</v>
+      </c>
+      <c r="AK331">
+        <v>2.33</v>
+      </c>
+      <c r="AL331">
+        <v>1.75</v>
+      </c>
+      <c r="AM331">
+        <v>2</v>
+      </c>
+      <c r="AN331">
+        <v>1.16</v>
+      </c>
+      <c r="AO331">
+        <v>1.23</v>
+      </c>
+      <c r="AP331">
+        <v>2.35</v>
+      </c>
+      <c r="AQ331">
+        <v>2</v>
+      </c>
+      <c r="AR331">
+        <v>0.4</v>
+      </c>
+      <c r="AS331">
+        <v>2.08</v>
+      </c>
+      <c r="AT331">
+        <v>0.36</v>
+      </c>
+      <c r="AU331">
+        <v>1.64</v>
+      </c>
+      <c r="AV331">
+        <v>1.31</v>
+      </c>
+      <c r="AW331">
+        <v>2.95</v>
+      </c>
+      <c r="AX331">
+        <v>1.35</v>
+      </c>
+      <c r="AY331">
+        <v>10.25</v>
+      </c>
+      <c r="AZ331">
+        <v>3.92</v>
+      </c>
+      <c r="BA331">
+        <v>1.23</v>
+      </c>
+      <c r="BB331">
+        <v>1.44</v>
+      </c>
+      <c r="BC331">
+        <v>1.93</v>
+      </c>
+      <c r="BD331">
+        <v>2.35</v>
+      </c>
+      <c r="BE331">
+        <v>3.25</v>
+      </c>
+      <c r="BF331">
+        <v>12</v>
+      </c>
+      <c r="BG331">
+        <v>4</v>
+      </c>
+      <c r="BH331">
+        <v>4</v>
+      </c>
+      <c r="BI331">
+        <v>4</v>
+      </c>
+      <c r="BJ331">
+        <v>16</v>
+      </c>
+      <c r="BK331">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:63">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>4926276</v>
+      </c>
+      <c r="C332" t="s">
+        <v>63</v>
+      </c>
+      <c r="D332" t="s">
+        <v>64</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45122.9375</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332" t="s">
+        <v>90</v>
+      </c>
+      <c r="H332" t="s">
+        <v>81</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>1</v>
+      </c>
+      <c r="L332">
+        <v>3</v>
+      </c>
+      <c r="M332">
+        <v>1</v>
+      </c>
+      <c r="N332">
+        <v>4</v>
+      </c>
+      <c r="O332" t="s">
+        <v>324</v>
+      </c>
+      <c r="P332" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q332">
+        <v>2</v>
+      </c>
+      <c r="R332">
+        <v>6</v>
+      </c>
+      <c r="S332">
+        <v>8</v>
+      </c>
+      <c r="T332">
+        <v>2.75</v>
+      </c>
+      <c r="U332">
+        <v>2.2</v>
+      </c>
+      <c r="V332">
+        <v>4</v>
+      </c>
+      <c r="W332">
+        <v>1.4</v>
+      </c>
+      <c r="X332">
+        <v>2.75</v>
+      </c>
+      <c r="Y332">
+        <v>2.75</v>
+      </c>
+      <c r="Z332">
+        <v>1.4</v>
+      </c>
+      <c r="AA332">
+        <v>8</v>
+      </c>
+      <c r="AB332">
+        <v>1.08</v>
+      </c>
+      <c r="AC332">
+        <v>2.38</v>
+      </c>
+      <c r="AD332">
+        <v>3.3</v>
+      </c>
+      <c r="AE332">
+        <v>3</v>
+      </c>
+      <c r="AF332">
+        <v>1.06</v>
+      </c>
+      <c r="AG332">
+        <v>11.5</v>
+      </c>
+      <c r="AH332">
+        <v>1.29</v>
+      </c>
+      <c r="AI332">
+        <v>3.67</v>
+      </c>
+      <c r="AJ332">
+        <v>1.8</v>
+      </c>
+      <c r="AK332">
+        <v>1.95</v>
+      </c>
+      <c r="AL332">
+        <v>1.7</v>
+      </c>
+      <c r="AM332">
+        <v>2.05</v>
+      </c>
+      <c r="AN332">
+        <v>1.32</v>
+      </c>
+      <c r="AO332">
+        <v>1.3</v>
+      </c>
+      <c r="AP332">
+        <v>1.73</v>
+      </c>
+      <c r="AQ332">
+        <v>1.18</v>
+      </c>
+      <c r="AR332">
+        <v>0.7</v>
+      </c>
+      <c r="AS332">
+        <v>1.33</v>
+      </c>
+      <c r="AT332">
+        <v>0.64</v>
+      </c>
+      <c r="AU332">
+        <v>1.92</v>
+      </c>
+      <c r="AV332">
+        <v>1.52</v>
+      </c>
+      <c r="AW332">
+        <v>3.44</v>
+      </c>
+      <c r="AX332">
+        <v>1.7</v>
+      </c>
+      <c r="AY332">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ332">
+        <v>2.55</v>
+      </c>
+      <c r="BA332">
+        <v>1.26</v>
+      </c>
+      <c r="BB332">
+        <v>1.5</v>
+      </c>
+      <c r="BC332">
+        <v>2</v>
+      </c>
+      <c r="BD332">
+        <v>2.5</v>
+      </c>
+      <c r="BE332">
+        <v>3.5</v>
+      </c>
+      <c r="BF332">
+        <v>5</v>
+      </c>
+      <c r="BG332">
+        <v>5</v>
+      </c>
+      <c r="BH332">
+        <v>5</v>
+      </c>
+      <c r="BI332">
+        <v>5</v>
+      </c>
+      <c r="BJ332">
+        <v>10</v>
+      </c>
+      <c r="BK332">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:63">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>4926275</v>
+      </c>
+      <c r="C333" t="s">
+        <v>63</v>
+      </c>
+      <c r="D333" t="s">
+        <v>64</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45122.9375</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333" t="s">
+        <v>84</v>
+      </c>
+      <c r="H333" t="s">
+        <v>92</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+      <c r="O333" t="s">
+        <v>96</v>
+      </c>
+      <c r="P333" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q333">
+        <v>10</v>
+      </c>
+      <c r="R333">
+        <v>1</v>
+      </c>
+      <c r="S333">
+        <v>11</v>
+      </c>
+      <c r="T333">
+        <v>2.88</v>
+      </c>
+      <c r="U333">
+        <v>2.2</v>
+      </c>
+      <c r="V333">
+        <v>3.75</v>
+      </c>
+      <c r="W333">
+        <v>1.4</v>
+      </c>
+      <c r="X333">
+        <v>2.75</v>
+      </c>
+      <c r="Y333">
+        <v>2.75</v>
+      </c>
+      <c r="Z333">
+        <v>1.4</v>
+      </c>
+      <c r="AA333">
+        <v>8</v>
+      </c>
+      <c r="AB333">
+        <v>1.08</v>
+      </c>
+      <c r="AC333">
+        <v>2.25</v>
+      </c>
+      <c r="AD333">
+        <v>3.4</v>
+      </c>
+      <c r="AE333">
+        <v>3.1</v>
+      </c>
+      <c r="AF333">
+        <v>1.05</v>
+      </c>
+      <c r="AG333">
+        <v>11.75</v>
+      </c>
+      <c r="AH333">
+        <v>1.29</v>
+      </c>
+      <c r="AI333">
+        <v>3.65</v>
+      </c>
+      <c r="AJ333">
+        <v>1.81</v>
+      </c>
+      <c r="AK333">
+        <v>1.93</v>
+      </c>
+      <c r="AL333">
+        <v>1.75</v>
+      </c>
+      <c r="AM333">
+        <v>2</v>
+      </c>
+      <c r="AN333">
+        <v>1.38</v>
+      </c>
+      <c r="AO333">
+        <v>1.32</v>
+      </c>
+      <c r="AP333">
+        <v>1.62</v>
+      </c>
+      <c r="AQ333">
+        <v>0.82</v>
+      </c>
+      <c r="AR333">
+        <v>0.45</v>
+      </c>
+      <c r="AS333">
+        <v>0.83</v>
+      </c>
+      <c r="AT333">
+        <v>0.5</v>
+      </c>
+      <c r="AU333">
+        <v>1.42</v>
+      </c>
+      <c r="AV333">
+        <v>1.27</v>
+      </c>
+      <c r="AW333">
+        <v>2.69</v>
+      </c>
+      <c r="AX333">
+        <v>1.58</v>
+      </c>
+      <c r="AY333">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ333">
+        <v>2.9</v>
+      </c>
+      <c r="BA333">
+        <v>1.23</v>
+      </c>
+      <c r="BB333">
+        <v>1.44</v>
+      </c>
+      <c r="BC333">
+        <v>1.9</v>
+      </c>
+      <c r="BD333">
+        <v>2.35</v>
+      </c>
+      <c r="BE333">
+        <v>3.25</v>
+      </c>
+      <c r="BF333">
+        <v>4</v>
+      </c>
+      <c r="BG333">
+        <v>3</v>
+      </c>
+      <c r="BH333">
+        <v>5</v>
+      </c>
+      <c r="BI333">
+        <v>2</v>
+      </c>
+      <c r="BJ333">
+        <v>9</v>
+      </c>
+      <c r="BK333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:63">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>4926271</v>
+      </c>
+      <c r="C334" t="s">
+        <v>63</v>
+      </c>
+      <c r="D334" t="s">
+        <v>64</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45122.9375</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334" t="s">
+        <v>73</v>
+      </c>
+      <c r="H334" t="s">
+        <v>88</v>
+      </c>
+      <c r="I334">
+        <v>2</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+      <c r="K334">
+        <v>3</v>
+      </c>
+      <c r="L334">
+        <v>2</v>
+      </c>
+      <c r="M334">
+        <v>1</v>
+      </c>
+      <c r="N334">
+        <v>3</v>
+      </c>
+      <c r="O334" t="s">
+        <v>325</v>
+      </c>
+      <c r="P334" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q334">
+        <v>3</v>
+      </c>
+      <c r="R334">
+        <v>2</v>
+      </c>
+      <c r="S334">
+        <v>5</v>
+      </c>
+      <c r="T334">
+        <v>2.75</v>
+      </c>
+      <c r="U334">
+        <v>2.2</v>
+      </c>
+      <c r="V334">
+        <v>4</v>
+      </c>
+      <c r="W334">
+        <v>1.4</v>
+      </c>
+      <c r="X334">
+        <v>2.75</v>
+      </c>
+      <c r="Y334">
+        <v>2.75</v>
+      </c>
+      <c r="Z334">
+        <v>1.4</v>
+      </c>
+      <c r="AA334">
+        <v>8</v>
+      </c>
+      <c r="AB334">
+        <v>1.08</v>
+      </c>
+      <c r="AC334">
+        <v>2.1</v>
+      </c>
+      <c r="AD334">
+        <v>3.4</v>
+      </c>
+      <c r="AE334">
+        <v>3.4</v>
+      </c>
+      <c r="AF334">
+        <v>1.06</v>
+      </c>
+      <c r="AG334">
+        <v>11.5</v>
+      </c>
+      <c r="AH334">
+        <v>1.28</v>
+      </c>
+      <c r="AI334">
+        <v>3.7</v>
+      </c>
+      <c r="AJ334">
+        <v>1.66</v>
+      </c>
+      <c r="AK334">
+        <v>2.14</v>
+      </c>
+      <c r="AL334">
+        <v>1.7</v>
+      </c>
+      <c r="AM334">
+        <v>2.05</v>
+      </c>
+      <c r="AN334">
+        <v>1.32</v>
+      </c>
+      <c r="AO334">
+        <v>1.3</v>
+      </c>
+      <c r="AP334">
+        <v>1.74</v>
+      </c>
+      <c r="AQ334">
+        <v>1.64</v>
+      </c>
+      <c r="AR334">
+        <v>0.75</v>
+      </c>
+      <c r="AS334">
+        <v>1.75</v>
+      </c>
+      <c r="AT334">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU334">
+        <v>1.53</v>
+      </c>
+      <c r="AV334">
+        <v>1.41</v>
+      </c>
+      <c r="AW334">
+        <v>2.94</v>
+      </c>
+      <c r="AX334">
+        <v>1.93</v>
+      </c>
+      <c r="AY334">
+        <v>9.1</v>
+      </c>
+      <c r="AZ334">
+        <v>2.15</v>
+      </c>
+      <c r="BA334">
+        <v>1.21</v>
+      </c>
+      <c r="BB334">
+        <v>1.4</v>
+      </c>
+      <c r="BC334">
+        <v>1.71</v>
+      </c>
+      <c r="BD334">
+        <v>2.2</v>
+      </c>
+      <c r="BE334">
+        <v>3</v>
+      </c>
+      <c r="BF334">
+        <v>7</v>
+      </c>
+      <c r="BG334">
+        <v>4</v>
+      </c>
+      <c r="BH334">
+        <v>2</v>
+      </c>
+      <c r="BI334">
+        <v>2</v>
+      </c>
+      <c r="BJ334">
+        <v>9</v>
+      </c>
+      <c r="BK334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:63">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>4926277</v>
+      </c>
+      <c r="C335" t="s">
+        <v>63</v>
+      </c>
+      <c r="D335" t="s">
+        <v>64</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45122.97916666666</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335" t="s">
+        <v>77</v>
+      </c>
+      <c r="H335" t="s">
+        <v>79</v>
+      </c>
+      <c r="I335">
+        <v>2</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+      <c r="K335">
+        <v>3</v>
+      </c>
+      <c r="L335">
+        <v>3</v>
+      </c>
+      <c r="M335">
+        <v>2</v>
+      </c>
+      <c r="N335">
+        <v>5</v>
+      </c>
+      <c r="O335" t="s">
+        <v>326</v>
+      </c>
+      <c r="P335" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q335">
+        <v>4</v>
+      </c>
+      <c r="R335">
+        <v>7</v>
+      </c>
+      <c r="S335">
+        <v>11</v>
+      </c>
+      <c r="T335">
+        <v>2.75</v>
+      </c>
+      <c r="U335">
+        <v>2.25</v>
+      </c>
+      <c r="V335">
+        <v>3.2</v>
+      </c>
+      <c r="W335">
+        <v>1.32</v>
+      </c>
+      <c r="X335">
+        <v>3.1</v>
+      </c>
+      <c r="Y335">
+        <v>2.4</v>
+      </c>
+      <c r="Z335">
+        <v>1.5</v>
+      </c>
+      <c r="AA335">
+        <v>5.3</v>
+      </c>
+      <c r="AB335">
+        <v>1.12</v>
+      </c>
+      <c r="AC335">
+        <v>2.2</v>
+      </c>
+      <c r="AD335">
+        <v>3.4</v>
+      </c>
+      <c r="AE335">
+        <v>3</v>
+      </c>
+      <c r="AF335">
+        <v>1.01</v>
+      </c>
+      <c r="AG335">
+        <v>11</v>
+      </c>
+      <c r="AH335">
+        <v>1.2</v>
+      </c>
+      <c r="AI335">
+        <v>4</v>
+      </c>
+      <c r="AJ335">
+        <v>1.65</v>
+      </c>
+      <c r="AK335">
+        <v>2.16</v>
+      </c>
+      <c r="AL335">
+        <v>1.5</v>
+      </c>
+      <c r="AM335">
+        <v>2.4</v>
+      </c>
+      <c r="AN335">
+        <v>1.42</v>
+      </c>
+      <c r="AO335">
+        <v>1.22</v>
+      </c>
+      <c r="AP335">
+        <v>1.55</v>
+      </c>
+      <c r="AQ335">
+        <v>1.5</v>
+      </c>
+      <c r="AR335">
+        <v>0.9</v>
+      </c>
+      <c r="AS335">
+        <v>1.64</v>
+      </c>
+      <c r="AT335">
+        <v>0.82</v>
+      </c>
+      <c r="AU335">
+        <v>1.62</v>
+      </c>
+      <c r="AV335">
+        <v>1.36</v>
+      </c>
+      <c r="AW335">
+        <v>2.98</v>
+      </c>
+      <c r="AX335">
+        <v>1.92</v>
+      </c>
+      <c r="AY335">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ335">
+        <v>2.18</v>
+      </c>
+      <c r="BA335">
+        <v>1.3</v>
+      </c>
+      <c r="BB335">
+        <v>1.55</v>
+      </c>
+      <c r="BC335">
+        <v>1.98</v>
+      </c>
+      <c r="BD335">
+        <v>2.65</v>
+      </c>
+      <c r="BE335">
+        <v>3.8</v>
+      </c>
+      <c r="BF335">
+        <v>6</v>
+      </c>
+      <c r="BG335">
+        <v>6</v>
+      </c>
+      <c r="BH335">
+        <v>5</v>
+      </c>
+      <c r="BI335">
+        <v>7</v>
+      </c>
+      <c r="BJ335">
+        <v>11</v>
+      </c>
+      <c r="BK335">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:63">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>4926278</v>
+      </c>
+      <c r="C336" t="s">
+        <v>63</v>
+      </c>
+      <c r="D336" t="s">
+        <v>64</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45122.97916666666</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336" t="s">
+        <v>76</v>
+      </c>
+      <c r="H336" t="s">
+        <v>74</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336">
+        <v>1</v>
+      </c>
+      <c r="K336">
+        <v>2</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+      <c r="M336">
+        <v>1</v>
+      </c>
+      <c r="N336">
+        <v>2</v>
+      </c>
+      <c r="O336" t="s">
+        <v>327</v>
+      </c>
+      <c r="P336" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q336">
+        <v>14</v>
+      </c>
+      <c r="R336">
+        <v>1</v>
+      </c>
+      <c r="S336">
+        <v>15</v>
+      </c>
+      <c r="T336">
+        <v>2.38</v>
+      </c>
+      <c r="U336">
+        <v>2.1</v>
+      </c>
+      <c r="V336">
+        <v>5.5</v>
+      </c>
+      <c r="W336">
+        <v>1.44</v>
+      </c>
+      <c r="X336">
+        <v>2.63</v>
+      </c>
+      <c r="Y336">
+        <v>3.25</v>
+      </c>
+      <c r="Z336">
+        <v>1.33</v>
+      </c>
+      <c r="AA336">
+        <v>9</v>
+      </c>
+      <c r="AB336">
+        <v>1.07</v>
+      </c>
+      <c r="AC336">
+        <v>1.8</v>
+      </c>
+      <c r="AD336">
+        <v>3.5</v>
+      </c>
+      <c r="AE336">
+        <v>4.5</v>
+      </c>
+      <c r="AF336">
+        <v>1.07</v>
+      </c>
+      <c r="AG336">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH336">
+        <v>1.38</v>
+      </c>
+      <c r="AI336">
+        <v>3.08</v>
+      </c>
+      <c r="AJ336">
+        <v>2.02</v>
+      </c>
+      <c r="AK336">
+        <v>1.74</v>
+      </c>
+      <c r="AL336">
+        <v>2</v>
+      </c>
+      <c r="AM336">
+        <v>1.75</v>
+      </c>
+      <c r="AN336">
+        <v>1.18</v>
+      </c>
+      <c r="AO336">
+        <v>1.28</v>
+      </c>
+      <c r="AP336">
+        <v>2.08</v>
+      </c>
+      <c r="AQ336">
+        <v>1.75</v>
+      </c>
+      <c r="AR336">
+        <v>0.82</v>
+      </c>
+      <c r="AS336">
+        <v>1.69</v>
+      </c>
+      <c r="AT336">
+        <v>0.83</v>
+      </c>
+      <c r="AU336">
+        <v>1.62</v>
+      </c>
+      <c r="AV336">
+        <v>1.27</v>
+      </c>
+      <c r="AW336">
+        <v>2.89</v>
+      </c>
+      <c r="AX336">
+        <v>1.43</v>
+      </c>
+      <c r="AY336">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ336">
+        <v>3.42</v>
+      </c>
+      <c r="BA336">
+        <v>1.27</v>
+      </c>
+      <c r="BB336">
+        <v>1.5</v>
+      </c>
+      <c r="BC336">
+        <v>2</v>
+      </c>
+      <c r="BD336">
+        <v>2.5</v>
+      </c>
+      <c r="BE336">
+        <v>3.5</v>
+      </c>
+      <c r="BF336">
+        <v>3</v>
+      </c>
+      <c r="BG336">
+        <v>3</v>
+      </c>
+      <c r="BH336">
+        <v>10</v>
+      </c>
+      <c r="BI336">
+        <v>1</v>
+      </c>
+      <c r="BJ336">
+        <v>13</v>
+      </c>
+      <c r="BK336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:63">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>4926279</v>
+      </c>
+      <c r="C337" t="s">
+        <v>63</v>
+      </c>
+      <c r="D337" t="s">
+        <v>64</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45122.97916666666</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337" t="s">
+        <v>75</v>
+      </c>
+      <c r="H337" t="s">
+        <v>93</v>
+      </c>
+      <c r="I337">
+        <v>3</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>3</v>
+      </c>
+      <c r="L337">
+        <v>4</v>
+      </c>
+      <c r="M337">
+        <v>2</v>
+      </c>
+      <c r="N337">
+        <v>6</v>
+      </c>
+      <c r="O337" t="s">
+        <v>328</v>
+      </c>
+      <c r="P337" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q337">
+        <v>4</v>
+      </c>
+      <c r="R337">
+        <v>7</v>
+      </c>
+      <c r="S337">
+        <v>11</v>
+      </c>
+      <c r="T337">
+        <v>2.3</v>
+      </c>
+      <c r="U337">
+        <v>2.38</v>
+      </c>
+      <c r="V337">
+        <v>4.5</v>
+      </c>
+      <c r="W337">
+        <v>1.33</v>
+      </c>
+      <c r="X337">
+        <v>3.25</v>
+      </c>
+      <c r="Y337">
+        <v>2.5</v>
+      </c>
+      <c r="Z337">
+        <v>1.5</v>
+      </c>
+      <c r="AA337">
+        <v>6</v>
+      </c>
+      <c r="AB337">
+        <v>1.13</v>
+      </c>
+      <c r="AC337">
+        <v>1.75</v>
+      </c>
+      <c r="AD337">
+        <v>3.8</v>
+      </c>
+      <c r="AE337">
+        <v>4.2</v>
+      </c>
+      <c r="AF337">
+        <v>1.04</v>
+      </c>
+      <c r="AG337">
+        <v>15.25</v>
+      </c>
+      <c r="AH337">
+        <v>1.2</v>
+      </c>
+      <c r="AI337">
+        <v>4.57</v>
+      </c>
+      <c r="AJ337">
+        <v>1.45</v>
+      </c>
+      <c r="AK337">
+        <v>2.63</v>
+      </c>
+      <c r="AL337">
+        <v>1.67</v>
+      </c>
+      <c r="AM337">
+        <v>2.1</v>
+      </c>
+      <c r="AN337">
+        <v>1.22</v>
+      </c>
+      <c r="AO337">
+        <v>1.26</v>
+      </c>
+      <c r="AP337">
+        <v>2.02</v>
+      </c>
+      <c r="AQ337">
+        <v>1.83</v>
+      </c>
+      <c r="AR337">
+        <v>0.73</v>
+      </c>
+      <c r="AS337">
+        <v>1.92</v>
+      </c>
+      <c r="AT337">
+        <v>0.67</v>
+      </c>
+      <c r="AU337">
+        <v>1.77</v>
+      </c>
+      <c r="AV337">
+        <v>1.27</v>
+      </c>
+      <c r="AW337">
+        <v>3.04</v>
+      </c>
+      <c r="AX337">
+        <v>1.58</v>
+      </c>
+      <c r="AY337">
+        <v>9.6</v>
+      </c>
+      <c r="AZ337">
+        <v>2.87</v>
+      </c>
+      <c r="BA337">
+        <v>1.23</v>
+      </c>
+      <c r="BB337">
+        <v>1.44</v>
+      </c>
+      <c r="BC337">
+        <v>1.83</v>
+      </c>
+      <c r="BD337">
+        <v>2.35</v>
+      </c>
+      <c r="BE337">
+        <v>3.25</v>
+      </c>
+      <c r="BF337">
+        <v>10</v>
+      </c>
+      <c r="BG337">
+        <v>7</v>
+      </c>
+      <c r="BH337">
+        <v>7</v>
+      </c>
+      <c r="BI337">
+        <v>2</v>
+      </c>
+      <c r="BJ337">
+        <v>17</v>
+      </c>
+      <c r="BK337">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -946,16 +946,16 @@
     <t>['23', '41', '78', '88']</t>
   </si>
   <si>
+    <t>['15', '45+1', '76']</t>
+  </si>
+  <si>
     <t>['24', '72']</t>
   </si>
   <si>
-    <t>['15', '45+1', '76']</t>
+    <t>['4', '9']</t>
   </si>
   <si>
     <t>['28']</t>
-  </si>
-  <si>
-    <t>['4', '9']</t>
   </si>
   <si>
     <t>['30', '36']</t>
@@ -964,13 +964,13 @@
     <t>['9', '11', '33']</t>
   </si>
   <si>
+    <t>['72', '82', '90+2']</t>
+  </si>
+  <si>
     <t>['19', '64']</t>
   </si>
   <si>
     <t>['1', '72']</t>
-  </si>
-  <si>
-    <t>['72', '82', '90+2']</t>
   </si>
   <si>
     <t>['29', '31']</t>
@@ -1303,10 +1303,10 @@
     <t>['52', '68']</t>
   </si>
   <si>
-    <t>['59', '68']</t>
+    <t>['54']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['59', '68']</t>
   </si>
   <si>
     <t>['25', '62']</t>
@@ -1321,13 +1321,13 @@
     <t>['80', '90+3']</t>
   </si>
   <si>
-    <t>['15', '20', '87']</t>
+    <t>['40', '84']</t>
   </si>
   <si>
     <t>['46', '72']</t>
   </si>
   <si>
-    <t>['40', '84']</t>
+    <t>['15', '20', '87']</t>
   </si>
   <si>
     <t>['25', '60']</t>
@@ -3279,7 +3279,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -39760,7 +39760,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -59582,7 +59582,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>4926242</v>
+        <v>4926246</v>
       </c>
       <c r="C304" t="s">
         <v>63</v>
@@ -59597,10 +59597,10 @@
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="H304" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I304">
         <v>0</v>
@@ -59612,160 +59612,160 @@
         <v>0</v>
       </c>
       <c r="L304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N304">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O304" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="P304" t="s">
         <v>429</v>
       </c>
       <c r="Q304">
+        <v>3</v>
+      </c>
+      <c r="R304">
+        <v>3</v>
+      </c>
+      <c r="S304">
         <v>6</v>
       </c>
-      <c r="R304">
-        <v>2</v>
-      </c>
-      <c r="S304">
-        <v>8</v>
-      </c>
       <c r="T304">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="U304">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="V304">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="W304">
         <v>1.33</v>
       </c>
       <c r="X304">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Y304">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Z304">
         <v>1.5</v>
       </c>
       <c r="AA304">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB304">
         <v>1.11</v>
       </c>
       <c r="AC304">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AD304">
-        <v>3.7</v>
+        <v>3.52</v>
       </c>
       <c r="AE304">
-        <v>3.94</v>
+        <v>3.32</v>
       </c>
       <c r="AF304">
         <v>1.03</v>
       </c>
       <c r="AG304">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH304">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AI304">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AJ304">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AK304">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AL304">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="AM304">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AN304">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AO304">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AP304">
-        <v>2.45</v>
+        <v>1.62</v>
       </c>
       <c r="AQ304">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR304">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="AS304">
-        <v>1.45</v>
+        <v>2.18</v>
       </c>
       <c r="AT304">
-        <v>0.36</v>
+        <v>0.92</v>
       </c>
       <c r="AU304">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AV304">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AW304">
-        <v>2.81</v>
+        <v>2.6</v>
       </c>
       <c r="AX304">
-        <v>1.45</v>
+        <v>1.91</v>
       </c>
       <c r="AY304">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ304">
-        <v>3.33</v>
+        <v>2.2</v>
       </c>
       <c r="BA304">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="BB304">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="BC304">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="BD304">
-        <v>2.76</v>
+        <v>2.35</v>
       </c>
       <c r="BE304">
-        <v>3.74</v>
+        <v>3.25</v>
       </c>
       <c r="BF304">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BG304">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH304">
+        <v>9</v>
+      </c>
+      <c r="BI304">
+        <v>2</v>
+      </c>
+      <c r="BJ304">
+        <v>11</v>
+      </c>
+      <c r="BK304">
         <v>6</v>
-      </c>
-      <c r="BI304">
-        <v>3</v>
-      </c>
-      <c r="BJ304">
-        <v>16</v>
-      </c>
-      <c r="BK304">
-        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:63">
@@ -59773,7 +59773,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>4926246</v>
+        <v>4926242</v>
       </c>
       <c r="C305" t="s">
         <v>63</v>
@@ -59788,10 +59788,10 @@
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H305" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -59803,160 +59803,160 @@
         <v>0</v>
       </c>
       <c r="L305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N305">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O305" t="s">
-        <v>96</v>
+        <v>305</v>
       </c>
       <c r="P305" t="s">
         <v>430</v>
       </c>
       <c r="Q305">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S305">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T305">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="U305">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V305">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="W305">
         <v>1.33</v>
       </c>
       <c r="X305">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Y305">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Z305">
         <v>1.5</v>
       </c>
       <c r="AA305">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB305">
         <v>1.11</v>
       </c>
       <c r="AC305">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AD305">
-        <v>3.52</v>
+        <v>3.7</v>
       </c>
       <c r="AE305">
-        <v>3.32</v>
+        <v>3.94</v>
       </c>
       <c r="AF305">
         <v>1.03</v>
       </c>
       <c r="AG305">
+        <v>13</v>
+      </c>
+      <c r="AH305">
+        <v>1.22</v>
+      </c>
+      <c r="AI305">
+        <v>4.2</v>
+      </c>
+      <c r="AJ305">
+        <v>1.72</v>
+      </c>
+      <c r="AK305">
+        <v>2.12</v>
+      </c>
+      <c r="AL305">
+        <v>1.78</v>
+      </c>
+      <c r="AM305">
+        <v>2</v>
+      </c>
+      <c r="AN305">
+        <v>1.14</v>
+      </c>
+      <c r="AO305">
+        <v>1.18</v>
+      </c>
+      <c r="AP305">
+        <v>2.45</v>
+      </c>
+      <c r="AQ305">
+        <v>1.5</v>
+      </c>
+      <c r="AR305">
+        <v>0.33</v>
+      </c>
+      <c r="AS305">
+        <v>1.45</v>
+      </c>
+      <c r="AT305">
+        <v>0.36</v>
+      </c>
+      <c r="AU305">
+        <v>1.5</v>
+      </c>
+      <c r="AV305">
+        <v>1.31</v>
+      </c>
+      <c r="AW305">
+        <v>2.81</v>
+      </c>
+      <c r="AX305">
+        <v>1.45</v>
+      </c>
+      <c r="AY305">
+        <v>8.5</v>
+      </c>
+      <c r="AZ305">
+        <v>3.33</v>
+      </c>
+      <c r="BA305">
+        <v>1.33</v>
+      </c>
+      <c r="BB305">
+        <v>1.68</v>
+      </c>
+      <c r="BC305">
+        <v>2.07</v>
+      </c>
+      <c r="BD305">
+        <v>2.76</v>
+      </c>
+      <c r="BE305">
+        <v>3.74</v>
+      </c>
+      <c r="BF305">
+        <v>10</v>
+      </c>
+      <c r="BG305">
+        <v>7</v>
+      </c>
+      <c r="BH305">
+        <v>6</v>
+      </c>
+      <c r="BI305">
+        <v>3</v>
+      </c>
+      <c r="BJ305">
         <v>16</v>
       </c>
-      <c r="AH305">
-        <v>1.21</v>
-      </c>
-      <c r="AI305">
-        <v>4.4</v>
-      </c>
-      <c r="AJ305">
-        <v>1.7</v>
-      </c>
-      <c r="AK305">
-        <v>2.15</v>
-      </c>
-      <c r="AL305">
-        <v>1.62</v>
-      </c>
-      <c r="AM305">
-        <v>2.2</v>
-      </c>
-      <c r="AN305">
-        <v>1.38</v>
-      </c>
-      <c r="AO305">
-        <v>1.28</v>
-      </c>
-      <c r="AP305">
-        <v>1.62</v>
-      </c>
-      <c r="AQ305">
-        <v>2.33</v>
-      </c>
-      <c r="AR305">
-        <v>0.8</v>
-      </c>
-      <c r="AS305">
-        <v>2.18</v>
-      </c>
-      <c r="AT305">
-        <v>0.92</v>
-      </c>
-      <c r="AU305">
-        <v>1.4</v>
-      </c>
-      <c r="AV305">
-        <v>1.2</v>
-      </c>
-      <c r="AW305">
-        <v>2.6</v>
-      </c>
-      <c r="AX305">
-        <v>1.91</v>
-      </c>
-      <c r="AY305">
-        <v>8</v>
-      </c>
-      <c r="AZ305">
-        <v>2.2</v>
-      </c>
-      <c r="BA305">
-        <v>1.23</v>
-      </c>
-      <c r="BB305">
-        <v>1.44</v>
-      </c>
-      <c r="BC305">
-        <v>1.83</v>
-      </c>
-      <c r="BD305">
-        <v>2.35</v>
-      </c>
-      <c r="BE305">
-        <v>3.25</v>
-      </c>
-      <c r="BF305">
-        <v>2</v>
-      </c>
-      <c r="BG305">
-        <v>4</v>
-      </c>
-      <c r="BH305">
-        <v>9</v>
-      </c>
-      <c r="BI305">
-        <v>2</v>
-      </c>
-      <c r="BJ305">
-        <v>11</v>
-      </c>
       <c r="BK305">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:63">
@@ -60919,7 +60919,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>4926256</v>
+        <v>4926254</v>
       </c>
       <c r="C311" t="s">
         <v>63</v>
@@ -60934,151 +60934,151 @@
         <v>0</v>
       </c>
       <c r="G311" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H311" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N311">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O311" t="s">
         <v>310</v>
       </c>
       <c r="P311" t="s">
-        <v>433</v>
+        <v>120</v>
       </c>
       <c r="Q311">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R311">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S311">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T311">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="U311">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V311">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="W311">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X311">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y311">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Z311">
         <v>1.4</v>
       </c>
       <c r="AA311">
+        <v>7</v>
+      </c>
+      <c r="AB311">
+        <v>1.09</v>
+      </c>
+      <c r="AC311">
+        <v>2.19</v>
+      </c>
+      <c r="AD311">
+        <v>3.35</v>
+      </c>
+      <c r="AE311">
+        <v>2.66</v>
+      </c>
+      <c r="AF311">
+        <v>1.05</v>
+      </c>
+      <c r="AG311">
+        <v>9.25</v>
+      </c>
+      <c r="AH311">
+        <v>1.28</v>
+      </c>
+      <c r="AI311">
+        <v>3.4</v>
+      </c>
+      <c r="AJ311">
+        <v>1.8</v>
+      </c>
+      <c r="AK311">
+        <v>1.8</v>
+      </c>
+      <c r="AL311">
+        <v>1.7</v>
+      </c>
+      <c r="AM311">
+        <v>2</v>
+      </c>
+      <c r="AN311">
+        <v>1.39</v>
+      </c>
+      <c r="AO311">
+        <v>1.3</v>
+      </c>
+      <c r="AP311">
+        <v>1.57</v>
+      </c>
+      <c r="AQ311">
+        <v>1.22</v>
+      </c>
+      <c r="AR311">
+        <v>1.1</v>
+      </c>
+      <c r="AS311">
+        <v>1.4</v>
+      </c>
+      <c r="AT311">
+        <v>1.17</v>
+      </c>
+      <c r="AU311">
+        <v>1.76</v>
+      </c>
+      <c r="AV311">
+        <v>1.4</v>
+      </c>
+      <c r="AW311">
+        <v>3.16</v>
+      </c>
+      <c r="AX311">
+        <v>1.69</v>
+      </c>
+      <c r="AY311">
         <v>8</v>
       </c>
-      <c r="AB311">
-        <v>1.08</v>
-      </c>
-      <c r="AC311">
-        <v>2.08</v>
-      </c>
-      <c r="AD311">
-        <v>3.49</v>
-      </c>
-      <c r="AE311">
-        <v>3.56</v>
-      </c>
-      <c r="AF311">
-        <v>1.04</v>
-      </c>
-      <c r="AG311">
-        <v>11</v>
-      </c>
-      <c r="AH311">
-        <v>1.3</v>
-      </c>
-      <c r="AI311">
-        <v>3.5</v>
-      </c>
-      <c r="AJ311">
-        <v>1.89</v>
-      </c>
-      <c r="AK311">
-        <v>1.92</v>
-      </c>
-      <c r="AL311">
-        <v>1.75</v>
-      </c>
-      <c r="AM311">
-        <v>2</v>
-      </c>
-      <c r="AN311">
-        <v>1.3</v>
-      </c>
-      <c r="AO311">
-        <v>1.29</v>
-      </c>
-      <c r="AP311">
-        <v>1.72</v>
-      </c>
-      <c r="AQ311">
-        <v>1.9</v>
-      </c>
-      <c r="AR311">
-        <v>1.22</v>
-      </c>
-      <c r="AS311">
-        <v>1.92</v>
-      </c>
-      <c r="AT311">
-        <v>1.27</v>
-      </c>
-      <c r="AU311">
-        <v>1.82</v>
-      </c>
-      <c r="AV311">
-        <v>1.25</v>
-      </c>
-      <c r="AW311">
-        <v>3.07</v>
-      </c>
-      <c r="AX311">
-        <v>1.59</v>
-      </c>
-      <c r="AY311">
-        <v>8.5</v>
-      </c>
       <c r="AZ311">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="BA311">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BB311">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BC311">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="BD311">
         <v>2.2</v>
@@ -61087,22 +61087,22 @@
         <v>3</v>
       </c>
       <c r="BF311">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG311">
+        <v>3</v>
+      </c>
+      <c r="BH311">
         <v>7</v>
       </c>
-      <c r="BH311">
-        <v>6</v>
-      </c>
       <c r="BI311">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ311">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK311">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:63">
@@ -61301,7 +61301,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>4926254</v>
+        <v>4926256</v>
       </c>
       <c r="C313" t="s">
         <v>63</v>
@@ -61316,151 +61316,151 @@
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H313" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M313">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N313">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O313" t="s">
         <v>311</v>
       </c>
       <c r="P313" t="s">
-        <v>120</v>
+        <v>433</v>
       </c>
       <c r="Q313">
+        <v>8</v>
+      </c>
+      <c r="R313">
+        <v>7</v>
+      </c>
+      <c r="S313">
+        <v>15</v>
+      </c>
+      <c r="T313">
+        <v>2.75</v>
+      </c>
+      <c r="U313">
+        <v>2.2</v>
+      </c>
+      <c r="V313">
         <v>4</v>
       </c>
-      <c r="R313">
-        <v>1</v>
-      </c>
-      <c r="S313">
-        <v>5</v>
-      </c>
-      <c r="T313">
-        <v>2.87</v>
-      </c>
-      <c r="U313">
-        <v>2.1</v>
-      </c>
-      <c r="V313">
-        <v>3.4</v>
-      </c>
       <c r="W313">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X313">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y313">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Z313">
         <v>1.4</v>
       </c>
       <c r="AA313">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB313">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AC313">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AD313">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
       <c r="AE313">
-        <v>2.66</v>
+        <v>3.56</v>
       </c>
       <c r="AF313">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG313">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AH313">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AI313">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ313">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="AK313">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="AL313">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AM313">
         <v>2</v>
       </c>
       <c r="AN313">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AO313">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP313">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="AQ313">
+        <v>1.9</v>
+      </c>
+      <c r="AR313">
         <v>1.22</v>
       </c>
-      <c r="AR313">
-        <v>1.1</v>
-      </c>
       <c r="AS313">
+        <v>1.92</v>
+      </c>
+      <c r="AT313">
+        <v>1.27</v>
+      </c>
+      <c r="AU313">
+        <v>1.82</v>
+      </c>
+      <c r="AV313">
+        <v>1.25</v>
+      </c>
+      <c r="AW313">
+        <v>3.07</v>
+      </c>
+      <c r="AX313">
+        <v>1.59</v>
+      </c>
+      <c r="AY313">
+        <v>8.5</v>
+      </c>
+      <c r="AZ313">
+        <v>2.78</v>
+      </c>
+      <c r="BA313">
+        <v>1.21</v>
+      </c>
+      <c r="BB313">
         <v>1.4</v>
       </c>
-      <c r="AT313">
-        <v>1.17</v>
-      </c>
-      <c r="AU313">
-        <v>1.76</v>
-      </c>
-      <c r="AV313">
-        <v>1.4</v>
-      </c>
-      <c r="AW313">
-        <v>3.16</v>
-      </c>
-      <c r="AX313">
-        <v>1.69</v>
-      </c>
-      <c r="AY313">
-        <v>8</v>
-      </c>
-      <c r="AZ313">
-        <v>2.54</v>
-      </c>
-      <c r="BA313">
-        <v>1.2</v>
-      </c>
-      <c r="BB313">
-        <v>1.39</v>
-      </c>
       <c r="BC313">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="BD313">
         <v>2.2</v>
@@ -61469,22 +61469,22 @@
         <v>3</v>
       </c>
       <c r="BF313">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG313">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH313">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI313">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ313">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BK313">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:63">
@@ -61492,7 +61492,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>4926258</v>
+        <v>4926257</v>
       </c>
       <c r="C314" t="s">
         <v>63</v>
@@ -61507,25 +61507,25 @@
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H314" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J314">
         <v>0</v>
       </c>
       <c r="K314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N314">
         <v>3</v>
@@ -61534,148 +61534,148 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="Q314">
         <v>5</v>
       </c>
       <c r="R314">
+        <v>7</v>
+      </c>
+      <c r="S314">
+        <v>12</v>
+      </c>
+      <c r="T314">
+        <v>2.45</v>
+      </c>
+      <c r="U314">
+        <v>2.4</v>
+      </c>
+      <c r="V314">
         <v>4</v>
       </c>
-      <c r="S314">
-        <v>9</v>
-      </c>
-      <c r="T314">
-        <v>2.75</v>
-      </c>
-      <c r="U314">
+      <c r="W314">
+        <v>1.28</v>
+      </c>
+      <c r="X314">
+        <v>3.6</v>
+      </c>
+      <c r="Y314">
+        <v>2.3</v>
+      </c>
+      <c r="Z314">
+        <v>1.57</v>
+      </c>
+      <c r="AA314">
+        <v>5</v>
+      </c>
+      <c r="AB314">
+        <v>1.15</v>
+      </c>
+      <c r="AC314">
+        <v>2</v>
+      </c>
+      <c r="AD314">
+        <v>3.5</v>
+      </c>
+      <c r="AE314">
+        <v>3.2</v>
+      </c>
+      <c r="AF314">
+        <v>1.02</v>
+      </c>
+      <c r="AG314">
+        <v>17</v>
+      </c>
+      <c r="AH314">
+        <v>1.18</v>
+      </c>
+      <c r="AI314">
+        <v>4.75</v>
+      </c>
+      <c r="AJ314">
+        <v>1.67</v>
+      </c>
+      <c r="AK314">
         <v>2.1</v>
       </c>
-      <c r="V314">
-        <v>3.5</v>
-      </c>
-      <c r="W314">
-        <v>1.36</v>
-      </c>
-      <c r="X314">
-        <v>2.9</v>
-      </c>
-      <c r="Y314">
-        <v>2.55</v>
-      </c>
-      <c r="Z314">
-        <v>1.44</v>
-      </c>
-      <c r="AA314">
-        <v>6.25</v>
-      </c>
-      <c r="AB314">
-        <v>1.1</v>
-      </c>
-      <c r="AC314">
-        <v>1.88</v>
-      </c>
-      <c r="AD314">
-        <v>3.4</v>
-      </c>
-      <c r="AE314">
-        <v>3.7</v>
-      </c>
-      <c r="AF314">
-        <v>1.04</v>
-      </c>
-      <c r="AG314">
-        <v>13.25</v>
-      </c>
-      <c r="AH314">
-        <v>1.23</v>
-      </c>
-      <c r="AI314">
-        <v>3.75</v>
-      </c>
-      <c r="AJ314">
-        <v>1.87</v>
-      </c>
-      <c r="AK314">
-        <v>1.87</v>
-      </c>
       <c r="AL314">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AM314">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AN314">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AO314">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AP314">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AQ314">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="AR314">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AS314">
-        <v>1.58</v>
+        <v>2.5</v>
       </c>
       <c r="AT314">
-        <v>1.55</v>
+        <v>0.92</v>
       </c>
       <c r="AU314">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AV314">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AW314">
-        <v>3.04</v>
+        <v>2.67</v>
       </c>
       <c r="AX314">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AY314">
         <v>8</v>
       </c>
       <c r="AZ314">
-        <v>3.02</v>
+        <v>2.1</v>
       </c>
       <c r="BA314">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="BB314">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BC314">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BD314">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="BE314">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="BF314">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG314">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BH314">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BI314">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BJ314">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK314">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" spans="1:63">
@@ -61683,7 +61683,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>4926257</v>
+        <v>4926258</v>
       </c>
       <c r="C315" t="s">
         <v>63</v>
@@ -61698,25 +61698,25 @@
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H315" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J315">
         <v>0</v>
       </c>
       <c r="K315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N315">
         <v>3</v>
@@ -61725,148 +61725,148 @@
         <v>313</v>
       </c>
       <c r="P315" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="Q315">
         <v>5</v>
       </c>
       <c r="R315">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S315">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T315">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="U315">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="V315">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W315">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="X315">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Y315">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Z315">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AA315">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="AB315">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AC315">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AD315">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE315">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AF315">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG315">
-        <v>17</v>
+        <v>13.25</v>
       </c>
       <c r="AH315">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AI315">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AJ315">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="AK315">
+        <v>1.87</v>
+      </c>
+      <c r="AL315">
+        <v>1.63</v>
+      </c>
+      <c r="AM315">
         <v>2.1</v>
       </c>
-      <c r="AL315">
-        <v>1.53</v>
-      </c>
-      <c r="AM315">
-        <v>2.5</v>
-      </c>
       <c r="AN315">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AO315">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP315">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AQ315">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="AR315">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AS315">
-        <v>2.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT315">
-        <v>0.92</v>
+        <v>1.55</v>
       </c>
       <c r="AU315">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AV315">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AW315">
-        <v>2.67</v>
+        <v>3.04</v>
       </c>
       <c r="AX315">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AY315">
         <v>8</v>
       </c>
       <c r="AZ315">
-        <v>2.1</v>
+        <v>3.02</v>
       </c>
       <c r="BA315">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="BB315">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="BC315">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="BD315">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="BE315">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="BF315">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG315">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BH315">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI315">
+        <v>2</v>
+      </c>
+      <c r="BJ315">
         <v>10</v>
       </c>
-      <c r="BJ315">
-        <v>12</v>
-      </c>
       <c r="BK315">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:63">
@@ -61874,7 +61874,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>4926260</v>
+        <v>4926262</v>
       </c>
       <c r="C316" t="s">
         <v>63</v>
@@ -61889,28 +61889,28 @@
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H316" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L316">
         <v>0</v>
       </c>
       <c r="M316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O316" t="s">
         <v>96</v>
@@ -61919,145 +61919,145 @@
         <v>435</v>
       </c>
       <c r="Q316">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R316">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S316">
         <v>10</v>
       </c>
       <c r="T316">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="U316">
         <v>2.25</v>
       </c>
       <c r="V316">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="W316">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X316">
+        <v>3.1</v>
+      </c>
+      <c r="Y316">
+        <v>2.75</v>
+      </c>
+      <c r="Z316">
+        <v>1.42</v>
+      </c>
+      <c r="AA316">
+        <v>6.5</v>
+      </c>
+      <c r="AB316">
+        <v>1.09</v>
+      </c>
+      <c r="AC316">
+        <v>1.98</v>
+      </c>
+      <c r="AD316">
         <v>3.3</v>
       </c>
-      <c r="Y316">
-        <v>2.35</v>
-      </c>
-      <c r="Z316">
-        <v>1.52</v>
-      </c>
-      <c r="AA316">
-        <v>5.75</v>
-      </c>
-      <c r="AB316">
-        <v>1.13</v>
-      </c>
-      <c r="AC316">
-        <v>1.79</v>
-      </c>
-      <c r="AD316">
-        <v>3.6</v>
-      </c>
       <c r="AE316">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AF316">
         <v>1.03</v>
       </c>
       <c r="AG316">
-        <v>16.75</v>
+        <v>13</v>
       </c>
       <c r="AH316">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AI316">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="AJ316">
+        <v>1.82</v>
+      </c>
+      <c r="AK316">
+        <v>1.92</v>
+      </c>
+      <c r="AL316">
+        <v>1.72</v>
+      </c>
+      <c r="AM316">
+        <v>2.05</v>
+      </c>
+      <c r="AN316">
+        <v>1.28</v>
+      </c>
+      <c r="AO316">
+        <v>1.22</v>
+      </c>
+      <c r="AP316">
+        <v>1.9</v>
+      </c>
+      <c r="AQ316">
+        <v>2.36</v>
+      </c>
+      <c r="AR316">
+        <v>1</v>
+      </c>
+      <c r="AS316">
+        <v>2.17</v>
+      </c>
+      <c r="AT316">
+        <v>1.17</v>
+      </c>
+      <c r="AU316">
         <v>1.59</v>
       </c>
-      <c r="AK316">
-        <v>2.26</v>
-      </c>
-      <c r="AL316">
-        <v>1.58</v>
-      </c>
-      <c r="AM316">
-        <v>2.3</v>
-      </c>
-      <c r="AN316">
-        <v>1.3</v>
-      </c>
-      <c r="AO316">
-        <v>1.28</v>
-      </c>
-      <c r="AP316">
-        <v>1.85</v>
-      </c>
-      <c r="AQ316">
-        <v>2.3</v>
-      </c>
-      <c r="AR316">
-        <v>1.18</v>
-      </c>
-      <c r="AS316">
-        <v>2.09</v>
-      </c>
-      <c r="AT316">
-        <v>1.33</v>
-      </c>
-      <c r="AU316">
-        <v>1.39</v>
-      </c>
       <c r="AV316">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AW316">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="AX316">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AY316">
         <v>8</v>
       </c>
       <c r="AZ316">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="BA316">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="BB316">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BC316">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="BD316">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="BE316">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="BF316">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG316">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH316">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI316">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ316">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BK316">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:63">
@@ -62256,7 +62256,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>4926262</v>
+        <v>4926260</v>
       </c>
       <c r="C318" t="s">
         <v>63</v>
@@ -62271,28 +62271,28 @@
         <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="H318" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I318">
         <v>0</v>
       </c>
       <c r="J318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L318">
         <v>0</v>
       </c>
       <c r="M318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O318" t="s">
         <v>96</v>
@@ -62301,145 +62301,145 @@
         <v>437</v>
       </c>
       <c r="Q318">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R318">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S318">
         <v>10</v>
       </c>
       <c r="T318">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="U318">
         <v>2.25</v>
       </c>
       <c r="V318">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="W318">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X318">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Y318">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="Z318">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AA318">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="AB318">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AC318">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="AD318">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AE318">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AF318">
         <v>1.03</v>
       </c>
       <c r="AG318">
-        <v>13</v>
+        <v>16.75</v>
       </c>
       <c r="AH318">
+        <v>1.2</v>
+      </c>
+      <c r="AI318">
+        <v>4.6</v>
+      </c>
+      <c r="AJ318">
+        <v>1.59</v>
+      </c>
+      <c r="AK318">
+        <v>2.26</v>
+      </c>
+      <c r="AL318">
+        <v>1.58</v>
+      </c>
+      <c r="AM318">
+        <v>2.3</v>
+      </c>
+      <c r="AN318">
+        <v>1.3</v>
+      </c>
+      <c r="AO318">
         <v>1.28</v>
       </c>
-      <c r="AI318">
-        <v>3.75</v>
-      </c>
-      <c r="AJ318">
+      <c r="AP318">
+        <v>1.85</v>
+      </c>
+      <c r="AQ318">
+        <v>2.3</v>
+      </c>
+      <c r="AR318">
+        <v>1.18</v>
+      </c>
+      <c r="AS318">
+        <v>2.09</v>
+      </c>
+      <c r="AT318">
+        <v>1.33</v>
+      </c>
+      <c r="AU318">
+        <v>1.39</v>
+      </c>
+      <c r="AV318">
+        <v>1.33</v>
+      </c>
+      <c r="AW318">
+        <v>2.72</v>
+      </c>
+      <c r="AX318">
         <v>1.82</v>
-      </c>
-      <c r="AK318">
-        <v>1.92</v>
-      </c>
-      <c r="AL318">
-        <v>1.72</v>
-      </c>
-      <c r="AM318">
-        <v>2.05</v>
-      </c>
-      <c r="AN318">
-        <v>1.28</v>
-      </c>
-      <c r="AO318">
-        <v>1.22</v>
-      </c>
-      <c r="AP318">
-        <v>1.9</v>
-      </c>
-      <c r="AQ318">
-        <v>2.36</v>
-      </c>
-      <c r="AR318">
-        <v>1</v>
-      </c>
-      <c r="AS318">
-        <v>2.17</v>
-      </c>
-      <c r="AT318">
-        <v>1.17</v>
-      </c>
-      <c r="AU318">
-        <v>1.59</v>
-      </c>
-      <c r="AV318">
-        <v>1.38</v>
-      </c>
-      <c r="AW318">
-        <v>2.97</v>
-      </c>
-      <c r="AX318">
-        <v>1.64</v>
       </c>
       <c r="AY318">
         <v>8</v>
       </c>
       <c r="AZ318">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="BA318">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="BB318">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BC318">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="BD318">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="BE318">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="BF318">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG318">
+        <v>5</v>
+      </c>
+      <c r="BH318">
+        <v>10</v>
+      </c>
+      <c r="BI318">
+        <v>1</v>
+      </c>
+      <c r="BJ318">
+        <v>17</v>
+      </c>
+      <c r="BK318">
         <v>6</v>
-      </c>
-      <c r="BH318">
-        <v>12</v>
-      </c>
-      <c r="BI318">
-        <v>3</v>
-      </c>
-      <c r="BJ318">
-        <v>16</v>
-      </c>
-      <c r="BK318">
-        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:63">
@@ -62829,7 +62829,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>4926263</v>
+        <v>4926156</v>
       </c>
       <c r="C321" t="s">
         <v>63</v>
@@ -62844,28 +62844,28 @@
         <v>0</v>
       </c>
       <c r="G321" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H321" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321">
         <v>0</v>
       </c>
       <c r="K321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M321">
         <v>0</v>
       </c>
       <c r="N321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O321" t="s">
         <v>316</v>
@@ -62874,112 +62874,112 @@
         <v>96</v>
       </c>
       <c r="Q321">
+        <v>4</v>
+      </c>
+      <c r="R321">
         <v>5</v>
       </c>
-      <c r="R321">
-        <v>3</v>
-      </c>
       <c r="S321">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T321">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="U321">
-        <v>2.15</v>
+        <v>2.71</v>
       </c>
       <c r="V321">
-        <v>3.3</v>
+        <v>5.35</v>
       </c>
       <c r="W321">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="X321">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="Y321">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Z321">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AA321">
-        <v>6.75</v>
+        <v>4.65</v>
       </c>
       <c r="AB321">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AC321">
-        <v>2.6</v>
+        <v>1.48</v>
       </c>
       <c r="AD321">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="AE321">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF321">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG321">
-        <v>12.75</v>
+        <v>19</v>
       </c>
       <c r="AH321">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="AI321">
-        <v>3.92</v>
+        <v>5</v>
       </c>
       <c r="AJ321">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AK321">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="AL321">
         <v>1.57</v>
       </c>
       <c r="AM321">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AN321">
+        <v>1.18</v>
+      </c>
+      <c r="AO321">
+        <v>1.21</v>
+      </c>
+      <c r="AP321">
+        <v>2.57</v>
+      </c>
+      <c r="AQ321">
+        <v>1.91</v>
+      </c>
+      <c r="AR321">
+        <v>1.6</v>
+      </c>
+      <c r="AS321">
+        <v>2</v>
+      </c>
+      <c r="AT321">
+        <v>1.45</v>
+      </c>
+      <c r="AU321">
+        <v>1.93</v>
+      </c>
+      <c r="AV321">
         <v>1.42</v>
       </c>
-      <c r="AO321">
-        <v>1.32</v>
-      </c>
-      <c r="AP321">
-        <v>1.55</v>
-      </c>
-      <c r="AQ321">
-        <v>2</v>
-      </c>
-      <c r="AR321">
-        <v>1.4</v>
-      </c>
-      <c r="AS321">
-        <v>2.08</v>
-      </c>
-      <c r="AT321">
-        <v>1.27</v>
-      </c>
-      <c r="AU321">
-        <v>1.43</v>
-      </c>
-      <c r="AV321">
-        <v>1.29</v>
-      </c>
       <c r="AW321">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="AX321">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AY321">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ321">
-        <v>2.44</v>
+        <v>3.32</v>
       </c>
       <c r="BA321">
         <v>1.22</v>
@@ -63003,16 +63003,16 @@
         <v>3</v>
       </c>
       <c r="BH321">
+        <v>5</v>
+      </c>
+      <c r="BI321">
+        <v>5</v>
+      </c>
+      <c r="BJ321">
+        <v>9</v>
+      </c>
+      <c r="BK321">
         <v>8</v>
-      </c>
-      <c r="BI321">
-        <v>1</v>
-      </c>
-      <c r="BJ321">
-        <v>12</v>
-      </c>
-      <c r="BK321">
-        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:63">
@@ -63020,7 +63020,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>4926264</v>
+        <v>4926263</v>
       </c>
       <c r="C322" t="s">
         <v>63</v>
@@ -63035,10 +63035,10 @@
         <v>0</v>
       </c>
       <c r="G322" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H322" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -63053,142 +63053,142 @@
         <v>2</v>
       </c>
       <c r="M322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N322">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O322" t="s">
         <v>317</v>
       </c>
       <c r="P322" t="s">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="Q322">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R322">
         <v>3</v>
       </c>
       <c r="S322">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T322">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="U322">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="V322">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="W322">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X322">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="Y322">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="Z322">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AA322">
-        <v>5.75</v>
+        <v>6.75</v>
       </c>
       <c r="AB322">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AC322">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="AD322">
+        <v>3.2</v>
+      </c>
+      <c r="AE322">
+        <v>2.5</v>
+      </c>
+      <c r="AF322">
+        <v>1.05</v>
+      </c>
+      <c r="AG322">
+        <v>12.75</v>
+      </c>
+      <c r="AH322">
+        <v>1.26</v>
+      </c>
+      <c r="AI322">
+        <v>3.92</v>
+      </c>
+      <c r="AJ322">
+        <v>1.82</v>
+      </c>
+      <c r="AK322">
+        <v>1.92</v>
+      </c>
+      <c r="AL322">
+        <v>1.57</v>
+      </c>
+      <c r="AM322">
+        <v>2.25</v>
+      </c>
+      <c r="AN322">
+        <v>1.42</v>
+      </c>
+      <c r="AO322">
+        <v>1.32</v>
+      </c>
+      <c r="AP322">
+        <v>1.55</v>
+      </c>
+      <c r="AQ322">
+        <v>2</v>
+      </c>
+      <c r="AR322">
+        <v>1.4</v>
+      </c>
+      <c r="AS322">
+        <v>2.08</v>
+      </c>
+      <c r="AT322">
+        <v>1.27</v>
+      </c>
+      <c r="AU322">
+        <v>1.43</v>
+      </c>
+      <c r="AV322">
+        <v>1.29</v>
+      </c>
+      <c r="AW322">
+        <v>2.72</v>
+      </c>
+      <c r="AX322">
+        <v>1.75</v>
+      </c>
+      <c r="AY322">
+        <v>8</v>
+      </c>
+      <c r="AZ322">
+        <v>2.44</v>
+      </c>
+      <c r="BA322">
+        <v>1.22</v>
+      </c>
+      <c r="BB322">
+        <v>1.42</v>
+      </c>
+      <c r="BC322">
+        <v>1.74</v>
+      </c>
+      <c r="BD322">
+        <v>2.23</v>
+      </c>
+      <c r="BE322">
+        <v>3</v>
+      </c>
+      <c r="BF322">
         <v>4</v>
-      </c>
-      <c r="AE322">
-        <v>4</v>
-      </c>
-      <c r="AF322">
-        <v>1.02</v>
-      </c>
-      <c r="AG322">
-        <v>19</v>
-      </c>
-      <c r="AH322">
-        <v>1.18</v>
-      </c>
-      <c r="AI322">
-        <v>4.75</v>
-      </c>
-      <c r="AJ322">
-        <v>1.67</v>
-      </c>
-      <c r="AK322">
-        <v>2.1</v>
-      </c>
-      <c r="AL322">
-        <v>1.68</v>
-      </c>
-      <c r="AM322">
-        <v>2.05</v>
-      </c>
-      <c r="AN322">
-        <v>1.22</v>
-      </c>
-      <c r="AO322">
-        <v>1.18</v>
-      </c>
-      <c r="AP322">
-        <v>2.15</v>
-      </c>
-      <c r="AQ322">
-        <v>1.73</v>
-      </c>
-      <c r="AR322">
-        <v>1.1</v>
-      </c>
-      <c r="AS322">
-        <v>1.92</v>
-      </c>
-      <c r="AT322">
-        <v>1</v>
-      </c>
-      <c r="AU322">
-        <v>1.79</v>
-      </c>
-      <c r="AV322">
-        <v>1.27</v>
-      </c>
-      <c r="AW322">
-        <v>3.06</v>
-      </c>
-      <c r="AX322">
-        <v>1.41</v>
-      </c>
-      <c r="AY322">
-        <v>9</v>
-      </c>
-      <c r="AZ322">
-        <v>3.49</v>
-      </c>
-      <c r="BA322">
-        <v>1.24</v>
-      </c>
-      <c r="BB322">
-        <v>1.44</v>
-      </c>
-      <c r="BC322">
-        <v>1.8</v>
-      </c>
-      <c r="BD322">
-        <v>2.3</v>
-      </c>
-      <c r="BE322">
-        <v>3.1</v>
-      </c>
-      <c r="BF322">
-        <v>5</v>
       </c>
       <c r="BG322">
         <v>3</v>
@@ -63197,13 +63197,13 @@
         <v>8</v>
       </c>
       <c r="BI322">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ322">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK322">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:63">
@@ -63211,7 +63211,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>4926156</v>
+        <v>4926264</v>
       </c>
       <c r="C323" t="s">
         <v>63</v>
@@ -63226,25 +63226,25 @@
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H323" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323">
         <v>0</v>
       </c>
       <c r="K323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N323">
         <v>3</v>
@@ -63253,52 +63253,52 @@
         <v>318</v>
       </c>
       <c r="P323" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="Q323">
+        <v>7</v>
+      </c>
+      <c r="R323">
+        <v>3</v>
+      </c>
+      <c r="S323">
+        <v>10</v>
+      </c>
+      <c r="T323">
+        <v>2.2</v>
+      </c>
+      <c r="U323">
+        <v>2.35</v>
+      </c>
+      <c r="V323">
+        <v>4.5</v>
+      </c>
+      <c r="W323">
+        <v>1.3</v>
+      </c>
+      <c r="X323">
+        <v>3.3</v>
+      </c>
+      <c r="Y323">
+        <v>2.35</v>
+      </c>
+      <c r="Z323">
+        <v>1.52</v>
+      </c>
+      <c r="AA323">
+        <v>5.75</v>
+      </c>
+      <c r="AB323">
+        <v>1.13</v>
+      </c>
+      <c r="AC323">
+        <v>1.67</v>
+      </c>
+      <c r="AD323">
         <v>4</v>
       </c>
-      <c r="R323">
-        <v>5</v>
-      </c>
-      <c r="S323">
-        <v>9</v>
-      </c>
-      <c r="T323">
-        <v>2.06</v>
-      </c>
-      <c r="U323">
-        <v>2.71</v>
-      </c>
-      <c r="V323">
-        <v>5.35</v>
-      </c>
-      <c r="W323">
-        <v>1.25</v>
-      </c>
-      <c r="X323">
-        <v>3.7</v>
-      </c>
-      <c r="Y323">
-        <v>2.25</v>
-      </c>
-      <c r="Z323">
-        <v>1.68</v>
-      </c>
-      <c r="AA323">
-        <v>4.65</v>
-      </c>
-      <c r="AB323">
-        <v>1.18</v>
-      </c>
-      <c r="AC323">
-        <v>1.48</v>
-      </c>
-      <c r="AD323">
-        <v>4.33</v>
-      </c>
       <c r="AE323">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AF323">
         <v>1.02</v>
@@ -63307,91 +63307,91 @@
         <v>19</v>
       </c>
       <c r="AH323">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AI323">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ323">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AK323">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="AL323">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AM323">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AN323">
+        <v>1.22</v>
+      </c>
+      <c r="AO323">
         <v>1.18</v>
       </c>
-      <c r="AO323">
-        <v>1.21</v>
-      </c>
       <c r="AP323">
-        <v>2.57</v>
+        <v>2.15</v>
       </c>
       <c r="AQ323">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AR323">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AS323">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT323">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AU323">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="AV323">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AW323">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="AX323">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AY323">
         <v>9</v>
       </c>
       <c r="AZ323">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="BA323">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="BB323">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="BC323">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="BD323">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="BE323">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BF323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG323">
         <v>3</v>
       </c>
       <c r="BH323">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI323">
         <v>5</v>
       </c>
       <c r="BJ323">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK323">
         <v>8</v>
@@ -64930,7 +64930,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>4926276</v>
+        <v>4926275</v>
       </c>
       <c r="C332" t="s">
         <v>63</v>
@@ -64945,52 +64945,52 @@
         <v>0</v>
       </c>
       <c r="G332" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H332" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332">
         <v>0</v>
       </c>
       <c r="K332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L332">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N332">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O332" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
       <c r="P332" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="Q332">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R332">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S332">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="U332">
         <v>2.2</v>
       </c>
       <c r="V332">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W332">
         <v>1.4</v>
@@ -65011,109 +65011,109 @@
         <v>1.08</v>
       </c>
       <c r="AC332">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AD332">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE332">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AF332">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG332">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH332">
         <v>1.29</v>
       </c>
       <c r="AI332">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="AJ332">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AK332">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AL332">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AM332">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AN332">
+        <v>1.38</v>
+      </c>
+      <c r="AO332">
         <v>1.32</v>
       </c>
-      <c r="AO332">
-        <v>1.3</v>
-      </c>
       <c r="AP332">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AQ332">
-        <v>1.18</v>
+        <v>0.82</v>
       </c>
       <c r="AR332">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="AS332">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AT332">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AU332">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="AV332">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="AW332">
-        <v>3.44</v>
+        <v>2.69</v>
       </c>
       <c r="AX332">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AY332">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ332">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BA332">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="BB332">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BC332">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD332">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="BE332">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="BF332">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG332">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH332">
         <v>5</v>
       </c>
       <c r="BI332">
+        <v>2</v>
+      </c>
+      <c r="BJ332">
+        <v>9</v>
+      </c>
+      <c r="BK332">
         <v>5</v>
-      </c>
-      <c r="BJ332">
-        <v>10</v>
-      </c>
-      <c r="BK332">
-        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:63">
@@ -65121,7 +65121,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>4926275</v>
+        <v>4926276</v>
       </c>
       <c r="C333" t="s">
         <v>63</v>
@@ -65136,52 +65136,52 @@
         <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H333" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333">
         <v>0</v>
       </c>
       <c r="K333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L333">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N333">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O333" t="s">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="P333" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="Q333">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R333">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S333">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T333">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="U333">
         <v>2.2</v>
       </c>
       <c r="V333">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W333">
         <v>1.4</v>
@@ -65202,109 +65202,109 @@
         <v>1.08</v>
       </c>
       <c r="AC333">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AD333">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE333">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AF333">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG333">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH333">
         <v>1.29</v>
       </c>
       <c r="AI333">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="AJ333">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AK333">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AL333">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AM333">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AN333">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AO333">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP333">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AQ333">
-        <v>0.82</v>
+        <v>1.18</v>
       </c>
       <c r="AR333">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AS333">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AT333">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AU333">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="AV333">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="AW333">
-        <v>2.69</v>
+        <v>3.44</v>
       </c>
       <c r="AX333">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AY333">
-        <v>9.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ333">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BA333">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BB333">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BC333">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BD333">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BE333">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="BF333">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG333">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH333">
         <v>5</v>
       </c>
       <c r="BI333">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ333">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK333">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -64930,7 +64930,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>4926275</v>
+        <v>4926276</v>
       </c>
       <c r="C332" t="s">
         <v>63</v>
@@ -64945,52 +64945,52 @@
         <v>0</v>
       </c>
       <c r="G332" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H332" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332">
         <v>0</v>
       </c>
       <c r="K332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L332">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N332">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O332" t="s">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="P332" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="Q332">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R332">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S332">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T332">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="U332">
         <v>2.2</v>
       </c>
       <c r="V332">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W332">
         <v>1.4</v>
@@ -65011,109 +65011,109 @@
         <v>1.08</v>
       </c>
       <c r="AC332">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AD332">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE332">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AF332">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG332">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH332">
         <v>1.29</v>
       </c>
       <c r="AI332">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="AJ332">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AK332">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AL332">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AM332">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AN332">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AO332">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP332">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AQ332">
-        <v>0.82</v>
+        <v>1.18</v>
       </c>
       <c r="AR332">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AS332">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AT332">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AU332">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="AV332">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="AW332">
-        <v>2.69</v>
+        <v>3.44</v>
       </c>
       <c r="AX332">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AY332">
-        <v>9.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ332">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BA332">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BB332">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BC332">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BD332">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BE332">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="BF332">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG332">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH332">
         <v>5</v>
       </c>
       <c r="BI332">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ332">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK332">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:63">
@@ -65121,7 +65121,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>4926276</v>
+        <v>4926275</v>
       </c>
       <c r="C333" t="s">
         <v>63</v>
@@ -65136,52 +65136,52 @@
         <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H333" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333">
         <v>0</v>
       </c>
       <c r="K333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L333">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N333">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O333" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
       <c r="P333" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="Q333">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R333">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S333">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T333">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="U333">
         <v>2.2</v>
       </c>
       <c r="V333">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W333">
         <v>1.4</v>
@@ -65202,109 +65202,109 @@
         <v>1.08</v>
       </c>
       <c r="AC333">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AD333">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE333">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AF333">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG333">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH333">
         <v>1.29</v>
       </c>
       <c r="AI333">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="AJ333">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AK333">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AL333">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AM333">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AN333">
+        <v>1.38</v>
+      </c>
+      <c r="AO333">
         <v>1.32</v>
       </c>
-      <c r="AO333">
-        <v>1.3</v>
-      </c>
       <c r="AP333">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AQ333">
-        <v>1.18</v>
+        <v>0.82</v>
       </c>
       <c r="AR333">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="AS333">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AT333">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AU333">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="AV333">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="AW333">
-        <v>3.44</v>
+        <v>2.69</v>
       </c>
       <c r="AX333">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AY333">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ333">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BA333">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="BB333">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BC333">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD333">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="BE333">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="BF333">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG333">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH333">
         <v>5</v>
       </c>
       <c r="BI333">
+        <v>2</v>
+      </c>
+      <c r="BJ333">
+        <v>9</v>
+      </c>
+      <c r="BK333">
         <v>5</v>
-      </c>
-      <c r="BJ333">
-        <v>10</v>
-      </c>
-      <c r="BK333">
-        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="450">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1003,6 +1003,18 @@
     <t>['2', '10', '23', '90+4']</t>
   </si>
   <si>
+    <t>['66', '90+4']</t>
+  </si>
+  <si>
+    <t>['15', '23', '90+6']</t>
+  </si>
+  <si>
+    <t>['5', '11', '14', '45+3', '63']</t>
+  </si>
+  <si>
+    <t>['22', '45+2', '50', '72', '88', '90+5']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1337,6 +1349,21 @@
   </si>
   <si>
     <t>['61', '74']</t>
+  </si>
+  <si>
+    <t>['18', '25', '79']</t>
+  </si>
+  <si>
+    <t>['53', '90+5']</t>
+  </si>
+  <si>
+    <t>['50', '54', '68']</t>
+  </si>
+  <si>
+    <t>['61', '87', '90+1']</t>
+  </si>
+  <si>
+    <t>['11', '65']</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK337"/>
+  <dimension ref="A1:BK346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2133,7 +2160,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2223,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="AT3">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2515,7 +2542,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2706,7 +2733,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2987,7 +3014,7 @@
         <v>1.27</v>
       </c>
       <c r="AT7">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3470,7 +3497,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3661,7 +3688,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3751,7 +3778,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3852,7 +3879,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3939,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT12">
         <v>1.75</v>
@@ -4130,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT13">
         <v>0.82</v>
@@ -4425,7 +4452,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4515,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4894,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT17">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5467,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -5661,7 +5688,7 @@
         <v>1.58</v>
       </c>
       <c r="AT21">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU21">
         <v>0.93</v>
@@ -5852,7 +5879,7 @@
         <v>1.75</v>
       </c>
       <c r="AT22">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU22">
         <v>1.37</v>
@@ -5953,7 +5980,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6040,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT23">
         <v>0.71</v>
@@ -6422,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -6804,7 +6831,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT27">
         <v>1.75</v>
@@ -7099,7 +7126,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7189,7 +7216,7 @@
         <v>1.27</v>
       </c>
       <c r="AT29">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU29">
         <v>1.85</v>
@@ -7377,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT30">
         <v>0.83</v>
@@ -7762,7 +7789,7 @@
         <v>1.45</v>
       </c>
       <c r="AT32">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU32">
         <v>1.43</v>
@@ -7950,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT33">
         <v>0.36</v>
@@ -8332,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT35">
         <v>0.82</v>
@@ -8908,7 +8935,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU38">
         <v>1.41</v>
@@ -9009,7 +9036,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9099,7 +9126,7 @@
         <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9200,7 +9227,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9860,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT43">
         <v>1.18</v>
@@ -10054,7 +10081,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU44">
         <v>2.1</v>
@@ -10155,7 +10182,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10537,7 +10564,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10624,7 +10651,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT47">
         <v>0.82</v>
@@ -10728,7 +10755,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10815,10 +10842,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT48">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.74</v>
@@ -10919,7 +10946,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11197,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT50">
         <v>0.36</v>
@@ -11301,7 +11328,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11388,10 +11415,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT51">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU51">
         <v>0.99</v>
@@ -11492,7 +11519,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11770,10 +11797,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11961,10 +11988,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT54">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU54">
         <v>1.38</v>
@@ -12065,7 +12092,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12155,7 +12182,7 @@
         <v>0.83</v>
       </c>
       <c r="AT55">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -12638,7 +12665,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12728,7 +12755,7 @@
         <v>2.36</v>
       </c>
       <c r="AT58">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU58">
         <v>1.5</v>
@@ -12829,7 +12856,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -13020,7 +13047,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13211,7 +13238,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13402,7 +13429,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13489,10 +13516,10 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT62">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU62">
         <v>1.31</v>
@@ -13871,7 +13898,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT64">
         <v>0.71</v>
@@ -13975,7 +14002,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14357,7 +14384,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14447,7 +14474,7 @@
         <v>2.17</v>
       </c>
       <c r="AT67">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU67">
         <v>1.3</v>
@@ -14548,7 +14575,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14739,7 +14766,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -15121,7 +15148,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15208,7 +15235,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -15312,7 +15339,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15694,7 +15721,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15972,7 +15999,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT75">
         <v>1.75</v>
@@ -16545,10 +16572,10 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.12</v>
@@ -16739,7 +16766,7 @@
         <v>1.82</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU79">
         <v>1.27</v>
@@ -16927,10 +16954,10 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU80">
         <v>1.69</v>
@@ -17413,7 +17440,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17691,10 +17718,10 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT84">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU84">
         <v>1.84</v>
@@ -17882,10 +17909,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT85">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU85">
         <v>1.58</v>
@@ -18076,7 +18103,7 @@
         <v>2.5</v>
       </c>
       <c r="AT86">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU86">
         <v>1.24</v>
@@ -18455,10 +18482,10 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT88">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU88">
         <v>1.29</v>
@@ -18559,7 +18586,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19031,7 +19058,7 @@
         <v>2</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU91">
         <v>1.97</v>
@@ -19219,10 +19246,10 @@
         <v>3</v>
       </c>
       <c r="AS92">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT92">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU92">
         <v>1.11</v>
@@ -19410,7 +19437,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT93">
         <v>0.67</v>
@@ -20174,7 +20201,7 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT97">
         <v>1.45</v>
@@ -20365,10 +20392,10 @@
         <v>0.33</v>
       </c>
       <c r="AS98">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT98">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU98">
         <v>2.05</v>
@@ -20556,7 +20583,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT99">
         <v>1</v>
@@ -20750,7 +20777,7 @@
         <v>2.18</v>
       </c>
       <c r="AT100">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.48</v>
@@ -20851,7 +20878,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20938,10 +20965,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT101">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU101">
         <v>1.25</v>
@@ -21042,7 +21069,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21320,7 +21347,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT103">
         <v>1.18</v>
@@ -21511,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT104">
         <v>0.5</v>
@@ -21893,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT106">
         <v>1.17</v>
@@ -22188,7 +22215,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22278,7 +22305,7 @@
         <v>1.2</v>
       </c>
       <c r="AT108">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU108">
         <v>1.02</v>
@@ -22761,7 +22788,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22848,10 +22875,10 @@
         <v>1.67</v>
       </c>
       <c r="AS111">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT111">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU111">
         <v>1.69</v>
@@ -22952,7 +22979,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23424,7 +23451,7 @@
         <v>2.83</v>
       </c>
       <c r="AT114">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU114">
         <v>1.17</v>
@@ -23716,7 +23743,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23907,7 +23934,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23994,7 +24021,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT117">
         <v>0.83</v>
@@ -24098,7 +24125,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24188,7 +24215,7 @@
         <v>1.58</v>
       </c>
       <c r="AT118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.38</v>
@@ -24289,7 +24316,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24567,7 +24594,7 @@
         <v>0</v>
       </c>
       <c r="AS120">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT120">
         <v>0.36</v>
@@ -24671,7 +24698,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24952,7 +24979,7 @@
         <v>1.33</v>
       </c>
       <c r="AT122">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -25334,7 +25361,7 @@
         <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -25522,10 +25549,10 @@
         <v>2.25</v>
       </c>
       <c r="AS125">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT125">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU125">
         <v>1.74</v>
@@ -25907,7 +25934,7 @@
         <v>2.17</v>
       </c>
       <c r="AT127">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU127">
         <v>1.32</v>
@@ -26008,7 +26035,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26095,7 +26122,7 @@
         <v>0</v>
       </c>
       <c r="AS128">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT128">
         <v>0.36</v>
@@ -26480,7 +26507,7 @@
         <v>2.5</v>
       </c>
       <c r="AT130">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26859,7 +26886,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT132">
         <v>0.71</v>
@@ -26963,7 +26990,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27050,10 +27077,10 @@
         <v>0.2</v>
       </c>
       <c r="AS133">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT133">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU133">
         <v>1.66</v>
@@ -27154,7 +27181,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27244,7 +27271,7 @@
         <v>1.42</v>
       </c>
       <c r="AT134">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU134">
         <v>1.68</v>
@@ -27432,7 +27459,7 @@
         <v>0.4</v>
       </c>
       <c r="AS135">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT135">
         <v>0.64</v>
@@ -27536,7 +27563,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27626,7 +27653,7 @@
         <v>1.75</v>
       </c>
       <c r="AT136">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU136">
         <v>1.44</v>
@@ -28005,7 +28032,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT138">
         <v>0.82</v>
@@ -28387,7 +28414,7 @@
         <v>1.75</v>
       </c>
       <c r="AS140">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT140">
         <v>1.18</v>
@@ -28682,7 +28709,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28963,7 +28990,7 @@
         <v>2.83</v>
       </c>
       <c r="AT143">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU143">
         <v>1.25</v>
@@ -29154,7 +29181,7 @@
         <v>1.27</v>
       </c>
       <c r="AT144">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -29345,7 +29372,7 @@
         <v>2.18</v>
       </c>
       <c r="AT145">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU145">
         <v>1.17</v>
@@ -29533,7 +29560,7 @@
         <v>0.25</v>
       </c>
       <c r="AS146">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT146">
         <v>1.17</v>
@@ -29724,7 +29751,7 @@
         <v>0.75</v>
       </c>
       <c r="AS147">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT147">
         <v>1.75</v>
@@ -30019,7 +30046,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30210,7 +30237,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30297,10 +30324,10 @@
         <v>1.8</v>
       </c>
       <c r="AS150">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT150">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU150">
         <v>2</v>
@@ -30401,7 +30428,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30491,7 +30518,7 @@
         <v>1.64</v>
       </c>
       <c r="AT151">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU151">
         <v>1.3</v>
@@ -30592,7 +30619,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30679,7 +30706,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT152">
         <v>0.6899999999999999</v>
@@ -30870,7 +30897,7 @@
         <v>2</v>
       </c>
       <c r="AS153">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT153">
         <v>1.45</v>
@@ -31061,7 +31088,7 @@
         <v>0.33</v>
       </c>
       <c r="AS154">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT154">
         <v>0.71</v>
@@ -31165,7 +31192,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31356,7 +31383,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31443,10 +31470,10 @@
         <v>1.75</v>
       </c>
       <c r="AS156">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT156">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU156">
         <v>1.85</v>
@@ -31547,7 +31574,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -32210,7 +32237,7 @@
         <v>1.42</v>
       </c>
       <c r="AT160">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU160">
         <v>1.68</v>
@@ -32502,7 +32529,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32589,7 +32616,7 @@
         <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT162">
         <v>1.27</v>
@@ -32693,7 +32720,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32884,7 +32911,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33356,7 +33383,7 @@
         <v>1.4</v>
       </c>
       <c r="AT166">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU166">
         <v>2</v>
@@ -33735,7 +33762,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT168">
         <v>0.64</v>
@@ -34030,7 +34057,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34311,7 +34338,7 @@
         <v>2.83</v>
       </c>
       <c r="AT171">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU171">
         <v>1.27</v>
@@ -34499,7 +34526,7 @@
         <v>0.4</v>
       </c>
       <c r="AS172">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT172">
         <v>0.67</v>
@@ -34693,7 +34720,7 @@
         <v>2.36</v>
       </c>
       <c r="AT173">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU173">
         <v>1.67</v>
@@ -34794,7 +34821,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -35367,7 +35394,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35558,7 +35585,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35645,10 +35672,10 @@
         <v>0.8</v>
       </c>
       <c r="AS178">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT178">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU178">
         <v>1.6</v>
@@ -35839,7 +35866,7 @@
         <v>1.33</v>
       </c>
       <c r="AT179">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU179">
         <v>1.84</v>
@@ -35940,7 +35967,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36027,10 +36054,10 @@
         <v>0.43</v>
       </c>
       <c r="AS180">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT180">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU180">
         <v>1.57</v>
@@ -36322,7 +36349,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36412,7 +36439,7 @@
         <v>1.27</v>
       </c>
       <c r="AT182">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36704,7 +36731,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36895,7 +36922,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37277,7 +37304,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37364,10 +37391,10 @@
         <v>0.83</v>
       </c>
       <c r="AS187">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT187">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU187">
         <v>1.19</v>
@@ -37659,7 +37686,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37937,7 +37964,7 @@
         <v>0.75</v>
       </c>
       <c r="AS190">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT190">
         <v>0.6899999999999999</v>
@@ -38131,7 +38158,7 @@
         <v>2</v>
       </c>
       <c r="AT191">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU191">
         <v>1.97</v>
@@ -38232,7 +38259,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38322,7 +38349,7 @@
         <v>1.64</v>
       </c>
       <c r="AT192">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU192">
         <v>1.4</v>
@@ -38510,7 +38537,7 @@
         <v>1.67</v>
       </c>
       <c r="AS193">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT193">
         <v>1.27</v>
@@ -38614,7 +38641,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38701,10 +38728,10 @@
         <v>1.14</v>
       </c>
       <c r="AS194">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT194">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU194">
         <v>1.42</v>
@@ -38895,7 +38922,7 @@
         <v>1.58</v>
       </c>
       <c r="AT195">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU195">
         <v>1.42</v>
@@ -38996,7 +39023,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39083,7 +39110,7 @@
         <v>1.17</v>
       </c>
       <c r="AS196">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT196">
         <v>1.17</v>
@@ -39187,7 +39214,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39656,10 +39683,10 @@
         <v>1.17</v>
       </c>
       <c r="AS199">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT199">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU199">
         <v>1.21</v>
@@ -40038,7 +40065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS201">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT201">
         <v>0.67</v>
@@ -40142,7 +40169,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40232,7 +40259,7 @@
         <v>0.83</v>
       </c>
       <c r="AT202">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU202">
         <v>1.6</v>
@@ -40333,7 +40360,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40802,7 +40829,7 @@
         <v>0.57</v>
       </c>
       <c r="AS205">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT205">
         <v>0.64</v>
@@ -40906,7 +40933,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40996,7 +41023,7 @@
         <v>1.42</v>
       </c>
       <c r="AT206">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU206">
         <v>1.61</v>
@@ -41097,7 +41124,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41288,7 +41315,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41479,7 +41506,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41566,10 +41593,10 @@
         <v>1.5</v>
       </c>
       <c r="AS209">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT209">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU209">
         <v>1.63</v>
@@ -41948,7 +41975,7 @@
         <v>0.67</v>
       </c>
       <c r="AS211">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT211">
         <v>1</v>
@@ -42052,7 +42079,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42142,7 +42169,7 @@
         <v>1.45</v>
       </c>
       <c r="AT212">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU212">
         <v>1.51</v>
@@ -42243,7 +42270,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42330,7 +42357,7 @@
         <v>1.13</v>
       </c>
       <c r="AS213">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT213">
         <v>0.82</v>
@@ -42715,7 +42742,7 @@
         <v>1.75</v>
       </c>
       <c r="AT215">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU215">
         <v>1.48</v>
@@ -42816,7 +42843,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -43198,7 +43225,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43285,10 +43312,10 @@
         <v>0.29</v>
       </c>
       <c r="AS218">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT218">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU218">
         <v>1.57</v>
@@ -43389,7 +43416,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43476,7 +43503,7 @@
         <v>0.33</v>
       </c>
       <c r="AS219">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT219">
         <v>0.5</v>
@@ -43667,7 +43694,7 @@
         <v>1.38</v>
       </c>
       <c r="AS220">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT220">
         <v>1.18</v>
@@ -43858,10 +43885,10 @@
         <v>0.63</v>
       </c>
       <c r="AS221">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT221">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU221">
         <v>1.75</v>
@@ -44052,7 +44079,7 @@
         <v>2.36</v>
       </c>
       <c r="AT222">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU222">
         <v>1.7</v>
@@ -44153,7 +44180,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44240,10 +44267,10 @@
         <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT223">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU223">
         <v>1.62</v>
@@ -44344,7 +44371,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44434,7 +44461,7 @@
         <v>1.27</v>
       </c>
       <c r="AT224">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU224">
         <v>1.34</v>
@@ -44726,7 +44753,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44813,7 +44840,7 @@
         <v>1.25</v>
       </c>
       <c r="AS226">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT226">
         <v>1</v>
@@ -44917,7 +44944,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -45108,7 +45135,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45577,7 +45604,7 @@
         <v>0.29</v>
       </c>
       <c r="AS230">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT230">
         <v>0.5</v>
@@ -45771,7 +45798,7 @@
         <v>0.83</v>
       </c>
       <c r="AT231">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU231">
         <v>1.58</v>
@@ -45872,7 +45899,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45959,7 +45986,7 @@
         <v>0.67</v>
       </c>
       <c r="AS232">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT232">
         <v>0.6899999999999999</v>
@@ -46344,7 +46371,7 @@
         <v>2</v>
       </c>
       <c r="AT234">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU234">
         <v>1.99</v>
@@ -46445,7 +46472,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -46723,7 +46750,7 @@
         <v>1.57</v>
       </c>
       <c r="AS236">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT236">
         <v>1</v>
@@ -46917,7 +46944,7 @@
         <v>2</v>
       </c>
       <c r="AT237">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU237">
         <v>1.85</v>
@@ -47018,7 +47045,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47299,7 +47326,7 @@
         <v>2.18</v>
       </c>
       <c r="AT239">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU239">
         <v>1.34</v>
@@ -47678,7 +47705,7 @@
         <v>1.5</v>
       </c>
       <c r="AS241">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT241">
         <v>1.18</v>
@@ -47782,7 +47809,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -47869,7 +47896,7 @@
         <v>0.57</v>
       </c>
       <c r="AS242">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT242">
         <v>0.82</v>
@@ -47973,7 +48000,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -48063,7 +48090,7 @@
         <v>1.42</v>
       </c>
       <c r="AT243">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -48442,10 +48469,10 @@
         <v>1.71</v>
       </c>
       <c r="AS245">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT245">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU245">
         <v>1.89</v>
@@ -48824,7 +48851,7 @@
         <v>0.63</v>
       </c>
       <c r="AS247">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT247">
         <v>0.67</v>
@@ -49310,7 +49337,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49397,7 +49424,7 @@
         <v>0.88</v>
       </c>
       <c r="AS250">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT250">
         <v>0.82</v>
@@ -49501,7 +49528,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49782,7 +49809,7 @@
         <v>2.5</v>
       </c>
       <c r="AT252">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU252">
         <v>1.53</v>
@@ -49883,7 +49910,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -50074,7 +50101,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50355,7 +50382,7 @@
         <v>2.08</v>
       </c>
       <c r="AT255">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU255">
         <v>1.38</v>
@@ -50456,7 +50483,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50647,7 +50674,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -50734,7 +50761,7 @@
         <v>1.11</v>
       </c>
       <c r="AS257">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT257">
         <v>1</v>
@@ -51029,7 +51056,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51411,7 +51438,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51498,10 +51525,10 @@
         <v>0.67</v>
       </c>
       <c r="AS261">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT261">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU261">
         <v>1.33</v>
@@ -51602,7 +51629,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -51689,7 +51716,7 @@
         <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT262">
         <v>1.75</v>
@@ -51984,7 +52011,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52557,7 +52584,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52748,7 +52775,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -53029,7 +53056,7 @@
         <v>1.45</v>
       </c>
       <c r="AT269">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU269">
         <v>1.49</v>
@@ -53217,7 +53244,7 @@
         <v>1.33</v>
       </c>
       <c r="AS270">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT270">
         <v>1</v>
@@ -53408,10 +53435,10 @@
         <v>0.89</v>
       </c>
       <c r="AS271">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT271">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU271">
         <v>1.58</v>
@@ -53602,7 +53629,7 @@
         <v>1.27</v>
       </c>
       <c r="AT272">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU272">
         <v>1.3</v>
@@ -54276,7 +54303,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54366,7 +54393,7 @@
         <v>1.33</v>
       </c>
       <c r="AT276">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU276">
         <v>1.93</v>
@@ -54467,7 +54494,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54745,10 +54772,10 @@
         <v>1.75</v>
       </c>
       <c r="AS278">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT278">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU278">
         <v>1.66</v>
@@ -54849,7 +54876,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -55040,7 +55067,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55231,7 +55258,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55321,7 +55348,7 @@
         <v>1.27</v>
       </c>
       <c r="AT281">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU281">
         <v>1.25</v>
@@ -55509,7 +55536,7 @@
         <v>0.78</v>
       </c>
       <c r="AS282">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT282">
         <v>0.64</v>
@@ -55613,7 +55640,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -56082,7 +56109,7 @@
         <v>1.7</v>
       </c>
       <c r="AS285">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT285">
         <v>1.75</v>
@@ -56658,7 +56685,7 @@
         <v>1.2</v>
       </c>
       <c r="AT288">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU288">
         <v>1.54</v>
@@ -56849,7 +56876,7 @@
         <v>2.17</v>
       </c>
       <c r="AT289">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU289">
         <v>1.63</v>
@@ -57037,7 +57064,7 @@
         <v>0.9</v>
       </c>
       <c r="AS290">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT290">
         <v>0.82</v>
@@ -57141,7 +57168,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57332,7 +57359,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -57610,7 +57637,7 @@
         <v>0.5</v>
       </c>
       <c r="AS293">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT293">
         <v>0.5</v>
@@ -57905,7 +57932,7 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -58287,7 +58314,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -58377,7 +58404,7 @@
         <v>1.82</v>
       </c>
       <c r="AT297">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU297">
         <v>1.26</v>
@@ -58756,7 +58783,7 @@
         <v>1.1</v>
       </c>
       <c r="AS299">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT299">
         <v>1</v>
@@ -58860,7 +58887,7 @@
         <v>303</v>
       </c>
       <c r="P300" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -58950,7 +58977,7 @@
         <v>1.27</v>
       </c>
       <c r="AT300">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU300">
         <v>1.31</v>
@@ -59138,7 +59165,7 @@
         <v>1.3</v>
       </c>
       <c r="AS301">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT301">
         <v>1.18</v>
@@ -59329,7 +59356,7 @@
         <v>0.75</v>
       </c>
       <c r="AS302">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT302">
         <v>0.71</v>
@@ -59433,7 +59460,7 @@
         <v>96</v>
       </c>
       <c r="P303" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q303">
         <v>5</v>
@@ -59520,7 +59547,7 @@
         <v>1.44</v>
       </c>
       <c r="AS303">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT303">
         <v>1.45</v>
@@ -59624,7 +59651,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59714,7 +59741,7 @@
         <v>2.18</v>
       </c>
       <c r="AT304">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU304">
         <v>1.4</v>
@@ -59815,7 +59842,7 @@
         <v>305</v>
       </c>
       <c r="P305" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -60093,7 +60120,7 @@
         <v>1.2</v>
       </c>
       <c r="AS306">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT306">
         <v>1</v>
@@ -60197,7 +60224,7 @@
         <v>306</v>
       </c>
       <c r="P307" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60284,7 +60311,7 @@
         <v>0.73</v>
       </c>
       <c r="AS307">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT307">
         <v>0.6899999999999999</v>
@@ -60388,7 +60415,7 @@
         <v>307</v>
       </c>
       <c r="P308" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q308">
         <v>14</v>
@@ -60478,7 +60505,7 @@
         <v>1.2</v>
       </c>
       <c r="AT308">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU308">
         <v>1.62</v>
@@ -60860,7 +60887,7 @@
         <v>1.33</v>
       </c>
       <c r="AT310">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU310">
         <v>1.96</v>
@@ -61242,7 +61269,7 @@
         <v>2</v>
       </c>
       <c r="AT312">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU312">
         <v>1.95</v>
@@ -61343,7 +61370,7 @@
         <v>311</v>
       </c>
       <c r="P313" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q313">
         <v>8</v>
@@ -61430,7 +61457,7 @@
         <v>1.22</v>
       </c>
       <c r="AS313">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT313">
         <v>1.27</v>
@@ -61534,7 +61561,7 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -61624,7 +61651,7 @@
         <v>2.5</v>
       </c>
       <c r="AT314">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU314">
         <v>1.5</v>
@@ -61725,7 +61752,7 @@
         <v>313</v>
       </c>
       <c r="P315" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q315">
         <v>5</v>
@@ -61812,10 +61839,10 @@
         <v>1.4</v>
       </c>
       <c r="AS315">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT315">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU315">
         <v>1.61</v>
@@ -61916,7 +61943,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q316">
         <v>7</v>
@@ -62107,7 +62134,7 @@
         <v>314</v>
       </c>
       <c r="P317" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -62298,7 +62325,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62385,10 +62412,10 @@
         <v>1.18</v>
       </c>
       <c r="AS318">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT318">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU318">
         <v>1.39</v>
@@ -62579,7 +62606,7 @@
         <v>0.83</v>
       </c>
       <c r="AT319">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU319">
         <v>1.46</v>
@@ -62767,10 +62794,10 @@
         <v>0.45</v>
       </c>
       <c r="AS320">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT320">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU320">
         <v>1.12</v>
@@ -63340,10 +63367,10 @@
         <v>1.1</v>
       </c>
       <c r="AS323">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT323">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU323">
         <v>1.79</v>
@@ -63444,7 +63471,7 @@
         <v>124</v>
       </c>
       <c r="P324" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q324">
         <v>7</v>
@@ -63534,7 +63561,7 @@
         <v>2</v>
       </c>
       <c r="AT324">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU324">
         <v>1.68</v>
@@ -63916,7 +63943,7 @@
         <v>2.5</v>
       </c>
       <c r="AT326">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU326">
         <v>1.51</v>
@@ -64486,7 +64513,7 @@
         <v>0.36</v>
       </c>
       <c r="AS329">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT329">
         <v>0.33</v>
@@ -64868,7 +64895,7 @@
         <v>0.4</v>
       </c>
       <c r="AS331">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT331">
         <v>0.36</v>
@@ -65354,7 +65381,7 @@
         <v>325</v>
       </c>
       <c r="P334" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65545,7 +65572,7 @@
         <v>326</v>
       </c>
       <c r="P335" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65736,7 +65763,7 @@
         <v>327</v>
       </c>
       <c r="P336" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -65823,7 +65850,7 @@
         <v>0.82</v>
       </c>
       <c r="AS336">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT336">
         <v>0.83</v>
@@ -65927,7 +65954,7 @@
         <v>328</v>
       </c>
       <c r="P337" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q337">
         <v>4</v>
@@ -66014,7 +66041,7 @@
         <v>0.73</v>
       </c>
       <c r="AS337">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT337">
         <v>0.67</v>
@@ -66069,6 +66096,1725 @@
       </c>
       <c r="BK337">
         <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:63">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>4926285</v>
+      </c>
+      <c r="C338" t="s">
+        <v>63</v>
+      </c>
+      <c r="D338" t="s">
+        <v>64</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45158.85416666666</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338" t="s">
+        <v>87</v>
+      </c>
+      <c r="H338" t="s">
+        <v>91</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>2</v>
+      </c>
+      <c r="K338">
+        <v>2</v>
+      </c>
+      <c r="L338">
+        <v>2</v>
+      </c>
+      <c r="M338">
+        <v>3</v>
+      </c>
+      <c r="N338">
+        <v>5</v>
+      </c>
+      <c r="O338" t="s">
+        <v>329</v>
+      </c>
+      <c r="P338" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q338">
+        <v>7</v>
+      </c>
+      <c r="R338">
+        <v>2</v>
+      </c>
+      <c r="S338">
+        <v>9</v>
+      </c>
+      <c r="T338">
+        <v>3</v>
+      </c>
+      <c r="U338">
+        <v>2.2</v>
+      </c>
+      <c r="V338">
+        <v>3.5</v>
+      </c>
+      <c r="W338">
+        <v>1.36</v>
+      </c>
+      <c r="X338">
+        <v>3</v>
+      </c>
+      <c r="Y338">
+        <v>2.75</v>
+      </c>
+      <c r="Z338">
+        <v>1.4</v>
+      </c>
+      <c r="AA338">
+        <v>7</v>
+      </c>
+      <c r="AB338">
+        <v>1.1</v>
+      </c>
+      <c r="AC338">
+        <v>2.15</v>
+      </c>
+      <c r="AD338">
+        <v>3.7</v>
+      </c>
+      <c r="AE338">
+        <v>3.15</v>
+      </c>
+      <c r="AF338">
+        <v>1.03</v>
+      </c>
+      <c r="AG338">
+        <v>11.5</v>
+      </c>
+      <c r="AH338">
+        <v>1.27</v>
+      </c>
+      <c r="AI338">
+        <v>3.75</v>
+      </c>
+      <c r="AJ338">
+        <v>1.92</v>
+      </c>
+      <c r="AK338">
+        <v>1.96</v>
+      </c>
+      <c r="AL338">
+        <v>1.7</v>
+      </c>
+      <c r="AM338">
+        <v>2.05</v>
+      </c>
+      <c r="AN338">
+        <v>1.4</v>
+      </c>
+      <c r="AO338">
+        <v>1.25</v>
+      </c>
+      <c r="AP338">
+        <v>1.63</v>
+      </c>
+      <c r="AQ338">
+        <v>1.25</v>
+      </c>
+      <c r="AR338">
+        <v>0.42</v>
+      </c>
+      <c r="AS338">
+        <v>1.15</v>
+      </c>
+      <c r="AT338">
+        <v>0.62</v>
+      </c>
+      <c r="AU338">
+        <v>1.42</v>
+      </c>
+      <c r="AV338">
+        <v>1.18</v>
+      </c>
+      <c r="AW338">
+        <v>2.6</v>
+      </c>
+      <c r="AX338">
+        <v>1.81</v>
+      </c>
+      <c r="AY338">
+        <v>7.5</v>
+      </c>
+      <c r="AZ338">
+        <v>2.33</v>
+      </c>
+      <c r="BA338">
+        <v>1.32</v>
+      </c>
+      <c r="BB338">
+        <v>1.58</v>
+      </c>
+      <c r="BC338">
+        <v>1.97</v>
+      </c>
+      <c r="BD338">
+        <v>2.5</v>
+      </c>
+      <c r="BE338">
+        <v>3.35</v>
+      </c>
+      <c r="BF338">
+        <v>4</v>
+      </c>
+      <c r="BG338">
+        <v>7</v>
+      </c>
+      <c r="BH338">
+        <v>2</v>
+      </c>
+      <c r="BI338">
+        <v>5</v>
+      </c>
+      <c r="BJ338">
+        <v>6</v>
+      </c>
+      <c r="BK338">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:63">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>4926280</v>
+      </c>
+      <c r="C339" t="s">
+        <v>63</v>
+      </c>
+      <c r="D339" t="s">
+        <v>64</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45158.85416666666</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339" t="s">
+        <v>79</v>
+      </c>
+      <c r="H339" t="s">
+        <v>68</v>
+      </c>
+      <c r="I339">
+        <v>2</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>2</v>
+      </c>
+      <c r="L339">
+        <v>3</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>3</v>
+      </c>
+      <c r="O339" t="s">
+        <v>330</v>
+      </c>
+      <c r="P339" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q339">
+        <v>6</v>
+      </c>
+      <c r="R339">
+        <v>4</v>
+      </c>
+      <c r="S339">
+        <v>10</v>
+      </c>
+      <c r="T339">
+        <v>2.5</v>
+      </c>
+      <c r="U339">
+        <v>2.3</v>
+      </c>
+      <c r="V339">
+        <v>4</v>
+      </c>
+      <c r="W339">
+        <v>1.3</v>
+      </c>
+      <c r="X339">
+        <v>3.4</v>
+      </c>
+      <c r="Y339">
+        <v>2.5</v>
+      </c>
+      <c r="Z339">
+        <v>1.5</v>
+      </c>
+      <c r="AA339">
+        <v>6</v>
+      </c>
+      <c r="AB339">
+        <v>1.13</v>
+      </c>
+      <c r="AC339">
+        <v>2.08</v>
+      </c>
+      <c r="AD339">
+        <v>3.9</v>
+      </c>
+      <c r="AE339">
+        <v>3.2</v>
+      </c>
+      <c r="AF339">
+        <v>1.03</v>
+      </c>
+      <c r="AG339">
+        <v>15</v>
+      </c>
+      <c r="AH339">
+        <v>1.18</v>
+      </c>
+      <c r="AI339">
+        <v>4.8</v>
+      </c>
+      <c r="AJ339">
+        <v>1.62</v>
+      </c>
+      <c r="AK339">
+        <v>2.28</v>
+      </c>
+      <c r="AL339">
+        <v>1.57</v>
+      </c>
+      <c r="AM339">
+        <v>2.25</v>
+      </c>
+      <c r="AN339">
+        <v>1.3</v>
+      </c>
+      <c r="AO339">
+        <v>1.22</v>
+      </c>
+      <c r="AP339">
+        <v>1.83</v>
+      </c>
+      <c r="AQ339">
+        <v>2.25</v>
+      </c>
+      <c r="AR339">
+        <v>1.55</v>
+      </c>
+      <c r="AS339">
+        <v>2.31</v>
+      </c>
+      <c r="AT339">
+        <v>1.42</v>
+      </c>
+      <c r="AU339">
+        <v>1.79</v>
+      </c>
+      <c r="AV339">
+        <v>1.39</v>
+      </c>
+      <c r="AW339">
+        <v>3.18</v>
+      </c>
+      <c r="AX339">
+        <v>1.66</v>
+      </c>
+      <c r="AY339">
+        <v>8</v>
+      </c>
+      <c r="AZ339">
+        <v>2.6</v>
+      </c>
+      <c r="BA339">
+        <v>1.27</v>
+      </c>
+      <c r="BB339">
+        <v>1.49</v>
+      </c>
+      <c r="BC339">
+        <v>1.86</v>
+      </c>
+      <c r="BD339">
+        <v>2.35</v>
+      </c>
+      <c r="BE339">
+        <v>3.1</v>
+      </c>
+      <c r="BF339">
+        <v>10</v>
+      </c>
+      <c r="BG339">
+        <v>5</v>
+      </c>
+      <c r="BH339">
+        <v>4</v>
+      </c>
+      <c r="BI339">
+        <v>1</v>
+      </c>
+      <c r="BJ339">
+        <v>14</v>
+      </c>
+      <c r="BK339">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:63">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>4926282</v>
+      </c>
+      <c r="C340" t="s">
+        <v>63</v>
+      </c>
+      <c r="D340" t="s">
+        <v>64</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45158.85416666666</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340" t="s">
+        <v>81</v>
+      </c>
+      <c r="H340" t="s">
+        <v>69</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>1</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>1</v>
+      </c>
+      <c r="O340" t="s">
+        <v>111</v>
+      </c>
+      <c r="P340" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q340">
+        <v>6</v>
+      </c>
+      <c r="R340">
+        <v>3</v>
+      </c>
+      <c r="S340">
+        <v>9</v>
+      </c>
+      <c r="T340">
+        <v>2.4</v>
+      </c>
+      <c r="U340">
+        <v>2.2</v>
+      </c>
+      <c r="V340">
+        <v>4.75</v>
+      </c>
+      <c r="W340">
+        <v>1.36</v>
+      </c>
+      <c r="X340">
+        <v>3</v>
+      </c>
+      <c r="Y340">
+        <v>2.75</v>
+      </c>
+      <c r="Z340">
+        <v>1.4</v>
+      </c>
+      <c r="AA340">
+        <v>8</v>
+      </c>
+      <c r="AB340">
+        <v>1.08</v>
+      </c>
+      <c r="AC340">
+        <v>1.8</v>
+      </c>
+      <c r="AD340">
+        <v>3.9</v>
+      </c>
+      <c r="AE340">
+        <v>4.2</v>
+      </c>
+      <c r="AF340">
+        <v>1.05</v>
+      </c>
+      <c r="AG340">
+        <v>12</v>
+      </c>
+      <c r="AH340">
+        <v>1.29</v>
+      </c>
+      <c r="AI340">
+        <v>3.6</v>
+      </c>
+      <c r="AJ340">
+        <v>1.92</v>
+      </c>
+      <c r="AK340">
+        <v>1.96</v>
+      </c>
+      <c r="AL340">
+        <v>1.8</v>
+      </c>
+      <c r="AM340">
+        <v>1.95</v>
+      </c>
+      <c r="AN340">
+        <v>1.22</v>
+      </c>
+      <c r="AO340">
+        <v>1.22</v>
+      </c>
+      <c r="AP340">
+        <v>2</v>
+      </c>
+      <c r="AQ340">
+        <v>1.58</v>
+      </c>
+      <c r="AR340">
+        <v>1.08</v>
+      </c>
+      <c r="AS340">
+        <v>1.69</v>
+      </c>
+      <c r="AT340">
+        <v>1</v>
+      </c>
+      <c r="AU340">
+        <v>1.57</v>
+      </c>
+      <c r="AV340">
+        <v>1.47</v>
+      </c>
+      <c r="AW340">
+        <v>3.04</v>
+      </c>
+      <c r="AX340">
+        <v>1.54</v>
+      </c>
+      <c r="AY340">
+        <v>8</v>
+      </c>
+      <c r="AZ340">
+        <v>2.95</v>
+      </c>
+      <c r="BA340">
+        <v>1.32</v>
+      </c>
+      <c r="BB340">
+        <v>1.58</v>
+      </c>
+      <c r="BC340">
+        <v>1.97</v>
+      </c>
+      <c r="BD340">
+        <v>2.5</v>
+      </c>
+      <c r="BE340">
+        <v>3.35</v>
+      </c>
+      <c r="BF340">
+        <v>4</v>
+      </c>
+      <c r="BG340">
+        <v>0</v>
+      </c>
+      <c r="BH340">
+        <v>5</v>
+      </c>
+      <c r="BI340">
+        <v>4</v>
+      </c>
+      <c r="BJ340">
+        <v>9</v>
+      </c>
+      <c r="BK340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:63">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>4926283</v>
+      </c>
+      <c r="C341" t="s">
+        <v>63</v>
+      </c>
+      <c r="D341" t="s">
+        <v>64</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45158.85416666666</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341" t="s">
+        <v>86</v>
+      </c>
+      <c r="H341" t="s">
+        <v>89</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>2</v>
+      </c>
+      <c r="N341">
+        <v>2</v>
+      </c>
+      <c r="O341" t="s">
+        <v>96</v>
+      </c>
+      <c r="P341" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q341">
+        <v>3</v>
+      </c>
+      <c r="R341">
+        <v>5</v>
+      </c>
+      <c r="S341">
+        <v>8</v>
+      </c>
+      <c r="T341">
+        <v>2.5</v>
+      </c>
+      <c r="U341">
+        <v>2.2</v>
+      </c>
+      <c r="V341">
+        <v>4.33</v>
+      </c>
+      <c r="W341">
+        <v>1.36</v>
+      </c>
+      <c r="X341">
+        <v>3</v>
+      </c>
+      <c r="Y341">
+        <v>2.75</v>
+      </c>
+      <c r="Z341">
+        <v>1.4</v>
+      </c>
+      <c r="AA341">
+        <v>7</v>
+      </c>
+      <c r="AB341">
+        <v>1.1</v>
+      </c>
+      <c r="AC341">
+        <v>1.98</v>
+      </c>
+      <c r="AD341">
+        <v>3.75</v>
+      </c>
+      <c r="AE341">
+        <v>3.6</v>
+      </c>
+      <c r="AF341">
+        <v>1.04</v>
+      </c>
+      <c r="AG341">
+        <v>13</v>
+      </c>
+      <c r="AH341">
+        <v>1.28</v>
+      </c>
+      <c r="AI341">
+        <v>3.6</v>
+      </c>
+      <c r="AJ341">
+        <v>1.92</v>
+      </c>
+      <c r="AK341">
+        <v>1.96</v>
+      </c>
+      <c r="AL341">
+        <v>1.75</v>
+      </c>
+      <c r="AM341">
+        <v>2</v>
+      </c>
+      <c r="AN341">
+        <v>1.28</v>
+      </c>
+      <c r="AO341">
+        <v>1.22</v>
+      </c>
+      <c r="AP341">
+        <v>1.9</v>
+      </c>
+      <c r="AQ341">
+        <v>1.6</v>
+      </c>
+      <c r="AR341">
+        <v>1.33</v>
+      </c>
+      <c r="AS341">
+        <v>1.45</v>
+      </c>
+      <c r="AT341">
+        <v>1.46</v>
+      </c>
+      <c r="AU341">
+        <v>1.62</v>
+      </c>
+      <c r="AV341">
+        <v>1.29</v>
+      </c>
+      <c r="AW341">
+        <v>2.91</v>
+      </c>
+      <c r="AX341">
+        <v>1.63</v>
+      </c>
+      <c r="AY341">
+        <v>8</v>
+      </c>
+      <c r="AZ341">
+        <v>2.65</v>
+      </c>
+      <c r="BA341">
+        <v>1.3</v>
+      </c>
+      <c r="BB341">
+        <v>1.55</v>
+      </c>
+      <c r="BC341">
+        <v>1.94</v>
+      </c>
+      <c r="BD341">
+        <v>2.5</v>
+      </c>
+      <c r="BE341">
+        <v>3.3</v>
+      </c>
+      <c r="BF341">
+        <v>6</v>
+      </c>
+      <c r="BG341">
+        <v>5</v>
+      </c>
+      <c r="BH341">
+        <v>8</v>
+      </c>
+      <c r="BI341">
+        <v>6</v>
+      </c>
+      <c r="BJ341">
+        <v>14</v>
+      </c>
+      <c r="BK341">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:63">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>4926287</v>
+      </c>
+      <c r="C342" t="s">
+        <v>63</v>
+      </c>
+      <c r="D342" t="s">
+        <v>64</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45158.89583333334</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342" t="s">
+        <v>92</v>
+      </c>
+      <c r="H342" t="s">
+        <v>77</v>
+      </c>
+      <c r="I342">
+        <v>4</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>4</v>
+      </c>
+      <c r="L342">
+        <v>5</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>5</v>
+      </c>
+      <c r="O342" t="s">
+        <v>331</v>
+      </c>
+      <c r="P342" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q342">
+        <v>3</v>
+      </c>
+      <c r="R342">
+        <v>4</v>
+      </c>
+      <c r="S342">
+        <v>7</v>
+      </c>
+      <c r="T342">
+        <v>2.5</v>
+      </c>
+      <c r="U342">
+        <v>2.25</v>
+      </c>
+      <c r="V342">
+        <v>4.33</v>
+      </c>
+      <c r="W342">
+        <v>1.36</v>
+      </c>
+      <c r="X342">
+        <v>3</v>
+      </c>
+      <c r="Y342">
+        <v>2.63</v>
+      </c>
+      <c r="Z342">
+        <v>1.44</v>
+      </c>
+      <c r="AA342">
+        <v>7</v>
+      </c>
+      <c r="AB342">
+        <v>1.1</v>
+      </c>
+      <c r="AC342">
+        <v>1.96</v>
+      </c>
+      <c r="AD342">
+        <v>3.75</v>
+      </c>
+      <c r="AE342">
+        <v>3.65</v>
+      </c>
+      <c r="AF342">
+        <v>1.02</v>
+      </c>
+      <c r="AG342">
+        <v>12.5</v>
+      </c>
+      <c r="AH342">
+        <v>1.23</v>
+      </c>
+      <c r="AI342">
+        <v>4.1</v>
+      </c>
+      <c r="AJ342">
+        <v>1.92</v>
+      </c>
+      <c r="AK342">
+        <v>1.96</v>
+      </c>
+      <c r="AL342">
+        <v>1.7</v>
+      </c>
+      <c r="AM342">
+        <v>2.05</v>
+      </c>
+      <c r="AN342">
+        <v>1.26</v>
+      </c>
+      <c r="AO342">
+        <v>1.28</v>
+      </c>
+      <c r="AP342">
+        <v>1.97</v>
+      </c>
+      <c r="AQ342">
+        <v>2.09</v>
+      </c>
+      <c r="AR342">
+        <v>0.67</v>
+      </c>
+      <c r="AS342">
+        <v>2.17</v>
+      </c>
+      <c r="AT342">
+        <v>0.62</v>
+      </c>
+      <c r="AU342">
+        <v>1.47</v>
+      </c>
+      <c r="AV342">
+        <v>1.15</v>
+      </c>
+      <c r="AW342">
+        <v>2.62</v>
+      </c>
+      <c r="AX342">
+        <v>1.58</v>
+      </c>
+      <c r="AY342">
+        <v>8</v>
+      </c>
+      <c r="AZ342">
+        <v>2.85</v>
+      </c>
+      <c r="BA342">
+        <v>1.29</v>
+      </c>
+      <c r="BB342">
+        <v>1.55</v>
+      </c>
+      <c r="BC342">
+        <v>1.93</v>
+      </c>
+      <c r="BD342">
+        <v>2.48</v>
+      </c>
+      <c r="BE342">
+        <v>3.25</v>
+      </c>
+      <c r="BF342">
+        <v>9</v>
+      </c>
+      <c r="BG342">
+        <v>0</v>
+      </c>
+      <c r="BH342">
+        <v>2</v>
+      </c>
+      <c r="BI342">
+        <v>4</v>
+      </c>
+      <c r="BJ342">
+        <v>11</v>
+      </c>
+      <c r="BK342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:63">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>4926286</v>
+      </c>
+      <c r="C343" t="s">
+        <v>63</v>
+      </c>
+      <c r="D343" t="s">
+        <v>64</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45158.89583333334</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343" t="s">
+        <v>82</v>
+      </c>
+      <c r="H343" t="s">
+        <v>71</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343">
+        <v>3</v>
+      </c>
+      <c r="N343">
+        <v>4</v>
+      </c>
+      <c r="O343" t="s">
+        <v>287</v>
+      </c>
+      <c r="P343" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q343">
+        <v>3</v>
+      </c>
+      <c r="R343">
+        <v>6</v>
+      </c>
+      <c r="S343">
+        <v>9</v>
+      </c>
+      <c r="T343">
+        <v>2.88</v>
+      </c>
+      <c r="U343">
+        <v>2.2</v>
+      </c>
+      <c r="V343">
+        <v>3.6</v>
+      </c>
+      <c r="W343">
+        <v>1.36</v>
+      </c>
+      <c r="X343">
+        <v>3</v>
+      </c>
+      <c r="Y343">
+        <v>2.75</v>
+      </c>
+      <c r="Z343">
+        <v>1.4</v>
+      </c>
+      <c r="AA343">
+        <v>7</v>
+      </c>
+      <c r="AB343">
+        <v>1.1</v>
+      </c>
+      <c r="AC343">
+        <v>2.28</v>
+      </c>
+      <c r="AD343">
+        <v>3.65</v>
+      </c>
+      <c r="AE343">
+        <v>2.94</v>
+      </c>
+      <c r="AF343">
+        <v>1.04</v>
+      </c>
+      <c r="AG343">
+        <v>12</v>
+      </c>
+      <c r="AH343">
+        <v>1.28</v>
+      </c>
+      <c r="AI343">
+        <v>3.6</v>
+      </c>
+      <c r="AJ343">
+        <v>1.87</v>
+      </c>
+      <c r="AK343">
+        <v>2.01</v>
+      </c>
+      <c r="AL343">
+        <v>1.67</v>
+      </c>
+      <c r="AM343">
+        <v>2.1</v>
+      </c>
+      <c r="AN343">
+        <v>1.38</v>
+      </c>
+      <c r="AO343">
+        <v>1.25</v>
+      </c>
+      <c r="AP343">
+        <v>1.66</v>
+      </c>
+      <c r="AQ343">
+        <v>1.75</v>
+      </c>
+      <c r="AR343">
+        <v>1.64</v>
+      </c>
+      <c r="AS343">
+        <v>1.62</v>
+      </c>
+      <c r="AT343">
+        <v>1.75</v>
+      </c>
+      <c r="AU343">
+        <v>1.15</v>
+      </c>
+      <c r="AV343">
+        <v>1.28</v>
+      </c>
+      <c r="AW343">
+        <v>2.43</v>
+      </c>
+      <c r="AX343">
+        <v>1.76</v>
+      </c>
+      <c r="AY343">
+        <v>7.5</v>
+      </c>
+      <c r="AZ343">
+        <v>2.4</v>
+      </c>
+      <c r="BA343">
+        <v>1.29</v>
+      </c>
+      <c r="BB343">
+        <v>1.55</v>
+      </c>
+      <c r="BC343">
+        <v>1.93</v>
+      </c>
+      <c r="BD343">
+        <v>2.45</v>
+      </c>
+      <c r="BE343">
+        <v>3.25</v>
+      </c>
+      <c r="BF343">
+        <v>5</v>
+      </c>
+      <c r="BG343">
+        <v>6</v>
+      </c>
+      <c r="BH343">
+        <v>4</v>
+      </c>
+      <c r="BI343">
+        <v>3</v>
+      </c>
+      <c r="BJ343">
+        <v>9</v>
+      </c>
+      <c r="BK343">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:63">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>4926289</v>
+      </c>
+      <c r="C344" t="s">
+        <v>63</v>
+      </c>
+      <c r="D344" t="s">
+        <v>64</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45158.9375</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344" t="s">
+        <v>83</v>
+      </c>
+      <c r="H344" t="s">
+        <v>73</v>
+      </c>
+      <c r="I344">
+        <v>2</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>2</v>
+      </c>
+      <c r="L344">
+        <v>6</v>
+      </c>
+      <c r="M344">
+        <v>3</v>
+      </c>
+      <c r="N344">
+        <v>9</v>
+      </c>
+      <c r="O344" t="s">
+        <v>332</v>
+      </c>
+      <c r="P344" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q344">
+        <v>2</v>
+      </c>
+      <c r="R344">
+        <v>5</v>
+      </c>
+      <c r="S344">
+        <v>7</v>
+      </c>
+      <c r="T344">
+        <v>2.4</v>
+      </c>
+      <c r="U344">
+        <v>2.38</v>
+      </c>
+      <c r="V344">
+        <v>4</v>
+      </c>
+      <c r="W344">
+        <v>1.3</v>
+      </c>
+      <c r="X344">
+        <v>3.4</v>
+      </c>
+      <c r="Y344">
+        <v>2.38</v>
+      </c>
+      <c r="Z344">
+        <v>1.53</v>
+      </c>
+      <c r="AA344">
+        <v>6</v>
+      </c>
+      <c r="AB344">
+        <v>1.13</v>
+      </c>
+      <c r="AC344">
+        <v>1.88</v>
+      </c>
+      <c r="AD344">
+        <v>3.9</v>
+      </c>
+      <c r="AE344">
+        <v>3.8</v>
+      </c>
+      <c r="AF344">
+        <v>1.02</v>
+      </c>
+      <c r="AG344">
+        <v>15</v>
+      </c>
+      <c r="AH344">
+        <v>1.18</v>
+      </c>
+      <c r="AI344">
+        <v>4.15</v>
+      </c>
+      <c r="AJ344">
+        <v>1.58</v>
+      </c>
+      <c r="AK344">
+        <v>2.35</v>
+      </c>
+      <c r="AL344">
+        <v>1.57</v>
+      </c>
+      <c r="AM344">
+        <v>2.25</v>
+      </c>
+      <c r="AN344">
+        <v>1.25</v>
+      </c>
+      <c r="AO344">
+        <v>1.26</v>
+      </c>
+      <c r="AP344">
+        <v>1.95</v>
+      </c>
+      <c r="AQ344">
+        <v>2.08</v>
+      </c>
+      <c r="AR344">
+        <v>1</v>
+      </c>
+      <c r="AS344">
+        <v>2.15</v>
+      </c>
+      <c r="AT344">
+        <v>0.92</v>
+      </c>
+      <c r="AU344">
+        <v>1.69</v>
+      </c>
+      <c r="AV344">
+        <v>1.26</v>
+      </c>
+      <c r="AW344">
+        <v>2.95</v>
+      </c>
+      <c r="AX344">
+        <v>1.58</v>
+      </c>
+      <c r="AY344">
+        <v>7.5</v>
+      </c>
+      <c r="AZ344">
+        <v>2.8</v>
+      </c>
+      <c r="BA344">
+        <v>1.23</v>
+      </c>
+      <c r="BB344">
+        <v>1.44</v>
+      </c>
+      <c r="BC344">
+        <v>1.83</v>
+      </c>
+      <c r="BD344">
+        <v>2.35</v>
+      </c>
+      <c r="BE344">
+        <v>3.25</v>
+      </c>
+      <c r="BF344">
+        <v>11</v>
+      </c>
+      <c r="BG344">
+        <v>10</v>
+      </c>
+      <c r="BH344">
+        <v>5</v>
+      </c>
+      <c r="BI344">
+        <v>2</v>
+      </c>
+      <c r="BJ344">
+        <v>16</v>
+      </c>
+      <c r="BK344">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:63">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>4926292</v>
+      </c>
+      <c r="C345" t="s">
+        <v>63</v>
+      </c>
+      <c r="D345" t="s">
+        <v>64</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45158.97916666666</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345" t="s">
+        <v>76</v>
+      </c>
+      <c r="H345" t="s">
+        <v>66</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345">
+        <v>1</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <v>2</v>
+      </c>
+      <c r="N345">
+        <v>2</v>
+      </c>
+      <c r="O345" t="s">
+        <v>96</v>
+      </c>
+      <c r="P345" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q345">
+        <v>8</v>
+      </c>
+      <c r="R345">
+        <v>6</v>
+      </c>
+      <c r="S345">
+        <v>14</v>
+      </c>
+      <c r="T345">
+        <v>2.5</v>
+      </c>
+      <c r="U345">
+        <v>2.25</v>
+      </c>
+      <c r="V345">
+        <v>4.33</v>
+      </c>
+      <c r="W345">
+        <v>1.36</v>
+      </c>
+      <c r="X345">
+        <v>3</v>
+      </c>
+      <c r="Y345">
+        <v>2.75</v>
+      </c>
+      <c r="Z345">
+        <v>1.4</v>
+      </c>
+      <c r="AA345">
+        <v>7</v>
+      </c>
+      <c r="AB345">
+        <v>1.1</v>
+      </c>
+      <c r="AC345">
+        <v>1.96</v>
+      </c>
+      <c r="AD345">
+        <v>3.75</v>
+      </c>
+      <c r="AE345">
+        <v>3.65</v>
+      </c>
+      <c r="AF345">
+        <v>1.04</v>
+      </c>
+      <c r="AG345">
+        <v>11</v>
+      </c>
+      <c r="AH345">
+        <v>1.28</v>
+      </c>
+      <c r="AI345">
+        <v>3.6</v>
+      </c>
+      <c r="AJ345">
+        <v>1.92</v>
+      </c>
+      <c r="AK345">
+        <v>1.96</v>
+      </c>
+      <c r="AL345">
+        <v>1.75</v>
+      </c>
+      <c r="AM345">
+        <v>2</v>
+      </c>
+      <c r="AN345">
+        <v>1.25</v>
+      </c>
+      <c r="AO345">
+        <v>1.25</v>
+      </c>
+      <c r="AP345">
+        <v>1.9</v>
+      </c>
+      <c r="AQ345">
+        <v>1.69</v>
+      </c>
+      <c r="AR345">
+        <v>0.92</v>
+      </c>
+      <c r="AS345">
+        <v>1.57</v>
+      </c>
+      <c r="AT345">
+        <v>1.08</v>
+      </c>
+      <c r="AU345">
+        <v>1.61</v>
+      </c>
+      <c r="AV345">
+        <v>1.29</v>
+      </c>
+      <c r="AW345">
+        <v>2.9</v>
+      </c>
+      <c r="AX345">
+        <v>1.58</v>
+      </c>
+      <c r="AY345">
+        <v>8</v>
+      </c>
+      <c r="AZ345">
+        <v>2.85</v>
+      </c>
+      <c r="BA345">
+        <v>1.29</v>
+      </c>
+      <c r="BB345">
+        <v>1.55</v>
+      </c>
+      <c r="BC345">
+        <v>1.93</v>
+      </c>
+      <c r="BD345">
+        <v>2.45</v>
+      </c>
+      <c r="BE345">
+        <v>3.25</v>
+      </c>
+      <c r="BF345">
+        <v>3</v>
+      </c>
+      <c r="BG345">
+        <v>8</v>
+      </c>
+      <c r="BH345">
+        <v>10</v>
+      </c>
+      <c r="BI345">
+        <v>2</v>
+      </c>
+      <c r="BJ345">
+        <v>13</v>
+      </c>
+      <c r="BK345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:63">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>4926293</v>
+      </c>
+      <c r="C346" t="s">
+        <v>63</v>
+      </c>
+      <c r="D346" t="s">
+        <v>64</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45158.97916666666</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346" t="s">
+        <v>75</v>
+      </c>
+      <c r="H346" t="s">
+        <v>85</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+      <c r="M346">
+        <v>1</v>
+      </c>
+      <c r="N346">
+        <v>1</v>
+      </c>
+      <c r="O346" t="s">
+        <v>96</v>
+      </c>
+      <c r="P346" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q346">
+        <v>6</v>
+      </c>
+      <c r="R346">
+        <v>1</v>
+      </c>
+      <c r="S346">
+        <v>7</v>
+      </c>
+      <c r="T346">
+        <v>2.3</v>
+      </c>
+      <c r="U346">
+        <v>2.38</v>
+      </c>
+      <c r="V346">
+        <v>4.5</v>
+      </c>
+      <c r="W346">
+        <v>1.33</v>
+      </c>
+      <c r="X346">
+        <v>3.25</v>
+      </c>
+      <c r="Y346">
+        <v>2.5</v>
+      </c>
+      <c r="Z346">
+        <v>1.5</v>
+      </c>
+      <c r="AA346">
+        <v>6</v>
+      </c>
+      <c r="AB346">
+        <v>1.13</v>
+      </c>
+      <c r="AC346">
+        <v>1.85</v>
+      </c>
+      <c r="AD346">
+        <v>4</v>
+      </c>
+      <c r="AE346">
+        <v>3.85</v>
+      </c>
+      <c r="AF346">
+        <v>1.02</v>
+      </c>
+      <c r="AG346">
+        <v>15</v>
+      </c>
+      <c r="AH346">
+        <v>1.2</v>
+      </c>
+      <c r="AI346">
+        <v>4.33</v>
+      </c>
+      <c r="AJ346">
+        <v>1.81</v>
+      </c>
+      <c r="AK346">
+        <v>1.89</v>
+      </c>
+      <c r="AL346">
+        <v>1.67</v>
+      </c>
+      <c r="AM346">
+        <v>2.1</v>
+      </c>
+      <c r="AN346">
+        <v>1.22</v>
+      </c>
+      <c r="AO346">
+        <v>1.2</v>
+      </c>
+      <c r="AP346">
+        <v>2.05</v>
+      </c>
+      <c r="AQ346">
+        <v>1.92</v>
+      </c>
+      <c r="AR346">
+        <v>0.64</v>
+      </c>
+      <c r="AS346">
+        <v>1.79</v>
+      </c>
+      <c r="AT346">
+        <v>0.83</v>
+      </c>
+      <c r="AU346">
+        <v>1.79</v>
+      </c>
+      <c r="AV346">
+        <v>1.15</v>
+      </c>
+      <c r="AW346">
+        <v>2.94</v>
+      </c>
+      <c r="AX346">
+        <v>1.5</v>
+      </c>
+      <c r="AY346">
+        <v>8</v>
+      </c>
+      <c r="AZ346">
+        <v>3.2</v>
+      </c>
+      <c r="BA346">
+        <v>1.16</v>
+      </c>
+      <c r="BB346">
+        <v>1.32</v>
+      </c>
+      <c r="BC346">
+        <v>1.57</v>
+      </c>
+      <c r="BD346">
+        <v>1.91</v>
+      </c>
+      <c r="BE346">
+        <v>2.4</v>
+      </c>
+      <c r="BF346">
+        <v>9</v>
+      </c>
+      <c r="BG346">
+        <v>2</v>
+      </c>
+      <c r="BH346">
+        <v>8</v>
+      </c>
+      <c r="BI346">
+        <v>2</v>
+      </c>
+      <c r="BJ346">
+        <v>17</v>
+      </c>
+      <c r="BK346">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="451">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1015,6 +1015,9 @@
     <t>['22', '45+2', '50', '72', '88', '90+5']</t>
   </si>
   <si>
+    <t>['19', '29', '36', '83']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1725,7 +1728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK346"/>
+  <dimension ref="A1:BK347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2160,7 +2163,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2542,7 +2545,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2733,7 +2736,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -3497,7 +3500,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3688,7 +3691,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3879,7 +3882,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -4160,7 +4163,7 @@
         <v>1.57</v>
       </c>
       <c r="AT13">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4452,7 +4455,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4539,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT15">
         <v>0.62</v>
@@ -5980,7 +5983,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -7126,7 +7129,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -9036,7 +9039,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9227,7 +9230,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9508,7 +9511,7 @@
         <v>2.08</v>
       </c>
       <c r="AT41">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -9696,7 +9699,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT42">
         <v>1.18</v>
@@ -10182,7 +10185,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10564,7 +10567,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10755,7 +10758,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10946,7 +10949,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11328,7 +11331,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11519,7 +11522,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -12092,7 +12095,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12665,7 +12668,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12856,7 +12859,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -13047,7 +13050,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13238,7 +13241,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13429,7 +13432,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13710,7 +13713,7 @@
         <v>1.75</v>
       </c>
       <c r="AT63">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.34</v>
@@ -14002,7 +14005,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14384,7 +14387,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14575,7 +14578,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14766,7 +14769,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14853,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT69">
         <v>0.83</v>
@@ -15148,7 +15151,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15339,7 +15342,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15721,7 +15724,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -17440,7 +17443,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -18586,7 +18589,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19055,7 +19058,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT91">
         <v>0.92</v>
@@ -19631,7 +19634,7 @@
         <v>1.42</v>
       </c>
       <c r="AT94">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -20878,7 +20881,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21069,7 +21072,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21159,7 +21162,7 @@
         <v>1.27</v>
       </c>
       <c r="AT102">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU102">
         <v>1.34</v>
@@ -22215,7 +22218,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22788,7 +22791,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22979,7 +22982,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23743,7 +23746,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23934,7 +23937,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -24125,7 +24128,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24316,7 +24319,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24698,7 +24701,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -26035,7 +26038,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26990,7 +26993,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27181,7 +27184,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27563,7 +27566,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -28035,7 +28038,7 @@
         <v>1.79</v>
       </c>
       <c r="AT138">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU138">
         <v>2.02</v>
@@ -28709,7 +28712,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -30046,7 +30049,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30136,7 +30139,7 @@
         <v>1.4</v>
       </c>
       <c r="AT149">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU149">
         <v>1.91</v>
@@ -30237,7 +30240,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30428,7 +30431,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30619,7 +30622,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -31192,7 +31195,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31383,7 +31386,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31574,7 +31577,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -32529,7 +32532,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32720,7 +32723,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32911,7 +32914,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33956,7 +33959,7 @@
         <v>2</v>
       </c>
       <c r="AT169">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -34057,7 +34060,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34821,7 +34824,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -35394,7 +35397,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35481,7 +35484,7 @@
         <v>0.71</v>
       </c>
       <c r="AS177">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT177">
         <v>0.6899999999999999</v>
@@ -35585,7 +35588,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35967,7 +35970,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36349,7 +36352,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36731,7 +36734,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36922,7 +36925,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37304,7 +37307,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37686,7 +37689,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38155,7 +38158,7 @@
         <v>0.33</v>
       </c>
       <c r="AS191">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT191">
         <v>0.83</v>
@@ -38259,7 +38262,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38641,7 +38644,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -39023,7 +39026,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39214,7 +39217,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -40169,7 +40172,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40360,7 +40363,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40933,7 +40936,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -41124,7 +41127,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41315,7 +41318,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41506,7 +41509,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -42079,7 +42082,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42270,7 +42273,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42360,7 +42363,7 @@
         <v>2.31</v>
       </c>
       <c r="AT213">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU213">
         <v>1.9</v>
@@ -42843,7 +42846,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -43225,7 +43228,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43416,7 +43419,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -44180,7 +44183,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44371,7 +44374,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44753,7 +44756,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44944,7 +44947,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -45135,7 +45138,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45899,7 +45902,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46368,7 +46371,7 @@
         <v>0.88</v>
       </c>
       <c r="AS234">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT234">
         <v>1.08</v>
@@ -46472,7 +46475,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -47045,7 +47048,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47517,7 +47520,7 @@
         <v>1.58</v>
       </c>
       <c r="AT240">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU240">
         <v>1.49</v>
@@ -47809,7 +47812,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -48000,7 +48003,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -49233,7 +49236,7 @@
         <v>0.25</v>
       </c>
       <c r="AS249">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT249">
         <v>0.5</v>
@@ -49337,7 +49340,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49528,7 +49531,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49910,7 +49913,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -50101,7 +50104,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50483,7 +50486,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50674,7 +50677,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -51056,7 +51059,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51438,7 +51441,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51629,7 +51632,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -51907,7 +51910,7 @@
         <v>1.38</v>
       </c>
       <c r="AS263">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT263">
         <v>1.27</v>
@@ -52011,7 +52014,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52584,7 +52587,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52775,7 +52778,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -54303,7 +54306,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54494,7 +54497,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54581,7 +54584,7 @@
         <v>0.43</v>
       </c>
       <c r="AS277">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT277">
         <v>0.67</v>
@@ -54876,7 +54879,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -55067,7 +55070,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55258,7 +55261,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55640,7 +55643,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -57067,7 +57070,7 @@
         <v>2.15</v>
       </c>
       <c r="AT290">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU290">
         <v>1.61</v>
@@ -57168,7 +57171,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57359,7 +57362,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -57932,7 +57935,7 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -58314,7 +58317,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -58887,7 +58890,7 @@
         <v>303</v>
       </c>
       <c r="P300" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -59460,7 +59463,7 @@
         <v>96</v>
       </c>
       <c r="P303" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q303">
         <v>5</v>
@@ -59651,7 +59654,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59842,7 +59845,7 @@
         <v>305</v>
       </c>
       <c r="P305" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -60224,7 +60227,7 @@
         <v>306</v>
       </c>
       <c r="P307" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60415,7 +60418,7 @@
         <v>307</v>
       </c>
       <c r="P308" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q308">
         <v>14</v>
@@ -61266,7 +61269,7 @@
         <v>0.6</v>
       </c>
       <c r="AS312">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT312">
         <v>0.83</v>
@@ -61370,7 +61373,7 @@
         <v>311</v>
       </c>
       <c r="P313" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q313">
         <v>8</v>
@@ -61561,7 +61564,7 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -61752,7 +61755,7 @@
         <v>313</v>
       </c>
       <c r="P315" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q315">
         <v>5</v>
@@ -61943,7 +61946,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q316">
         <v>7</v>
@@ -62134,7 +62137,7 @@
         <v>314</v>
       </c>
       <c r="P317" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -62325,7 +62328,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62985,7 +62988,7 @@
         <v>1.6</v>
       </c>
       <c r="AS321">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT321">
         <v>1.45</v>
@@ -63471,7 +63474,7 @@
         <v>124</v>
       </c>
       <c r="P324" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q324">
         <v>7</v>
@@ -65381,7 +65384,7 @@
         <v>325</v>
       </c>
       <c r="P334" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65572,7 +65575,7 @@
         <v>326</v>
       </c>
       <c r="P335" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65763,7 +65766,7 @@
         <v>327</v>
       </c>
       <c r="P336" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -65954,7 +65957,7 @@
         <v>328</v>
       </c>
       <c r="P337" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q337">
         <v>4</v>
@@ -66145,7 +66148,7 @@
         <v>329</v>
       </c>
       <c r="P338" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q338">
         <v>7</v>
@@ -66342,10 +66345,10 @@
         <v>6</v>
       </c>
       <c r="R339">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S339">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T339">
         <v>2.5</v>
@@ -66718,7 +66721,7 @@
         <v>96</v>
       </c>
       <c r="P341" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q341">
         <v>3</v>
@@ -67100,7 +67103,7 @@
         <v>287</v>
       </c>
       <c r="P343" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67291,7 +67294,7 @@
         <v>332</v>
       </c>
       <c r="P344" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q344">
         <v>2</v>
@@ -67482,7 +67485,7 @@
         <v>96</v>
       </c>
       <c r="P345" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q345">
         <v>8</v>
@@ -67673,7 +67676,7 @@
         <v>96</v>
       </c>
       <c r="P346" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q346">
         <v>6</v>
@@ -67815,6 +67818,197 @@
       </c>
       <c r="BK346">
         <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:63">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>4926291</v>
+      </c>
+      <c r="C347" t="s">
+        <v>63</v>
+      </c>
+      <c r="D347" t="s">
+        <v>64</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45161.97916666666</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347" t="s">
+        <v>78</v>
+      </c>
+      <c r="H347" t="s">
+        <v>84</v>
+      </c>
+      <c r="I347">
+        <v>3</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>3</v>
+      </c>
+      <c r="L347">
+        <v>4</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>4</v>
+      </c>
+      <c r="O347" t="s">
+        <v>333</v>
+      </c>
+      <c r="P347" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q347">
+        <v>3</v>
+      </c>
+      <c r="R347">
+        <v>3</v>
+      </c>
+      <c r="S347">
+        <v>6</v>
+      </c>
+      <c r="T347">
+        <v>1.95</v>
+      </c>
+      <c r="U347">
+        <v>2.5</v>
+      </c>
+      <c r="V347">
+        <v>6</v>
+      </c>
+      <c r="W347">
+        <v>1.3</v>
+      </c>
+      <c r="X347">
+        <v>3.4</v>
+      </c>
+      <c r="Y347">
+        <v>2.38</v>
+      </c>
+      <c r="Z347">
+        <v>1.53</v>
+      </c>
+      <c r="AA347">
+        <v>6</v>
+      </c>
+      <c r="AB347">
+        <v>1.13</v>
+      </c>
+      <c r="AC347">
+        <v>1.48</v>
+      </c>
+      <c r="AD347">
+        <v>4.8</v>
+      </c>
+      <c r="AE347">
+        <v>7</v>
+      </c>
+      <c r="AF347">
+        <v>1.02</v>
+      </c>
+      <c r="AG347">
+        <v>17</v>
+      </c>
+      <c r="AH347">
+        <v>1.18</v>
+      </c>
+      <c r="AI347">
+        <v>4.75</v>
+      </c>
+      <c r="AJ347">
+        <v>1.62</v>
+      </c>
+      <c r="AK347">
+        <v>2.31</v>
+      </c>
+      <c r="AL347">
+        <v>1.8</v>
+      </c>
+      <c r="AM347">
+        <v>1.95</v>
+      </c>
+      <c r="AN347">
+        <v>1.1</v>
+      </c>
+      <c r="AO347">
+        <v>1.18</v>
+      </c>
+      <c r="AP347">
+        <v>2.7</v>
+      </c>
+      <c r="AQ347">
+        <v>2</v>
+      </c>
+      <c r="AR347">
+        <v>0.82</v>
+      </c>
+      <c r="AS347">
+        <v>2.08</v>
+      </c>
+      <c r="AT347">
+        <v>0.75</v>
+      </c>
+      <c r="AU347">
+        <v>1.87</v>
+      </c>
+      <c r="AV347">
+        <v>1.1</v>
+      </c>
+      <c r="AW347">
+        <v>2.97</v>
+      </c>
+      <c r="AX347">
+        <v>1.38</v>
+      </c>
+      <c r="AY347">
+        <v>8.5</v>
+      </c>
+      <c r="AZ347">
+        <v>3.75</v>
+      </c>
+      <c r="BA347">
+        <v>1.24</v>
+      </c>
+      <c r="BB347">
+        <v>1.47</v>
+      </c>
+      <c r="BC347">
+        <v>1.81</v>
+      </c>
+      <c r="BD347">
+        <v>2.25</v>
+      </c>
+      <c r="BE347">
+        <v>2.95</v>
+      </c>
+      <c r="BF347">
+        <v>9</v>
+      </c>
+      <c r="BG347">
+        <v>5</v>
+      </c>
+      <c r="BH347">
+        <v>7</v>
+      </c>
+      <c r="BI347">
+        <v>5</v>
+      </c>
+      <c r="BJ347">
+        <v>16</v>
+      </c>
+      <c r="BK347">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="463">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1018,6 +1018,33 @@
     <t>['19', '29', '36', '83']</t>
   </si>
   <si>
+    <t>['21', '88']</t>
+  </si>
+  <si>
+    <t>['26', '46', '57', '87']</t>
+  </si>
+  <si>
+    <t>['29', '75']</t>
+  </si>
+  <si>
+    <t>['6', '52', '59']</t>
+  </si>
+  <si>
+    <t>['48', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['3', '42', '69']</t>
+  </si>
+  <si>
+    <t>['53', '85']</t>
+  </si>
+  <si>
+    <t>['29', '72', '90']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1367,6 +1394,15 @@
   </si>
   <si>
     <t>['11', '65']</t>
+  </si>
+  <si>
+    <t>['5', '13', '38']</t>
+  </si>
+  <si>
+    <t>['9', '29', '75']</t>
+  </si>
+  <si>
+    <t>['13', '36', '60']</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK347"/>
+  <dimension ref="A1:BK360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2062,7 +2098,7 @@
         <v>2.17</v>
       </c>
       <c r="AT2">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2163,7 +2199,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2250,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT3">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2441,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT4">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2545,7 +2581,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2632,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2736,7 +2772,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2823,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3205,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT8">
         <v>0.64</v>
@@ -3500,7 +3536,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3590,7 +3626,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3691,7 +3727,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3778,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT11">
         <v>1.46</v>
@@ -3882,7 +3918,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -4351,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>0.6899999999999999</v>
@@ -4455,7 +4491,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4733,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT16">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU16">
         <v>2.25</v>
@@ -4924,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -5118,7 +5154,7 @@
         <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -5309,7 +5345,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5497,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5688,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT21">
         <v>1.42</v>
@@ -5983,7 +6019,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6073,7 +6109,7 @@
         <v>1.62</v>
       </c>
       <c r="AT23">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6261,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT24">
         <v>0.67</v>
@@ -7028,7 +7064,7 @@
         <v>2.08</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7129,7 +7165,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7216,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
         <v>1.08</v>
@@ -7598,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT31">
         <v>1.27</v>
@@ -7789,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
         <v>1.75</v>
@@ -7983,7 +8019,7 @@
         <v>1.45</v>
       </c>
       <c r="AT33">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -8174,7 +8210,7 @@
         <v>2.36</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU34">
         <v>1.59</v>
@@ -8553,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT36">
         <v>0.67</v>
@@ -9039,7 +9075,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9126,10 +9162,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT39">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9230,7 +9266,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9317,10 +9353,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT40">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU40">
         <v>1.06</v>
@@ -9702,7 +9738,7 @@
         <v>2.08</v>
       </c>
       <c r="AT42">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -9893,7 +9929,7 @@
         <v>1.57</v>
       </c>
       <c r="AT43">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU43">
         <v>2</v>
@@ -10081,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT44">
         <v>0.62</v>
@@ -10185,7 +10221,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10272,10 +10308,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT45">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10466,7 +10502,7 @@
         <v>2.5</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10567,7 +10603,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10654,7 +10690,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT47">
         <v>0.82</v>
@@ -10758,7 +10794,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10949,7 +10985,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11036,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -11230,7 +11266,7 @@
         <v>1.15</v>
       </c>
       <c r="AT50">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -11331,7 +11367,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11522,7 +11558,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11609,7 +11645,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT52">
         <v>0.6899999999999999</v>
@@ -11803,7 +11839,7 @@
         <v>2.17</v>
       </c>
       <c r="AT53">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11994,7 +12030,7 @@
         <v>2.15</v>
       </c>
       <c r="AT54">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU54">
         <v>1.38</v>
@@ -12095,7 +12131,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12373,10 +12409,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT56">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12564,7 +12600,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT57">
         <v>0.67</v>
@@ -12668,7 +12704,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12859,7 +12895,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12946,10 +12982,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU59">
         <v>1.59</v>
@@ -13050,7 +13086,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13140,7 +13176,7 @@
         <v>1.27</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU60">
         <v>1.52</v>
@@ -13241,7 +13277,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13328,7 +13364,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT61">
         <v>0.64</v>
@@ -13432,7 +13468,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13519,7 +13555,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT62">
         <v>1.08</v>
@@ -13904,7 +13940,7 @@
         <v>2.17</v>
       </c>
       <c r="AT64">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.56</v>
@@ -14005,7 +14041,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14092,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT65">
         <v>1.27</v>
@@ -14286,7 +14322,7 @@
         <v>1.2</v>
       </c>
       <c r="AT66">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU66">
         <v>1.14</v>
@@ -14387,7 +14423,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14578,7 +14614,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14665,10 +14701,10 @@
         <v>3</v>
       </c>
       <c r="AS68">
+        <v>1.23</v>
+      </c>
+      <c r="AT68">
         <v>1.33</v>
-      </c>
-      <c r="AT68">
-        <v>1.45</v>
       </c>
       <c r="AU68">
         <v>1.9</v>
@@ -14769,7 +14805,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -15050,7 +15086,7 @@
         <v>2.08</v>
       </c>
       <c r="AT70">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU70">
         <v>1.67</v>
@@ -15151,7 +15187,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15342,7 +15378,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15429,10 +15465,10 @@
         <v>0.5</v>
       </c>
       <c r="AS72">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU72">
         <v>1.24</v>
@@ -15623,7 +15659,7 @@
         <v>2.5</v>
       </c>
       <c r="AT73">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU73">
         <v>1.3</v>
@@ -15724,7 +15760,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15811,7 +15847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT74">
         <v>1.27</v>
@@ -16002,7 +16038,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT75">
         <v>1.75</v>
@@ -16193,10 +16229,10 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT76">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU76">
         <v>1.31</v>
@@ -16384,7 +16420,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT77">
         <v>0.64</v>
@@ -16766,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT79">
         <v>0.62</v>
@@ -17342,7 +17378,7 @@
         <v>0.83</v>
       </c>
       <c r="AT82">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU82">
         <v>1.36</v>
@@ -17443,7 +17479,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17533,7 +17569,7 @@
         <v>2.08</v>
       </c>
       <c r="AT83">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -18485,10 +18521,10 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT88">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU88">
         <v>1.29</v>
@@ -18589,7 +18625,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18676,7 +18712,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT89">
         <v>0.82</v>
@@ -18867,10 +18903,10 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT90">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU90">
         <v>1.26</v>
@@ -19061,7 +19097,7 @@
         <v>2.08</v>
       </c>
       <c r="AT91">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU91">
         <v>1.97</v>
@@ -19631,7 +19667,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT94">
         <v>0.75</v>
@@ -19825,7 +19861,7 @@
         <v>2.17</v>
       </c>
       <c r="AT95">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU95">
         <v>1.36</v>
@@ -20013,7 +20049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -20207,7 +20243,7 @@
         <v>1.57</v>
       </c>
       <c r="AT97">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU97">
         <v>1.83</v>
@@ -20589,7 +20625,7 @@
         <v>1.45</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU99">
         <v>1.49</v>
@@ -20777,7 +20813,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20881,7 +20917,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21072,7 +21108,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21159,7 +21195,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT102">
         <v>0.75</v>
@@ -21350,10 +21386,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT103">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -21541,10 +21577,10 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU104">
         <v>1.41</v>
@@ -21735,7 +21771,7 @@
         <v>1.75</v>
       </c>
       <c r="AT105">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU105">
         <v>1.29</v>
@@ -21926,7 +21962,7 @@
         <v>1.62</v>
       </c>
       <c r="AT106">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU106">
         <v>1.15</v>
@@ -22114,7 +22150,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT107">
         <v>1.75</v>
@@ -22218,7 +22254,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22496,7 +22532,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
         <v>1.27</v>
@@ -22791,7 +22827,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22982,7 +23018,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23069,10 +23105,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT112">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU112">
         <v>2.2</v>
@@ -23260,7 +23296,7 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT113">
         <v>0.82</v>
@@ -23451,7 +23487,7 @@
         <v>0.25</v>
       </c>
       <c r="AS114">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT114">
         <v>0.62</v>
@@ -23642,7 +23678,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT115">
         <v>0.64</v>
@@ -23746,7 +23782,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23937,7 +23973,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -24128,7 +24164,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24215,7 +24251,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -24319,7 +24355,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24409,7 +24445,7 @@
         <v>2.36</v>
       </c>
       <c r="AT119">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU119">
         <v>1.66</v>
@@ -24600,7 +24636,7 @@
         <v>2.17</v>
       </c>
       <c r="AT120">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU120">
         <v>1.28</v>
@@ -24701,7 +24737,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24791,7 +24827,7 @@
         <v>2.17</v>
       </c>
       <c r="AT121">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU121">
         <v>1.3</v>
@@ -24979,10 +25015,10 @@
         <v>0.33</v>
       </c>
       <c r="AS122">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT122">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -25173,7 +25209,7 @@
         <v>0.83</v>
       </c>
       <c r="AT123">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25361,10 +25397,10 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT124">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -25743,10 +25779,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT126">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -26038,7 +26074,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26125,10 +26161,10 @@
         <v>0</v>
       </c>
       <c r="AS128">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT128">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU128">
         <v>1.75</v>
@@ -26316,7 +26352,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -26698,7 +26734,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT131">
         <v>0.67</v>
@@ -26892,7 +26928,7 @@
         <v>1.15</v>
       </c>
       <c r="AT132">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU132">
         <v>1.23</v>
@@ -26993,7 +27029,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27184,7 +27220,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27271,7 +27307,7 @@
         <v>0</v>
       </c>
       <c r="AS134">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT134">
         <v>0.62</v>
@@ -27566,7 +27602,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27656,7 +27692,7 @@
         <v>1.75</v>
       </c>
       <c r="AT136">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU136">
         <v>1.44</v>
@@ -27844,7 +27880,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT137">
         <v>1.27</v>
@@ -28420,7 +28456,7 @@
         <v>1.15</v>
       </c>
       <c r="AT140">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU140">
         <v>1.27</v>
@@ -28611,7 +28647,7 @@
         <v>2.08</v>
       </c>
       <c r="AT141">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU141">
         <v>1.54</v>
@@ -28712,7 +28748,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28799,10 +28835,10 @@
         <v>0.4</v>
       </c>
       <c r="AS142">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT142">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU142">
         <v>1.33</v>
@@ -28990,7 +29026,7 @@
         <v>1.4</v>
       </c>
       <c r="AS143">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -29372,7 +29408,7 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT145">
         <v>1.75</v>
@@ -29563,10 +29599,10 @@
         <v>0.25</v>
       </c>
       <c r="AS146">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT146">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29948,7 +29984,7 @@
         <v>2.17</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU148">
         <v>1.31</v>
@@ -30049,7 +30085,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30136,7 +30172,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT149">
         <v>0.75</v>
@@ -30240,7 +30276,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30431,7 +30467,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30518,10 +30554,10 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU151">
         <v>1.3</v>
@@ -30622,7 +30658,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30903,7 +30939,7 @@
         <v>1.62</v>
       </c>
       <c r="AT153">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU153">
         <v>1.16</v>
@@ -31091,10 +31127,10 @@
         <v>0.33</v>
       </c>
       <c r="AS154">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT154">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -31195,7 +31231,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31282,7 +31318,7 @@
         <v>0.8</v>
       </c>
       <c r="AS155">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT155">
         <v>1</v>
@@ -31386,7 +31422,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31473,7 +31509,7 @@
         <v>1.75</v>
       </c>
       <c r="AS156">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT156">
         <v>1.75</v>
@@ -31577,7 +31613,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31664,10 +31700,10 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU157">
         <v>1.54</v>
@@ -31858,7 +31894,7 @@
         <v>1.27</v>
       </c>
       <c r="AT158">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU158">
         <v>1.41</v>
@@ -32046,10 +32082,10 @@
         <v>0.6</v>
       </c>
       <c r="AS159">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT159">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU159">
         <v>1.17</v>
@@ -32237,7 +32273,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT160">
         <v>1.46</v>
@@ -32532,7 +32568,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32723,7 +32759,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32813,7 +32849,7 @@
         <v>0.83</v>
       </c>
       <c r="AT163">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32914,7 +32950,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33001,10 +33037,10 @@
         <v>1.2</v>
       </c>
       <c r="AS164">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT164">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU164">
         <v>1.78</v>
@@ -33192,10 +33228,10 @@
         <v>0.75</v>
       </c>
       <c r="AS165">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU165">
         <v>1.3</v>
@@ -33383,10 +33419,10 @@
         <v>0.4</v>
       </c>
       <c r="AS166">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT166">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU166">
         <v>2</v>
@@ -33574,10 +33610,10 @@
         <v>0.29</v>
       </c>
       <c r="AS167">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT167">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -33956,7 +33992,7 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT169">
         <v>0.75</v>
@@ -34060,7 +34096,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34147,10 +34183,10 @@
         <v>0.75</v>
       </c>
       <c r="AS170">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT170">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU170">
         <v>1.31</v>
@@ -34338,7 +34374,7 @@
         <v>0.5</v>
       </c>
       <c r="AS171">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT171">
         <v>0.62</v>
@@ -34529,7 +34565,7 @@
         <v>0.4</v>
       </c>
       <c r="AS172">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT172">
         <v>0.67</v>
@@ -34824,7 +34860,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34914,7 +34950,7 @@
         <v>2.17</v>
       </c>
       <c r="AT174">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU174">
         <v>1.55</v>
@@ -35105,7 +35141,7 @@
         <v>1.2</v>
       </c>
       <c r="AT175">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -35293,10 +35329,10 @@
         <v>0.6</v>
       </c>
       <c r="AS176">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT176">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU176">
         <v>1.23</v>
@@ -35397,7 +35433,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35588,7 +35624,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35678,7 +35714,7 @@
         <v>1.57</v>
       </c>
       <c r="AT178">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU178">
         <v>1.6</v>
@@ -35866,7 +35902,7 @@
         <v>0.67</v>
       </c>
       <c r="AS179">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT179">
         <v>0.62</v>
@@ -35970,7 +36006,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36057,7 +36093,7 @@
         <v>0.43</v>
       </c>
       <c r="AS180">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT180">
         <v>0.62</v>
@@ -36251,7 +36287,7 @@
         <v>2.36</v>
       </c>
       <c r="AT181">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU181">
         <v>1.67</v>
@@ -36352,7 +36388,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36630,7 +36666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT183">
         <v>0.67</v>
@@ -36734,7 +36770,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36821,7 +36857,7 @@
         <v>0.8</v>
       </c>
       <c r="AS184">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT184">
         <v>0.82</v>
@@ -36925,7 +36961,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37012,10 +37048,10 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT185">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU185">
         <v>1.29</v>
@@ -37206,7 +37242,7 @@
         <v>1.75</v>
       </c>
       <c r="AT186">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU186">
         <v>1.45</v>
@@ -37307,7 +37343,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37585,10 +37621,10 @@
         <v>0.2</v>
       </c>
       <c r="AS188">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT188">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU188">
         <v>1.27</v>
@@ -37689,7 +37725,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38161,7 +38197,7 @@
         <v>2.08</v>
       </c>
       <c r="AT191">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU191">
         <v>1.97</v>
@@ -38262,7 +38298,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38349,7 +38385,7 @@
         <v>1.29</v>
       </c>
       <c r="AS192">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT192">
         <v>1.46</v>
@@ -38644,7 +38680,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38922,7 +38958,7 @@
         <v>0.86</v>
       </c>
       <c r="AS195">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT195">
         <v>1.08</v>
@@ -39026,7 +39062,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39116,7 +39152,7 @@
         <v>1.45</v>
       </c>
       <c r="AT196">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU196">
         <v>1.54</v>
@@ -39217,7 +39253,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39307,7 +39343,7 @@
         <v>2.5</v>
       </c>
       <c r="AT197">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU197">
         <v>1.56</v>
@@ -39495,10 +39531,10 @@
         <v>0.5</v>
       </c>
       <c r="AS198">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT198">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU198">
         <v>1.31</v>
@@ -39689,7 +39725,7 @@
         <v>2.17</v>
       </c>
       <c r="AT199">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU199">
         <v>1.21</v>
@@ -40071,7 +40107,7 @@
         <v>2.15</v>
       </c>
       <c r="AT201">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU201">
         <v>1.55</v>
@@ -40172,7 +40208,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40363,7 +40399,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40450,7 +40486,7 @@
         <v>1.17</v>
       </c>
       <c r="AS203">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT203">
         <v>1</v>
@@ -40936,7 +40972,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -41023,7 +41059,7 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT206">
         <v>0.62</v>
@@ -41127,7 +41163,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41318,7 +41354,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41405,10 +41441,10 @@
         <v>1.43</v>
       </c>
       <c r="AS208">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT208">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU208">
         <v>1.79</v>
@@ -41509,7 +41545,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41981,7 +42017,7 @@
         <v>1.15</v>
       </c>
       <c r="AT211">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU211">
         <v>1.43</v>
@@ -42082,7 +42118,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42169,7 +42205,7 @@
         <v>0.38</v>
       </c>
       <c r="AS212">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT212">
         <v>0.62</v>
@@ -42273,7 +42309,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42360,7 +42396,7 @@
         <v>1.13</v>
       </c>
       <c r="AS213">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT213">
         <v>0.75</v>
@@ -42846,7 +42882,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42933,7 +42969,7 @@
         <v>0.29</v>
       </c>
       <c r="AS216">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT216">
         <v>0.67</v>
@@ -43124,7 +43160,7 @@
         <v>1.29</v>
       </c>
       <c r="AS217">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT217">
         <v>0.83</v>
@@ -43228,7 +43264,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43318,7 +43354,7 @@
         <v>1.57</v>
       </c>
       <c r="AT218">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU218">
         <v>1.57</v>
@@ -43419,7 +43455,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43509,7 +43545,7 @@
         <v>1.79</v>
       </c>
       <c r="AT219">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU219">
         <v>2</v>
@@ -43700,7 +43736,7 @@
         <v>1.45</v>
       </c>
       <c r="AT220">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU220">
         <v>1.63</v>
@@ -44183,7 +44219,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44270,7 +44306,7 @@
         <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT223">
         <v>1.75</v>
@@ -44374,7 +44410,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44652,10 +44688,10 @@
         <v>0.71</v>
       </c>
       <c r="AS225">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT225">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU225">
         <v>1.33</v>
@@ -44756,7 +44792,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44843,7 +44879,7 @@
         <v>1.25</v>
       </c>
       <c r="AS226">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT226">
         <v>1</v>
@@ -44947,7 +44983,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -45138,7 +45174,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45225,10 +45261,10 @@
         <v>1.33</v>
       </c>
       <c r="AS228">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT228">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU228">
         <v>1.31</v>
@@ -45419,7 +45455,7 @@
         <v>1.2</v>
       </c>
       <c r="AT229">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU229">
         <v>1.51</v>
@@ -45610,7 +45646,7 @@
         <v>2.15</v>
       </c>
       <c r="AT230">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU230">
         <v>1.61</v>
@@ -45801,7 +45837,7 @@
         <v>0.83</v>
       </c>
       <c r="AT231">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU231">
         <v>1.58</v>
@@ -45902,7 +45938,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46180,10 +46216,10 @@
         <v>1.67</v>
       </c>
       <c r="AS233">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT233">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU233">
         <v>1.33</v>
@@ -46475,7 +46511,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -46562,7 +46598,7 @@
         <v>1.43</v>
       </c>
       <c r="AS235">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT235">
         <v>1.27</v>
@@ -46756,7 +46792,7 @@
         <v>1.15</v>
       </c>
       <c r="AT236">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU236">
         <v>1.52</v>
@@ -46944,7 +46980,7 @@
         <v>1.22</v>
       </c>
       <c r="AS237">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT237">
         <v>1</v>
@@ -47048,7 +47084,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47138,7 +47174,7 @@
         <v>2.5</v>
       </c>
       <c r="AT238">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU238">
         <v>1.57</v>
@@ -47326,7 +47362,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT239">
         <v>1.46</v>
@@ -47517,7 +47553,7 @@
         <v>1</v>
       </c>
       <c r="AS240">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT240">
         <v>0.75</v>
@@ -47711,7 +47747,7 @@
         <v>2.17</v>
       </c>
       <c r="AT241">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU241">
         <v>1.31</v>
@@ -47812,7 +47848,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -48003,7 +48039,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -48090,10 +48126,10 @@
         <v>1</v>
       </c>
       <c r="AS243">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT243">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -48281,10 +48317,10 @@
         <v>0.38</v>
       </c>
       <c r="AS244">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT244">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU244">
         <v>1.94</v>
@@ -48666,7 +48702,7 @@
         <v>2.08</v>
       </c>
       <c r="AT246">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU246">
         <v>1.41</v>
@@ -49045,7 +49081,7 @@
         <v>1.13</v>
       </c>
       <c r="AS248">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT248">
         <v>0.83</v>
@@ -49239,7 +49275,7 @@
         <v>2.08</v>
       </c>
       <c r="AT249">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU249">
         <v>2.06</v>
@@ -49340,7 +49376,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49531,7 +49567,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49618,7 +49654,7 @@
         <v>1.38</v>
       </c>
       <c r="AS251">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT251">
         <v>1.75</v>
@@ -49913,7 +49949,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -50000,10 +50036,10 @@
         <v>1.29</v>
       </c>
       <c r="AS253">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT253">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU253">
         <v>1.69</v>
@@ -50104,7 +50140,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50194,7 +50230,7 @@
         <v>2.17</v>
       </c>
       <c r="AT254">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU254">
         <v>1.66</v>
@@ -50486,7 +50522,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50573,10 +50609,10 @@
         <v>1.25</v>
       </c>
       <c r="AS256">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT256">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU256">
         <v>1.52</v>
@@ -50677,7 +50713,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -50764,7 +50800,7 @@
         <v>1.11</v>
       </c>
       <c r="AS257">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT257">
         <v>1</v>
@@ -50955,10 +50991,10 @@
         <v>1.5</v>
       </c>
       <c r="AS258">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT258">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU258">
         <v>1.37</v>
@@ -51059,7 +51095,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51146,10 +51182,10 @@
         <v>0.44</v>
       </c>
       <c r="AS259">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT259">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU259">
         <v>1.76</v>
@@ -51337,10 +51373,10 @@
         <v>0.5</v>
       </c>
       <c r="AS260">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT260">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU260">
         <v>1.3</v>
@@ -51441,7 +51477,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51531,7 +51567,7 @@
         <v>2.17</v>
       </c>
       <c r="AT261">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU261">
         <v>1.33</v>
@@ -51632,7 +51668,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -52014,7 +52050,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52101,7 +52137,7 @@
         <v>0.7</v>
       </c>
       <c r="AS264">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT264">
         <v>0.6899999999999999</v>
@@ -52292,10 +52328,10 @@
         <v>0.63</v>
       </c>
       <c r="AS265">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT265">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU265">
         <v>1.61</v>
@@ -52587,7 +52623,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52677,7 +52713,7 @@
         <v>2.5</v>
       </c>
       <c r="AT267">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU267">
         <v>1.53</v>
@@ -52778,7 +52814,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -52868,7 +52904,7 @@
         <v>2.36</v>
       </c>
       <c r="AT268">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU268">
         <v>1.74</v>
@@ -53056,7 +53092,7 @@
         <v>1.63</v>
       </c>
       <c r="AS269">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT269">
         <v>1.42</v>
@@ -53247,10 +53283,10 @@
         <v>1.33</v>
       </c>
       <c r="AS270">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT270">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU270">
         <v>1.94</v>
@@ -53438,7 +53474,7 @@
         <v>0.89</v>
       </c>
       <c r="AS271">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT271">
         <v>1.08</v>
@@ -53629,7 +53665,7 @@
         <v>0.4</v>
       </c>
       <c r="AS272">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT272">
         <v>0.62</v>
@@ -53820,10 +53856,10 @@
         <v>0.89</v>
       </c>
       <c r="AS273">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT273">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU273">
         <v>1.72</v>
@@ -54014,7 +54050,7 @@
         <v>1.75</v>
       </c>
       <c r="AT274">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU274">
         <v>1.55</v>
@@ -54306,7 +54342,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54393,7 +54429,7 @@
         <v>1.2</v>
       </c>
       <c r="AS276">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT276">
         <v>1.46</v>
@@ -54497,7 +54533,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54587,7 +54623,7 @@
         <v>2.08</v>
       </c>
       <c r="AT277">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU277">
         <v>1.93</v>
@@ -54879,7 +54915,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -54969,7 +55005,7 @@
         <v>2.08</v>
       </c>
       <c r="AT279">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU279">
         <v>1.38</v>
@@ -55070,7 +55106,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55157,10 +55193,10 @@
         <v>0.5</v>
       </c>
       <c r="AS280">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT280">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU280">
         <v>1.61</v>
@@ -55261,7 +55297,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55351,7 +55387,7 @@
         <v>1.27</v>
       </c>
       <c r="AT281">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU281">
         <v>1.25</v>
@@ -55539,7 +55575,7 @@
         <v>0.78</v>
       </c>
       <c r="AS282">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT282">
         <v>0.64</v>
@@ -55643,7 +55679,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -55730,10 +55766,10 @@
         <v>1.33</v>
       </c>
       <c r="AS283">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT283">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU283">
         <v>1.32</v>
@@ -55921,10 +55957,10 @@
         <v>1.1</v>
       </c>
       <c r="AS284">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT284">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU284">
         <v>1.49</v>
@@ -56303,10 +56339,10 @@
         <v>0.75</v>
       </c>
       <c r="AS286">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT286">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU286">
         <v>1.72</v>
@@ -56494,10 +56530,10 @@
         <v>1.5</v>
       </c>
       <c r="AS287">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT287">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU287">
         <v>1.33</v>
@@ -57171,7 +57207,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57258,10 +57294,10 @@
         <v>0.55</v>
       </c>
       <c r="AS291">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT291">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU291">
         <v>1.4</v>
@@ -57362,7 +57398,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -57643,7 +57679,7 @@
         <v>1.57</v>
       </c>
       <c r="AT293">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU293">
         <v>1.64</v>
@@ -57831,10 +57867,10 @@
         <v>1.22</v>
       </c>
       <c r="AS294">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT294">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU294">
         <v>1.7</v>
@@ -57935,7 +57971,7 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -58213,10 +58249,10 @@
         <v>0.4</v>
       </c>
       <c r="AS296">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT296">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU296">
         <v>1.54</v>
@@ -58317,7 +58353,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -58404,7 +58440,7 @@
         <v>1</v>
       </c>
       <c r="AS297">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT297">
         <v>1</v>
@@ -58595,10 +58631,10 @@
         <v>1.33</v>
       </c>
       <c r="AS298">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT298">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU298">
         <v>1.81</v>
@@ -58890,7 +58926,7 @@
         <v>303</v>
       </c>
       <c r="P300" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -58977,7 +59013,7 @@
         <v>1.44</v>
       </c>
       <c r="AS300">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT300">
         <v>1.42</v>
@@ -59168,10 +59204,10 @@
         <v>1.3</v>
       </c>
       <c r="AS301">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT301">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU301">
         <v>1.56</v>
@@ -59359,10 +59395,10 @@
         <v>0.75</v>
       </c>
       <c r="AS302">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT302">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU302">
         <v>1.81</v>
@@ -59463,7 +59499,7 @@
         <v>96</v>
       </c>
       <c r="P303" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q303">
         <v>5</v>
@@ -59553,7 +59589,7 @@
         <v>1.15</v>
       </c>
       <c r="AT303">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU303">
         <v>1.43</v>
@@ -59654,7 +59690,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59741,7 +59777,7 @@
         <v>0.8</v>
       </c>
       <c r="AS304">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT304">
         <v>1.08</v>
@@ -59845,7 +59881,7 @@
         <v>305</v>
       </c>
       <c r="P305" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -59932,10 +59968,10 @@
         <v>0.33</v>
       </c>
       <c r="AS305">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT305">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU305">
         <v>1.5</v>
@@ -60126,7 +60162,7 @@
         <v>1.62</v>
       </c>
       <c r="AT306">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU306">
         <v>1.16</v>
@@ -60227,7 +60263,7 @@
         <v>306</v>
       </c>
       <c r="P307" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60418,7 +60454,7 @@
         <v>307</v>
       </c>
       <c r="P308" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="Q308">
         <v>14</v>
@@ -60508,7 +60544,7 @@
         <v>1.2</v>
       </c>
       <c r="AT308">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU308">
         <v>1.62</v>
@@ -60887,7 +60923,7 @@
         <v>1.67</v>
       </c>
       <c r="AS310">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT310">
         <v>1.75</v>
@@ -61078,10 +61114,10 @@
         <v>1.1</v>
       </c>
       <c r="AS311">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT311">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU311">
         <v>1.76</v>
@@ -61272,7 +61308,7 @@
         <v>2.08</v>
       </c>
       <c r="AT312">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU312">
         <v>1.95</v>
@@ -61373,7 +61409,7 @@
         <v>311</v>
       </c>
       <c r="P313" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="Q313">
         <v>8</v>
@@ -61564,7 +61600,7 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -61755,7 +61791,7 @@
         <v>313</v>
       </c>
       <c r="P315" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="Q315">
         <v>5</v>
@@ -61842,7 +61878,7 @@
         <v>1.4</v>
       </c>
       <c r="AS315">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT315">
         <v>1.42</v>
@@ -61946,7 +61982,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="Q316">
         <v>7</v>
@@ -62036,7 +62072,7 @@
         <v>2.17</v>
       </c>
       <c r="AT316">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU316">
         <v>1.59</v>
@@ -62137,7 +62173,7 @@
         <v>314</v>
       </c>
       <c r="P317" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -62224,7 +62260,7 @@
         <v>1.82</v>
       </c>
       <c r="AS317">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT317">
         <v>1.75</v>
@@ -62328,7 +62364,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62991,7 +63027,7 @@
         <v>2.08</v>
       </c>
       <c r="AT321">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU321">
         <v>1.93</v>
@@ -63373,7 +63409,7 @@
         <v>1.79</v>
       </c>
       <c r="AT323">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU323">
         <v>1.79</v>
@@ -63474,7 +63510,7 @@
         <v>124</v>
       </c>
       <c r="P324" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="Q324">
         <v>7</v>
@@ -63561,7 +63597,7 @@
         <v>1.5</v>
       </c>
       <c r="AS324">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT324">
         <v>1.75</v>
@@ -63752,7 +63788,7 @@
         <v>1.09</v>
       </c>
       <c r="AS325">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT325">
         <v>1</v>
@@ -64137,7 +64173,7 @@
         <v>2.36</v>
       </c>
       <c r="AT327">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU327">
         <v>1.67</v>
@@ -64328,7 +64364,7 @@
         <v>1.2</v>
       </c>
       <c r="AT328">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU328">
         <v>1.7</v>
@@ -64519,7 +64555,7 @@
         <v>1.62</v>
       </c>
       <c r="AT329">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU329">
         <v>1.11</v>
@@ -64707,10 +64743,10 @@
         <v>1.09</v>
       </c>
       <c r="AS330">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT330">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU330">
         <v>1.4</v>
@@ -64901,7 +64937,7 @@
         <v>2.15</v>
       </c>
       <c r="AT331">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU331">
         <v>1.64</v>
@@ -65089,7 +65125,7 @@
         <v>0.7</v>
       </c>
       <c r="AS332">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT332">
         <v>0.64</v>
@@ -65283,7 +65319,7 @@
         <v>0.83</v>
       </c>
       <c r="AT333">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU333">
         <v>1.42</v>
@@ -65384,7 +65420,7 @@
         <v>325</v>
       </c>
       <c r="P334" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65575,7 +65611,7 @@
         <v>326</v>
       </c>
       <c r="P335" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65662,7 +65698,7 @@
         <v>0.9</v>
       </c>
       <c r="AS335">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT335">
         <v>0.82</v>
@@ -65766,7 +65802,7 @@
         <v>327</v>
       </c>
       <c r="P336" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -65957,7 +65993,7 @@
         <v>328</v>
       </c>
       <c r="P337" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="Q337">
         <v>4</v>
@@ -66148,7 +66184,7 @@
         <v>329</v>
       </c>
       <c r="P338" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="Q338">
         <v>7</v>
@@ -66426,7 +66462,7 @@
         <v>1.55</v>
       </c>
       <c r="AS339">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT339">
         <v>1.42</v>
@@ -66617,7 +66653,7 @@
         <v>1.08</v>
       </c>
       <c r="AS340">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT340">
         <v>1</v>
@@ -66721,7 +66757,7 @@
         <v>96</v>
       </c>
       <c r="P341" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="Q341">
         <v>3</v>
@@ -67103,7 +67139,7 @@
         <v>287</v>
       </c>
       <c r="P343" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67294,7 +67330,7 @@
         <v>332</v>
       </c>
       <c r="P344" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="Q344">
         <v>2</v>
@@ -67384,7 +67420,7 @@
         <v>2.15</v>
       </c>
       <c r="AT344">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU344">
         <v>1.69</v>
@@ -67485,7 +67521,7 @@
         <v>96</v>
       </c>
       <c r="P345" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Q345">
         <v>8</v>
@@ -67676,7 +67712,7 @@
         <v>96</v>
       </c>
       <c r="P346" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q346">
         <v>6</v>
@@ -67766,7 +67802,7 @@
         <v>1.79</v>
       </c>
       <c r="AT346">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU346">
         <v>1.79</v>
@@ -68009,6 +68045,2489 @@
       </c>
       <c r="BK347">
         <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:63">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>4926297</v>
+      </c>
+      <c r="C348" t="s">
+        <v>63</v>
+      </c>
+      <c r="D348" t="s">
+        <v>64</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45164.85416666666</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348" t="s">
+        <v>79</v>
+      </c>
+      <c r="H348" t="s">
+        <v>87</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>2</v>
+      </c>
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>2</v>
+      </c>
+      <c r="O348" t="s">
+        <v>334</v>
+      </c>
+      <c r="P348" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q348">
+        <v>10</v>
+      </c>
+      <c r="R348">
+        <v>3</v>
+      </c>
+      <c r="S348">
+        <v>13</v>
+      </c>
+      <c r="T348">
+        <v>1.91</v>
+      </c>
+      <c r="U348">
+        <v>2.6</v>
+      </c>
+      <c r="V348">
+        <v>6</v>
+      </c>
+      <c r="W348">
+        <v>1.25</v>
+      </c>
+      <c r="X348">
+        <v>3.75</v>
+      </c>
+      <c r="Y348">
+        <v>2.25</v>
+      </c>
+      <c r="Z348">
+        <v>1.57</v>
+      </c>
+      <c r="AA348">
+        <v>5.5</v>
+      </c>
+      <c r="AB348">
+        <v>1.14</v>
+      </c>
+      <c r="AC348">
+        <v>1.61</v>
+      </c>
+      <c r="AD348">
+        <v>3.75</v>
+      </c>
+      <c r="AE348">
+        <v>5.5</v>
+      </c>
+      <c r="AF348">
+        <v>1.03</v>
+      </c>
+      <c r="AG348">
+        <v>14</v>
+      </c>
+      <c r="AH348">
+        <v>1.18</v>
+      </c>
+      <c r="AI348">
+        <v>4.4</v>
+      </c>
+      <c r="AJ348">
+        <v>1.74</v>
+      </c>
+      <c r="AK348">
+        <v>1.94</v>
+      </c>
+      <c r="AL348">
+        <v>1.75</v>
+      </c>
+      <c r="AM348">
+        <v>2</v>
+      </c>
+      <c r="AN348">
+        <v>1.1</v>
+      </c>
+      <c r="AO348">
+        <v>1.19</v>
+      </c>
+      <c r="AP348">
+        <v>2.8</v>
+      </c>
+      <c r="AQ348">
+        <v>2.31</v>
+      </c>
+      <c r="AR348">
+        <v>0.33</v>
+      </c>
+      <c r="AS348">
+        <v>2.36</v>
+      </c>
+      <c r="AT348">
+        <v>0.31</v>
+      </c>
+      <c r="AU348">
+        <v>1.81</v>
+      </c>
+      <c r="AV348">
+        <v>1.03</v>
+      </c>
+      <c r="AW348">
+        <v>2.84</v>
+      </c>
+      <c r="AX348">
+        <v>1.36</v>
+      </c>
+      <c r="AY348">
+        <v>9</v>
+      </c>
+      <c r="AZ348">
+        <v>3.95</v>
+      </c>
+      <c r="BA348">
+        <v>1.3</v>
+      </c>
+      <c r="BB348">
+        <v>1.57</v>
+      </c>
+      <c r="BC348">
+        <v>2</v>
+      </c>
+      <c r="BD348">
+        <v>2.7</v>
+      </c>
+      <c r="BE348">
+        <v>3.8</v>
+      </c>
+      <c r="BF348">
+        <v>9</v>
+      </c>
+      <c r="BG348">
+        <v>4</v>
+      </c>
+      <c r="BH348">
+        <v>13</v>
+      </c>
+      <c r="BI348">
+        <v>5</v>
+      </c>
+      <c r="BJ348">
+        <v>22</v>
+      </c>
+      <c r="BK348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:63">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>4926300</v>
+      </c>
+      <c r="C349" t="s">
+        <v>63</v>
+      </c>
+      <c r="D349" t="s">
+        <v>64</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45164.85416666666</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349" t="s">
+        <v>81</v>
+      </c>
+      <c r="H349" t="s">
+        <v>70</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349">
+        <v>1</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>2</v>
+      </c>
+      <c r="N349">
+        <v>2</v>
+      </c>
+      <c r="O349" t="s">
+        <v>96</v>
+      </c>
+      <c r="P349" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q349">
+        <v>10</v>
+      </c>
+      <c r="R349">
+        <v>1</v>
+      </c>
+      <c r="S349">
+        <v>11</v>
+      </c>
+      <c r="T349">
+        <v>3.04</v>
+      </c>
+      <c r="U349">
+        <v>2.26</v>
+      </c>
+      <c r="V349">
+        <v>3.13</v>
+      </c>
+      <c r="W349">
+        <v>1.32</v>
+      </c>
+      <c r="X349">
+        <v>3.22</v>
+      </c>
+      <c r="Y349">
+        <v>2.49</v>
+      </c>
+      <c r="Z349">
+        <v>1.5</v>
+      </c>
+      <c r="AA349">
+        <v>5.9</v>
+      </c>
+      <c r="AB349">
+        <v>1.11</v>
+      </c>
+      <c r="AC349">
+        <v>2.15</v>
+      </c>
+      <c r="AD349">
+        <v>3.9</v>
+      </c>
+      <c r="AE349">
+        <v>2.87</v>
+      </c>
+      <c r="AF349">
+        <v>1.03</v>
+      </c>
+      <c r="AG349">
+        <v>13</v>
+      </c>
+      <c r="AH349">
+        <v>1.19</v>
+      </c>
+      <c r="AI349">
+        <v>4</v>
+      </c>
+      <c r="AJ349">
+        <v>1.66</v>
+      </c>
+      <c r="AK349">
+        <v>2.08</v>
+      </c>
+      <c r="AL349">
+        <v>1.57</v>
+      </c>
+      <c r="AM349">
+        <v>2.34</v>
+      </c>
+      <c r="AN349">
+        <v>1.5</v>
+      </c>
+      <c r="AO349">
+        <v>1.29</v>
+      </c>
+      <c r="AP349">
+        <v>1.51</v>
+      </c>
+      <c r="AQ349">
+        <v>1.69</v>
+      </c>
+      <c r="AR349">
+        <v>0.36</v>
+      </c>
+      <c r="AS349">
+        <v>1.57</v>
+      </c>
+      <c r="AT349">
+        <v>0.58</v>
+      </c>
+      <c r="AU349">
+        <v>1.54</v>
+      </c>
+      <c r="AV349">
+        <v>1.3</v>
+      </c>
+      <c r="AW349">
+        <v>2.84</v>
+      </c>
+      <c r="AX349">
+        <v>2</v>
+      </c>
+      <c r="AY349">
+        <v>7</v>
+      </c>
+      <c r="AZ349">
+        <v>2.08</v>
+      </c>
+      <c r="BA349">
+        <v>1.34</v>
+      </c>
+      <c r="BB349">
+        <v>1.62</v>
+      </c>
+      <c r="BC349">
+        <v>2.1</v>
+      </c>
+      <c r="BD349">
+        <v>2.87</v>
+      </c>
+      <c r="BE349">
+        <v>3.75</v>
+      </c>
+      <c r="BF349">
+        <v>5</v>
+      </c>
+      <c r="BG349">
+        <v>4</v>
+      </c>
+      <c r="BH349">
+        <v>4</v>
+      </c>
+      <c r="BI349">
+        <v>2</v>
+      </c>
+      <c r="BJ349">
+        <v>9</v>
+      </c>
+      <c r="BK349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:63">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>4926299</v>
+      </c>
+      <c r="C350" t="s">
+        <v>63</v>
+      </c>
+      <c r="D350" t="s">
+        <v>64</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45164.85416666666</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350" t="s">
+        <v>91</v>
+      </c>
+      <c r="H350" t="s">
+        <v>80</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>1</v>
+      </c>
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+      <c r="O350" t="s">
+        <v>208</v>
+      </c>
+      <c r="P350" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q350">
+        <v>8</v>
+      </c>
+      <c r="R350">
+        <v>1</v>
+      </c>
+      <c r="S350">
+        <v>9</v>
+      </c>
+      <c r="T350">
+        <v>2.75</v>
+      </c>
+      <c r="U350">
+        <v>2.2</v>
+      </c>
+      <c r="V350">
+        <v>3.5</v>
+      </c>
+      <c r="W350">
+        <v>1.35</v>
+      </c>
+      <c r="X350">
+        <v>3.1</v>
+      </c>
+      <c r="Y350">
+        <v>2.5</v>
+      </c>
+      <c r="Z350">
+        <v>1.48</v>
+      </c>
+      <c r="AA350">
+        <v>6.25</v>
+      </c>
+      <c r="AB350">
+        <v>1.11</v>
+      </c>
+      <c r="AC350">
+        <v>2.3</v>
+      </c>
+      <c r="AD350">
+        <v>3.4</v>
+      </c>
+      <c r="AE350">
+        <v>2.9</v>
+      </c>
+      <c r="AF350">
+        <v>1.04</v>
+      </c>
+      <c r="AG350">
+        <v>14.5</v>
+      </c>
+      <c r="AH350">
+        <v>1.23</v>
+      </c>
+      <c r="AI350">
+        <v>4.18</v>
+      </c>
+      <c r="AJ350">
+        <v>1.64</v>
+      </c>
+      <c r="AK350">
+        <v>2.12</v>
+      </c>
+      <c r="AL350">
+        <v>1.57</v>
+      </c>
+      <c r="AM350">
+        <v>2.25</v>
+      </c>
+      <c r="AN350">
+        <v>1.38</v>
+      </c>
+      <c r="AO350">
+        <v>1.3</v>
+      </c>
+      <c r="AP350">
+        <v>1.62</v>
+      </c>
+      <c r="AQ350">
+        <v>2.18</v>
+      </c>
+      <c r="AR350">
+        <v>1.18</v>
+      </c>
+      <c r="AS350">
+        <v>2.25</v>
+      </c>
+      <c r="AT350">
+        <v>1.08</v>
+      </c>
+      <c r="AU350">
+        <v>1.43</v>
+      </c>
+      <c r="AV350">
+        <v>1.26</v>
+      </c>
+      <c r="AW350">
+        <v>2.69</v>
+      </c>
+      <c r="AX350">
+        <v>1.83</v>
+      </c>
+      <c r="AY350">
+        <v>7.5</v>
+      </c>
+      <c r="AZ350">
+        <v>2.28</v>
+      </c>
+      <c r="BA350">
+        <v>1.29</v>
+      </c>
+      <c r="BB350">
+        <v>1.53</v>
+      </c>
+      <c r="BC350">
+        <v>1.83</v>
+      </c>
+      <c r="BD350">
+        <v>2.4</v>
+      </c>
+      <c r="BE350">
+        <v>3.2</v>
+      </c>
+      <c r="BF350">
+        <v>4</v>
+      </c>
+      <c r="BG350">
+        <v>0</v>
+      </c>
+      <c r="BH350">
+        <v>5</v>
+      </c>
+      <c r="BI350">
+        <v>3</v>
+      </c>
+      <c r="BJ350">
+        <v>9</v>
+      </c>
+      <c r="BK350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:63">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>4926294</v>
+      </c>
+      <c r="C351" t="s">
+        <v>63</v>
+      </c>
+      <c r="D351" t="s">
+        <v>64</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45164.85416666666</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351" t="s">
+        <v>66</v>
+      </c>
+      <c r="H351" t="s">
+        <v>65</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>4</v>
+      </c>
+      <c r="M351">
+        <v>0</v>
+      </c>
+      <c r="N351">
+        <v>4</v>
+      </c>
+      <c r="O351" t="s">
+        <v>335</v>
+      </c>
+      <c r="P351" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q351">
+        <v>5</v>
+      </c>
+      <c r="R351">
+        <v>6</v>
+      </c>
+      <c r="S351">
+        <v>11</v>
+      </c>
+      <c r="T351">
+        <v>2.6</v>
+      </c>
+      <c r="U351">
+        <v>2.2</v>
+      </c>
+      <c r="V351">
+        <v>3.9</v>
+      </c>
+      <c r="W351">
+        <v>1.38</v>
+      </c>
+      <c r="X351">
+        <v>3</v>
+      </c>
+      <c r="Y351">
+        <v>2.55</v>
+      </c>
+      <c r="Z351">
+        <v>1.45</v>
+      </c>
+      <c r="AA351">
+        <v>6.5</v>
+      </c>
+      <c r="AB351">
+        <v>1.09</v>
+      </c>
+      <c r="AC351">
+        <v>1.95</v>
+      </c>
+      <c r="AD351">
+        <v>3.5</v>
+      </c>
+      <c r="AE351">
+        <v>3.7</v>
+      </c>
+      <c r="AF351">
+        <v>1.05</v>
+      </c>
+      <c r="AG351">
+        <v>13.75</v>
+      </c>
+      <c r="AH351">
+        <v>1.25</v>
+      </c>
+      <c r="AI351">
+        <v>4.05</v>
+      </c>
+      <c r="AJ351">
+        <v>1.72</v>
+      </c>
+      <c r="AK351">
+        <v>2</v>
+      </c>
+      <c r="AL351">
+        <v>1.68</v>
+      </c>
+      <c r="AM351">
+        <v>2.15</v>
+      </c>
+      <c r="AN351">
+        <v>1.3</v>
+      </c>
+      <c r="AO351">
+        <v>1.3</v>
+      </c>
+      <c r="AP351">
+        <v>1.72</v>
+      </c>
+      <c r="AQ351">
+        <v>2</v>
+      </c>
+      <c r="AR351">
+        <v>1</v>
+      </c>
+      <c r="AS351">
+        <v>2.08</v>
+      </c>
+      <c r="AT351">
+        <v>0.92</v>
+      </c>
+      <c r="AU351">
+        <v>1.68</v>
+      </c>
+      <c r="AV351">
+        <v>1.08</v>
+      </c>
+      <c r="AW351">
+        <v>2.76</v>
+      </c>
+      <c r="AX351">
+        <v>1.74</v>
+      </c>
+      <c r="AY351">
+        <v>7.5</v>
+      </c>
+      <c r="AZ351">
+        <v>2.45</v>
+      </c>
+      <c r="BA351">
+        <v>1.24</v>
+      </c>
+      <c r="BB351">
+        <v>1.46</v>
+      </c>
+      <c r="BC351">
+        <v>1.95</v>
+      </c>
+      <c r="BD351">
+        <v>2.37</v>
+      </c>
+      <c r="BE351">
+        <v>3.3</v>
+      </c>
+      <c r="BF351">
+        <v>12</v>
+      </c>
+      <c r="BG351">
+        <v>2</v>
+      </c>
+      <c r="BH351">
+        <v>4</v>
+      </c>
+      <c r="BI351">
+        <v>9</v>
+      </c>
+      <c r="BJ351">
+        <v>16</v>
+      </c>
+      <c r="BK351">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:63">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>4926295</v>
+      </c>
+      <c r="C352" t="s">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>64</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45164.85416666666</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352" t="s">
+        <v>67</v>
+      </c>
+      <c r="H352" t="s">
+        <v>78</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>2</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352">
+        <v>3</v>
+      </c>
+      <c r="O352" t="s">
+        <v>336</v>
+      </c>
+      <c r="P352" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q352">
+        <v>5</v>
+      </c>
+      <c r="R352">
+        <v>2</v>
+      </c>
+      <c r="S352">
+        <v>7</v>
+      </c>
+      <c r="T352">
+        <v>3.2</v>
+      </c>
+      <c r="U352">
+        <v>2.25</v>
+      </c>
+      <c r="V352">
+        <v>3.1</v>
+      </c>
+      <c r="W352">
+        <v>1.36</v>
+      </c>
+      <c r="X352">
+        <v>3.2</v>
+      </c>
+      <c r="Y352">
+        <v>2.65</v>
+      </c>
+      <c r="Z352">
+        <v>1.45</v>
+      </c>
+      <c r="AA352">
+        <v>6.5</v>
+      </c>
+      <c r="AB352">
+        <v>1.1</v>
+      </c>
+      <c r="AC352">
+        <v>2.55</v>
+      </c>
+      <c r="AD352">
+        <v>3.4</v>
+      </c>
+      <c r="AE352">
+        <v>2.6</v>
+      </c>
+      <c r="AF352">
+        <v>1.03</v>
+      </c>
+      <c r="AG352">
+        <v>13</v>
+      </c>
+      <c r="AH352">
+        <v>1.25</v>
+      </c>
+      <c r="AI352">
+        <v>3.75</v>
+      </c>
+      <c r="AJ352">
+        <v>1.59</v>
+      </c>
+      <c r="AK352">
+        <v>2.2</v>
+      </c>
+      <c r="AL352">
+        <v>1.63</v>
+      </c>
+      <c r="AM352">
+        <v>2.2</v>
+      </c>
+      <c r="AN352">
+        <v>1.53</v>
+      </c>
+      <c r="AO352">
+        <v>1.25</v>
+      </c>
+      <c r="AP352">
+        <v>1.5</v>
+      </c>
+      <c r="AQ352">
+        <v>1.27</v>
+      </c>
+      <c r="AR352">
+        <v>1.18</v>
+      </c>
+      <c r="AS352">
+        <v>1.42</v>
+      </c>
+      <c r="AT352">
+        <v>1.08</v>
+      </c>
+      <c r="AU352">
+        <v>1.28</v>
+      </c>
+      <c r="AV352">
+        <v>1.49</v>
+      </c>
+      <c r="AW352">
+        <v>2.77</v>
+      </c>
+      <c r="AX352">
+        <v>1.98</v>
+      </c>
+      <c r="AY352">
+        <v>7.5</v>
+      </c>
+      <c r="AZ352">
+        <v>2.1</v>
+      </c>
+      <c r="BA352">
+        <v>1.24</v>
+      </c>
+      <c r="BB352">
+        <v>1.46</v>
+      </c>
+      <c r="BC352">
+        <v>1.85</v>
+      </c>
+      <c r="BD352">
+        <v>2.37</v>
+      </c>
+      <c r="BE352">
+        <v>3.3</v>
+      </c>
+      <c r="BF352">
+        <v>6</v>
+      </c>
+      <c r="BG352">
+        <v>7</v>
+      </c>
+      <c r="BH352">
+        <v>7</v>
+      </c>
+      <c r="BI352">
+        <v>6</v>
+      </c>
+      <c r="BJ352">
+        <v>13</v>
+      </c>
+      <c r="BK352">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:63">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>4926296</v>
+      </c>
+      <c r="C353" t="s">
+        <v>63</v>
+      </c>
+      <c r="D353" t="s">
+        <v>64</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45164.85416666666</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353" t="s">
+        <v>68</v>
+      </c>
+      <c r="H353" t="s">
+        <v>86</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>3</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>3</v>
+      </c>
+      <c r="O353" t="s">
+        <v>337</v>
+      </c>
+      <c r="P353" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q353">
+        <v>5</v>
+      </c>
+      <c r="R353">
+        <v>8</v>
+      </c>
+      <c r="S353">
+        <v>13</v>
+      </c>
+      <c r="T353">
+        <v>2.2</v>
+      </c>
+      <c r="U353">
+        <v>2.25</v>
+      </c>
+      <c r="V353">
+        <v>4.5</v>
+      </c>
+      <c r="W353">
+        <v>1.32</v>
+      </c>
+      <c r="X353">
+        <v>3.15</v>
+      </c>
+      <c r="Y353">
+        <v>2.5</v>
+      </c>
+      <c r="Z353">
+        <v>1.48</v>
+      </c>
+      <c r="AA353">
+        <v>6.25</v>
+      </c>
+      <c r="AB353">
+        <v>1.11</v>
+      </c>
+      <c r="AC353">
+        <v>1.65</v>
+      </c>
+      <c r="AD353">
+        <v>3.8</v>
+      </c>
+      <c r="AE353">
+        <v>4.8</v>
+      </c>
+      <c r="AF353">
+        <v>1.04</v>
+      </c>
+      <c r="AG353">
+        <v>14.75</v>
+      </c>
+      <c r="AH353">
+        <v>1.22</v>
+      </c>
+      <c r="AI353">
+        <v>4.28</v>
+      </c>
+      <c r="AJ353">
+        <v>1.71</v>
+      </c>
+      <c r="AK353">
+        <v>2.01</v>
+      </c>
+      <c r="AL353">
+        <v>1.67</v>
+      </c>
+      <c r="AM353">
+        <v>2.1</v>
+      </c>
+      <c r="AN353">
+        <v>1.22</v>
+      </c>
+      <c r="AO353">
+        <v>1.27</v>
+      </c>
+      <c r="AP353">
+        <v>2</v>
+      </c>
+      <c r="AQ353">
+        <v>2.83</v>
+      </c>
+      <c r="AR353">
+        <v>0.71</v>
+      </c>
+      <c r="AS353">
+        <v>2.85</v>
+      </c>
+      <c r="AT353">
+        <v>0.67</v>
+      </c>
+      <c r="AU353">
+        <v>1.42</v>
+      </c>
+      <c r="AV353">
+        <v>1.12</v>
+      </c>
+      <c r="AW353">
+        <v>2.54</v>
+      </c>
+      <c r="AX353">
+        <v>1.5</v>
+      </c>
+      <c r="AY353">
+        <v>8</v>
+      </c>
+      <c r="AZ353">
+        <v>3.15</v>
+      </c>
+      <c r="BA353">
+        <v>1.27</v>
+      </c>
+      <c r="BB353">
+        <v>1.5</v>
+      </c>
+      <c r="BC353">
+        <v>2</v>
+      </c>
+      <c r="BD353">
+        <v>2.5</v>
+      </c>
+      <c r="BE353">
+        <v>3.5</v>
+      </c>
+      <c r="BF353">
+        <v>7</v>
+      </c>
+      <c r="BG353">
+        <v>5</v>
+      </c>
+      <c r="BH353">
+        <v>2</v>
+      </c>
+      <c r="BI353">
+        <v>5</v>
+      </c>
+      <c r="BJ353">
+        <v>9</v>
+      </c>
+      <c r="BK353">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:63">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>4926301</v>
+      </c>
+      <c r="C354" t="s">
+        <v>63</v>
+      </c>
+      <c r="D354" t="s">
+        <v>64</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45164.85416666666</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354" t="s">
+        <v>71</v>
+      </c>
+      <c r="H354" t="s">
+        <v>83</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>2</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>3</v>
+      </c>
+      <c r="O354" t="s">
+        <v>338</v>
+      </c>
+      <c r="P354" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q354">
+        <v>8</v>
+      </c>
+      <c r="R354">
+        <v>4</v>
+      </c>
+      <c r="S354">
+        <v>12</v>
+      </c>
+      <c r="T354">
+        <v>2.55</v>
+      </c>
+      <c r="U354">
+        <v>2.15</v>
+      </c>
+      <c r="V354">
+        <v>3.7</v>
+      </c>
+      <c r="W354">
+        <v>1.33</v>
+      </c>
+      <c r="X354">
+        <v>3</v>
+      </c>
+      <c r="Y354">
+        <v>2.6</v>
+      </c>
+      <c r="Z354">
+        <v>1.47</v>
+      </c>
+      <c r="AA354">
+        <v>6</v>
+      </c>
+      <c r="AB354">
+        <v>1.11</v>
+      </c>
+      <c r="AC354">
+        <v>1.93</v>
+      </c>
+      <c r="AD354">
+        <v>3.6</v>
+      </c>
+      <c r="AE354">
+        <v>3.7</v>
+      </c>
+      <c r="AF354">
+        <v>1.04</v>
+      </c>
+      <c r="AG354">
+        <v>11.5</v>
+      </c>
+      <c r="AH354">
+        <v>1.21</v>
+      </c>
+      <c r="AI354">
+        <v>4</v>
+      </c>
+      <c r="AJ354">
+        <v>1.53</v>
+      </c>
+      <c r="AK354">
+        <v>2.33</v>
+      </c>
+      <c r="AL354">
+        <v>1.57</v>
+      </c>
+      <c r="AM354">
+        <v>2.25</v>
+      </c>
+      <c r="AN354">
+        <v>1.3</v>
+      </c>
+      <c r="AO354">
+        <v>1.28</v>
+      </c>
+      <c r="AP354">
+        <v>1.75</v>
+      </c>
+      <c r="AQ354">
+        <v>1.58</v>
+      </c>
+      <c r="AR354">
+        <v>1.45</v>
+      </c>
+      <c r="AS354">
+        <v>1.69</v>
+      </c>
+      <c r="AT354">
+        <v>1.33</v>
+      </c>
+      <c r="AU354">
+        <v>1.59</v>
+      </c>
+      <c r="AV354">
+        <v>1.39</v>
+      </c>
+      <c r="AW354">
+        <v>2.98</v>
+      </c>
+      <c r="AX354">
+        <v>1.64</v>
+      </c>
+      <c r="AY354">
+        <v>7.5</v>
+      </c>
+      <c r="AZ354">
+        <v>2.65</v>
+      </c>
+      <c r="BA354">
+        <v>1.24</v>
+      </c>
+      <c r="BB354">
+        <v>1.46</v>
+      </c>
+      <c r="BC354">
+        <v>1.9</v>
+      </c>
+      <c r="BD354">
+        <v>2.37</v>
+      </c>
+      <c r="BE354">
+        <v>3.3</v>
+      </c>
+      <c r="BF354">
+        <v>5</v>
+      </c>
+      <c r="BG354">
+        <v>3</v>
+      </c>
+      <c r="BH354">
+        <v>3</v>
+      </c>
+      <c r="BI354">
+        <v>7</v>
+      </c>
+      <c r="BJ354">
+        <v>8</v>
+      </c>
+      <c r="BK354">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:63">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>4926298</v>
+      </c>
+      <c r="C355" t="s">
+        <v>63</v>
+      </c>
+      <c r="D355" t="s">
+        <v>64</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45164.85416666666</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355" t="s">
+        <v>69</v>
+      </c>
+      <c r="H355" t="s">
+        <v>72</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>3</v>
+      </c>
+      <c r="K355">
+        <v>3</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355">
+        <v>3</v>
+      </c>
+      <c r="N355">
+        <v>4</v>
+      </c>
+      <c r="O355" t="s">
+        <v>111</v>
+      </c>
+      <c r="P355" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q355">
+        <v>7</v>
+      </c>
+      <c r="R355">
+        <v>5</v>
+      </c>
+      <c r="S355">
+        <v>12</v>
+      </c>
+      <c r="T355">
+        <v>2.9</v>
+      </c>
+      <c r="U355">
+        <v>2.15</v>
+      </c>
+      <c r="V355">
+        <v>3.3</v>
+      </c>
+      <c r="W355">
+        <v>1.38</v>
+      </c>
+      <c r="X355">
+        <v>2.9</v>
+      </c>
+      <c r="Y355">
+        <v>2.65</v>
+      </c>
+      <c r="Z355">
+        <v>1.42</v>
+      </c>
+      <c r="AA355">
+        <v>7</v>
+      </c>
+      <c r="AB355">
+        <v>1.09</v>
+      </c>
+      <c r="AC355">
+        <v>2.37</v>
+      </c>
+      <c r="AD355">
+        <v>3.3</v>
+      </c>
+      <c r="AE355">
+        <v>2.85</v>
+      </c>
+      <c r="AF355">
+        <v>1.05</v>
+      </c>
+      <c r="AG355">
+        <v>12.5</v>
+      </c>
+      <c r="AH355">
+        <v>1.27</v>
+      </c>
+      <c r="AI355">
+        <v>3.8</v>
+      </c>
+      <c r="AJ355">
+        <v>1.81</v>
+      </c>
+      <c r="AK355">
+        <v>1.89</v>
+      </c>
+      <c r="AL355">
+        <v>1.67</v>
+      </c>
+      <c r="AM355">
+        <v>2.1</v>
+      </c>
+      <c r="AN355">
+        <v>1.42</v>
+      </c>
+      <c r="AO355">
+        <v>1.32</v>
+      </c>
+      <c r="AP355">
+        <v>1.55</v>
+      </c>
+      <c r="AQ355">
+        <v>1.45</v>
+      </c>
+      <c r="AR355">
+        <v>1.17</v>
+      </c>
+      <c r="AS355">
+        <v>1.33</v>
+      </c>
+      <c r="AT355">
+        <v>1.31</v>
+      </c>
+      <c r="AU355">
+        <v>1.55</v>
+      </c>
+      <c r="AV355">
+        <v>1.36</v>
+      </c>
+      <c r="AW355">
+        <v>2.91</v>
+      </c>
+      <c r="AX355">
+        <v>1.88</v>
+      </c>
+      <c r="AY355">
+        <v>7.5</v>
+      </c>
+      <c r="AZ355">
+        <v>2.2</v>
+      </c>
+      <c r="BA355">
+        <v>1.3</v>
+      </c>
+      <c r="BB355">
+        <v>1.57</v>
+      </c>
+      <c r="BC355">
+        <v>1.96</v>
+      </c>
+      <c r="BD355">
+        <v>2.5</v>
+      </c>
+      <c r="BE355">
+        <v>3.3</v>
+      </c>
+      <c r="BF355">
+        <v>9</v>
+      </c>
+      <c r="BG355">
+        <v>11</v>
+      </c>
+      <c r="BH355">
+        <v>1</v>
+      </c>
+      <c r="BI355">
+        <v>4</v>
+      </c>
+      <c r="BJ355">
+        <v>10</v>
+      </c>
+      <c r="BK355">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:63">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>4926302</v>
+      </c>
+      <c r="C356" t="s">
+        <v>63</v>
+      </c>
+      <c r="D356" t="s">
+        <v>64</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45164.89583333334</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356" t="s">
+        <v>74</v>
+      </c>
+      <c r="H356" t="s">
+        <v>73</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356" t="s">
+        <v>339</v>
+      </c>
+      <c r="P356" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q356">
+        <v>5</v>
+      </c>
+      <c r="R356">
+        <v>4</v>
+      </c>
+      <c r="S356">
+        <v>9</v>
+      </c>
+      <c r="T356">
+        <v>2.63</v>
+      </c>
+      <c r="U356">
+        <v>2.2</v>
+      </c>
+      <c r="V356">
+        <v>4</v>
+      </c>
+      <c r="W356">
+        <v>1.36</v>
+      </c>
+      <c r="X356">
+        <v>3</v>
+      </c>
+      <c r="Y356">
+        <v>2.75</v>
+      </c>
+      <c r="Z356">
+        <v>1.4</v>
+      </c>
+      <c r="AA356">
+        <v>7</v>
+      </c>
+      <c r="AB356">
+        <v>1.1</v>
+      </c>
+      <c r="AC356">
+        <v>1.98</v>
+      </c>
+      <c r="AD356">
+        <v>3.4</v>
+      </c>
+      <c r="AE356">
+        <v>3.6</v>
+      </c>
+      <c r="AF356">
+        <v>1.05</v>
+      </c>
+      <c r="AG356">
+        <v>9.75</v>
+      </c>
+      <c r="AH356">
+        <v>1.26</v>
+      </c>
+      <c r="AI356">
+        <v>3.5</v>
+      </c>
+      <c r="AJ356">
+        <v>1.7</v>
+      </c>
+      <c r="AK356">
+        <v>2.02</v>
+      </c>
+      <c r="AL356">
+        <v>1.67</v>
+      </c>
+      <c r="AM356">
+        <v>2.1</v>
+      </c>
+      <c r="AN356">
+        <v>1.29</v>
+      </c>
+      <c r="AO356">
+        <v>1.28</v>
+      </c>
+      <c r="AP356">
+        <v>1.75</v>
+      </c>
+      <c r="AQ356">
+        <v>1.82</v>
+      </c>
+      <c r="AR356">
+        <v>0.92</v>
+      </c>
+      <c r="AS356">
+        <v>1.92</v>
+      </c>
+      <c r="AT356">
+        <v>0.85</v>
+      </c>
+      <c r="AU356">
+        <v>1.25</v>
+      </c>
+      <c r="AV356">
+        <v>1.3</v>
+      </c>
+      <c r="AW356">
+        <v>2.55</v>
+      </c>
+      <c r="AX356">
+        <v>1.63</v>
+      </c>
+      <c r="AY356">
+        <v>7.5</v>
+      </c>
+      <c r="AZ356">
+        <v>2.7</v>
+      </c>
+      <c r="BA356">
+        <v>1.3</v>
+      </c>
+      <c r="BB356">
+        <v>1.56</v>
+      </c>
+      <c r="BC356">
+        <v>1.94</v>
+      </c>
+      <c r="BD356">
+        <v>2.45</v>
+      </c>
+      <c r="BE356">
+        <v>3.25</v>
+      </c>
+      <c r="BF356">
+        <v>6</v>
+      </c>
+      <c r="BG356">
+        <v>3</v>
+      </c>
+      <c r="BH356">
+        <v>3</v>
+      </c>
+      <c r="BI356">
+        <v>5</v>
+      </c>
+      <c r="BJ356">
+        <v>9</v>
+      </c>
+      <c r="BK356">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:63">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>4926303</v>
+      </c>
+      <c r="C357" t="s">
+        <v>63</v>
+      </c>
+      <c r="D357" t="s">
+        <v>64</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45164.89583333334</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357" t="s">
+        <v>88</v>
+      </c>
+      <c r="H357" t="s">
+        <v>85</v>
+      </c>
+      <c r="I357">
+        <v>2</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>2</v>
+      </c>
+      <c r="L357">
+        <v>3</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>3</v>
+      </c>
+      <c r="O357" t="s">
+        <v>340</v>
+      </c>
+      <c r="P357" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q357">
+        <v>5</v>
+      </c>
+      <c r="R357">
+        <v>5</v>
+      </c>
+      <c r="S357">
+        <v>10</v>
+      </c>
+      <c r="T357">
+        <v>2.4</v>
+      </c>
+      <c r="U357">
+        <v>2.3</v>
+      </c>
+      <c r="V357">
+        <v>4.33</v>
+      </c>
+      <c r="W357">
+        <v>1.33</v>
+      </c>
+      <c r="X357">
+        <v>3.25</v>
+      </c>
+      <c r="Y357">
+        <v>2.5</v>
+      </c>
+      <c r="Z357">
+        <v>1.5</v>
+      </c>
+      <c r="AA357">
+        <v>6.5</v>
+      </c>
+      <c r="AB357">
+        <v>1.11</v>
+      </c>
+      <c r="AC357">
+        <v>1.95</v>
+      </c>
+      <c r="AD357">
+        <v>3.5</v>
+      </c>
+      <c r="AE357">
+        <v>3.6</v>
+      </c>
+      <c r="AF357">
+        <v>1.02</v>
+      </c>
+      <c r="AG357">
+        <v>15</v>
+      </c>
+      <c r="AH357">
+        <v>1.22</v>
+      </c>
+      <c r="AI357">
+        <v>4.2</v>
+      </c>
+      <c r="AJ357">
+        <v>1.54</v>
+      </c>
+      <c r="AK357">
+        <v>2.3</v>
+      </c>
+      <c r="AL357">
+        <v>1.62</v>
+      </c>
+      <c r="AM357">
+        <v>2.2</v>
+      </c>
+      <c r="AN357">
+        <v>1.24</v>
+      </c>
+      <c r="AO357">
+        <v>1.27</v>
+      </c>
+      <c r="AP357">
+        <v>1.88</v>
+      </c>
+      <c r="AQ357">
+        <v>1.42</v>
+      </c>
+      <c r="AR357">
+        <v>0.83</v>
+      </c>
+      <c r="AS357">
+        <v>1.54</v>
+      </c>
+      <c r="AT357">
+        <v>0.77</v>
+      </c>
+      <c r="AU357">
+        <v>1.7</v>
+      </c>
+      <c r="AV357">
+        <v>1.11</v>
+      </c>
+      <c r="AW357">
+        <v>2.81</v>
+      </c>
+      <c r="AX357">
+        <v>1.62</v>
+      </c>
+      <c r="AY357">
+        <v>7.5</v>
+      </c>
+      <c r="AZ357">
+        <v>2.7</v>
+      </c>
+      <c r="BA357">
+        <v>1.28</v>
+      </c>
+      <c r="BB357">
+        <v>1.53</v>
+      </c>
+      <c r="BC357">
+        <v>1.9</v>
+      </c>
+      <c r="BD357">
+        <v>2.4</v>
+      </c>
+      <c r="BE357">
+        <v>3.2</v>
+      </c>
+      <c r="BF357">
+        <v>7</v>
+      </c>
+      <c r="BG357">
+        <v>3</v>
+      </c>
+      <c r="BH357">
+        <v>5</v>
+      </c>
+      <c r="BI357">
+        <v>4</v>
+      </c>
+      <c r="BJ357">
+        <v>12</v>
+      </c>
+      <c r="BK357">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:63">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>4926304</v>
+      </c>
+      <c r="C358" t="s">
+        <v>63</v>
+      </c>
+      <c r="D358" t="s">
+        <v>64</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45164.9375</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358" t="s">
+        <v>90</v>
+      </c>
+      <c r="H358" t="s">
+        <v>92</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>2</v>
+      </c>
+      <c r="K358">
+        <v>2</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>3</v>
+      </c>
+      <c r="N358">
+        <v>3</v>
+      </c>
+      <c r="O358" t="s">
+        <v>96</v>
+      </c>
+      <c r="P358" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q358">
+        <v>5</v>
+      </c>
+      <c r="R358">
+        <v>0</v>
+      </c>
+      <c r="S358">
+        <v>5</v>
+      </c>
+      <c r="T358">
+        <v>2.38</v>
+      </c>
+      <c r="U358">
+        <v>2.3</v>
+      </c>
+      <c r="V358">
+        <v>4.5</v>
+      </c>
+      <c r="W358">
+        <v>1.33</v>
+      </c>
+      <c r="X358">
+        <v>3.25</v>
+      </c>
+      <c r="Y358">
+        <v>2.5</v>
+      </c>
+      <c r="Z358">
+        <v>1.5</v>
+      </c>
+      <c r="AA358">
+        <v>6.5</v>
+      </c>
+      <c r="AB358">
+        <v>1.11</v>
+      </c>
+      <c r="AC358">
+        <v>1.8</v>
+      </c>
+      <c r="AD358">
+        <v>3.5</v>
+      </c>
+      <c r="AE358">
+        <v>4.33</v>
+      </c>
+      <c r="AF358">
+        <v>1.02</v>
+      </c>
+      <c r="AG358">
+        <v>15</v>
+      </c>
+      <c r="AH358">
+        <v>1.22</v>
+      </c>
+      <c r="AI358">
+        <v>4.41</v>
+      </c>
+      <c r="AJ358">
+        <v>1.61</v>
+      </c>
+      <c r="AK358">
+        <v>2.17</v>
+      </c>
+      <c r="AL358">
+        <v>1.67</v>
+      </c>
+      <c r="AM358">
+        <v>2.1</v>
+      </c>
+      <c r="AN358">
+        <v>1.2</v>
+      </c>
+      <c r="AO358">
+        <v>1.22</v>
+      </c>
+      <c r="AP358">
+        <v>2</v>
+      </c>
+      <c r="AQ358">
+        <v>1.33</v>
+      </c>
+      <c r="AR358">
+        <v>0.5</v>
+      </c>
+      <c r="AS358">
+        <v>1.23</v>
+      </c>
+      <c r="AT358">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU358">
+        <v>1.86</v>
+      </c>
+      <c r="AV358">
+        <v>1.23</v>
+      </c>
+      <c r="AW358">
+        <v>3.09</v>
+      </c>
+      <c r="AX358">
+        <v>1.55</v>
+      </c>
+      <c r="AY358">
+        <v>8</v>
+      </c>
+      <c r="AZ358">
+        <v>2.9</v>
+      </c>
+      <c r="BA358">
+        <v>1.28</v>
+      </c>
+      <c r="BB358">
+        <v>1.52</v>
+      </c>
+      <c r="BC358">
+        <v>1.89</v>
+      </c>
+      <c r="BD358">
+        <v>2.4</v>
+      </c>
+      <c r="BE358">
+        <v>3.15</v>
+      </c>
+      <c r="BF358">
+        <v>2</v>
+      </c>
+      <c r="BG358">
+        <v>5</v>
+      </c>
+      <c r="BH358">
+        <v>6</v>
+      </c>
+      <c r="BI358">
+        <v>2</v>
+      </c>
+      <c r="BJ358">
+        <v>8</v>
+      </c>
+      <c r="BK358">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:63">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>4926306</v>
+      </c>
+      <c r="C359" t="s">
+        <v>63</v>
+      </c>
+      <c r="D359" t="s">
+        <v>64</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45164.97916666666</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359" t="s">
+        <v>77</v>
+      </c>
+      <c r="H359" t="s">
+        <v>75</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>2</v>
+      </c>
+      <c r="K359">
+        <v>2</v>
+      </c>
+      <c r="L359">
+        <v>2</v>
+      </c>
+      <c r="M359">
+        <v>3</v>
+      </c>
+      <c r="N359">
+        <v>5</v>
+      </c>
+      <c r="O359" t="s">
+        <v>341</v>
+      </c>
+      <c r="P359" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q359">
+        <v>6</v>
+      </c>
+      <c r="R359">
+        <v>3</v>
+      </c>
+      <c r="S359">
+        <v>9</v>
+      </c>
+      <c r="T359">
+        <v>2.6</v>
+      </c>
+      <c r="U359">
+        <v>2.38</v>
+      </c>
+      <c r="V359">
+        <v>3.6</v>
+      </c>
+      <c r="W359">
+        <v>1.3</v>
+      </c>
+      <c r="X359">
+        <v>3.4</v>
+      </c>
+      <c r="Y359">
+        <v>2.38</v>
+      </c>
+      <c r="Z359">
+        <v>1.53</v>
+      </c>
+      <c r="AA359">
+        <v>6</v>
+      </c>
+      <c r="AB359">
+        <v>1.13</v>
+      </c>
+      <c r="AC359">
+        <v>1.95</v>
+      </c>
+      <c r="AD359">
+        <v>3.5</v>
+      </c>
+      <c r="AE359">
+        <v>3.6</v>
+      </c>
+      <c r="AF359">
+        <v>1.02</v>
+      </c>
+      <c r="AG359">
+        <v>17</v>
+      </c>
+      <c r="AH359">
+        <v>1.17</v>
+      </c>
+      <c r="AI359">
+        <v>4.25</v>
+      </c>
+      <c r="AJ359">
+        <v>1.59</v>
+      </c>
+      <c r="AK359">
+        <v>2.18</v>
+      </c>
+      <c r="AL359">
+        <v>1.53</v>
+      </c>
+      <c r="AM359">
+        <v>2.38</v>
+      </c>
+      <c r="AN359">
+        <v>1.32</v>
+      </c>
+      <c r="AO359">
+        <v>1.27</v>
+      </c>
+      <c r="AP359">
+        <v>1.72</v>
+      </c>
+      <c r="AQ359">
+        <v>1.64</v>
+      </c>
+      <c r="AR359">
+        <v>0.67</v>
+      </c>
+      <c r="AS359">
+        <v>1.5</v>
+      </c>
+      <c r="AT359">
+        <v>0.9</v>
+      </c>
+      <c r="AU359">
+        <v>1.61</v>
+      </c>
+      <c r="AV359">
+        <v>1.4</v>
+      </c>
+      <c r="AW359">
+        <v>3.01</v>
+      </c>
+      <c r="AX359">
+        <v>1.71</v>
+      </c>
+      <c r="AY359">
+        <v>7.5</v>
+      </c>
+      <c r="AZ359">
+        <v>2.5</v>
+      </c>
+      <c r="BA359">
+        <v>1.27</v>
+      </c>
+      <c r="BB359">
+        <v>1.5</v>
+      </c>
+      <c r="BC359">
+        <v>1.88</v>
+      </c>
+      <c r="BD359">
+        <v>2.38</v>
+      </c>
+      <c r="BE359">
+        <v>3.1</v>
+      </c>
+      <c r="BF359">
+        <v>6</v>
+      </c>
+      <c r="BG359">
+        <v>4</v>
+      </c>
+      <c r="BH359">
+        <v>5</v>
+      </c>
+      <c r="BI359">
+        <v>3</v>
+      </c>
+      <c r="BJ359">
+        <v>11</v>
+      </c>
+      <c r="BK359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:63">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>4926305</v>
+      </c>
+      <c r="C360" t="s">
+        <v>63</v>
+      </c>
+      <c r="D360" t="s">
+        <v>64</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45164.97916666666</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360" t="s">
+        <v>93</v>
+      </c>
+      <c r="H360" t="s">
+        <v>82</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
+      <c r="L360">
+        <v>3</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>3</v>
+      </c>
+      <c r="O360" t="s">
+        <v>342</v>
+      </c>
+      <c r="P360" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q360">
+        <v>10</v>
+      </c>
+      <c r="R360">
+        <v>6</v>
+      </c>
+      <c r="S360">
+        <v>16</v>
+      </c>
+      <c r="T360">
+        <v>2.5</v>
+      </c>
+      <c r="U360">
+        <v>2.38</v>
+      </c>
+      <c r="V360">
+        <v>4</v>
+      </c>
+      <c r="W360">
+        <v>1.3</v>
+      </c>
+      <c r="X360">
+        <v>3.4</v>
+      </c>
+      <c r="Y360">
+        <v>2.38</v>
+      </c>
+      <c r="Z360">
+        <v>1.53</v>
+      </c>
+      <c r="AA360">
+        <v>6</v>
+      </c>
+      <c r="AB360">
+        <v>1.13</v>
+      </c>
+      <c r="AC360">
+        <v>1.8</v>
+      </c>
+      <c r="AD360">
+        <v>3.6</v>
+      </c>
+      <c r="AE360">
+        <v>4.1</v>
+      </c>
+      <c r="AF360">
+        <v>1.03</v>
+      </c>
+      <c r="AG360">
+        <v>9</v>
+      </c>
+      <c r="AH360">
+        <v>1.21</v>
+      </c>
+      <c r="AI360">
+        <v>4.64</v>
+      </c>
+      <c r="AJ360">
+        <v>1.74</v>
+      </c>
+      <c r="AK360">
+        <v>1.94</v>
+      </c>
+      <c r="AL360">
+        <v>1.53</v>
+      </c>
+      <c r="AM360">
+        <v>2.38</v>
+      </c>
+      <c r="AN360">
+        <v>1.18</v>
+      </c>
+      <c r="AO360">
+        <v>1.26</v>
+      </c>
+      <c r="AP360">
+        <v>1.89</v>
+      </c>
+      <c r="AQ360">
+        <v>1.4</v>
+      </c>
+      <c r="AR360">
+        <v>1</v>
+      </c>
+      <c r="AS360">
+        <v>1.55</v>
+      </c>
+      <c r="AT360">
+        <v>0.92</v>
+      </c>
+      <c r="AU360">
+        <v>1.77</v>
+      </c>
+      <c r="AV360">
+        <v>1.07</v>
+      </c>
+      <c r="AW360">
+        <v>2.84</v>
+      </c>
+      <c r="AX360">
+        <v>1.64</v>
+      </c>
+      <c r="AY360">
+        <v>8</v>
+      </c>
+      <c r="AZ360">
+        <v>2.65</v>
+      </c>
+      <c r="BA360">
+        <v>1.28</v>
+      </c>
+      <c r="BB360">
+        <v>1.53</v>
+      </c>
+      <c r="BC360">
+        <v>1.91</v>
+      </c>
+      <c r="BD360">
+        <v>2.43</v>
+      </c>
+      <c r="BE360">
+        <v>3.2</v>
+      </c>
+      <c r="BF360">
+        <v>10</v>
+      </c>
+      <c r="BG360">
+        <v>5</v>
+      </c>
+      <c r="BH360">
+        <v>5</v>
+      </c>
+      <c r="BI360">
+        <v>6</v>
+      </c>
+      <c r="BJ360">
+        <v>15</v>
+      </c>
+      <c r="BK360">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="463">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -940,10 +940,10 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['31', '62']</t>
+    <t>['23', '41', '78', '88']</t>
   </si>
   <si>
-    <t>['23', '41', '78', '88']</t>
+    <t>['31', '62']</t>
   </si>
   <si>
     <t>['15', '45+1', '76']</t>
@@ -952,10 +952,10 @@
     <t>['24', '72']</t>
   </si>
   <si>
-    <t>['4', '9']</t>
+    <t>['28']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['4', '9']</t>
   </si>
   <si>
     <t>['30', '36']</t>
@@ -964,19 +964,19 @@
     <t>['9', '11', '33']</t>
   </si>
   <si>
-    <t>['72', '82', '90+2']</t>
+    <t>['19', '64']</t>
   </si>
   <si>
-    <t>['19', '64']</t>
+    <t>['72', '82', '90+2']</t>
   </si>
   <si>
     <t>['1', '72']</t>
   </si>
   <si>
-    <t>['29', '31']</t>
+    <t>['45', '45+7', '49', '73']</t>
   </si>
   <si>
-    <t>['45', '45+7', '49', '73']</t>
+    <t>['29', '31']</t>
   </si>
   <si>
     <t>['23', '81']</t>
@@ -1003,10 +1003,10 @@
     <t>['2', '10', '23', '90+4']</t>
   </si>
   <si>
-    <t>['66', '90+4']</t>
+    <t>['15', '23', '90+6']</t>
   </si>
   <si>
-    <t>['15', '23', '90+6']</t>
+    <t>['66', '90+4']</t>
   </si>
   <si>
     <t>['5', '11', '14', '45+3', '63']</t>
@@ -1018,25 +1018,25 @@
     <t>['19', '29', '36', '83']</t>
   </si>
   <si>
-    <t>['21', '88']</t>
+    <t>['26', '46', '57', '87']</t>
   </si>
   <si>
-    <t>['26', '46', '57', '87']</t>
+    <t>['21', '88']</t>
   </si>
   <si>
     <t>['29', '75']</t>
   </si>
   <si>
+    <t>['48', '90+1']</t>
+  </si>
+  <si>
     <t>['6', '52', '59']</t>
   </si>
   <si>
-    <t>['48', '90+1']</t>
+    <t>['3', '42', '69']</t>
   </si>
   <si>
     <t>['90+7']</t>
-  </si>
-  <si>
-    <t>['3', '42', '69']</t>
   </si>
   <si>
     <t>['53', '85']</t>
@@ -1345,10 +1345,10 @@
     <t>['52', '68']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['59', '68']</t>
   </si>
   <si>
-    <t>['59', '68']</t>
+    <t>['54']</t>
   </si>
   <si>
     <t>['25', '62']</t>
@@ -1363,13 +1363,13 @@
     <t>['80', '90+3']</t>
   </si>
   <si>
-    <t>['40', '84']</t>
+    <t>['15', '20', '87']</t>
   </si>
   <si>
     <t>['46', '72']</t>
   </si>
   <si>
-    <t>['15', '20', '87']</t>
+    <t>['40', '84']</t>
   </si>
   <si>
     <t>['25', '60']</t>
@@ -1381,10 +1381,10 @@
     <t>['61', '74']</t>
   </si>
   <si>
-    <t>['18', '25', '79']</t>
+    <t>['53', '90+5']</t>
   </si>
   <si>
-    <t>['53', '90+5']</t>
+    <t>['18', '25', '79']</t>
   </si>
   <si>
     <t>['50', '54', '68']</t>
@@ -1764,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK360"/>
+  <dimension ref="A1:BK361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3345,7 +3345,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -7637,7 +7637,7 @@
         <v>2.85</v>
       </c>
       <c r="AT31">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT37">
         <v>0.64</v>
@@ -14131,7 +14131,7 @@
         <v>1.54</v>
       </c>
       <c r="AT65">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU65">
         <v>2.67</v>
@@ -14319,7 +14319,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT66">
         <v>0.9</v>
@@ -15850,7 +15850,7 @@
         <v>1.55</v>
       </c>
       <c r="AT74">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -22341,7 +22341,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT108">
         <v>1.75</v>
@@ -22535,7 +22535,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU109">
         <v>1.13</v>
@@ -27883,7 +27883,7 @@
         <v>1.23</v>
       </c>
       <c r="AT137">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -28262,7 +28262,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT139">
         <v>0.83</v>
@@ -32658,7 +32658,7 @@
         <v>2.17</v>
       </c>
       <c r="AT162">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU162">
         <v>1.32</v>
@@ -35138,7 +35138,7 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT175">
         <v>0.6899999999999999</v>
@@ -38579,7 +38579,7 @@
         <v>1.79</v>
       </c>
       <c r="AT193">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU193">
         <v>2.02</v>
@@ -39826,7 +39826,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39913,7 +39913,7 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT200">
         <v>1.75</v>
@@ -45452,7 +45452,7 @@
         <v>0.43</v>
       </c>
       <c r="AS229">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT229">
         <v>0.31</v>
@@ -46601,7 +46601,7 @@
         <v>1.42</v>
       </c>
       <c r="AT235">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU235">
         <v>1.32</v>
@@ -51949,7 +51949,7 @@
         <v>2.08</v>
       </c>
       <c r="AT263">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU263">
         <v>1.98</v>
@@ -56721,7 +56721,7 @@
         <v>0.7</v>
       </c>
       <c r="AS288">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT288">
         <v>0.62</v>
@@ -59266,7 +59266,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>4926241</v>
+        <v>4926242</v>
       </c>
       <c r="C302" t="s">
         <v>63</v>
@@ -59281,10 +59281,10 @@
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H302" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I302">
         <v>0</v>
@@ -59296,160 +59296,160 @@
         <v>0</v>
       </c>
       <c r="L302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N302">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O302" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="P302" t="s">
-        <v>112</v>
+        <v>443</v>
       </c>
       <c r="Q302">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R302">
+        <v>2</v>
+      </c>
+      <c r="S302">
+        <v>8</v>
+      </c>
+      <c r="T302">
+        <v>2.1</v>
+      </c>
+      <c r="U302">
+        <v>2.4</v>
+      </c>
+      <c r="V302">
+        <v>5.5</v>
+      </c>
+      <c r="W302">
+        <v>1.33</v>
+      </c>
+      <c r="X302">
+        <v>3.3</v>
+      </c>
+      <c r="Y302">
+        <v>2.55</v>
+      </c>
+      <c r="Z302">
+        <v>1.5</v>
+      </c>
+      <c r="AA302">
         <v>6</v>
       </c>
-      <c r="S302">
-        <v>9</v>
-      </c>
-      <c r="T302">
-        <v>2.2</v>
-      </c>
-      <c r="U302">
-        <v>2.15</v>
-      </c>
-      <c r="V302">
-        <v>4.8</v>
-      </c>
-      <c r="W302">
-        <v>1.4</v>
-      </c>
-      <c r="X302">
-        <v>2.75</v>
-      </c>
-      <c r="Y302">
-        <v>2.7</v>
-      </c>
-      <c r="Z302">
-        <v>1.4</v>
-      </c>
-      <c r="AA302">
-        <v>6.5</v>
-      </c>
       <c r="AB302">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AC302">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AD302">
-        <v>3.61</v>
+        <v>3.7</v>
       </c>
       <c r="AE302">
-        <v>4.15</v>
+        <v>3.94</v>
       </c>
       <c r="AF302">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG302">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH302">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI302">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AJ302">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AK302">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="AL302">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AM302">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AN302">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AO302">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP302">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="AQ302">
-        <v>2.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR302">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="AS302">
-        <v>2.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT302">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="AU302">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AV302">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AW302">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="AX302">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AY302">
+        <v>8.5</v>
+      </c>
+      <c r="AZ302">
+        <v>3.33</v>
+      </c>
+      <c r="BA302">
+        <v>1.33</v>
+      </c>
+      <c r="BB302">
+        <v>1.68</v>
+      </c>
+      <c r="BC302">
+        <v>2.07</v>
+      </c>
+      <c r="BD302">
+        <v>2.76</v>
+      </c>
+      <c r="BE302">
+        <v>3.74</v>
+      </c>
+      <c r="BF302">
+        <v>10</v>
+      </c>
+      <c r="BG302">
         <v>7</v>
       </c>
-      <c r="AZ302">
-        <v>4.6</v>
-      </c>
-      <c r="BA302">
-        <v>1.29</v>
-      </c>
-      <c r="BB302">
-        <v>1.6</v>
-      </c>
-      <c r="BC302">
-        <v>1.97</v>
-      </c>
-      <c r="BD302">
-        <v>2.45</v>
-      </c>
-      <c r="BE302">
-        <v>3.75</v>
-      </c>
-      <c r="BF302">
+      <c r="BH302">
         <v>6</v>
       </c>
-      <c r="BG302">
+      <c r="BI302">
+        <v>3</v>
+      </c>
+      <c r="BJ302">
+        <v>16</v>
+      </c>
+      <c r="BK302">
         <v>10</v>
-      </c>
-      <c r="BH302">
-        <v>5</v>
-      </c>
-      <c r="BI302">
-        <v>4</v>
-      </c>
-      <c r="BJ302">
-        <v>11</v>
-      </c>
-      <c r="BK302">
-        <v>14</v>
       </c>
     </row>
     <row r="303" spans="1:63">
@@ -59690,7 +59690,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59839,7 +59839,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>4926242</v>
+        <v>4926241</v>
       </c>
       <c r="C305" t="s">
         <v>63</v>
@@ -59854,10 +59854,10 @@
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H305" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -59869,160 +59869,160 @@
         <v>0</v>
       </c>
       <c r="L305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N305">
+        <v>2</v>
+      </c>
+      <c r="O305" t="s">
+        <v>265</v>
+      </c>
+      <c r="P305" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q305">
+        <v>3</v>
+      </c>
+      <c r="R305">
+        <v>6</v>
+      </c>
+      <c r="S305">
+        <v>9</v>
+      </c>
+      <c r="T305">
+        <v>2.2</v>
+      </c>
+      <c r="U305">
+        <v>2.15</v>
+      </c>
+      <c r="V305">
+        <v>4.8</v>
+      </c>
+      <c r="W305">
+        <v>1.4</v>
+      </c>
+      <c r="X305">
+        <v>2.75</v>
+      </c>
+      <c r="Y305">
+        <v>2.7</v>
+      </c>
+      <c r="Z305">
+        <v>1.4</v>
+      </c>
+      <c r="AA305">
+        <v>6.5</v>
+      </c>
+      <c r="AB305">
+        <v>1.08</v>
+      </c>
+      <c r="AC305">
+        <v>1.63</v>
+      </c>
+      <c r="AD305">
+        <v>3.61</v>
+      </c>
+      <c r="AE305">
+        <v>4.15</v>
+      </c>
+      <c r="AF305">
+        <v>1.02</v>
+      </c>
+      <c r="AG305">
+        <v>9.5</v>
+      </c>
+      <c r="AH305">
+        <v>1.25</v>
+      </c>
+      <c r="AI305">
+        <v>3.5</v>
+      </c>
+      <c r="AJ305">
+        <v>1.8</v>
+      </c>
+      <c r="AK305">
+        <v>1.8</v>
+      </c>
+      <c r="AL305">
+        <v>1.75</v>
+      </c>
+      <c r="AM305">
+        <v>1.95</v>
+      </c>
+      <c r="AN305">
+        <v>1.12</v>
+      </c>
+      <c r="AO305">
+        <v>1.25</v>
+      </c>
+      <c r="AP305">
+        <v>2.1</v>
+      </c>
+      <c r="AQ305">
+        <v>2.36</v>
+      </c>
+      <c r="AR305">
+        <v>0.75</v>
+      </c>
+      <c r="AS305">
+        <v>2.36</v>
+      </c>
+      <c r="AT305">
+        <v>0.67</v>
+      </c>
+      <c r="AU305">
+        <v>1.81</v>
+      </c>
+      <c r="AV305">
+        <v>1.06</v>
+      </c>
+      <c r="AW305">
+        <v>2.87</v>
+      </c>
+      <c r="AX305">
+        <v>1.28</v>
+      </c>
+      <c r="AY305">
+        <v>7</v>
+      </c>
+      <c r="AZ305">
+        <v>4.6</v>
+      </c>
+      <c r="BA305">
+        <v>1.29</v>
+      </c>
+      <c r="BB305">
+        <v>1.6</v>
+      </c>
+      <c r="BC305">
+        <v>1.97</v>
+      </c>
+      <c r="BD305">
+        <v>2.45</v>
+      </c>
+      <c r="BE305">
+        <v>3.75</v>
+      </c>
+      <c r="BF305">
+        <v>6</v>
+      </c>
+      <c r="BG305">
+        <v>10</v>
+      </c>
+      <c r="BH305">
+        <v>5</v>
+      </c>
+      <c r="BI305">
         <v>4</v>
       </c>
-      <c r="O305" t="s">
-        <v>305</v>
-      </c>
-      <c r="P305" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q305">
-        <v>6</v>
-      </c>
-      <c r="R305">
-        <v>2</v>
-      </c>
-      <c r="S305">
-        <v>8</v>
-      </c>
-      <c r="T305">
-        <v>2.1</v>
-      </c>
-      <c r="U305">
-        <v>2.4</v>
-      </c>
-      <c r="V305">
-        <v>5.5</v>
-      </c>
-      <c r="W305">
-        <v>1.33</v>
-      </c>
-      <c r="X305">
-        <v>3.3</v>
-      </c>
-      <c r="Y305">
-        <v>2.55</v>
-      </c>
-      <c r="Z305">
-        <v>1.5</v>
-      </c>
-      <c r="AA305">
-        <v>6</v>
-      </c>
-      <c r="AB305">
-        <v>1.11</v>
-      </c>
-      <c r="AC305">
-        <v>1.65</v>
-      </c>
-      <c r="AD305">
-        <v>3.7</v>
-      </c>
-      <c r="AE305">
-        <v>3.94</v>
-      </c>
-      <c r="AF305">
-        <v>1.03</v>
-      </c>
-      <c r="AG305">
-        <v>13</v>
-      </c>
-      <c r="AH305">
-        <v>1.22</v>
-      </c>
-      <c r="AI305">
-        <v>4.2</v>
-      </c>
-      <c r="AJ305">
-        <v>1.72</v>
-      </c>
-      <c r="AK305">
-        <v>2.12</v>
-      </c>
-      <c r="AL305">
-        <v>1.78</v>
-      </c>
-      <c r="AM305">
-        <v>2</v>
-      </c>
-      <c r="AN305">
-        <v>1.14</v>
-      </c>
-      <c r="AO305">
-        <v>1.18</v>
-      </c>
-      <c r="AP305">
-        <v>2.45</v>
-      </c>
-      <c r="AQ305">
-        <v>1.5</v>
-      </c>
-      <c r="AR305">
-        <v>0.33</v>
-      </c>
-      <c r="AS305">
-        <v>1.33</v>
-      </c>
-      <c r="AT305">
-        <v>0.58</v>
-      </c>
-      <c r="AU305">
-        <v>1.5</v>
-      </c>
-      <c r="AV305">
-        <v>1.31</v>
-      </c>
-      <c r="AW305">
-        <v>2.81</v>
-      </c>
-      <c r="AX305">
-        <v>1.45</v>
-      </c>
-      <c r="AY305">
-        <v>8.5</v>
-      </c>
-      <c r="AZ305">
-        <v>3.33</v>
-      </c>
-      <c r="BA305">
-        <v>1.33</v>
-      </c>
-      <c r="BB305">
-        <v>1.68</v>
-      </c>
-      <c r="BC305">
-        <v>2.07</v>
-      </c>
-      <c r="BD305">
-        <v>2.76</v>
-      </c>
-      <c r="BE305">
-        <v>3.74</v>
-      </c>
-      <c r="BF305">
-        <v>10</v>
-      </c>
-      <c r="BG305">
-        <v>7</v>
-      </c>
-      <c r="BH305">
-        <v>6</v>
-      </c>
-      <c r="BI305">
-        <v>3</v>
-      </c>
       <c r="BJ305">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BK305">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:63">
@@ -60541,7 +60541,7 @@
         <v>0.89</v>
       </c>
       <c r="AS308">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT308">
         <v>0.85</v>
@@ -60603,7 +60603,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>4926252</v>
+        <v>4926253</v>
       </c>
       <c r="C309" t="s">
         <v>63</v>
@@ -60618,133 +60618,133 @@
         <v>0</v>
       </c>
       <c r="G309" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H309" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K309">
         <v>2</v>
       </c>
       <c r="L309">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N309">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O309" t="s">
         <v>308</v>
       </c>
       <c r="P309" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="Q309">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S309">
         <v>7</v>
       </c>
       <c r="T309">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="U309">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V309">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="W309">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="X309">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y309">
+        <v>2.7</v>
+      </c>
+      <c r="Z309">
+        <v>1.41</v>
+      </c>
+      <c r="AA309">
+        <v>6.75</v>
+      </c>
+      <c r="AB309">
+        <v>1.09</v>
+      </c>
+      <c r="AC309">
+        <v>2.07</v>
+      </c>
+      <c r="AD309">
+        <v>3.37</v>
+      </c>
+      <c r="AE309">
+        <v>2.87</v>
+      </c>
+      <c r="AF309">
+        <v>1.06</v>
+      </c>
+      <c r="AG309">
+        <v>9</v>
+      </c>
+      <c r="AH309">
+        <v>1.28</v>
+      </c>
+      <c r="AI309">
         <v>3.4</v>
       </c>
-      <c r="Z309">
-        <v>1.27</v>
-      </c>
-      <c r="AA309">
-        <v>7.5</v>
-      </c>
-      <c r="AB309">
-        <v>1.06</v>
-      </c>
-      <c r="AC309">
-        <v>1.83</v>
-      </c>
-      <c r="AD309">
-        <v>3.26</v>
-      </c>
-      <c r="AE309">
-        <v>3.59</v>
-      </c>
-      <c r="AF309">
-        <v>1.05</v>
-      </c>
-      <c r="AG309">
-        <v>7.5</v>
-      </c>
-      <c r="AH309">
-        <v>1.35</v>
-      </c>
-      <c r="AI309">
-        <v>2.9</v>
-      </c>
       <c r="AJ309">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="AK309">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AL309">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AM309">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AN309">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AO309">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AP309">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AQ309">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR309">
-        <v>0.9</v>
+        <v>1.67</v>
       </c>
       <c r="AS309">
-        <v>0.83</v>
+        <v>1.23</v>
       </c>
       <c r="AT309">
-        <v>0.83</v>
+        <v>1.75</v>
       </c>
       <c r="AU309">
-        <v>1.48</v>
+        <v>1.96</v>
       </c>
       <c r="AV309">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AW309">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="AX309">
         <v>1.64</v>
@@ -60756,37 +60756,37 @@
         <v>2.77</v>
       </c>
       <c r="BA309">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BB309">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BC309">
         <v>1.98</v>
       </c>
       <c r="BD309">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BE309">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="BF309">
+        <v>7</v>
+      </c>
+      <c r="BG309">
         <v>5</v>
       </c>
-      <c r="BG309">
-        <v>4</v>
-      </c>
       <c r="BH309">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI309">
         <v>4</v>
       </c>
       <c r="BJ309">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK309">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:63">
@@ -60794,7 +60794,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>4926253</v>
+        <v>4926252</v>
       </c>
       <c r="C310" t="s">
         <v>63</v>
@@ -60809,133 +60809,133 @@
         <v>0</v>
       </c>
       <c r="G310" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H310" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K310">
         <v>2</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N310">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O310" t="s">
         <v>309</v>
       </c>
       <c r="P310" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="Q310">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S310">
         <v>7</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="U310">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V310">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="W310">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="X310">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y310">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Z310">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AA310">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="AB310">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AC310">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="AD310">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="AE310">
-        <v>2.87</v>
+        <v>3.59</v>
       </c>
       <c r="AF310">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG310">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AH310">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AI310">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AJ310">
+        <v>2.18</v>
+      </c>
+      <c r="AK310">
+        <v>1.68</v>
+      </c>
+      <c r="AL310">
+        <v>1.9</v>
+      </c>
+      <c r="AM310">
         <v>1.8</v>
       </c>
-      <c r="AK310">
-        <v>1.8</v>
-      </c>
-      <c r="AL310">
+      <c r="AN310">
+        <v>1.22</v>
+      </c>
+      <c r="AO310">
+        <v>1.32</v>
+      </c>
+      <c r="AP310">
         <v>1.7</v>
       </c>
-      <c r="AM310">
-        <v>2</v>
-      </c>
-      <c r="AN310">
-        <v>1.34</v>
-      </c>
-      <c r="AO310">
-        <v>1.31</v>
-      </c>
-      <c r="AP310">
-        <v>1.63</v>
-      </c>
       <c r="AQ310">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR310">
-        <v>1.67</v>
+        <v>0.9</v>
       </c>
       <c r="AS310">
-        <v>1.23</v>
+        <v>0.83</v>
       </c>
       <c r="AT310">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
       <c r="AU310">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="AV310">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AW310">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="AX310">
         <v>1.64</v>
@@ -60947,37 +60947,37 @@
         <v>2.77</v>
       </c>
       <c r="BA310">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BB310">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="BC310">
         <v>1.98</v>
       </c>
       <c r="BD310">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BE310">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="BF310">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG310">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH310">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI310">
         <v>4</v>
       </c>
       <c r="BJ310">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK310">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:63">
@@ -61176,7 +61176,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>4926255</v>
+        <v>4926256</v>
       </c>
       <c r="C312" t="s">
         <v>63</v>
@@ -61191,175 +61191,175 @@
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H312" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I312">
         <v>1</v>
       </c>
       <c r="J312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N312">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O312" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="P312" t="s">
-        <v>236</v>
+        <v>447</v>
       </c>
       <c r="Q312">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R312">
         <v>7</v>
       </c>
       <c r="S312">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T312">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U312">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="V312">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="W312">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="X312">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y312">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="Z312">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AA312">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="AB312">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AC312">
-        <v>1.48</v>
+        <v>2.08</v>
       </c>
       <c r="AD312">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="AE312">
-        <v>4.92</v>
+        <v>3.56</v>
       </c>
       <c r="AF312">
         <v>1.04</v>
       </c>
       <c r="AG312">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH312">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AI312">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AJ312">
+        <v>1.89</v>
+      </c>
+      <c r="AK312">
+        <v>1.92</v>
+      </c>
+      <c r="AL312">
+        <v>1.75</v>
+      </c>
+      <c r="AM312">
+        <v>2</v>
+      </c>
+      <c r="AN312">
+        <v>1.3</v>
+      </c>
+      <c r="AO312">
+        <v>1.29</v>
+      </c>
+      <c r="AP312">
         <v>1.72</v>
       </c>
-      <c r="AK312">
-        <v>2.12</v>
-      </c>
-      <c r="AL312">
-        <v>1.65</v>
-      </c>
-      <c r="AM312">
-        <v>2.1</v>
-      </c>
-      <c r="AN312">
-        <v>1.06</v>
-      </c>
-      <c r="AO312">
-        <v>1.17</v>
-      </c>
-      <c r="AP312">
-        <v>2.7</v>
-      </c>
       <c r="AQ312">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR312">
-        <v>0.6</v>
+        <v>1.22</v>
       </c>
       <c r="AS312">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="AT312">
-        <v>0.77</v>
+        <v>1.25</v>
       </c>
       <c r="AU312">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AV312">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AW312">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="AX312">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="AY312">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ312">
-        <v>3.69</v>
+        <v>2.78</v>
       </c>
       <c r="BA312">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="BB312">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="BC312">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="BD312">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="BE312">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="BF312">
+        <v>6</v>
+      </c>
+      <c r="BG312">
         <v>7</v>
-      </c>
-      <c r="BG312">
-        <v>4</v>
       </c>
       <c r="BH312">
         <v>6</v>
       </c>
       <c r="BI312">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ312">
+        <v>12</v>
+      </c>
+      <c r="BK312">
         <v>13</v>
-      </c>
-      <c r="BK312">
-        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:63">
@@ -61367,7 +61367,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>4926256</v>
+        <v>4926255</v>
       </c>
       <c r="C313" t="s">
         <v>63</v>
@@ -61382,175 +61382,175 @@
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H313" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I313">
         <v>1</v>
       </c>
       <c r="J313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N313">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O313" t="s">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="P313" t="s">
-        <v>447</v>
+        <v>236</v>
       </c>
       <c r="Q313">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R313">
         <v>7</v>
       </c>
       <c r="S313">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T313">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U313">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="V313">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="W313">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="X313">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Y313">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="Z313">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AA313">
-        <v>8</v>
+        <v>5.2</v>
       </c>
       <c r="AB313">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AC313">
-        <v>2.08</v>
+        <v>1.48</v>
       </c>
       <c r="AD313">
-        <v>3.49</v>
+        <v>3.99</v>
       </c>
       <c r="AE313">
-        <v>3.56</v>
+        <v>4.92</v>
       </c>
       <c r="AF313">
         <v>1.04</v>
       </c>
       <c r="AG313">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH313">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="AI313">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AJ313">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="AK313">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="AL313">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AM313">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AN313">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="AO313">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AP313">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="AQ313">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR313">
-        <v>1.22</v>
+        <v>0.6</v>
       </c>
       <c r="AS313">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="AT313">
-        <v>1.27</v>
+        <v>0.77</v>
       </c>
       <c r="AU313">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AV313">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AW313">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="AX313">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="AY313">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ313">
-        <v>2.78</v>
+        <v>3.69</v>
       </c>
       <c r="BA313">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="BB313">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="BC313">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="BD313">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="BE313">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="BF313">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG313">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH313">
         <v>6</v>
       </c>
       <c r="BI313">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ313">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK313">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:63">
@@ -61558,7 +61558,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>4926257</v>
+        <v>4926258</v>
       </c>
       <c r="C314" t="s">
         <v>63</v>
@@ -61573,25 +61573,25 @@
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H314" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J314">
         <v>0</v>
       </c>
       <c r="K314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N314">
         <v>3</v>
@@ -61600,148 +61600,148 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="Q314">
         <v>5</v>
       </c>
       <c r="R314">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S314">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T314">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="V314">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W314">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="X314">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Y314">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Z314">
+        <v>1.44</v>
+      </c>
+      <c r="AA314">
+        <v>6.25</v>
+      </c>
+      <c r="AB314">
+        <v>1.1</v>
+      </c>
+      <c r="AC314">
+        <v>1.88</v>
+      </c>
+      <c r="AD314">
+        <v>3.4</v>
+      </c>
+      <c r="AE314">
+        <v>3.7</v>
+      </c>
+      <c r="AF314">
+        <v>1.04</v>
+      </c>
+      <c r="AG314">
+        <v>13.25</v>
+      </c>
+      <c r="AH314">
+        <v>1.23</v>
+      </c>
+      <c r="AI314">
+        <v>3.75</v>
+      </c>
+      <c r="AJ314">
+        <v>1.87</v>
+      </c>
+      <c r="AK314">
+        <v>1.87</v>
+      </c>
+      <c r="AL314">
+        <v>1.63</v>
+      </c>
+      <c r="AM314">
+        <v>2.1</v>
+      </c>
+      <c r="AN314">
+        <v>1.35</v>
+      </c>
+      <c r="AO314">
+        <v>1.3</v>
+      </c>
+      <c r="AP314">
+        <v>1.62</v>
+      </c>
+      <c r="AQ314">
+        <v>1.73</v>
+      </c>
+      <c r="AR314">
+        <v>1.4</v>
+      </c>
+      <c r="AS314">
         <v>1.57</v>
       </c>
-      <c r="AA314">
-        <v>5</v>
-      </c>
-      <c r="AB314">
-        <v>1.15</v>
-      </c>
-      <c r="AC314">
-        <v>2</v>
-      </c>
-      <c r="AD314">
-        <v>3.5</v>
-      </c>
-      <c r="AE314">
-        <v>3.2</v>
-      </c>
-      <c r="AF314">
-        <v>1.02</v>
-      </c>
-      <c r="AG314">
-        <v>17</v>
-      </c>
-      <c r="AH314">
-        <v>1.18</v>
-      </c>
-      <c r="AI314">
-        <v>4.75</v>
-      </c>
-      <c r="AJ314">
-        <v>1.67</v>
-      </c>
-      <c r="AK314">
-        <v>2.1</v>
-      </c>
-      <c r="AL314">
-        <v>1.53</v>
-      </c>
-      <c r="AM314">
-        <v>2.5</v>
-      </c>
-      <c r="AN314">
-        <v>1.25</v>
-      </c>
-      <c r="AO314">
-        <v>1.2</v>
-      </c>
-      <c r="AP314">
-        <v>1.95</v>
-      </c>
-      <c r="AQ314">
-        <v>2.4</v>
-      </c>
-      <c r="AR314">
-        <v>1</v>
-      </c>
-      <c r="AS314">
-        <v>2.5</v>
-      </c>
       <c r="AT314">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AU314">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AV314">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AW314">
-        <v>2.67</v>
+        <v>3.04</v>
       </c>
       <c r="AX314">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AY314">
         <v>8</v>
       </c>
       <c r="AZ314">
-        <v>2.1</v>
+        <v>3.02</v>
       </c>
       <c r="BA314">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="BB314">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="BC314">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="BD314">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="BE314">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="BF314">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG314">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BH314">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI314">
+        <v>2</v>
+      </c>
+      <c r="BJ314">
         <v>10</v>
       </c>
-      <c r="BJ314">
-        <v>12</v>
-      </c>
       <c r="BK314">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:63">
@@ -61749,7 +61749,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>4926258</v>
+        <v>4926257</v>
       </c>
       <c r="C315" t="s">
         <v>63</v>
@@ -61764,25 +61764,25 @@
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H315" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J315">
         <v>0</v>
       </c>
       <c r="K315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N315">
         <v>3</v>
@@ -61791,148 +61791,148 @@
         <v>313</v>
       </c>
       <c r="P315" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="Q315">
         <v>5</v>
       </c>
       <c r="R315">
+        <v>7</v>
+      </c>
+      <c r="S315">
+        <v>12</v>
+      </c>
+      <c r="T315">
+        <v>2.45</v>
+      </c>
+      <c r="U315">
+        <v>2.4</v>
+      </c>
+      <c r="V315">
         <v>4</v>
       </c>
-      <c r="S315">
-        <v>9</v>
-      </c>
-      <c r="T315">
-        <v>2.75</v>
-      </c>
-      <c r="U315">
+      <c r="W315">
+        <v>1.28</v>
+      </c>
+      <c r="X315">
+        <v>3.6</v>
+      </c>
+      <c r="Y315">
+        <v>2.3</v>
+      </c>
+      <c r="Z315">
+        <v>1.57</v>
+      </c>
+      <c r="AA315">
+        <v>5</v>
+      </c>
+      <c r="AB315">
+        <v>1.15</v>
+      </c>
+      <c r="AC315">
+        <v>2</v>
+      </c>
+      <c r="AD315">
+        <v>3.5</v>
+      </c>
+      <c r="AE315">
+        <v>3.2</v>
+      </c>
+      <c r="AF315">
+        <v>1.02</v>
+      </c>
+      <c r="AG315">
+        <v>17</v>
+      </c>
+      <c r="AH315">
+        <v>1.18</v>
+      </c>
+      <c r="AI315">
+        <v>4.75</v>
+      </c>
+      <c r="AJ315">
+        <v>1.67</v>
+      </c>
+      <c r="AK315">
         <v>2.1</v>
       </c>
-      <c r="V315">
-        <v>3.5</v>
-      </c>
-      <c r="W315">
-        <v>1.36</v>
-      </c>
-      <c r="X315">
-        <v>2.9</v>
-      </c>
-      <c r="Y315">
-        <v>2.55</v>
-      </c>
-      <c r="Z315">
-        <v>1.44</v>
-      </c>
-      <c r="AA315">
-        <v>6.25</v>
-      </c>
-      <c r="AB315">
-        <v>1.1</v>
-      </c>
-      <c r="AC315">
-        <v>1.88</v>
-      </c>
-      <c r="AD315">
-        <v>3.4</v>
-      </c>
-      <c r="AE315">
-        <v>3.7</v>
-      </c>
-      <c r="AF315">
-        <v>1.04</v>
-      </c>
-      <c r="AG315">
-        <v>13.25</v>
-      </c>
-      <c r="AH315">
-        <v>1.23</v>
-      </c>
-      <c r="AI315">
-        <v>3.75</v>
-      </c>
-      <c r="AJ315">
-        <v>1.87</v>
-      </c>
-      <c r="AK315">
-        <v>1.87</v>
-      </c>
       <c r="AL315">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AM315">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AN315">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AO315">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AP315">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AQ315">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="AR315">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AS315">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="AT315">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AU315">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AV315">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AW315">
-        <v>3.04</v>
+        <v>2.67</v>
       </c>
       <c r="AX315">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AY315">
         <v>8</v>
       </c>
       <c r="AZ315">
-        <v>3.02</v>
+        <v>2.1</v>
       </c>
       <c r="BA315">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="BB315">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BC315">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BD315">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="BE315">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="BF315">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG315">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BH315">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BI315">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BJ315">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK315">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="1:63">
@@ -61940,7 +61940,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>4926262</v>
+        <v>4926260</v>
       </c>
       <c r="C316" t="s">
         <v>63</v>
@@ -61955,28 +61955,28 @@
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="H316" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L316">
         <v>0</v>
       </c>
       <c r="M316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O316" t="s">
         <v>96</v>
@@ -61985,145 +61985,145 @@
         <v>449</v>
       </c>
       <c r="Q316">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R316">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S316">
         <v>10</v>
       </c>
       <c r="T316">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="U316">
         <v>2.25</v>
       </c>
       <c r="V316">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="W316">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X316">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Y316">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="Z316">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AA316">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="AB316">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AC316">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="AD316">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AE316">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AF316">
         <v>1.03</v>
       </c>
       <c r="AG316">
-        <v>13</v>
+        <v>16.75</v>
       </c>
       <c r="AH316">
+        <v>1.2</v>
+      </c>
+      <c r="AI316">
+        <v>4.6</v>
+      </c>
+      <c r="AJ316">
+        <v>1.59</v>
+      </c>
+      <c r="AK316">
+        <v>2.26</v>
+      </c>
+      <c r="AL316">
+        <v>1.58</v>
+      </c>
+      <c r="AM316">
+        <v>2.3</v>
+      </c>
+      <c r="AN316">
+        <v>1.3</v>
+      </c>
+      <c r="AO316">
         <v>1.28</v>
       </c>
-      <c r="AI316">
-        <v>3.75</v>
-      </c>
-      <c r="AJ316">
-        <v>1.82</v>
-      </c>
-      <c r="AK316">
-        <v>1.92</v>
-      </c>
-      <c r="AL316">
-        <v>1.72</v>
-      </c>
-      <c r="AM316">
-        <v>2.05</v>
-      </c>
-      <c r="AN316">
-        <v>1.28</v>
-      </c>
-      <c r="AO316">
-        <v>1.22</v>
-      </c>
       <c r="AP316">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AQ316">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="AR316">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AS316">
         <v>2.17</v>
       </c>
       <c r="AT316">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AU316">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="AV316">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AW316">
-        <v>2.97</v>
+        <v>2.72</v>
       </c>
       <c r="AX316">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AY316">
         <v>8</v>
       </c>
       <c r="AZ316">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="BA316">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="BB316">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BC316">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="BD316">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="BE316">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="BF316">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG316">
+        <v>5</v>
+      </c>
+      <c r="BH316">
+        <v>10</v>
+      </c>
+      <c r="BI316">
+        <v>1</v>
+      </c>
+      <c r="BJ316">
+        <v>17</v>
+      </c>
+      <c r="BK316">
         <v>6</v>
-      </c>
-      <c r="BH316">
-        <v>12</v>
-      </c>
-      <c r="BI316">
-        <v>3</v>
-      </c>
-      <c r="BJ316">
-        <v>16</v>
-      </c>
-      <c r="BK316">
-        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:63">
@@ -62322,7 +62322,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>4926260</v>
+        <v>4926262</v>
       </c>
       <c r="C318" t="s">
         <v>63</v>
@@ -62337,28 +62337,28 @@
         <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H318" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I318">
         <v>0</v>
       </c>
       <c r="J318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L318">
         <v>0</v>
       </c>
       <c r="M318">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N318">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O318" t="s">
         <v>96</v>
@@ -62367,145 +62367,145 @@
         <v>451</v>
       </c>
       <c r="Q318">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R318">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S318">
         <v>10</v>
       </c>
       <c r="T318">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="U318">
         <v>2.25</v>
       </c>
       <c r="V318">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="W318">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X318">
+        <v>3.1</v>
+      </c>
+      <c r="Y318">
+        <v>2.75</v>
+      </c>
+      <c r="Z318">
+        <v>1.42</v>
+      </c>
+      <c r="AA318">
+        <v>6.5</v>
+      </c>
+      <c r="AB318">
+        <v>1.09</v>
+      </c>
+      <c r="AC318">
+        <v>1.98</v>
+      </c>
+      <c r="AD318">
         <v>3.3</v>
       </c>
-      <c r="Y318">
-        <v>2.35</v>
-      </c>
-      <c r="Z318">
-        <v>1.52</v>
-      </c>
-      <c r="AA318">
-        <v>5.75</v>
-      </c>
-      <c r="AB318">
-        <v>1.13</v>
-      </c>
-      <c r="AC318">
-        <v>1.79</v>
-      </c>
-      <c r="AD318">
-        <v>3.6</v>
-      </c>
       <c r="AE318">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AF318">
         <v>1.03</v>
       </c>
       <c r="AG318">
-        <v>16.75</v>
+        <v>13</v>
       </c>
       <c r="AH318">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AI318">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="AJ318">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="AK318">
-        <v>2.26</v>
+        <v>1.92</v>
       </c>
       <c r="AL318">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AM318">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AN318">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AO318">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AP318">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ318">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR318">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AS318">
         <v>2.17</v>
       </c>
       <c r="AT318">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AU318">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="AV318">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AW318">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="AX318">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AY318">
         <v>8</v>
       </c>
       <c r="AZ318">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="BA318">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="BB318">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BC318">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="BD318">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="BE318">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="BF318">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG318">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH318">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI318">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ318">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BK318">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:63">
@@ -62895,7 +62895,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>4926156</v>
+        <v>4926263</v>
       </c>
       <c r="C321" t="s">
         <v>63</v>
@@ -62910,28 +62910,28 @@
         <v>0</v>
       </c>
       <c r="G321" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H321" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321">
         <v>0</v>
       </c>
       <c r="K321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M321">
         <v>0</v>
       </c>
       <c r="N321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O321" t="s">
         <v>316</v>
@@ -62940,112 +62940,112 @@
         <v>96</v>
       </c>
       <c r="Q321">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R321">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S321">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T321">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="U321">
-        <v>2.71</v>
+        <v>2.15</v>
       </c>
       <c r="V321">
-        <v>5.35</v>
+        <v>3.3</v>
       </c>
       <c r="W321">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X321">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="Y321">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="Z321">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AA321">
-        <v>4.65</v>
+        <v>6.75</v>
       </c>
       <c r="AB321">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AC321">
-        <v>1.48</v>
+        <v>2.6</v>
       </c>
       <c r="AD321">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="AE321">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="AF321">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AG321">
-        <v>19</v>
+        <v>12.75</v>
       </c>
       <c r="AH321">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="AI321">
-        <v>5</v>
+        <v>3.92</v>
       </c>
       <c r="AJ321">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="AK321">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="AL321">
         <v>1.57</v>
       </c>
       <c r="AM321">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AN321">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AO321">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AP321">
-        <v>2.57</v>
+        <v>1.55</v>
       </c>
       <c r="AQ321">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR321">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AS321">
         <v>2.08</v>
       </c>
       <c r="AT321">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU321">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="AV321">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AW321">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="AX321">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AY321">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ321">
-        <v>3.32</v>
+        <v>2.44</v>
       </c>
       <c r="BA321">
         <v>1.22</v>
@@ -63069,16 +63069,16 @@
         <v>3</v>
       </c>
       <c r="BH321">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI321">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ321">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK321">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:63">
@@ -63086,7 +63086,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>4926263</v>
+        <v>4926156</v>
       </c>
       <c r="C322" t="s">
         <v>63</v>
@@ -63101,28 +63101,28 @@
         <v>0</v>
       </c>
       <c r="G322" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H322" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322">
         <v>0</v>
       </c>
       <c r="K322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M322">
         <v>0</v>
       </c>
       <c r="N322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O322" t="s">
         <v>317</v>
@@ -63131,112 +63131,112 @@
         <v>96</v>
       </c>
       <c r="Q322">
+        <v>4</v>
+      </c>
+      <c r="R322">
         <v>5</v>
       </c>
-      <c r="R322">
-        <v>3</v>
-      </c>
       <c r="S322">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T322">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="U322">
-        <v>2.15</v>
+        <v>2.71</v>
       </c>
       <c r="V322">
-        <v>3.3</v>
+        <v>5.35</v>
       </c>
       <c r="W322">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="X322">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="Y322">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Z322">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AA322">
-        <v>6.75</v>
+        <v>4.65</v>
       </c>
       <c r="AB322">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AC322">
-        <v>2.6</v>
+        <v>1.48</v>
       </c>
       <c r="AD322">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="AE322">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF322">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG322">
-        <v>12.75</v>
+        <v>19</v>
       </c>
       <c r="AH322">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="AI322">
-        <v>3.92</v>
+        <v>5</v>
       </c>
       <c r="AJ322">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AK322">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="AL322">
         <v>1.57</v>
       </c>
       <c r="AM322">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AN322">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AO322">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AP322">
-        <v>1.55</v>
+        <v>2.57</v>
       </c>
       <c r="AQ322">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR322">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AS322">
         <v>2.08</v>
       </c>
       <c r="AT322">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AU322">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="AV322">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AW322">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="AX322">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AY322">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ322">
-        <v>2.44</v>
+        <v>3.32</v>
       </c>
       <c r="BA322">
         <v>1.22</v>
@@ -63260,16 +63260,16 @@
         <v>3</v>
       </c>
       <c r="BH322">
+        <v>5</v>
+      </c>
+      <c r="BI322">
+        <v>5</v>
+      </c>
+      <c r="BJ322">
+        <v>9</v>
+      </c>
+      <c r="BK322">
         <v>8</v>
-      </c>
-      <c r="BI322">
-        <v>1</v>
-      </c>
-      <c r="BJ322">
-        <v>12</v>
-      </c>
-      <c r="BK322">
-        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:63">
@@ -63468,7 +63468,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>4926266</v>
+        <v>4926269</v>
       </c>
       <c r="C324" t="s">
         <v>63</v>
@@ -63483,40 +63483,40 @@
         <v>0</v>
       </c>
       <c r="G324" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H324" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K324">
         <v>2</v>
       </c>
       <c r="L324">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M324">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N324">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O324" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="P324" t="s">
-        <v>452</v>
+        <v>96</v>
       </c>
       <c r="Q324">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S324">
         <v>8</v>
@@ -63549,31 +63549,31 @@
         <v>1.11</v>
       </c>
       <c r="AC324">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AD324">
         <v>3.4</v>
       </c>
       <c r="AE324">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AF324">
         <v>1.04</v>
       </c>
       <c r="AG324">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH324">
         <v>1.23</v>
       </c>
       <c r="AI324">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="AJ324">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AK324">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="AL324">
         <v>1.62</v>
@@ -63582,76 +63582,76 @@
         <v>2.2</v>
       </c>
       <c r="AN324">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AO324">
         <v>1.28</v>
       </c>
       <c r="AP324">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ324">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="AR324">
+        <v>1.17</v>
+      </c>
+      <c r="AS324">
+        <v>2.5</v>
+      </c>
+      <c r="AT324">
+        <v>1</v>
+      </c>
+      <c r="AU324">
+        <v>1.51</v>
+      </c>
+      <c r="AV324">
+        <v>1.49</v>
+      </c>
+      <c r="AW324">
+        <v>3</v>
+      </c>
+      <c r="AX324">
+        <v>1.65</v>
+      </c>
+      <c r="AY324">
+        <v>9.1</v>
+      </c>
+      <c r="AZ324">
+        <v>2.65</v>
+      </c>
+      <c r="BA324">
+        <v>1.26</v>
+      </c>
+      <c r="BB324">
         <v>1.5</v>
       </c>
-      <c r="AS324">
-        <v>2.08</v>
-      </c>
-      <c r="AT324">
-        <v>1.75</v>
-      </c>
-      <c r="AU324">
-        <v>1.68</v>
-      </c>
-      <c r="AV324">
-        <v>1.28</v>
-      </c>
-      <c r="AW324">
-        <v>2.96</v>
-      </c>
-      <c r="AX324">
-        <v>1.62</v>
-      </c>
-      <c r="AY324">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ324">
-        <v>2.72</v>
-      </c>
-      <c r="BA324">
-        <v>1.23</v>
-      </c>
-      <c r="BB324">
-        <v>1.44</v>
-      </c>
       <c r="BC324">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BD324">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BE324">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="BF324">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG324">
         <v>5</v>
       </c>
       <c r="BH324">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI324">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ324">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:63">
@@ -63659,7 +63659,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>4926268</v>
+        <v>4926266</v>
       </c>
       <c r="C325" t="s">
         <v>63</v>
@@ -63674,142 +63674,142 @@
         <v>0</v>
       </c>
       <c r="G325" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H325" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K325">
         <v>2</v>
       </c>
       <c r="L325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O325" t="s">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="P325" t="s">
-        <v>96</v>
+        <v>452</v>
       </c>
       <c r="Q325">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R325">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S325">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T325">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="U325">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V325">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="W325">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X325">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y325">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z325">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA325">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB325">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC325">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD325">
         <v>3.4</v>
       </c>
       <c r="AE325">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AF325">
         <v>1.04</v>
       </c>
       <c r="AG325">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH325">
+        <v>1.23</v>
+      </c>
+      <c r="AI325">
+        <v>4.2</v>
+      </c>
+      <c r="AJ325">
+        <v>1.66</v>
+      </c>
+      <c r="AK325">
+        <v>2.14</v>
+      </c>
+      <c r="AL325">
+        <v>1.62</v>
+      </c>
+      <c r="AM325">
+        <v>2.2</v>
+      </c>
+      <c r="AN325">
+        <v>1.33</v>
+      </c>
+      <c r="AO325">
         <v>1.28</v>
       </c>
-      <c r="AI325">
-        <v>3.6</v>
-      </c>
-      <c r="AJ325">
-        <v>1.76</v>
-      </c>
-      <c r="AK325">
-        <v>1.99</v>
-      </c>
-      <c r="AL325">
-        <v>1.7</v>
-      </c>
-      <c r="AM325">
-        <v>2.05</v>
-      </c>
-      <c r="AN325">
-        <v>1.4</v>
-      </c>
-      <c r="AO325">
-        <v>1.25</v>
-      </c>
       <c r="AP325">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AQ325">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR325">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AS325">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT325">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AU325">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AV325">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AW325">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="AX325">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AY325">
         <v>9.199999999999999</v>
       </c>
       <c r="AZ325">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="BA325">
         <v>1.23</v>
@@ -63827,22 +63827,22 @@
         <v>3.25</v>
       </c>
       <c r="BF325">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG325">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH325">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI325">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ325">
         <v>14</v>
       </c>
       <c r="BK325">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:63">
@@ -63850,7 +63850,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>4926269</v>
+        <v>4926268</v>
       </c>
       <c r="C326" t="s">
         <v>63</v>
@@ -63865,10 +63865,10 @@
         <v>0</v>
       </c>
       <c r="G326" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H326" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I326">
         <v>2</v>
@@ -63880,13 +63880,13 @@
         <v>2</v>
       </c>
       <c r="L326">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M326">
         <v>0</v>
       </c>
       <c r="N326">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O326" t="s">
         <v>320</v>
@@ -63898,142 +63898,142 @@
         <v>6</v>
       </c>
       <c r="R326">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S326">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T326">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="U326">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V326">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="W326">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X326">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y326">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z326">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA326">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB326">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC326">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD326">
         <v>3.4</v>
       </c>
       <c r="AE326">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="AF326">
         <v>1.04</v>
       </c>
       <c r="AG326">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH326">
+        <v>1.28</v>
+      </c>
+      <c r="AI326">
+        <v>3.6</v>
+      </c>
+      <c r="AJ326">
+        <v>1.76</v>
+      </c>
+      <c r="AK326">
+        <v>1.99</v>
+      </c>
+      <c r="AL326">
+        <v>1.7</v>
+      </c>
+      <c r="AM326">
+        <v>2.05</v>
+      </c>
+      <c r="AN326">
+        <v>1.4</v>
+      </c>
+      <c r="AO326">
+        <v>1.25</v>
+      </c>
+      <c r="AP326">
+        <v>1.63</v>
+      </c>
+      <c r="AQ326">
+        <v>2.1</v>
+      </c>
+      <c r="AR326">
+        <v>1.09</v>
+      </c>
+      <c r="AS326">
+        <v>2.25</v>
+      </c>
+      <c r="AT326">
+        <v>1</v>
+      </c>
+      <c r="AU326">
+        <v>1.39</v>
+      </c>
+      <c r="AV326">
+        <v>1.09</v>
+      </c>
+      <c r="AW326">
+        <v>2.48</v>
+      </c>
+      <c r="AX326">
+        <v>1.64</v>
+      </c>
+      <c r="AY326">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ326">
+        <v>2.67</v>
+      </c>
+      <c r="BA326">
         <v>1.23</v>
       </c>
-      <c r="AI326">
-        <v>4.18</v>
-      </c>
-      <c r="AJ326">
-        <v>1.7</v>
-      </c>
-      <c r="AK326">
-        <v>2.08</v>
-      </c>
-      <c r="AL326">
-        <v>1.62</v>
-      </c>
-      <c r="AM326">
-        <v>2.2</v>
-      </c>
-      <c r="AN326">
-        <v>1.35</v>
-      </c>
-      <c r="AO326">
-        <v>1.28</v>
-      </c>
-      <c r="AP326">
-        <v>1.71</v>
-      </c>
-      <c r="AQ326">
-        <v>2.45</v>
-      </c>
-      <c r="AR326">
-        <v>1.17</v>
-      </c>
-      <c r="AS326">
-        <v>2.5</v>
-      </c>
-      <c r="AT326">
-        <v>1</v>
-      </c>
-      <c r="AU326">
-        <v>1.51</v>
-      </c>
-      <c r="AV326">
-        <v>1.49</v>
-      </c>
-      <c r="AW326">
-        <v>3</v>
-      </c>
-      <c r="AX326">
-        <v>1.65</v>
-      </c>
-      <c r="AY326">
-        <v>9.1</v>
-      </c>
-      <c r="AZ326">
-        <v>2.65</v>
-      </c>
-      <c r="BA326">
-        <v>1.26</v>
-      </c>
       <c r="BB326">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BC326">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BD326">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="BE326">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="BF326">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG326">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH326">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI326">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ326">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK326">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:63">
@@ -64361,7 +64361,7 @@
         <v>1.2</v>
       </c>
       <c r="AS328">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT328">
         <v>1.08</v>
@@ -66142,7 +66142,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>4926285</v>
+        <v>4926280</v>
       </c>
       <c r="C338" t="s">
         <v>63</v>
@@ -66157,175 +66157,175 @@
         <v>0</v>
       </c>
       <c r="G338" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H338" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J338">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K338">
         <v>2</v>
       </c>
       <c r="L338">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M338">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N338">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O338" t="s">
         <v>329</v>
       </c>
       <c r="P338" t="s">
-        <v>455</v>
+        <v>96</v>
       </c>
       <c r="Q338">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R338">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S338">
         <v>9</v>
       </c>
       <c r="T338">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U338">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V338">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W338">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X338">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Y338">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z338">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA338">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB338">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AC338">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="AD338">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AE338">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AF338">
         <v>1.03</v>
       </c>
       <c r="AG338">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH338">
+        <v>1.18</v>
+      </c>
+      <c r="AI338">
+        <v>4.8</v>
+      </c>
+      <c r="AJ338">
+        <v>1.62</v>
+      </c>
+      <c r="AK338">
+        <v>2.28</v>
+      </c>
+      <c r="AL338">
+        <v>1.57</v>
+      </c>
+      <c r="AM338">
+        <v>2.25</v>
+      </c>
+      <c r="AN338">
+        <v>1.3</v>
+      </c>
+      <c r="AO338">
+        <v>1.22</v>
+      </c>
+      <c r="AP338">
+        <v>1.83</v>
+      </c>
+      <c r="AQ338">
+        <v>2.25</v>
+      </c>
+      <c r="AR338">
+        <v>1.55</v>
+      </c>
+      <c r="AS338">
+        <v>2.36</v>
+      </c>
+      <c r="AT338">
+        <v>1.42</v>
+      </c>
+      <c r="AU338">
+        <v>1.79</v>
+      </c>
+      <c r="AV338">
+        <v>1.39</v>
+      </c>
+      <c r="AW338">
+        <v>3.18</v>
+      </c>
+      <c r="AX338">
+        <v>1.66</v>
+      </c>
+      <c r="AY338">
+        <v>8</v>
+      </c>
+      <c r="AZ338">
+        <v>2.6</v>
+      </c>
+      <c r="BA338">
         <v>1.27</v>
       </c>
-      <c r="AI338">
-        <v>3.75</v>
-      </c>
-      <c r="AJ338">
-        <v>1.92</v>
-      </c>
-      <c r="AK338">
-        <v>1.96</v>
-      </c>
-      <c r="AL338">
-        <v>1.7</v>
-      </c>
-      <c r="AM338">
-        <v>2.05</v>
-      </c>
-      <c r="AN338">
-        <v>1.4</v>
-      </c>
-      <c r="AO338">
-        <v>1.25</v>
-      </c>
-      <c r="AP338">
-        <v>1.63</v>
-      </c>
-      <c r="AQ338">
-        <v>1.25</v>
-      </c>
-      <c r="AR338">
-        <v>0.42</v>
-      </c>
-      <c r="AS338">
-        <v>1.15</v>
-      </c>
-      <c r="AT338">
-        <v>0.62</v>
-      </c>
-      <c r="AU338">
-        <v>1.42</v>
-      </c>
-      <c r="AV338">
-        <v>1.18</v>
-      </c>
-      <c r="AW338">
-        <v>2.6</v>
-      </c>
-      <c r="AX338">
-        <v>1.81</v>
-      </c>
-      <c r="AY338">
-        <v>7.5</v>
-      </c>
-      <c r="AZ338">
-        <v>2.33</v>
-      </c>
-      <c r="BA338">
-        <v>1.32</v>
-      </c>
       <c r="BB338">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BC338">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="BD338">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="BE338">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BF338">
+        <v>10</v>
+      </c>
+      <c r="BG338">
+        <v>5</v>
+      </c>
+      <c r="BH338">
         <v>4</v>
       </c>
-      <c r="BG338">
-        <v>7</v>
-      </c>
-      <c r="BH338">
-        <v>2</v>
-      </c>
       <c r="BI338">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ338">
+        <v>14</v>
+      </c>
+      <c r="BK338">
         <v>6</v>
-      </c>
-      <c r="BK338">
-        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:63">
@@ -66333,7 +66333,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>4926280</v>
+        <v>4926282</v>
       </c>
       <c r="C339" t="s">
         <v>63</v>
@@ -66348,31 +66348,31 @@
         <v>0</v>
       </c>
       <c r="G339" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H339" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J339">
         <v>0</v>
       </c>
       <c r="K339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M339">
         <v>0</v>
       </c>
       <c r="N339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O339" t="s">
-        <v>330</v>
+        <v>111</v>
       </c>
       <c r="P339" t="s">
         <v>96</v>
@@ -66387,136 +66387,136 @@
         <v>9</v>
       </c>
       <c r="T339">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="U339">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V339">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="W339">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X339">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Y339">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z339">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA339">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB339">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AC339">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="AD339">
         <v>3.9</v>
       </c>
       <c r="AE339">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="AF339">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG339">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH339">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AI339">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="AJ339">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="AK339">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="AL339">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AM339">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AN339">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AO339">
         <v>1.22</v>
       </c>
       <c r="AP339">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ339">
-        <v>2.25</v>
+        <v>1.58</v>
       </c>
       <c r="AR339">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="AS339">
-        <v>2.36</v>
+        <v>1.57</v>
       </c>
       <c r="AT339">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AU339">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AV339">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AW339">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="AX339">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AY339">
         <v>8</v>
       </c>
       <c r="AZ339">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="BA339">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BB339">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BC339">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="BD339">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BE339">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BF339">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BG339">
+        <v>0</v>
+      </c>
+      <c r="BH339">
         <v>5</v>
       </c>
-      <c r="BH339">
+      <c r="BI339">
         <v>4</v>
       </c>
-      <c r="BI339">
-        <v>1</v>
-      </c>
       <c r="BJ339">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK339">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:63">
@@ -66524,7 +66524,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>4926282</v>
+        <v>4926283</v>
       </c>
       <c r="C340" t="s">
         <v>63</v>
@@ -66539,10 +66539,10 @@
         <v>0</v>
       </c>
       <c r="G340" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H340" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -66554,37 +66554,37 @@
         <v>0</v>
       </c>
       <c r="L340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M340">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O340" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="P340" t="s">
-        <v>96</v>
+        <v>455</v>
       </c>
       <c r="Q340">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R340">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S340">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T340">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="U340">
         <v>2.2</v>
       </c>
       <c r="V340">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="W340">
         <v>1.36</v>
@@ -66599,28 +66599,28 @@
         <v>1.4</v>
       </c>
       <c r="AA340">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB340">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC340">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AD340">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AE340">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AF340">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG340">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH340">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AI340">
         <v>3.6</v>
@@ -66632,82 +66632,82 @@
         <v>1.96</v>
       </c>
       <c r="AL340">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AM340">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AN340">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AO340">
         <v>1.22</v>
       </c>
       <c r="AP340">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ340">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AR340">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AS340">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AT340">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="AU340">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AV340">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AW340">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="AX340">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AY340">
         <v>8</v>
       </c>
       <c r="AZ340">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="BA340">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BB340">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="BC340">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="BD340">
         <v>2.5</v>
       </c>
       <c r="BE340">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="BF340">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG340">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH340">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI340">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ340">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK340">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" spans="1:63">
@@ -66715,7 +66715,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>4926283</v>
+        <v>4926285</v>
       </c>
       <c r="C341" t="s">
         <v>63</v>
@@ -66730,52 +66730,52 @@
         <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H341" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I341">
         <v>0</v>
       </c>
       <c r="J341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N341">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O341" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="P341" t="s">
         <v>456</v>
       </c>
       <c r="Q341">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R341">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S341">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T341">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U341">
         <v>2.2</v>
       </c>
       <c r="V341">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="W341">
         <v>1.36</v>
@@ -66796,25 +66796,25 @@
         <v>1.1</v>
       </c>
       <c r="AC341">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="AD341">
+        <v>3.7</v>
+      </c>
+      <c r="AE341">
+        <v>3.15</v>
+      </c>
+      <c r="AF341">
+        <v>1.03</v>
+      </c>
+      <c r="AG341">
+        <v>11.5</v>
+      </c>
+      <c r="AH341">
+        <v>1.27</v>
+      </c>
+      <c r="AI341">
         <v>3.75</v>
-      </c>
-      <c r="AE341">
-        <v>3.6</v>
-      </c>
-      <c r="AF341">
-        <v>1.04</v>
-      </c>
-      <c r="AG341">
-        <v>13</v>
-      </c>
-      <c r="AH341">
-        <v>1.28</v>
-      </c>
-      <c r="AI341">
-        <v>3.6</v>
       </c>
       <c r="AJ341">
         <v>1.92</v>
@@ -66823,82 +66823,82 @@
         <v>1.96</v>
       </c>
       <c r="AL341">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AM341">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AN341">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AO341">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP341">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AQ341">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AR341">
-        <v>1.33</v>
+        <v>0.42</v>
       </c>
       <c r="AS341">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AT341">
-        <v>1.46</v>
+        <v>0.62</v>
       </c>
       <c r="AU341">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AV341">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AW341">
-        <v>2.91</v>
+        <v>2.6</v>
       </c>
       <c r="AX341">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="AY341">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ341">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="BA341">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BB341">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="BC341">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="BD341">
         <v>2.5</v>
       </c>
       <c r="BE341">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="BF341">
+        <v>4</v>
+      </c>
+      <c r="BG341">
+        <v>7</v>
+      </c>
+      <c r="BH341">
+        <v>2</v>
+      </c>
+      <c r="BI341">
+        <v>5</v>
+      </c>
+      <c r="BJ341">
         <v>6</v>
       </c>
-      <c r="BG341">
-        <v>5</v>
-      </c>
-      <c r="BH341">
-        <v>8</v>
-      </c>
-      <c r="BI341">
-        <v>6</v>
-      </c>
-      <c r="BJ341">
-        <v>14</v>
-      </c>
       <c r="BK341">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:63">
@@ -67479,7 +67479,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>4926292</v>
+        <v>4926293</v>
       </c>
       <c r="C345" t="s">
         <v>63</v>
@@ -67494,10 +67494,10 @@
         <v>0</v>
       </c>
       <c r="G345" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H345" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I345">
         <v>0</v>
@@ -67512,157 +67512,157 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O345" t="s">
         <v>96</v>
       </c>
       <c r="P345" t="s">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="Q345">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R345">
+        <v>1</v>
+      </c>
+      <c r="S345">
+        <v>7</v>
+      </c>
+      <c r="T345">
+        <v>2.3</v>
+      </c>
+      <c r="U345">
+        <v>2.38</v>
+      </c>
+      <c r="V345">
+        <v>4.5</v>
+      </c>
+      <c r="W345">
+        <v>1.33</v>
+      </c>
+      <c r="X345">
+        <v>3.25</v>
+      </c>
+      <c r="Y345">
+        <v>2.5</v>
+      </c>
+      <c r="Z345">
+        <v>1.5</v>
+      </c>
+      <c r="AA345">
         <v>6</v>
       </c>
-      <c r="S345">
-        <v>14</v>
-      </c>
-      <c r="T345">
-        <v>2.5</v>
-      </c>
-      <c r="U345">
-        <v>2.25</v>
-      </c>
-      <c r="V345">
+      <c r="AB345">
+        <v>1.13</v>
+      </c>
+      <c r="AC345">
+        <v>1.85</v>
+      </c>
+      <c r="AD345">
+        <v>4</v>
+      </c>
+      <c r="AE345">
+        <v>3.85</v>
+      </c>
+      <c r="AF345">
+        <v>1.02</v>
+      </c>
+      <c r="AG345">
+        <v>15</v>
+      </c>
+      <c r="AH345">
+        <v>1.2</v>
+      </c>
+      <c r="AI345">
         <v>4.33</v>
       </c>
-      <c r="W345">
-        <v>1.36</v>
-      </c>
-      <c r="X345">
-        <v>3</v>
-      </c>
-      <c r="Y345">
-        <v>2.75</v>
-      </c>
-      <c r="Z345">
-        <v>1.4</v>
-      </c>
-      <c r="AA345">
-        <v>7</v>
-      </c>
-      <c r="AB345">
-        <v>1.1</v>
-      </c>
-      <c r="AC345">
-        <v>1.96</v>
-      </c>
-      <c r="AD345">
-        <v>3.75</v>
-      </c>
-      <c r="AE345">
-        <v>3.65</v>
-      </c>
-      <c r="AF345">
-        <v>1.04</v>
-      </c>
-      <c r="AG345">
-        <v>11</v>
-      </c>
-      <c r="AH345">
-        <v>1.28</v>
-      </c>
-      <c r="AI345">
-        <v>3.6</v>
-      </c>
       <c r="AJ345">
+        <v>1.81</v>
+      </c>
+      <c r="AK345">
+        <v>1.89</v>
+      </c>
+      <c r="AL345">
+        <v>1.67</v>
+      </c>
+      <c r="AM345">
+        <v>2.1</v>
+      </c>
+      <c r="AN345">
+        <v>1.22</v>
+      </c>
+      <c r="AO345">
+        <v>1.2</v>
+      </c>
+      <c r="AP345">
+        <v>2.05</v>
+      </c>
+      <c r="AQ345">
         <v>1.92</v>
       </c>
-      <c r="AK345">
-        <v>1.96</v>
-      </c>
-      <c r="AL345">
-        <v>1.75</v>
-      </c>
-      <c r="AM345">
-        <v>2</v>
-      </c>
-      <c r="AN345">
-        <v>1.25</v>
-      </c>
-      <c r="AO345">
-        <v>1.25</v>
-      </c>
-      <c r="AP345">
-        <v>1.9</v>
-      </c>
-      <c r="AQ345">
-        <v>1.69</v>
-      </c>
       <c r="AR345">
-        <v>0.92</v>
+        <v>0.64</v>
       </c>
       <c r="AS345">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AT345">
-        <v>1.08</v>
+        <v>0.77</v>
       </c>
       <c r="AU345">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="AV345">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="AW345">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="AX345">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AY345">
         <v>8</v>
       </c>
       <c r="AZ345">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="BA345">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="BB345">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="BC345">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="BD345">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="BE345">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="BF345">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG345">
+        <v>2</v>
+      </c>
+      <c r="BH345">
         <v>8</v>
       </c>
-      <c r="BH345">
-        <v>10</v>
-      </c>
       <c r="BI345">
         <v>2</v>
       </c>
       <c r="BJ345">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BK345">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:63">
@@ -67670,7 +67670,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>4926293</v>
+        <v>4926292</v>
       </c>
       <c r="C346" t="s">
         <v>63</v>
@@ -67685,10 +67685,10 @@
         <v>0</v>
       </c>
       <c r="G346" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H346" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -67703,157 +67703,157 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O346" t="s">
         <v>96</v>
       </c>
       <c r="P346" t="s">
-        <v>364</v>
+        <v>459</v>
       </c>
       <c r="Q346">
+        <v>8</v>
+      </c>
+      <c r="R346">
         <v>6</v>
       </c>
-      <c r="R346">
-        <v>1</v>
-      </c>
       <c r="S346">
+        <v>14</v>
+      </c>
+      <c r="T346">
+        <v>2.5</v>
+      </c>
+      <c r="U346">
+        <v>2.25</v>
+      </c>
+      <c r="V346">
+        <v>4.33</v>
+      </c>
+      <c r="W346">
+        <v>1.36</v>
+      </c>
+      <c r="X346">
+        <v>3</v>
+      </c>
+      <c r="Y346">
+        <v>2.75</v>
+      </c>
+      <c r="Z346">
+        <v>1.4</v>
+      </c>
+      <c r="AA346">
         <v>7</v>
       </c>
-      <c r="T346">
-        <v>2.3</v>
-      </c>
-      <c r="U346">
-        <v>2.38</v>
-      </c>
-      <c r="V346">
-        <v>4.5</v>
-      </c>
-      <c r="W346">
-        <v>1.33</v>
-      </c>
-      <c r="X346">
-        <v>3.25</v>
-      </c>
-      <c r="Y346">
-        <v>2.5</v>
-      </c>
-      <c r="Z346">
-        <v>1.5</v>
-      </c>
-      <c r="AA346">
-        <v>6</v>
-      </c>
       <c r="AB346">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AC346">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="AD346">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AE346">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="AF346">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG346">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH346">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AI346">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AJ346">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="AK346">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="AL346">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AM346">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AN346">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AO346">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AP346">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AQ346">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="AR346">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="AS346">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AT346">
-        <v>0.77</v>
+        <v>1.08</v>
       </c>
       <c r="AU346">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="AV346">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AW346">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AX346">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AY346">
         <v>8</v>
       </c>
       <c r="AZ346">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="BA346">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="BB346">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="BC346">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="BD346">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="BE346">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="BF346">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BG346">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BH346">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI346">
         <v>2</v>
       </c>
       <c r="BJ346">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BK346">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:63">
@@ -68052,7 +68052,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>4926297</v>
+        <v>4926294</v>
       </c>
       <c r="C348" t="s">
         <v>63</v>
@@ -68067,10 +68067,10 @@
         <v>0</v>
       </c>
       <c r="G348" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H348" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="I348">
         <v>1</v>
@@ -68082,13 +68082,13 @@
         <v>1</v>
       </c>
       <c r="L348">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M348">
         <v>0</v>
       </c>
       <c r="N348">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O348" t="s">
         <v>334</v>
@@ -68097,145 +68097,145 @@
         <v>96</v>
       </c>
       <c r="Q348">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R348">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S348">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T348">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="U348">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="V348">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="W348">
+        <v>1.38</v>
+      </c>
+      <c r="X348">
+        <v>3</v>
+      </c>
+      <c r="Y348">
+        <v>2.55</v>
+      </c>
+      <c r="Z348">
+        <v>1.45</v>
+      </c>
+      <c r="AA348">
+        <v>6.5</v>
+      </c>
+      <c r="AB348">
+        <v>1.09</v>
+      </c>
+      <c r="AC348">
+        <v>1.95</v>
+      </c>
+      <c r="AD348">
+        <v>3.5</v>
+      </c>
+      <c r="AE348">
+        <v>3.7</v>
+      </c>
+      <c r="AF348">
+        <v>1.05</v>
+      </c>
+      <c r="AG348">
+        <v>13.75</v>
+      </c>
+      <c r="AH348">
         <v>1.25</v>
       </c>
-      <c r="X348">
-        <v>3.75</v>
-      </c>
-      <c r="Y348">
-        <v>2.25</v>
-      </c>
-      <c r="Z348">
-        <v>1.57</v>
-      </c>
-      <c r="AA348">
-        <v>5.5</v>
-      </c>
-      <c r="AB348">
-        <v>1.14</v>
-      </c>
-      <c r="AC348">
-        <v>1.61</v>
-      </c>
-      <c r="AD348">
-        <v>3.75</v>
-      </c>
-      <c r="AE348">
-        <v>5.5</v>
-      </c>
-      <c r="AF348">
-        <v>1.03</v>
-      </c>
-      <c r="AG348">
-        <v>14</v>
-      </c>
-      <c r="AH348">
-        <v>1.18</v>
-      </c>
       <c r="AI348">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="AJ348">
+        <v>1.72</v>
+      </c>
+      <c r="AK348">
+        <v>2</v>
+      </c>
+      <c r="AL348">
+        <v>1.68</v>
+      </c>
+      <c r="AM348">
+        <v>2.15</v>
+      </c>
+      <c r="AN348">
+        <v>1.3</v>
+      </c>
+      <c r="AO348">
+        <v>1.3</v>
+      </c>
+      <c r="AP348">
+        <v>1.72</v>
+      </c>
+      <c r="AQ348">
+        <v>2</v>
+      </c>
+      <c r="AR348">
+        <v>1</v>
+      </c>
+      <c r="AS348">
+        <v>2.08</v>
+      </c>
+      <c r="AT348">
+        <v>0.92</v>
+      </c>
+      <c r="AU348">
+        <v>1.68</v>
+      </c>
+      <c r="AV348">
+        <v>1.08</v>
+      </c>
+      <c r="AW348">
+        <v>2.76</v>
+      </c>
+      <c r="AX348">
         <v>1.74</v>
       </c>
-      <c r="AK348">
-        <v>1.94</v>
-      </c>
-      <c r="AL348">
-        <v>1.75</v>
-      </c>
-      <c r="AM348">
-        <v>2</v>
-      </c>
-      <c r="AN348">
-        <v>1.1</v>
-      </c>
-      <c r="AO348">
-        <v>1.19</v>
-      </c>
-      <c r="AP348">
-        <v>2.8</v>
-      </c>
-      <c r="AQ348">
-        <v>2.31</v>
-      </c>
-      <c r="AR348">
-        <v>0.33</v>
-      </c>
-      <c r="AS348">
-        <v>2.36</v>
-      </c>
-      <c r="AT348">
-        <v>0.31</v>
-      </c>
-      <c r="AU348">
-        <v>1.81</v>
-      </c>
-      <c r="AV348">
-        <v>1.03</v>
-      </c>
-      <c r="AW348">
-        <v>2.84</v>
-      </c>
-      <c r="AX348">
-        <v>1.36</v>
-      </c>
       <c r="AY348">
+        <v>7.5</v>
+      </c>
+      <c r="AZ348">
+        <v>2.45</v>
+      </c>
+      <c r="BA348">
+        <v>1.24</v>
+      </c>
+      <c r="BB348">
+        <v>1.46</v>
+      </c>
+      <c r="BC348">
+        <v>1.95</v>
+      </c>
+      <c r="BD348">
+        <v>2.37</v>
+      </c>
+      <c r="BE348">
+        <v>3.3</v>
+      </c>
+      <c r="BF348">
+        <v>12</v>
+      </c>
+      <c r="BG348">
+        <v>2</v>
+      </c>
+      <c r="BH348">
+        <v>4</v>
+      </c>
+      <c r="BI348">
         <v>9</v>
       </c>
-      <c r="AZ348">
-        <v>3.95</v>
-      </c>
-      <c r="BA348">
-        <v>1.3</v>
-      </c>
-      <c r="BB348">
-        <v>1.57</v>
-      </c>
-      <c r="BC348">
-        <v>2</v>
-      </c>
-      <c r="BD348">
-        <v>2.7</v>
-      </c>
-      <c r="BE348">
-        <v>3.8</v>
-      </c>
-      <c r="BF348">
-        <v>9</v>
-      </c>
-      <c r="BG348">
-        <v>4</v>
-      </c>
-      <c r="BH348">
-        <v>13</v>
-      </c>
-      <c r="BI348">
-        <v>5</v>
-      </c>
       <c r="BJ348">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BK348">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:63">
@@ -68243,7 +68243,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>4926300</v>
+        <v>4926297</v>
       </c>
       <c r="C349" t="s">
         <v>63</v>
@@ -68258,175 +68258,175 @@
         <v>0</v>
       </c>
       <c r="G349" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H349" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K349">
         <v>1</v>
       </c>
       <c r="L349">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M349">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N349">
         <v>2</v>
       </c>
       <c r="O349" t="s">
+        <v>335</v>
+      </c>
+      <c r="P349" t="s">
         <v>96</v>
-      </c>
-      <c r="P349" t="s">
-        <v>123</v>
       </c>
       <c r="Q349">
         <v>10</v>
       </c>
       <c r="R349">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S349">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T349">
-        <v>3.04</v>
+        <v>1.91</v>
       </c>
       <c r="U349">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="V349">
-        <v>3.13</v>
+        <v>6</v>
       </c>
       <c r="W349">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="X349">
-        <v>3.22</v>
+        <v>3.75</v>
       </c>
       <c r="Y349">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="Z349">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA349">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AB349">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AC349">
-        <v>2.15</v>
+        <v>1.61</v>
       </c>
       <c r="AD349">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AE349">
-        <v>2.87</v>
+        <v>5.5</v>
       </c>
       <c r="AF349">
         <v>1.03</v>
       </c>
       <c r="AG349">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH349">
+        <v>1.18</v>
+      </c>
+      <c r="AI349">
+        <v>4.4</v>
+      </c>
+      <c r="AJ349">
+        <v>1.74</v>
+      </c>
+      <c r="AK349">
+        <v>1.94</v>
+      </c>
+      <c r="AL349">
+        <v>1.75</v>
+      </c>
+      <c r="AM349">
+        <v>2</v>
+      </c>
+      <c r="AN349">
+        <v>1.1</v>
+      </c>
+      <c r="AO349">
         <v>1.19</v>
       </c>
-      <c r="AI349">
-        <v>4</v>
-      </c>
-      <c r="AJ349">
-        <v>1.66</v>
-      </c>
-      <c r="AK349">
-        <v>2.08</v>
-      </c>
-      <c r="AL349">
-        <v>1.57</v>
-      </c>
-      <c r="AM349">
-        <v>2.34</v>
-      </c>
-      <c r="AN349">
-        <v>1.5</v>
-      </c>
-      <c r="AO349">
-        <v>1.29</v>
-      </c>
       <c r="AP349">
-        <v>1.51</v>
+        <v>2.8</v>
       </c>
       <c r="AQ349">
-        <v>1.69</v>
+        <v>2.31</v>
       </c>
       <c r="AR349">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AS349">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="AT349">
-        <v>0.58</v>
+        <v>0.31</v>
       </c>
       <c r="AU349">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="AV349">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="AW349">
         <v>2.84</v>
       </c>
       <c r="AX349">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AY349">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ349">
-        <v>2.08</v>
+        <v>3.95</v>
       </c>
       <c r="BA349">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BB349">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="BC349">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BD349">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="BE349">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="BF349">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG349">
         <v>4</v>
       </c>
       <c r="BH349">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BI349">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ349">
+        <v>22</v>
+      </c>
+      <c r="BK349">
         <v>9</v>
-      </c>
-      <c r="BK349">
-        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:63">
@@ -68434,7 +68434,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>4926299</v>
+        <v>4926295</v>
       </c>
       <c r="C350" t="s">
         <v>63</v>
@@ -68449,175 +68449,175 @@
         <v>0</v>
       </c>
       <c r="G350" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H350" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350">
         <v>0</v>
       </c>
       <c r="K350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N350">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O350" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="P350" t="s">
-        <v>96</v>
+        <v>297</v>
       </c>
       <c r="Q350">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S350">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T350">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="U350">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V350">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="W350">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X350">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y350">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="Z350">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AA350">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AB350">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC350">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AD350">
         <v>3.4</v>
       </c>
       <c r="AE350">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AF350">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG350">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH350">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AI350">
-        <v>4.18</v>
+        <v>3.75</v>
       </c>
       <c r="AJ350">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="AK350">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="AL350">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AM350">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AN350">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AO350">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AP350">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ350">
-        <v>2.18</v>
+        <v>1.27</v>
       </c>
       <c r="AR350">
         <v>1.18</v>
       </c>
       <c r="AS350">
-        <v>2.25</v>
+        <v>1.42</v>
       </c>
       <c r="AT350">
         <v>1.08</v>
       </c>
       <c r="AU350">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AV350">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AW350">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
       <c r="AX350">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AY350">
         <v>7.5</v>
       </c>
       <c r="AZ350">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="BA350">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BB350">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="BC350">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="BD350">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="BE350">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BF350">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG350">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH350">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI350">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ350">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK350">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:63">
@@ -68625,7 +68625,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>4926294</v>
+        <v>4926299</v>
       </c>
       <c r="C351" t="s">
         <v>63</v>
@@ -68640,175 +68640,175 @@
         <v>0</v>
       </c>
       <c r="G351" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="H351" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J351">
         <v>0</v>
       </c>
       <c r="K351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M351">
         <v>0</v>
       </c>
       <c r="N351">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O351" t="s">
-        <v>335</v>
+        <v>208</v>
       </c>
       <c r="P351" t="s">
         <v>96</v>
       </c>
       <c r="Q351">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R351">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S351">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T351">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="U351">
         <v>2.2</v>
       </c>
       <c r="V351">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="W351">
+        <v>1.35</v>
+      </c>
+      <c r="X351">
+        <v>3.1</v>
+      </c>
+      <c r="Y351">
+        <v>2.5</v>
+      </c>
+      <c r="Z351">
+        <v>1.48</v>
+      </c>
+      <c r="AA351">
+        <v>6.25</v>
+      </c>
+      <c r="AB351">
+        <v>1.11</v>
+      </c>
+      <c r="AC351">
+        <v>2.3</v>
+      </c>
+      <c r="AD351">
+        <v>3.4</v>
+      </c>
+      <c r="AE351">
+        <v>2.9</v>
+      </c>
+      <c r="AF351">
+        <v>1.04</v>
+      </c>
+      <c r="AG351">
+        <v>14.5</v>
+      </c>
+      <c r="AH351">
+        <v>1.23</v>
+      </c>
+      <c r="AI351">
+        <v>4.18</v>
+      </c>
+      <c r="AJ351">
+        <v>1.64</v>
+      </c>
+      <c r="AK351">
+        <v>2.12</v>
+      </c>
+      <c r="AL351">
+        <v>1.57</v>
+      </c>
+      <c r="AM351">
+        <v>2.25</v>
+      </c>
+      <c r="AN351">
         <v>1.38</v>
-      </c>
-      <c r="X351">
-        <v>3</v>
-      </c>
-      <c r="Y351">
-        <v>2.55</v>
-      </c>
-      <c r="Z351">
-        <v>1.45</v>
-      </c>
-      <c r="AA351">
-        <v>6.5</v>
-      </c>
-      <c r="AB351">
-        <v>1.09</v>
-      </c>
-      <c r="AC351">
-        <v>1.95</v>
-      </c>
-      <c r="AD351">
-        <v>3.5</v>
-      </c>
-      <c r="AE351">
-        <v>3.7</v>
-      </c>
-      <c r="AF351">
-        <v>1.05</v>
-      </c>
-      <c r="AG351">
-        <v>13.75</v>
-      </c>
-      <c r="AH351">
-        <v>1.25</v>
-      </c>
-      <c r="AI351">
-        <v>4.05</v>
-      </c>
-      <c r="AJ351">
-        <v>1.72</v>
-      </c>
-      <c r="AK351">
-        <v>2</v>
-      </c>
-      <c r="AL351">
-        <v>1.68</v>
-      </c>
-      <c r="AM351">
-        <v>2.15</v>
-      </c>
-      <c r="AN351">
-        <v>1.3</v>
       </c>
       <c r="AO351">
         <v>1.3</v>
       </c>
       <c r="AP351">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AQ351">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AR351">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AS351">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="AT351">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU351">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="AV351">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AW351">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="AX351">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AY351">
         <v>7.5</v>
       </c>
       <c r="AZ351">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="BA351">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BB351">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="BC351">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="BD351">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="BE351">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BF351">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BG351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH351">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI351">
+        <v>3</v>
+      </c>
+      <c r="BJ351">
         <v>9</v>
       </c>
-      <c r="BJ351">
-        <v>16</v>
-      </c>
       <c r="BK351">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:63">
@@ -68816,7 +68816,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>4926295</v>
+        <v>4926300</v>
       </c>
       <c r="C352" t="s">
         <v>63</v>
@@ -68831,79 +68831,79 @@
         <v>0</v>
       </c>
       <c r="G352" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H352" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352">
         <v>1</v>
       </c>
       <c r="L352">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N352">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O352" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="Q352">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S352">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T352">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="U352">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="V352">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="W352">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X352">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="Y352">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="Z352">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AA352">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB352">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC352">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="AD352">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AE352">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="AF352">
         <v>1.03</v>
@@ -68912,94 +68912,94 @@
         <v>13</v>
       </c>
       <c r="AH352">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AI352">
+        <v>4</v>
+      </c>
+      <c r="AJ352">
+        <v>1.66</v>
+      </c>
+      <c r="AK352">
+        <v>2.08</v>
+      </c>
+      <c r="AL352">
+        <v>1.57</v>
+      </c>
+      <c r="AM352">
+        <v>2.34</v>
+      </c>
+      <c r="AN352">
+        <v>1.5</v>
+      </c>
+      <c r="AO352">
+        <v>1.29</v>
+      </c>
+      <c r="AP352">
+        <v>1.51</v>
+      </c>
+      <c r="AQ352">
+        <v>1.69</v>
+      </c>
+      <c r="AR352">
+        <v>0.36</v>
+      </c>
+      <c r="AS352">
+        <v>1.57</v>
+      </c>
+      <c r="AT352">
+        <v>0.58</v>
+      </c>
+      <c r="AU352">
+        <v>1.54</v>
+      </c>
+      <c r="AV352">
+        <v>1.3</v>
+      </c>
+      <c r="AW352">
+        <v>2.84</v>
+      </c>
+      <c r="AX352">
+        <v>2</v>
+      </c>
+      <c r="AY352">
+        <v>7</v>
+      </c>
+      <c r="AZ352">
+        <v>2.08</v>
+      </c>
+      <c r="BA352">
+        <v>1.34</v>
+      </c>
+      <c r="BB352">
+        <v>1.62</v>
+      </c>
+      <c r="BC352">
+        <v>2.1</v>
+      </c>
+      <c r="BD352">
+        <v>2.87</v>
+      </c>
+      <c r="BE352">
         <v>3.75</v>
       </c>
-      <c r="AJ352">
-        <v>1.59</v>
-      </c>
-      <c r="AK352">
-        <v>2.2</v>
-      </c>
-      <c r="AL352">
-        <v>1.63</v>
-      </c>
-      <c r="AM352">
-        <v>2.2</v>
-      </c>
-      <c r="AN352">
-        <v>1.53</v>
-      </c>
-      <c r="AO352">
-        <v>1.25</v>
-      </c>
-      <c r="AP352">
-        <v>1.5</v>
-      </c>
-      <c r="AQ352">
-        <v>1.27</v>
-      </c>
-      <c r="AR352">
-        <v>1.18</v>
-      </c>
-      <c r="AS352">
-        <v>1.42</v>
-      </c>
-      <c r="AT352">
-        <v>1.08</v>
-      </c>
-      <c r="AU352">
-        <v>1.28</v>
-      </c>
-      <c r="AV352">
-        <v>1.49</v>
-      </c>
-      <c r="AW352">
-        <v>2.77</v>
-      </c>
-      <c r="AX352">
-        <v>1.98</v>
-      </c>
-      <c r="AY352">
-        <v>7.5</v>
-      </c>
-      <c r="AZ352">
-        <v>2.1</v>
-      </c>
-      <c r="BA352">
-        <v>1.24</v>
-      </c>
-      <c r="BB352">
-        <v>1.46</v>
-      </c>
-      <c r="BC352">
-        <v>1.85</v>
-      </c>
-      <c r="BD352">
-        <v>2.37</v>
-      </c>
-      <c r="BE352">
-        <v>3.3</v>
-      </c>
       <c r="BF352">
+        <v>5</v>
+      </c>
+      <c r="BG352">
+        <v>4</v>
+      </c>
+      <c r="BH352">
+        <v>4</v>
+      </c>
+      <c r="BI352">
+        <v>2</v>
+      </c>
+      <c r="BJ352">
+        <v>9</v>
+      </c>
+      <c r="BK352">
         <v>6</v>
-      </c>
-      <c r="BG352">
-        <v>7</v>
-      </c>
-      <c r="BH352">
-        <v>7</v>
-      </c>
-      <c r="BI352">
-        <v>6</v>
-      </c>
-      <c r="BJ352">
-        <v>13</v>
-      </c>
-      <c r="BK352">
-        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:63">
@@ -69007,7 +69007,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>4926296</v>
+        <v>4926301</v>
       </c>
       <c r="C353" t="s">
         <v>63</v>
@@ -69022,25 +69022,25 @@
         <v>0</v>
       </c>
       <c r="G353" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H353" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353">
         <v>0</v>
       </c>
       <c r="K353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L353">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N353">
         <v>3</v>
@@ -69049,145 +69049,145 @@
         <v>337</v>
       </c>
       <c r="P353" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="Q353">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R353">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S353">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T353">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="U353">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="V353">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="W353">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X353">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Y353">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z353">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AA353">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="AB353">
         <v>1.11</v>
       </c>
       <c r="AC353">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="AD353">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AE353">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="AF353">
         <v>1.04</v>
       </c>
       <c r="AG353">
-        <v>14.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH353">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AI353">
-        <v>4.28</v>
+        <v>4</v>
       </c>
       <c r="AJ353">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AK353">
-        <v>2.01</v>
+        <v>2.33</v>
       </c>
       <c r="AL353">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AM353">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AN353">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AO353">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AP353">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ353">
-        <v>2.83</v>
+        <v>1.58</v>
       </c>
       <c r="AR353">
-        <v>0.71</v>
+        <v>1.45</v>
       </c>
       <c r="AS353">
-        <v>2.85</v>
+        <v>1.69</v>
       </c>
       <c r="AT353">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AU353">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AV353">
-        <v>1.12</v>
+        <v>1.39</v>
       </c>
       <c r="AW353">
-        <v>2.54</v>
+        <v>2.98</v>
       </c>
       <c r="AX353">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AY353">
+        <v>7.5</v>
+      </c>
+      <c r="AZ353">
+        <v>2.65</v>
+      </c>
+      <c r="BA353">
+        <v>1.24</v>
+      </c>
+      <c r="BB353">
+        <v>1.46</v>
+      </c>
+      <c r="BC353">
+        <v>1.9</v>
+      </c>
+      <c r="BD353">
+        <v>2.37</v>
+      </c>
+      <c r="BE353">
+        <v>3.3</v>
+      </c>
+      <c r="BF353">
+        <v>5</v>
+      </c>
+      <c r="BG353">
+        <v>3</v>
+      </c>
+      <c r="BH353">
+        <v>3</v>
+      </c>
+      <c r="BI353">
+        <v>7</v>
+      </c>
+      <c r="BJ353">
         <v>8</v>
-      </c>
-      <c r="AZ353">
-        <v>3.15</v>
-      </c>
-      <c r="BA353">
-        <v>1.27</v>
-      </c>
-      <c r="BB353">
-        <v>1.5</v>
-      </c>
-      <c r="BC353">
-        <v>2</v>
-      </c>
-      <c r="BD353">
-        <v>2.5</v>
-      </c>
-      <c r="BE353">
-        <v>3.5</v>
-      </c>
-      <c r="BF353">
-        <v>7</v>
-      </c>
-      <c r="BG353">
-        <v>5</v>
-      </c>
-      <c r="BH353">
-        <v>2</v>
-      </c>
-      <c r="BI353">
-        <v>5</v>
-      </c>
-      <c r="BJ353">
-        <v>9</v>
       </c>
       <c r="BK353">
         <v>10</v>
@@ -69198,7 +69198,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>4926301</v>
+        <v>4926298</v>
       </c>
       <c r="C354" t="s">
         <v>63</v>
@@ -69213,175 +69213,175 @@
         <v>0</v>
       </c>
       <c r="G354" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H354" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I354">
         <v>0</v>
       </c>
       <c r="J354">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K354">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M354">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N354">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O354" t="s">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="P354" t="s">
-        <v>126</v>
+        <v>460</v>
       </c>
       <c r="Q354">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R354">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S354">
         <v>12</v>
       </c>
       <c r="T354">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="U354">
         <v>2.15</v>
       </c>
       <c r="V354">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="W354">
+        <v>1.38</v>
+      </c>
+      <c r="X354">
+        <v>2.9</v>
+      </c>
+      <c r="Y354">
+        <v>2.65</v>
+      </c>
+      <c r="Z354">
+        <v>1.42</v>
+      </c>
+      <c r="AA354">
+        <v>7</v>
+      </c>
+      <c r="AB354">
+        <v>1.09</v>
+      </c>
+      <c r="AC354">
+        <v>2.37</v>
+      </c>
+      <c r="AD354">
+        <v>3.3</v>
+      </c>
+      <c r="AE354">
+        <v>2.85</v>
+      </c>
+      <c r="AF354">
+        <v>1.05</v>
+      </c>
+      <c r="AG354">
+        <v>12.5</v>
+      </c>
+      <c r="AH354">
+        <v>1.27</v>
+      </c>
+      <c r="AI354">
+        <v>3.8</v>
+      </c>
+      <c r="AJ354">
+        <v>1.81</v>
+      </c>
+      <c r="AK354">
+        <v>1.89</v>
+      </c>
+      <c r="AL354">
+        <v>1.67</v>
+      </c>
+      <c r="AM354">
+        <v>2.1</v>
+      </c>
+      <c r="AN354">
+        <v>1.42</v>
+      </c>
+      <c r="AO354">
+        <v>1.32</v>
+      </c>
+      <c r="AP354">
+        <v>1.55</v>
+      </c>
+      <c r="AQ354">
+        <v>1.45</v>
+      </c>
+      <c r="AR354">
+        <v>1.17</v>
+      </c>
+      <c r="AS354">
         <v>1.33</v>
       </c>
-      <c r="X354">
-        <v>3</v>
-      </c>
-      <c r="Y354">
-        <v>2.6</v>
-      </c>
-      <c r="Z354">
-        <v>1.47</v>
-      </c>
-      <c r="AA354">
-        <v>6</v>
-      </c>
-      <c r="AB354">
-        <v>1.11</v>
-      </c>
-      <c r="AC354">
-        <v>1.93</v>
-      </c>
-      <c r="AD354">
-        <v>3.6</v>
-      </c>
-      <c r="AE354">
-        <v>3.7</v>
-      </c>
-      <c r="AF354">
-        <v>1.04</v>
-      </c>
-      <c r="AG354">
-        <v>11.5</v>
-      </c>
-      <c r="AH354">
-        <v>1.21</v>
-      </c>
-      <c r="AI354">
-        <v>4</v>
-      </c>
-      <c r="AJ354">
-        <v>1.53</v>
-      </c>
-      <c r="AK354">
-        <v>2.33</v>
-      </c>
-      <c r="AL354">
-        <v>1.57</v>
-      </c>
-      <c r="AM354">
-        <v>2.25</v>
-      </c>
-      <c r="AN354">
-        <v>1.3</v>
-      </c>
-      <c r="AO354">
-        <v>1.28</v>
-      </c>
-      <c r="AP354">
-        <v>1.75</v>
-      </c>
-      <c r="AQ354">
-        <v>1.58</v>
-      </c>
-      <c r="AR354">
-        <v>1.45</v>
-      </c>
-      <c r="AS354">
-        <v>1.69</v>
-      </c>
       <c r="AT354">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU354">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AV354">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AW354">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="AX354">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="AY354">
         <v>7.5</v>
       </c>
       <c r="AZ354">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="BA354">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BB354">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="BC354">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="BD354">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="BE354">
         <v>3.3</v>
       </c>
       <c r="BF354">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG354">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BH354">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI354">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ354">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK354">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:63">
@@ -69389,7 +69389,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>4926298</v>
+        <v>4926296</v>
       </c>
       <c r="C355" t="s">
         <v>63</v>
@@ -69404,97 +69404,97 @@
         <v>0</v>
       </c>
       <c r="G355" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H355" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K355">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L355">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M355">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N355">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O355" t="s">
-        <v>111</v>
+        <v>338</v>
       </c>
       <c r="P355" t="s">
-        <v>460</v>
+        <v>96</v>
       </c>
       <c r="Q355">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R355">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S355">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T355">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="U355">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="V355">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="W355">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="X355">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="Y355">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="Z355">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AA355">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AB355">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AC355">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="AD355">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AE355">
-        <v>2.85</v>
+        <v>4.8</v>
       </c>
       <c r="AF355">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG355">
-        <v>12.5</v>
+        <v>14.75</v>
       </c>
       <c r="AH355">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AI355">
-        <v>3.8</v>
+        <v>4.28</v>
       </c>
       <c r="AJ355">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AK355">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="AL355">
         <v>1.67</v>
@@ -69503,76 +69503,76 @@
         <v>2.1</v>
       </c>
       <c r="AN355">
+        <v>1.22</v>
+      </c>
+      <c r="AO355">
+        <v>1.27</v>
+      </c>
+      <c r="AP355">
+        <v>2</v>
+      </c>
+      <c r="AQ355">
+        <v>2.83</v>
+      </c>
+      <c r="AR355">
+        <v>0.71</v>
+      </c>
+      <c r="AS355">
+        <v>2.85</v>
+      </c>
+      <c r="AT355">
+        <v>0.67</v>
+      </c>
+      <c r="AU355">
         <v>1.42</v>
       </c>
-      <c r="AO355">
-        <v>1.32</v>
-      </c>
-      <c r="AP355">
-        <v>1.55</v>
-      </c>
-      <c r="AQ355">
-        <v>1.45</v>
-      </c>
-      <c r="AR355">
-        <v>1.17</v>
-      </c>
-      <c r="AS355">
-        <v>1.33</v>
-      </c>
-      <c r="AT355">
-        <v>1.31</v>
-      </c>
-      <c r="AU355">
-        <v>1.55</v>
-      </c>
       <c r="AV355">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="AW355">
-        <v>2.91</v>
+        <v>2.54</v>
       </c>
       <c r="AX355">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AY355">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ355">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="BA355">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BB355">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BC355">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="BD355">
         <v>2.5</v>
       </c>
       <c r="BE355">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BF355">
+        <v>7</v>
+      </c>
+      <c r="BG355">
+        <v>5</v>
+      </c>
+      <c r="BH355">
+        <v>2</v>
+      </c>
+      <c r="BI355">
+        <v>5</v>
+      </c>
+      <c r="BJ355">
         <v>9</v>
       </c>
-      <c r="BG355">
-        <v>11</v>
-      </c>
-      <c r="BH355">
-        <v>1</v>
-      </c>
-      <c r="BI355">
-        <v>4</v>
-      </c>
-      <c r="BJ355">
+      <c r="BK355">
         <v>10</v>
-      </c>
-      <c r="BK355">
-        <v>15</v>
       </c>
     </row>
     <row r="356" spans="1:63">
@@ -69580,7 +69580,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>4926302</v>
+        <v>4926303</v>
       </c>
       <c r="C356" t="s">
         <v>63</v>
@@ -69595,28 +69595,28 @@
         <v>0</v>
       </c>
       <c r="G356" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H356" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J356">
         <v>0</v>
       </c>
       <c r="K356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L356">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M356">
         <v>0</v>
       </c>
       <c r="N356">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O356" t="s">
         <v>339</v>
@@ -69628,103 +69628,103 @@
         <v>5</v>
       </c>
       <c r="R356">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S356">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T356">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="U356">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V356">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W356">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X356">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y356">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z356">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA356">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB356">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC356">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AD356">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE356">
         <v>3.6</v>
       </c>
       <c r="AF356">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG356">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="AH356">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AI356">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AJ356">
+        <v>1.54</v>
+      </c>
+      <c r="AK356">
+        <v>2.3</v>
+      </c>
+      <c r="AL356">
+        <v>1.62</v>
+      </c>
+      <c r="AM356">
+        <v>2.2</v>
+      </c>
+      <c r="AN356">
+        <v>1.24</v>
+      </c>
+      <c r="AO356">
+        <v>1.27</v>
+      </c>
+      <c r="AP356">
+        <v>1.88</v>
+      </c>
+      <c r="AQ356">
+        <v>1.42</v>
+      </c>
+      <c r="AR356">
+        <v>0.83</v>
+      </c>
+      <c r="AS356">
+        <v>1.54</v>
+      </c>
+      <c r="AT356">
+        <v>0.77</v>
+      </c>
+      <c r="AU356">
         <v>1.7</v>
       </c>
-      <c r="AK356">
-        <v>2.02</v>
-      </c>
-      <c r="AL356">
-        <v>1.67</v>
-      </c>
-      <c r="AM356">
-        <v>2.1</v>
-      </c>
-      <c r="AN356">
-        <v>1.29</v>
-      </c>
-      <c r="AO356">
-        <v>1.28</v>
-      </c>
-      <c r="AP356">
-        <v>1.75</v>
-      </c>
-      <c r="AQ356">
-        <v>1.82</v>
-      </c>
-      <c r="AR356">
-        <v>0.92</v>
-      </c>
-      <c r="AS356">
-        <v>1.92</v>
-      </c>
-      <c r="AT356">
-        <v>0.85</v>
-      </c>
-      <c r="AU356">
-        <v>1.25</v>
-      </c>
       <c r="AV356">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AW356">
-        <v>2.55</v>
+        <v>2.81</v>
       </c>
       <c r="AX356">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AY356">
         <v>7.5</v>
@@ -69733,37 +69733,37 @@
         <v>2.7</v>
       </c>
       <c r="BA356">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BB356">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="BC356">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="BD356">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BE356">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="BF356">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG356">
         <v>3</v>
       </c>
       <c r="BH356">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI356">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ356">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK356">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:63">
@@ -69771,7 +69771,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>4926303</v>
+        <v>4926302</v>
       </c>
       <c r="C357" t="s">
         <v>63</v>
@@ -69786,28 +69786,28 @@
         <v>0</v>
       </c>
       <c r="G357" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H357" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I357">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J357">
         <v>0</v>
       </c>
       <c r="K357">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M357">
         <v>0</v>
       </c>
       <c r="N357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O357" t="s">
         <v>340</v>
@@ -69819,103 +69819,103 @@
         <v>5</v>
       </c>
       <c r="R357">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S357">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T357">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="U357">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V357">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W357">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X357">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y357">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z357">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA357">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB357">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC357">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AD357">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE357">
         <v>3.6</v>
       </c>
       <c r="AF357">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AG357">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="AH357">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AI357">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AJ357">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AK357">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="AL357">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AM357">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AN357">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AO357">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AP357">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AQ357">
-        <v>1.42</v>
+        <v>1.82</v>
       </c>
       <c r="AR357">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AS357">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="AT357">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="AU357">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="AV357">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AW357">
-        <v>2.81</v>
+        <v>2.55</v>
       </c>
       <c r="AX357">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AY357">
         <v>7.5</v>
@@ -69924,37 +69924,37 @@
         <v>2.7</v>
       </c>
       <c r="BA357">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BB357">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="BC357">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="BD357">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BE357">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="BF357">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG357">
         <v>3</v>
       </c>
       <c r="BH357">
+        <v>3</v>
+      </c>
+      <c r="BI357">
         <v>5</v>
       </c>
-      <c r="BI357">
-        <v>4</v>
-      </c>
       <c r="BJ357">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BK357">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:63">
@@ -70528,6 +70528,197 @@
       </c>
       <c r="BK360">
         <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:63">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>4926307</v>
+      </c>
+      <c r="C361" t="s">
+        <v>63</v>
+      </c>
+      <c r="D361" t="s">
+        <v>64</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45165.72916666666</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361" t="s">
+        <v>89</v>
+      </c>
+      <c r="H361" t="s">
+        <v>76</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>1</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" t="s">
+        <v>100</v>
+      </c>
+      <c r="P361" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q361">
+        <v>11</v>
+      </c>
+      <c r="R361">
+        <v>5</v>
+      </c>
+      <c r="S361">
+        <v>16</v>
+      </c>
+      <c r="T361">
+        <v>2.75</v>
+      </c>
+      <c r="U361">
+        <v>2.2</v>
+      </c>
+      <c r="V361">
+        <v>3.75</v>
+      </c>
+      <c r="W361">
+        <v>1.36</v>
+      </c>
+      <c r="X361">
+        <v>3</v>
+      </c>
+      <c r="Y361">
+        <v>2.75</v>
+      </c>
+      <c r="Z361">
+        <v>1.4</v>
+      </c>
+      <c r="AA361">
+        <v>7</v>
+      </c>
+      <c r="AB361">
+        <v>1.1</v>
+      </c>
+      <c r="AC361">
+        <v>2.28</v>
+      </c>
+      <c r="AD361">
+        <v>3.4</v>
+      </c>
+      <c r="AE361">
+        <v>3.12</v>
+      </c>
+      <c r="AF361">
+        <v>1.04</v>
+      </c>
+      <c r="AG361">
+        <v>12</v>
+      </c>
+      <c r="AH361">
+        <v>1.27</v>
+      </c>
+      <c r="AI361">
+        <v>3.93</v>
+      </c>
+      <c r="AJ361">
+        <v>1.93</v>
+      </c>
+      <c r="AK361">
+        <v>1.75</v>
+      </c>
+      <c r="AL361">
+        <v>1.67</v>
+      </c>
+      <c r="AM361">
+        <v>2.1</v>
+      </c>
+      <c r="AN361">
+        <v>1.33</v>
+      </c>
+      <c r="AO361">
+        <v>1.3</v>
+      </c>
+      <c r="AP361">
+        <v>1.71</v>
+      </c>
+      <c r="AQ361">
+        <v>1.2</v>
+      </c>
+      <c r="AR361">
+        <v>1.27</v>
+      </c>
+      <c r="AS361">
+        <v>1.18</v>
+      </c>
+      <c r="AT361">
+        <v>1.25</v>
+      </c>
+      <c r="AU361">
+        <v>1.68</v>
+      </c>
+      <c r="AV361">
+        <v>1.26</v>
+      </c>
+      <c r="AW361">
+        <v>2.94</v>
+      </c>
+      <c r="AX361">
+        <v>1.73</v>
+      </c>
+      <c r="AY361">
+        <v>7.5</v>
+      </c>
+      <c r="AZ361">
+        <v>2.45</v>
+      </c>
+      <c r="BA361">
+        <v>1.25</v>
+      </c>
+      <c r="BB361">
+        <v>1.48</v>
+      </c>
+      <c r="BC361">
+        <v>1.83</v>
+      </c>
+      <c r="BD361">
+        <v>2.3</v>
+      </c>
+      <c r="BE361">
+        <v>2.95</v>
+      </c>
+      <c r="BF361">
+        <v>5</v>
+      </c>
+      <c r="BG361">
+        <v>3</v>
+      </c>
+      <c r="BH361">
+        <v>7</v>
+      </c>
+      <c r="BI361">
+        <v>2</v>
+      </c>
+      <c r="BJ361">
+        <v>12</v>
+      </c>
+      <c r="BK361">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="473">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1045,6 +1045,24 @@
     <t>['29', '72', '90']</t>
   </si>
   <si>
+    <t>['23', '58', '63']</t>
+  </si>
+  <si>
+    <t>['29', '37']</t>
+  </si>
+  <si>
+    <t>['82', '85']</t>
+  </si>
+  <si>
+    <t>['14', '90']</t>
+  </si>
+  <si>
+    <t>['18', '28', '43']</t>
+  </si>
+  <si>
+    <t>['13', '64']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1403,6 +1421,18 @@
   </si>
   <si>
     <t>['13', '36', '60']</t>
+  </si>
+  <si>
+    <t>['75', '80']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['16', '50', '61']</t>
+  </si>
+  <si>
+    <t>['82']</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK361"/>
+  <dimension ref="A1:BK374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2199,7 +2229,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2286,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT3">
         <v>0.77</v>
@@ -2477,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT4">
         <v>1.08</v>
@@ -2581,7 +2611,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2772,7 +2802,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -3050,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT7">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3244,7 +3274,7 @@
         <v>1.69</v>
       </c>
       <c r="AT8">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3435,7 +3465,7 @@
         <v>2.36</v>
       </c>
       <c r="AT9">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3536,7 +3566,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3623,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT10">
         <v>1.33</v>
@@ -3727,7 +3757,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3918,7 +3948,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -4008,7 +4038,7 @@
         <v>1.79</v>
       </c>
       <c r="AT12">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4199,7 +4229,7 @@
         <v>1.57</v>
       </c>
       <c r="AT13">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4387,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT14">
         <v>0.6899999999999999</v>
@@ -4491,7 +4521,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4769,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT16">
         <v>0.31</v>
@@ -5151,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT18">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -5342,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT19">
         <v>0.6899999999999999</v>
@@ -5536,7 +5566,7 @@
         <v>1.57</v>
       </c>
       <c r="AT20">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5727,7 +5757,7 @@
         <v>1.69</v>
       </c>
       <c r="AT21">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU21">
         <v>0.93</v>
@@ -5915,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT22">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU22">
         <v>1.37</v>
@@ -6019,7 +6049,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6106,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT23">
         <v>0.67</v>
@@ -6300,7 +6330,7 @@
         <v>1.92</v>
       </c>
       <c r="AT24">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU24">
         <v>1.31</v>
@@ -6488,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -6873,7 +6903,7 @@
         <v>1.57</v>
       </c>
       <c r="AT27">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -7061,10 +7091,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT28">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7165,7 +7195,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7252,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT29">
         <v>1.08</v>
@@ -7446,7 +7476,7 @@
         <v>1.79</v>
       </c>
       <c r="AT30">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU30">
         <v>2.28</v>
@@ -7637,7 +7667,7 @@
         <v>2.85</v>
       </c>
       <c r="AT31">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7828,7 +7858,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU32">
         <v>1.43</v>
@@ -8016,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT33">
         <v>0.58</v>
@@ -8398,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT35">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8592,7 +8622,7 @@
         <v>1.54</v>
       </c>
       <c r="AT36">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8780,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8974,7 +9004,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU38">
         <v>1.41</v>
@@ -9075,7 +9105,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9266,7 +9296,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9353,7 +9383,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT40">
         <v>1.33</v>
@@ -9544,10 +9574,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT41">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -10117,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT44">
         <v>0.62</v>
@@ -10221,7 +10251,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10311,7 +10341,7 @@
         <v>2.25</v>
       </c>
       <c r="AT45">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10499,10 +10529,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT46">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10603,7 +10633,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10693,7 +10723,7 @@
         <v>1.57</v>
       </c>
       <c r="AT47">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU47">
         <v>1.15</v>
@@ -10794,7 +10824,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10881,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10985,7 +11015,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11263,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT50">
         <v>0.58</v>
@@ -11367,7 +11397,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11454,10 +11484,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT51">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU51">
         <v>0.99</v>
@@ -11558,7 +11588,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11836,7 +11866,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT53">
         <v>0.85</v>
@@ -12027,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT54">
         <v>0.77</v>
@@ -12131,7 +12161,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12412,7 +12442,7 @@
         <v>1.55</v>
       </c>
       <c r="AT56">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12600,10 +12630,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT57">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -12704,7 +12734,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12794,7 +12824,7 @@
         <v>2.36</v>
       </c>
       <c r="AT58">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU58">
         <v>1.5</v>
@@ -12895,7 +12925,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -13086,7 +13116,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13173,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT60">
         <v>0.92</v>
@@ -13277,7 +13307,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13364,10 +13394,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT61">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU61">
         <v>1.6</v>
@@ -13468,7 +13498,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13746,10 +13776,10 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT63">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU63">
         <v>1.34</v>
@@ -13937,7 +13967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT64">
         <v>0.67</v>
@@ -14041,7 +14071,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14131,7 +14161,7 @@
         <v>1.54</v>
       </c>
       <c r="AT65">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU65">
         <v>2.67</v>
@@ -14319,10 +14349,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU66">
         <v>1.14</v>
@@ -14423,7 +14453,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14513,7 +14543,7 @@
         <v>2.17</v>
       </c>
       <c r="AT67">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU67">
         <v>1.3</v>
@@ -14614,7 +14644,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14805,7 +14835,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14895,7 +14925,7 @@
         <v>2.08</v>
       </c>
       <c r="AT69">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -15083,7 +15113,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT70">
         <v>0.31</v>
@@ -15187,7 +15217,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15274,7 +15304,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -15378,7 +15408,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15468,7 +15498,7 @@
         <v>1.69</v>
       </c>
       <c r="AT72">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU72">
         <v>1.24</v>
@@ -15656,7 +15686,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT73">
         <v>0.67</v>
@@ -15760,7 +15790,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15850,7 +15880,7 @@
         <v>1.55</v>
       </c>
       <c r="AT74">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -16041,7 +16071,7 @@
         <v>2.36</v>
       </c>
       <c r="AT75">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU75">
         <v>1.48</v>
@@ -16420,10 +16450,10 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT77">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU77">
         <v>2.05</v>
@@ -16611,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16993,7 +17023,7 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT80">
         <v>1.46</v>
@@ -17479,7 +17509,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17566,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT83">
         <v>0.6899999999999999</v>
@@ -17760,7 +17790,7 @@
         <v>1.79</v>
       </c>
       <c r="AT84">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU84">
         <v>1.84</v>
@@ -17948,7 +17978,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT85">
         <v>1.08</v>
@@ -18139,10 +18169,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT86">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU86">
         <v>1.24</v>
@@ -18330,10 +18360,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -18625,7 +18655,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18715,7 +18745,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU89">
         <v>1.59</v>
@@ -18906,7 +18936,7 @@
         <v>2.85</v>
       </c>
       <c r="AT90">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU90">
         <v>1.26</v>
@@ -19285,7 +19315,7 @@
         <v>3</v>
       </c>
       <c r="AS92">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT92">
         <v>1.46</v>
@@ -19476,10 +19506,10 @@
         <v>0.67</v>
       </c>
       <c r="AS93">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT93">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU93">
         <v>1.29</v>
@@ -19670,7 +19700,7 @@
         <v>1.54</v>
       </c>
       <c r="AT94">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -20622,10 +20652,10 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT99">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU99">
         <v>1.49</v>
@@ -20917,7 +20947,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21004,7 +21034,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT101">
         <v>1.08</v>
@@ -21108,7 +21138,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21195,10 +21225,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT102">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU102">
         <v>1.34</v>
@@ -21768,10 +21798,10 @@
         <v>0.67</v>
       </c>
       <c r="AS105">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT105">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU105">
         <v>1.29</v>
@@ -21959,10 +21989,10 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU106">
         <v>1.15</v>
@@ -22153,7 +22183,7 @@
         <v>1.92</v>
       </c>
       <c r="AT107">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU107">
         <v>1.38</v>
@@ -22254,7 +22284,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22341,10 +22371,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT108">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU108">
         <v>1.02</v>
@@ -22532,10 +22562,10 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT109">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU109">
         <v>1.13</v>
@@ -22723,7 +22753,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT110">
         <v>0.6899999999999999</v>
@@ -22827,7 +22857,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22914,10 +22944,10 @@
         <v>1.67</v>
       </c>
       <c r="AS111">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT111">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU111">
         <v>1.69</v>
@@ -23018,7 +23048,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23296,10 +23326,10 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU113">
         <v>1.37</v>
@@ -23681,7 +23711,7 @@
         <v>2.25</v>
       </c>
       <c r="AT115">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU115">
         <v>1.21</v>
@@ -23782,7 +23812,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23869,7 +23899,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT116">
         <v>0.6899999999999999</v>
@@ -23973,7 +24003,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -24060,10 +24090,10 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT117">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU117">
         <v>1.49</v>
@@ -24164,7 +24194,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24355,7 +24385,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24633,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="AS120">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT120">
         <v>0.58</v>
@@ -24737,7 +24767,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -25779,7 +25809,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT126">
         <v>0.92</v>
@@ -26074,7 +26104,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26543,10 +26573,10 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT130">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26737,7 +26767,7 @@
         <v>1.69</v>
       </c>
       <c r="AT131">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26925,7 +26955,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT132">
         <v>0.67</v>
@@ -27029,7 +27059,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27116,7 +27146,7 @@
         <v>0.2</v>
       </c>
       <c r="AS133">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT133">
         <v>0.62</v>
@@ -27220,7 +27250,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27310,7 +27340,7 @@
         <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU134">
         <v>1.68</v>
@@ -27498,10 +27528,10 @@
         <v>0.4</v>
       </c>
       <c r="AS135">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT135">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU135">
         <v>1.16</v>
@@ -27602,7 +27632,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27689,7 +27719,7 @@
         <v>0.25</v>
       </c>
       <c r="AS136">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT136">
         <v>0.77</v>
@@ -27883,7 +27913,7 @@
         <v>1.23</v>
       </c>
       <c r="AT137">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -28074,7 +28104,7 @@
         <v>1.79</v>
       </c>
       <c r="AT138">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU138">
         <v>2.02</v>
@@ -28262,10 +28292,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT139">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU139">
         <v>1.22</v>
@@ -28453,7 +28483,7 @@
         <v>1.75</v>
       </c>
       <c r="AS140">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT140">
         <v>1.08</v>
@@ -28644,7 +28674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT141">
         <v>1.08</v>
@@ -28748,7 +28778,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28835,7 +28865,7 @@
         <v>0.4</v>
       </c>
       <c r="AS142">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT142">
         <v>0.67</v>
@@ -29217,7 +29247,7 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT144">
         <v>1.08</v>
@@ -29411,7 +29441,7 @@
         <v>2.25</v>
       </c>
       <c r="AT145">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU145">
         <v>1.17</v>
@@ -29602,7 +29632,7 @@
         <v>1.57</v>
       </c>
       <c r="AT146">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29790,10 +29820,10 @@
         <v>0.75</v>
       </c>
       <c r="AS147">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT147">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU147">
         <v>1.24</v>
@@ -30085,7 +30115,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30175,7 +30205,7 @@
         <v>1.55</v>
       </c>
       <c r="AT149">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU149">
         <v>1.91</v>
@@ -30276,7 +30306,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30467,7 +30497,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30554,7 +30584,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT151">
         <v>0.85</v>
@@ -30658,7 +30688,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30936,7 +30966,7 @@
         <v>2</v>
       </c>
       <c r="AS153">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT153">
         <v>1.33</v>
@@ -31231,7 +31261,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31318,7 +31348,7 @@
         <v>0.8</v>
       </c>
       <c r="AS155">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT155">
         <v>1</v>
@@ -31422,7 +31452,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31512,7 +31542,7 @@
         <v>2.36</v>
       </c>
       <c r="AT156">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU156">
         <v>1.85</v>
@@ -31613,7 +31643,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31703,7 +31733,7 @@
         <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU157">
         <v>1.54</v>
@@ -31891,7 +31921,7 @@
         <v>2</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT158">
         <v>1.08</v>
@@ -32464,10 +32494,10 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT161">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU161">
         <v>1.45</v>
@@ -32568,7 +32598,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32655,10 +32685,10 @@
         <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT162">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU162">
         <v>1.32</v>
@@ -32759,7 +32789,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32849,7 +32879,7 @@
         <v>0.83</v>
       </c>
       <c r="AT163">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32950,7 +32980,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33228,10 +33258,10 @@
         <v>0.75</v>
       </c>
       <c r="AS165">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT165">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU165">
         <v>1.3</v>
@@ -33801,10 +33831,10 @@
         <v>0.5</v>
       </c>
       <c r="AS168">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT168">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU168">
         <v>1.41</v>
@@ -33992,10 +34022,10 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT169">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -34096,7 +34126,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34183,7 +34213,7 @@
         <v>0.75</v>
       </c>
       <c r="AS170">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT170">
         <v>0.92</v>
@@ -34377,7 +34407,7 @@
         <v>2.85</v>
       </c>
       <c r="AT171">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU171">
         <v>1.27</v>
@@ -34568,7 +34598,7 @@
         <v>2.36</v>
       </c>
       <c r="AT172">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU172">
         <v>1.99</v>
@@ -34860,7 +34890,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -35138,7 +35168,7 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT175">
         <v>0.6899999999999999</v>
@@ -35332,7 +35362,7 @@
         <v>1.92</v>
       </c>
       <c r="AT176">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU176">
         <v>1.23</v>
@@ -35433,7 +35463,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35624,7 +35654,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -36006,7 +36036,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36096,7 +36126,7 @@
         <v>1.57</v>
       </c>
       <c r="AT180">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU180">
         <v>1.57</v>
@@ -36388,7 +36418,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36475,10 +36505,10 @@
         <v>1.6</v>
       </c>
       <c r="AS182">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT182">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36669,7 +36699,7 @@
         <v>1.33</v>
       </c>
       <c r="AT183">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU183">
         <v>1.47</v>
@@ -36770,7 +36800,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36860,7 +36890,7 @@
         <v>2.85</v>
       </c>
       <c r="AT184">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU184">
         <v>1.32</v>
@@ -36961,7 +36991,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37048,10 +37078,10 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT185">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU185">
         <v>1.29</v>
@@ -37239,7 +37269,7 @@
         <v>0.5</v>
       </c>
       <c r="AS186">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT186">
         <v>0.31</v>
@@ -37343,7 +37373,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37430,7 +37460,7 @@
         <v>0.83</v>
       </c>
       <c r="AS187">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT187">
         <v>1.08</v>
@@ -37725,7 +37755,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37815,7 +37845,7 @@
         <v>0.83</v>
       </c>
       <c r="AT189">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU189">
         <v>1.61</v>
@@ -38003,7 +38033,7 @@
         <v>0.75</v>
       </c>
       <c r="AS190">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT190">
         <v>0.6899999999999999</v>
@@ -38298,7 +38328,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38385,7 +38415,7 @@
         <v>1.29</v>
       </c>
       <c r="AS192">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT192">
         <v>1.46</v>
@@ -38579,7 +38609,7 @@
         <v>1.79</v>
       </c>
       <c r="AT193">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU193">
         <v>2.02</v>
@@ -38680,7 +38710,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38767,7 +38797,7 @@
         <v>1.14</v>
       </c>
       <c r="AS194">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT194">
         <v>1</v>
@@ -39062,7 +39092,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39149,10 +39179,10 @@
         <v>1.17</v>
       </c>
       <c r="AS196">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT196">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU196">
         <v>1.54</v>
@@ -39253,7 +39283,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39340,7 +39370,7 @@
         <v>0.6</v>
       </c>
       <c r="AS197">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT197">
         <v>0.92</v>
@@ -39722,7 +39752,7 @@
         <v>1.17</v>
       </c>
       <c r="AS199">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT199">
         <v>0.85</v>
@@ -39913,10 +39943,10 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT200">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU200">
         <v>1.44</v>
@@ -40104,10 +40134,10 @@
         <v>0.5</v>
       </c>
       <c r="AS201">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT201">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU201">
         <v>1.55</v>
@@ -40208,7 +40238,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40298,7 +40328,7 @@
         <v>0.83</v>
       </c>
       <c r="AT202">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU202">
         <v>1.6</v>
@@ -40399,7 +40429,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40677,10 +40707,10 @@
         <v>1.33</v>
       </c>
       <c r="AS204">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT204">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU204">
         <v>1.47</v>
@@ -40871,7 +40901,7 @@
         <v>1.57</v>
       </c>
       <c r="AT205">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU205">
         <v>1.65</v>
@@ -40972,7 +41002,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -41163,7 +41193,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41253,7 +41283,7 @@
         <v>2.17</v>
       </c>
       <c r="AT207">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU207">
         <v>1.6</v>
@@ -41354,7 +41384,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41441,7 +41471,7 @@
         <v>1.43</v>
       </c>
       <c r="AS208">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT208">
         <v>1.08</v>
@@ -41545,7 +41575,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41632,10 +41662,10 @@
         <v>1.5</v>
       </c>
       <c r="AS209">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT209">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU209">
         <v>1.63</v>
@@ -42014,7 +42044,7 @@
         <v>0.67</v>
       </c>
       <c r="AS211">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT211">
         <v>0.92</v>
@@ -42118,7 +42148,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42208,7 +42238,7 @@
         <v>1.33</v>
       </c>
       <c r="AT212">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU212">
         <v>1.51</v>
@@ -42309,7 +42339,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42399,7 +42429,7 @@
         <v>2.36</v>
       </c>
       <c r="AT213">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU213">
         <v>1.9</v>
@@ -42587,10 +42617,10 @@
         <v>0.5</v>
       </c>
       <c r="AS214">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT214">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU214">
         <v>1.34</v>
@@ -42778,7 +42808,7 @@
         <v>1.5</v>
       </c>
       <c r="AS215">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT215">
         <v>1.46</v>
@@ -42882,7 +42912,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42972,7 +43002,7 @@
         <v>1.23</v>
       </c>
       <c r="AT216">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU216">
         <v>1.87</v>
@@ -43163,7 +43193,7 @@
         <v>1.54</v>
       </c>
       <c r="AT217">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU217">
         <v>1.69</v>
@@ -43264,7 +43294,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43455,7 +43485,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43733,7 +43763,7 @@
         <v>1.38</v>
       </c>
       <c r="AS220">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT220">
         <v>1.08</v>
@@ -44118,7 +44148,7 @@
         <v>2.36</v>
       </c>
       <c r="AT222">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU222">
         <v>1.7</v>
@@ -44219,7 +44249,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44309,7 +44339,7 @@
         <v>1.57</v>
       </c>
       <c r="AT223">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU223">
         <v>1.62</v>
@@ -44410,7 +44440,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44497,7 +44527,7 @@
         <v>1</v>
       </c>
       <c r="AS224">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT224">
         <v>1</v>
@@ -44792,7 +44822,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44983,7 +45013,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -45070,10 +45100,10 @@
         <v>1.14</v>
       </c>
       <c r="AS227">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT227">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU227">
         <v>1.5</v>
@@ -45174,7 +45204,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45264,7 +45294,7 @@
         <v>1.92</v>
       </c>
       <c r="AT228">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU228">
         <v>1.31</v>
@@ -45452,7 +45482,7 @@
         <v>0.43</v>
       </c>
       <c r="AS229">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT229">
         <v>0.31</v>
@@ -45643,7 +45673,7 @@
         <v>0.29</v>
       </c>
       <c r="AS230">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT230">
         <v>0.6899999999999999</v>
@@ -45938,7 +45968,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46511,7 +46541,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -46598,10 +46628,10 @@
         <v>1.43</v>
       </c>
       <c r="AS235">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT235">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU235">
         <v>1.32</v>
@@ -46789,10 +46819,10 @@
         <v>1.57</v>
       </c>
       <c r="AS236">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT236">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU236">
         <v>1.52</v>
@@ -46980,7 +47010,7 @@
         <v>1.22</v>
       </c>
       <c r="AS237">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT237">
         <v>1</v>
@@ -47084,7 +47114,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47171,7 +47201,7 @@
         <v>0.43</v>
       </c>
       <c r="AS238">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT238">
         <v>0.58</v>
@@ -47556,7 +47586,7 @@
         <v>1.69</v>
       </c>
       <c r="AT240">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU240">
         <v>1.49</v>
@@ -47744,7 +47774,7 @@
         <v>1.5</v>
       </c>
       <c r="AS241">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT241">
         <v>1.08</v>
@@ -47848,7 +47878,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -47935,10 +47965,10 @@
         <v>0.57</v>
       </c>
       <c r="AS242">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT242">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU242">
         <v>1.19</v>
@@ -48039,7 +48069,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -48511,7 +48541,7 @@
         <v>1.79</v>
       </c>
       <c r="AT245">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU245">
         <v>1.89</v>
@@ -48699,10 +48729,10 @@
         <v>1.43</v>
       </c>
       <c r="AS246">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT246">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU246">
         <v>1.41</v>
@@ -48890,10 +48920,10 @@
         <v>0.63</v>
       </c>
       <c r="AS247">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT247">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU247">
         <v>1.58</v>
@@ -49081,10 +49111,10 @@
         <v>1.13</v>
       </c>
       <c r="AS248">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT248">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU248">
         <v>1.53</v>
@@ -49376,7 +49406,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49463,10 +49493,10 @@
         <v>0.88</v>
       </c>
       <c r="AS250">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT250">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU250">
         <v>1.62</v>
@@ -49567,7 +49597,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49657,7 +49687,7 @@
         <v>1.33</v>
       </c>
       <c r="AT251">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU251">
         <v>1.53</v>
@@ -49845,10 +49875,10 @@
         <v>2</v>
       </c>
       <c r="AS252">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT252">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU252">
         <v>1.53</v>
@@ -49949,7 +49979,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -50140,7 +50170,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50418,7 +50448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS255">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT255">
         <v>0.62</v>
@@ -50522,7 +50552,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50612,7 +50642,7 @@
         <v>1.69</v>
       </c>
       <c r="AT256">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU256">
         <v>1.52</v>
@@ -50713,7 +50743,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -50994,7 +51024,7 @@
         <v>2.25</v>
       </c>
       <c r="AT258">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU258">
         <v>1.37</v>
@@ -51095,7 +51125,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51182,7 +51212,7 @@
         <v>0.44</v>
       </c>
       <c r="AS259">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT259">
         <v>0.67</v>
@@ -51477,7 +51507,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51564,7 +51594,7 @@
         <v>0.67</v>
       </c>
       <c r="AS261">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT261">
         <v>0.77</v>
@@ -51668,7 +51698,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -51755,10 +51785,10 @@
         <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT262">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU262">
         <v>1.65</v>
@@ -51949,7 +51979,7 @@
         <v>2.08</v>
       </c>
       <c r="AT263">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU263">
         <v>1.98</v>
@@ -52050,7 +52080,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52328,7 +52358,7 @@
         <v>0.63</v>
       </c>
       <c r="AS265">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT265">
         <v>0.92</v>
@@ -52519,10 +52549,10 @@
         <v>1</v>
       </c>
       <c r="AS266">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT266">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU266">
         <v>1.5</v>
@@ -52623,7 +52653,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52710,7 +52740,7 @@
         <v>0.44</v>
       </c>
       <c r="AS267">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT267">
         <v>0.31</v>
@@ -52814,7 +52844,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -53095,7 +53125,7 @@
         <v>1.33</v>
       </c>
       <c r="AT269">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU269">
         <v>1.49</v>
@@ -53286,7 +53316,7 @@
         <v>2.36</v>
       </c>
       <c r="AT270">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU270">
         <v>1.94</v>
@@ -53665,10 +53695,10 @@
         <v>0.4</v>
       </c>
       <c r="AS272">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT272">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU272">
         <v>1.3</v>
@@ -54047,7 +54077,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS274">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT274">
         <v>0.6899999999999999</v>
@@ -54241,7 +54271,7 @@
         <v>0.83</v>
       </c>
       <c r="AT275">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU275">
         <v>1.54</v>
@@ -54342,7 +54372,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54533,7 +54563,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54623,7 +54653,7 @@
         <v>2.08</v>
       </c>
       <c r="AT277">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU277">
         <v>1.93</v>
@@ -54814,7 +54844,7 @@
         <v>1.57</v>
       </c>
       <c r="AT278">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU278">
         <v>1.66</v>
@@ -54915,7 +54945,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -55002,7 +55032,7 @@
         <v>1.25</v>
       </c>
       <c r="AS279">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT279">
         <v>1.33</v>
@@ -55106,7 +55136,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55193,7 +55223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS280">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT280">
         <v>0.67</v>
@@ -55297,7 +55327,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55384,7 +55414,7 @@
         <v>0.88</v>
       </c>
       <c r="AS281">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT281">
         <v>0.85</v>
@@ -55578,7 +55608,7 @@
         <v>2.36</v>
       </c>
       <c r="AT282">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU282">
         <v>1.9</v>
@@ -55679,7 +55709,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -56148,10 +56178,10 @@
         <v>1.7</v>
       </c>
       <c r="AS285">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT285">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU285">
         <v>1.47</v>
@@ -56342,7 +56372,7 @@
         <v>1.54</v>
       </c>
       <c r="AT286">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU286">
         <v>1.72</v>
@@ -56721,7 +56751,7 @@
         <v>0.7</v>
       </c>
       <c r="AS288">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT288">
         <v>0.62</v>
@@ -57103,10 +57133,10 @@
         <v>0.9</v>
       </c>
       <c r="AS290">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT290">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU290">
         <v>1.61</v>
@@ -57207,7 +57237,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57398,7 +57428,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -57485,10 +57515,10 @@
         <v>0.7</v>
       </c>
       <c r="AS292">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT292">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU292">
         <v>1.43</v>
@@ -57867,10 +57897,10 @@
         <v>1.22</v>
       </c>
       <c r="AS294">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT294">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU294">
         <v>1.7</v>
@@ -57971,7 +58001,7 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -58058,10 +58088,10 @@
         <v>0.89</v>
       </c>
       <c r="AS295">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT295">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU295">
         <v>1.31</v>
@@ -58353,7 +58383,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -58822,7 +58852,7 @@
         <v>1.1</v>
       </c>
       <c r="AS299">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT299">
         <v>1</v>
@@ -58926,7 +58956,7 @@
         <v>303</v>
       </c>
       <c r="P300" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -59013,10 +59043,10 @@
         <v>1.44</v>
       </c>
       <c r="AS300">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT300">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU300">
         <v>1.31</v>
@@ -59308,7 +59338,7 @@
         <v>305</v>
       </c>
       <c r="P302" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="Q302">
         <v>6</v>
@@ -59499,7 +59529,7 @@
         <v>96</v>
       </c>
       <c r="P303" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q303">
         <v>5</v>
@@ -59586,7 +59616,7 @@
         <v>1.44</v>
       </c>
       <c r="AS303">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT303">
         <v>1.33</v>
@@ -59690,7 +59720,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60159,10 +60189,10 @@
         <v>1.2</v>
       </c>
       <c r="AS306">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT306">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU306">
         <v>1.16</v>
@@ -60263,7 +60293,7 @@
         <v>306</v>
       </c>
       <c r="P307" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60350,7 +60380,7 @@
         <v>0.73</v>
       </c>
       <c r="AS307">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT307">
         <v>0.6899999999999999</v>
@@ -60454,7 +60484,7 @@
         <v>307</v>
       </c>
       <c r="P308" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Q308">
         <v>14</v>
@@ -60541,7 +60571,7 @@
         <v>0.89</v>
       </c>
       <c r="AS308">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT308">
         <v>0.85</v>
@@ -60735,7 +60765,7 @@
         <v>1.23</v>
       </c>
       <c r="AT309">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU309">
         <v>1.96</v>
@@ -60926,7 +60956,7 @@
         <v>0.83</v>
       </c>
       <c r="AT310">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU310">
         <v>1.48</v>
@@ -61117,7 +61147,7 @@
         <v>1.55</v>
       </c>
       <c r="AT311">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU311">
         <v>1.76</v>
@@ -61218,7 +61248,7 @@
         <v>311</v>
       </c>
       <c r="P312" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61308,7 +61338,7 @@
         <v>1.79</v>
       </c>
       <c r="AT312">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU312">
         <v>1.82</v>
@@ -61600,7 +61630,7 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -61690,7 +61720,7 @@
         <v>1.57</v>
       </c>
       <c r="AT314">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU314">
         <v>1.61</v>
@@ -61791,7 +61821,7 @@
         <v>313</v>
       </c>
       <c r="P315" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q315">
         <v>5</v>
@@ -61878,7 +61908,7 @@
         <v>1</v>
       </c>
       <c r="AS315">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT315">
         <v>1.08</v>
@@ -61982,7 +62012,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q316">
         <v>9</v>
@@ -62069,7 +62099,7 @@
         <v>1.18</v>
       </c>
       <c r="AS316">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT316">
         <v>1.46</v>
@@ -62173,7 +62203,7 @@
         <v>314</v>
       </c>
       <c r="P317" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -62263,7 +62293,7 @@
         <v>1.54</v>
       </c>
       <c r="AT317">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU317">
         <v>1.72</v>
@@ -62364,7 +62394,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="Q318">
         <v>7</v>
@@ -62454,7 +62484,7 @@
         <v>2.17</v>
       </c>
       <c r="AT318">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU318">
         <v>1.59</v>
@@ -62833,10 +62863,10 @@
         <v>0.45</v>
       </c>
       <c r="AS320">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT320">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU320">
         <v>1.12</v>
@@ -63024,10 +63054,10 @@
         <v>1.4</v>
       </c>
       <c r="AS321">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT321">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU321">
         <v>1.43</v>
@@ -63597,7 +63627,7 @@
         <v>1.17</v>
       </c>
       <c r="AS324">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT324">
         <v>1</v>
@@ -63701,7 +63731,7 @@
         <v>124</v>
       </c>
       <c r="P325" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q325">
         <v>7</v>
@@ -63788,10 +63818,10 @@
         <v>1.5</v>
       </c>
       <c r="AS325">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT325">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU325">
         <v>1.68</v>
@@ -64361,7 +64391,7 @@
         <v>1.2</v>
       </c>
       <c r="AS328">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT328">
         <v>1.08</v>
@@ -64552,7 +64582,7 @@
         <v>0.36</v>
       </c>
       <c r="AS329">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT329">
         <v>0.31</v>
@@ -64746,7 +64776,7 @@
         <v>2.85</v>
       </c>
       <c r="AT330">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU330">
         <v>1.4</v>
@@ -64934,7 +64964,7 @@
         <v>0.4</v>
       </c>
       <c r="AS331">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT331">
         <v>0.58</v>
@@ -65128,7 +65158,7 @@
         <v>1.23</v>
       </c>
       <c r="AT332">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU332">
         <v>1.92</v>
@@ -65420,7 +65450,7 @@
         <v>325</v>
       </c>
       <c r="P334" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65507,7 +65537,7 @@
         <v>0.75</v>
       </c>
       <c r="AS334">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT334">
         <v>0.6899999999999999</v>
@@ -65611,7 +65641,7 @@
         <v>326</v>
       </c>
       <c r="P335" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65698,10 +65728,10 @@
         <v>0.9</v>
       </c>
       <c r="AS335">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT335">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU335">
         <v>1.62</v>
@@ -65802,7 +65832,7 @@
         <v>327</v>
       </c>
       <c r="P336" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -65892,7 +65922,7 @@
         <v>1.57</v>
       </c>
       <c r="AT336">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU336">
         <v>1.62</v>
@@ -65993,7 +66023,7 @@
         <v>328</v>
       </c>
       <c r="P337" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="Q337">
         <v>4</v>
@@ -66083,7 +66113,7 @@
         <v>1.79</v>
       </c>
       <c r="AT337">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU337">
         <v>1.77</v>
@@ -66274,7 +66304,7 @@
         <v>2.36</v>
       </c>
       <c r="AT338">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU338">
         <v>1.79</v>
@@ -66566,7 +66596,7 @@
         <v>96</v>
       </c>
       <c r="P340" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q340">
         <v>3</v>
@@ -66653,7 +66683,7 @@
         <v>1.33</v>
       </c>
       <c r="AS340">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT340">
         <v>1.46</v>
@@ -66757,7 +66787,7 @@
         <v>330</v>
       </c>
       <c r="P341" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q341">
         <v>7</v>
@@ -66844,10 +66874,10 @@
         <v>0.42</v>
       </c>
       <c r="AS341">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT341">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU341">
         <v>1.42</v>
@@ -67035,7 +67065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS342">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT342">
         <v>0.62</v>
@@ -67139,7 +67169,7 @@
         <v>287</v>
       </c>
       <c r="P343" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67226,10 +67256,10 @@
         <v>1.64</v>
       </c>
       <c r="AS343">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT343">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU343">
         <v>1.15</v>
@@ -67330,7 +67360,7 @@
         <v>332</v>
       </c>
       <c r="P344" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Q344">
         <v>2</v>
@@ -67417,7 +67447,7 @@
         <v>1</v>
       </c>
       <c r="AS344">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT344">
         <v>0.85</v>
@@ -67521,7 +67551,7 @@
         <v>96</v>
       </c>
       <c r="P345" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q345">
         <v>6</v>
@@ -67712,7 +67742,7 @@
         <v>96</v>
       </c>
       <c r="P346" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="Q346">
         <v>8</v>
@@ -67993,7 +68023,7 @@
         <v>2.08</v>
       </c>
       <c r="AT347">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU347">
         <v>1.87</v>
@@ -68181,10 +68211,10 @@
         <v>1</v>
       </c>
       <c r="AS348">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT348">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU348">
         <v>1.68</v>
@@ -68563,7 +68593,7 @@
         <v>1.18</v>
       </c>
       <c r="AS350">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT350">
         <v>1.08</v>
@@ -69240,7 +69270,7 @@
         <v>111</v>
       </c>
       <c r="P354" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q354">
         <v>7</v>
@@ -69330,7 +69360,7 @@
         <v>1.33</v>
       </c>
       <c r="AT354">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU354">
         <v>1.55</v>
@@ -70004,7 +70034,7 @@
         <v>96</v>
       </c>
       <c r="P358" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q358">
         <v>5</v>
@@ -70195,7 +70225,7 @@
         <v>341</v>
       </c>
       <c r="P359" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q359">
         <v>6</v>
@@ -70282,10 +70312,10 @@
         <v>0.67</v>
       </c>
       <c r="AS359">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT359">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU359">
         <v>1.61</v>
@@ -70664,10 +70694,10 @@
         <v>1.27</v>
       </c>
       <c r="AS361">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT361">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU361">
         <v>1.68</v>
@@ -70719,6 +70749,2489 @@
       </c>
       <c r="BK361">
         <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:63">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>4926308</v>
+      </c>
+      <c r="C362" t="s">
+        <v>63</v>
+      </c>
+      <c r="D362" t="s">
+        <v>64</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45168.85416666666</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362" t="s">
+        <v>66</v>
+      </c>
+      <c r="H362" t="s">
+        <v>68</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>2</v>
+      </c>
+      <c r="N362">
+        <v>3</v>
+      </c>
+      <c r="O362" t="s">
+        <v>192</v>
+      </c>
+      <c r="P362" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q362">
+        <v>6</v>
+      </c>
+      <c r="R362">
+        <v>6</v>
+      </c>
+      <c r="S362">
+        <v>12</v>
+      </c>
+      <c r="T362">
+        <v>2.63</v>
+      </c>
+      <c r="U362">
+        <v>2.38</v>
+      </c>
+      <c r="V362">
+        <v>3.6</v>
+      </c>
+      <c r="W362">
+        <v>1.3</v>
+      </c>
+      <c r="X362">
+        <v>3.4</v>
+      </c>
+      <c r="Y362">
+        <v>2.5</v>
+      </c>
+      <c r="Z362">
+        <v>1.5</v>
+      </c>
+      <c r="AA362">
+        <v>6</v>
+      </c>
+      <c r="AB362">
+        <v>1.13</v>
+      </c>
+      <c r="AC362">
+        <v>2.01</v>
+      </c>
+      <c r="AD362">
+        <v>3.65</v>
+      </c>
+      <c r="AE362">
+        <v>2.95</v>
+      </c>
+      <c r="AF362">
+        <v>1.02</v>
+      </c>
+      <c r="AG362">
+        <v>17</v>
+      </c>
+      <c r="AH362">
+        <v>1.2</v>
+      </c>
+      <c r="AI362">
+        <v>4.5</v>
+      </c>
+      <c r="AJ362">
+        <v>1.63</v>
+      </c>
+      <c r="AK362">
+        <v>2.25</v>
+      </c>
+      <c r="AL362">
+        <v>1.53</v>
+      </c>
+      <c r="AM362">
+        <v>2.38</v>
+      </c>
+      <c r="AN362">
+        <v>1.4</v>
+      </c>
+      <c r="AO362">
+        <v>1.22</v>
+      </c>
+      <c r="AP362">
+        <v>1.68</v>
+      </c>
+      <c r="AQ362">
+        <v>2.08</v>
+      </c>
+      <c r="AR362">
+        <v>1.42</v>
+      </c>
+      <c r="AS362">
+        <v>1.93</v>
+      </c>
+      <c r="AT362">
+        <v>1.54</v>
+      </c>
+      <c r="AU362">
+        <v>1.73</v>
+      </c>
+      <c r="AV362">
+        <v>1.35</v>
+      </c>
+      <c r="AW362">
+        <v>3.08</v>
+      </c>
+      <c r="AX362">
+        <v>1.71</v>
+      </c>
+      <c r="AY362">
+        <v>7.5</v>
+      </c>
+      <c r="AZ362">
+        <v>2.5</v>
+      </c>
+      <c r="BA362">
+        <v>1.27</v>
+      </c>
+      <c r="BB362">
+        <v>1.5</v>
+      </c>
+      <c r="BC362">
+        <v>1.87</v>
+      </c>
+      <c r="BD362">
+        <v>2.35</v>
+      </c>
+      <c r="BE362">
+        <v>3.1</v>
+      </c>
+      <c r="BF362">
+        <v>2</v>
+      </c>
+      <c r="BG362">
+        <v>5</v>
+      </c>
+      <c r="BH362">
+        <v>6</v>
+      </c>
+      <c r="BI362">
+        <v>7</v>
+      </c>
+      <c r="BJ362">
+        <v>8</v>
+      </c>
+      <c r="BK362">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:63">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>4926310</v>
+      </c>
+      <c r="C363" t="s">
+        <v>63</v>
+      </c>
+      <c r="D363" t="s">
+        <v>64</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45168.85416666666</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363" t="s">
+        <v>70</v>
+      </c>
+      <c r="H363" t="s">
+        <v>65</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <v>0</v>
+      </c>
+      <c r="O363" t="s">
+        <v>96</v>
+      </c>
+      <c r="P363" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q363">
+        <v>4</v>
+      </c>
+      <c r="R363">
+        <v>3</v>
+      </c>
+      <c r="S363">
+        <v>7</v>
+      </c>
+      <c r="T363">
+        <v>2.3</v>
+      </c>
+      <c r="U363">
+        <v>2.38</v>
+      </c>
+      <c r="V363">
+        <v>4.5</v>
+      </c>
+      <c r="W363">
+        <v>1.3</v>
+      </c>
+      <c r="X363">
+        <v>3.4</v>
+      </c>
+      <c r="Y363">
+        <v>2.38</v>
+      </c>
+      <c r="Z363">
+        <v>1.53</v>
+      </c>
+      <c r="AA363">
+        <v>6</v>
+      </c>
+      <c r="AB363">
+        <v>1.13</v>
+      </c>
+      <c r="AC363">
+        <v>1.52</v>
+      </c>
+      <c r="AD363">
+        <v>4.2</v>
+      </c>
+      <c r="AE363">
+        <v>4.7</v>
+      </c>
+      <c r="AF363">
+        <v>1.02</v>
+      </c>
+      <c r="AG363">
+        <v>10</v>
+      </c>
+      <c r="AH363">
+        <v>1.18</v>
+      </c>
+      <c r="AI363">
+        <v>4.33</v>
+      </c>
+      <c r="AJ363">
+        <v>1.62</v>
+      </c>
+      <c r="AK363">
+        <v>2.25</v>
+      </c>
+      <c r="AL363">
+        <v>1.62</v>
+      </c>
+      <c r="AM363">
+        <v>2.2</v>
+      </c>
+      <c r="AN363">
+        <v>1.25</v>
+      </c>
+      <c r="AO363">
+        <v>1.22</v>
+      </c>
+      <c r="AP363">
+        <v>2.15</v>
+      </c>
+      <c r="AQ363">
+        <v>1.27</v>
+      </c>
+      <c r="AR363">
+        <v>0.92</v>
+      </c>
+      <c r="AS363">
+        <v>1.25</v>
+      </c>
+      <c r="AT363">
+        <v>0.93</v>
+      </c>
+      <c r="AU363">
+        <v>1.31</v>
+      </c>
+      <c r="AV363">
+        <v>1.09</v>
+      </c>
+      <c r="AW363">
+        <v>2.4</v>
+      </c>
+      <c r="AX363">
+        <v>1.43</v>
+      </c>
+      <c r="AY363">
+        <v>8.5</v>
+      </c>
+      <c r="AZ363">
+        <v>3.65</v>
+      </c>
+      <c r="BA363">
+        <v>1.25</v>
+      </c>
+      <c r="BB363">
+        <v>1.48</v>
+      </c>
+      <c r="BC363">
+        <v>1.81</v>
+      </c>
+      <c r="BD363">
+        <v>2.28</v>
+      </c>
+      <c r="BE363">
+        <v>2.95</v>
+      </c>
+      <c r="BF363">
+        <v>5</v>
+      </c>
+      <c r="BG363">
+        <v>3</v>
+      </c>
+      <c r="BH363">
+        <v>3</v>
+      </c>
+      <c r="BI363">
+        <v>3</v>
+      </c>
+      <c r="BJ363">
+        <v>8</v>
+      </c>
+      <c r="BK363">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:63">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>4926313</v>
+      </c>
+      <c r="C364" t="s">
+        <v>63</v>
+      </c>
+      <c r="D364" t="s">
+        <v>64</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45168.85416666666</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364" t="s">
+        <v>87</v>
+      </c>
+      <c r="H364" t="s">
+        <v>72</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+      <c r="J364">
+        <v>1</v>
+      </c>
+      <c r="K364">
+        <v>2</v>
+      </c>
+      <c r="L364">
+        <v>3</v>
+      </c>
+      <c r="M364">
+        <v>1</v>
+      </c>
+      <c r="N364">
+        <v>4</v>
+      </c>
+      <c r="O364" t="s">
+        <v>343</v>
+      </c>
+      <c r="P364" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q364">
+        <v>4</v>
+      </c>
+      <c r="R364">
+        <v>8</v>
+      </c>
+      <c r="S364">
+        <v>12</v>
+      </c>
+      <c r="T364">
+        <v>3.4</v>
+      </c>
+      <c r="U364">
+        <v>2.25</v>
+      </c>
+      <c r="V364">
+        <v>3</v>
+      </c>
+      <c r="W364">
+        <v>1.36</v>
+      </c>
+      <c r="X364">
+        <v>3</v>
+      </c>
+      <c r="Y364">
+        <v>2.63</v>
+      </c>
+      <c r="Z364">
+        <v>1.44</v>
+      </c>
+      <c r="AA364">
+        <v>7</v>
+      </c>
+      <c r="AB364">
+        <v>1.1</v>
+      </c>
+      <c r="AC364">
+        <v>2.88</v>
+      </c>
+      <c r="AD364">
+        <v>3.68</v>
+      </c>
+      <c r="AE364">
+        <v>2.03</v>
+      </c>
+      <c r="AF364">
+        <v>1.04</v>
+      </c>
+      <c r="AG364">
+        <v>12</v>
+      </c>
+      <c r="AH364">
+        <v>1.28</v>
+      </c>
+      <c r="AI364">
+        <v>3.6</v>
+      </c>
+      <c r="AJ364">
+        <v>1.83</v>
+      </c>
+      <c r="AK364">
+        <v>1.95</v>
+      </c>
+      <c r="AL364">
+        <v>1.62</v>
+      </c>
+      <c r="AM364">
+        <v>2.2</v>
+      </c>
+      <c r="AN364">
+        <v>1.72</v>
+      </c>
+      <c r="AO364">
+        <v>1.25</v>
+      </c>
+      <c r="AP364">
+        <v>1.36</v>
+      </c>
+      <c r="AQ364">
+        <v>1.15</v>
+      </c>
+      <c r="AR364">
+        <v>1.31</v>
+      </c>
+      <c r="AS364">
+        <v>1.29</v>
+      </c>
+      <c r="AT364">
+        <v>1.21</v>
+      </c>
+      <c r="AU364">
+        <v>1.4</v>
+      </c>
+      <c r="AV364">
+        <v>1.41</v>
+      </c>
+      <c r="AW364">
+        <v>2.81</v>
+      </c>
+      <c r="AX364">
+        <v>2.2</v>
+      </c>
+      <c r="AY364">
+        <v>7.5</v>
+      </c>
+      <c r="AZ364">
+        <v>1.88</v>
+      </c>
+      <c r="BA364">
+        <v>1.28</v>
+      </c>
+      <c r="BB364">
+        <v>1.52</v>
+      </c>
+      <c r="BC364">
+        <v>1.88</v>
+      </c>
+      <c r="BD364">
+        <v>2.4</v>
+      </c>
+      <c r="BE364">
+        <v>3.15</v>
+      </c>
+      <c r="BF364">
+        <v>7</v>
+      </c>
+      <c r="BG364">
+        <v>3</v>
+      </c>
+      <c r="BH364">
+        <v>4</v>
+      </c>
+      <c r="BI364">
+        <v>10</v>
+      </c>
+      <c r="BJ364">
+        <v>11</v>
+      </c>
+      <c r="BK364">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:63">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>4926312</v>
+      </c>
+      <c r="C365" t="s">
+        <v>63</v>
+      </c>
+      <c r="D365" t="s">
+        <v>64</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45168.85416666666</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365" t="s">
+        <v>86</v>
+      </c>
+      <c r="H365" t="s">
+        <v>91</v>
+      </c>
+      <c r="I365">
+        <v>2</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>2</v>
+      </c>
+      <c r="L365">
+        <v>2</v>
+      </c>
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365">
+        <v>2</v>
+      </c>
+      <c r="O365" t="s">
+        <v>344</v>
+      </c>
+      <c r="P365" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q365">
+        <v>4</v>
+      </c>
+      <c r="R365">
+        <v>5</v>
+      </c>
+      <c r="S365">
+        <v>9</v>
+      </c>
+      <c r="T365">
+        <v>2.3</v>
+      </c>
+      <c r="U365">
+        <v>2.2</v>
+      </c>
+      <c r="V365">
+        <v>5</v>
+      </c>
+      <c r="W365">
+        <v>1.36</v>
+      </c>
+      <c r="X365">
+        <v>3</v>
+      </c>
+      <c r="Y365">
+        <v>2.75</v>
+      </c>
+      <c r="Z365">
+        <v>1.4</v>
+      </c>
+      <c r="AA365">
+        <v>8</v>
+      </c>
+      <c r="AB365">
+        <v>1.08</v>
+      </c>
+      <c r="AC365">
+        <v>1.58</v>
+      </c>
+      <c r="AD365">
+        <v>3.83</v>
+      </c>
+      <c r="AE365">
+        <v>4.55</v>
+      </c>
+      <c r="AF365">
+        <v>1.01</v>
+      </c>
+      <c r="AG365">
+        <v>10.25</v>
+      </c>
+      <c r="AH365">
+        <v>1.23</v>
+      </c>
+      <c r="AI365">
+        <v>3.64</v>
+      </c>
+      <c r="AJ365">
+        <v>1.78</v>
+      </c>
+      <c r="AK365">
+        <v>1.92</v>
+      </c>
+      <c r="AL365">
+        <v>1.8</v>
+      </c>
+      <c r="AM365">
+        <v>1.95</v>
+      </c>
+      <c r="AN365">
+        <v>1.17</v>
+      </c>
+      <c r="AO365">
+        <v>1.24</v>
+      </c>
+      <c r="AP365">
+        <v>2.22</v>
+      </c>
+      <c r="AQ365">
+        <v>1.45</v>
+      </c>
+      <c r="AR365">
+        <v>0.62</v>
+      </c>
+      <c r="AS365">
+        <v>1.58</v>
+      </c>
+      <c r="AT365">
+        <v>0.57</v>
+      </c>
+      <c r="AU365">
+        <v>1.63</v>
+      </c>
+      <c r="AV365">
+        <v>1.2</v>
+      </c>
+      <c r="AW365">
+        <v>2.83</v>
+      </c>
+      <c r="AX365">
+        <v>1.47</v>
+      </c>
+      <c r="AY365">
+        <v>8</v>
+      </c>
+      <c r="AZ365">
+        <v>3.25</v>
+      </c>
+      <c r="BA365">
+        <v>1.3</v>
+      </c>
+      <c r="BB365">
+        <v>1.56</v>
+      </c>
+      <c r="BC365">
+        <v>1.94</v>
+      </c>
+      <c r="BD365">
+        <v>2.48</v>
+      </c>
+      <c r="BE365">
+        <v>3.25</v>
+      </c>
+      <c r="BF365">
+        <v>6</v>
+      </c>
+      <c r="BG365">
+        <v>4</v>
+      </c>
+      <c r="BH365">
+        <v>5</v>
+      </c>
+      <c r="BI365">
+        <v>8</v>
+      </c>
+      <c r="BJ365">
+        <v>11</v>
+      </c>
+      <c r="BK365">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:63">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>4926311</v>
+      </c>
+      <c r="C366" t="s">
+        <v>63</v>
+      </c>
+      <c r="D366" t="s">
+        <v>64</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45168.85416666666</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366" t="s">
+        <v>80</v>
+      </c>
+      <c r="H366" t="s">
+        <v>81</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>1</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>1</v>
+      </c>
+      <c r="O366" t="s">
+        <v>236</v>
+      </c>
+      <c r="P366" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q366">
+        <v>8</v>
+      </c>
+      <c r="R366">
+        <v>2</v>
+      </c>
+      <c r="S366">
+        <v>10</v>
+      </c>
+      <c r="T366">
+        <v>2.4</v>
+      </c>
+      <c r="U366">
+        <v>2.3</v>
+      </c>
+      <c r="V366">
+        <v>4.33</v>
+      </c>
+      <c r="W366">
+        <v>1.33</v>
+      </c>
+      <c r="X366">
+        <v>3.25</v>
+      </c>
+      <c r="Y366">
+        <v>2.5</v>
+      </c>
+      <c r="Z366">
+        <v>1.5</v>
+      </c>
+      <c r="AA366">
+        <v>6.5</v>
+      </c>
+      <c r="AB366">
+        <v>1.11</v>
+      </c>
+      <c r="AC366">
+        <v>1.99</v>
+      </c>
+      <c r="AD366">
+        <v>3.4</v>
+      </c>
+      <c r="AE366">
+        <v>3.15</v>
+      </c>
+      <c r="AF366">
+        <v>1.03</v>
+      </c>
+      <c r="AG366">
+        <v>13</v>
+      </c>
+      <c r="AH366">
+        <v>1.22</v>
+      </c>
+      <c r="AI366">
+        <v>4</v>
+      </c>
+      <c r="AJ366">
+        <v>1.62</v>
+      </c>
+      <c r="AK366">
+        <v>2.25</v>
+      </c>
+      <c r="AL366">
+        <v>1.7</v>
+      </c>
+      <c r="AM366">
+        <v>2.05</v>
+      </c>
+      <c r="AN366">
+        <v>1.22</v>
+      </c>
+      <c r="AO366">
+        <v>1.22</v>
+      </c>
+      <c r="AP366">
+        <v>2</v>
+      </c>
+      <c r="AQ366">
+        <v>2.5</v>
+      </c>
+      <c r="AR366">
+        <v>0.64</v>
+      </c>
+      <c r="AS366">
+        <v>2.54</v>
+      </c>
+      <c r="AT366">
+        <v>0.58</v>
+      </c>
+      <c r="AU366">
+        <v>1.55</v>
+      </c>
+      <c r="AV366">
+        <v>1.49</v>
+      </c>
+      <c r="AW366">
+        <v>3.04</v>
+      </c>
+      <c r="AX366">
+        <v>1.63</v>
+      </c>
+      <c r="AY366">
+        <v>7.5</v>
+      </c>
+      <c r="AZ366">
+        <v>2.7</v>
+      </c>
+      <c r="BA366">
+        <v>1.29</v>
+      </c>
+      <c r="BB366">
+        <v>1.54</v>
+      </c>
+      <c r="BC366">
+        <v>1.92</v>
+      </c>
+      <c r="BD366">
+        <v>2.43</v>
+      </c>
+      <c r="BE366">
+        <v>3.2</v>
+      </c>
+      <c r="BF366">
+        <v>7</v>
+      </c>
+      <c r="BG366">
+        <v>3</v>
+      </c>
+      <c r="BH366">
+        <v>3</v>
+      </c>
+      <c r="BI366">
+        <v>4</v>
+      </c>
+      <c r="BJ366">
+        <v>10</v>
+      </c>
+      <c r="BK366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:63">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>4926309</v>
+      </c>
+      <c r="C367" t="s">
+        <v>63</v>
+      </c>
+      <c r="D367" t="s">
+        <v>64</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45168.85416666666</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367" t="s">
+        <v>67</v>
+      </c>
+      <c r="H367" t="s">
+        <v>71</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
+      </c>
+      <c r="M367">
+        <v>1</v>
+      </c>
+      <c r="N367">
+        <v>2</v>
+      </c>
+      <c r="O367" t="s">
+        <v>302</v>
+      </c>
+      <c r="P367" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q367">
+        <v>4</v>
+      </c>
+      <c r="R367">
+        <v>3</v>
+      </c>
+      <c r="S367">
+        <v>7</v>
+      </c>
+      <c r="T367">
+        <v>3</v>
+      </c>
+      <c r="U367">
+        <v>2.25</v>
+      </c>
+      <c r="V367">
+        <v>3.25</v>
+      </c>
+      <c r="W367">
+        <v>1.33</v>
+      </c>
+      <c r="X367">
+        <v>3.25</v>
+      </c>
+      <c r="Y367">
+        <v>2.63</v>
+      </c>
+      <c r="Z367">
+        <v>1.44</v>
+      </c>
+      <c r="AA367">
+        <v>6.5</v>
+      </c>
+      <c r="AB367">
+        <v>1.11</v>
+      </c>
+      <c r="AC367">
+        <v>2.2</v>
+      </c>
+      <c r="AD367">
+        <v>3.63</v>
+      </c>
+      <c r="AE367">
+        <v>2.62</v>
+      </c>
+      <c r="AF367">
+        <v>1.02</v>
+      </c>
+      <c r="AG367">
+        <v>10</v>
+      </c>
+      <c r="AH367">
+        <v>1.22</v>
+      </c>
+      <c r="AI367">
+        <v>3.8</v>
+      </c>
+      <c r="AJ367">
+        <v>1.72</v>
+      </c>
+      <c r="AK367">
+        <v>2.1</v>
+      </c>
+      <c r="AL367">
+        <v>1.57</v>
+      </c>
+      <c r="AM367">
+        <v>2.25</v>
+      </c>
+      <c r="AN367">
+        <v>1.44</v>
+      </c>
+      <c r="AO367">
+        <v>1.3</v>
+      </c>
+      <c r="AP367">
+        <v>1.57</v>
+      </c>
+      <c r="AQ367">
+        <v>1.42</v>
+      </c>
+      <c r="AR367">
+        <v>1.75</v>
+      </c>
+      <c r="AS367">
+        <v>1.38</v>
+      </c>
+      <c r="AT367">
+        <v>1.69</v>
+      </c>
+      <c r="AU367">
+        <v>1.31</v>
+      </c>
+      <c r="AV367">
+        <v>1.28</v>
+      </c>
+      <c r="AW367">
+        <v>2.59</v>
+      </c>
+      <c r="AX367">
+        <v>1.9</v>
+      </c>
+      <c r="AY367">
+        <v>7.5</v>
+      </c>
+      <c r="AZ367">
+        <v>2.18</v>
+      </c>
+      <c r="BA367">
+        <v>1.28</v>
+      </c>
+      <c r="BB367">
+        <v>1.53</v>
+      </c>
+      <c r="BC367">
+        <v>1.9</v>
+      </c>
+      <c r="BD367">
+        <v>2.43</v>
+      </c>
+      <c r="BE367">
+        <v>3.2</v>
+      </c>
+      <c r="BF367">
+        <v>3</v>
+      </c>
+      <c r="BG367">
+        <v>5</v>
+      </c>
+      <c r="BH367">
+        <v>5</v>
+      </c>
+      <c r="BI367">
+        <v>2</v>
+      </c>
+      <c r="BJ367">
+        <v>8</v>
+      </c>
+      <c r="BK367">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:63">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>4926318</v>
+      </c>
+      <c r="C368" t="s">
+        <v>63</v>
+      </c>
+      <c r="D368" t="s">
+        <v>64</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45168.89583333334</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368" t="s">
+        <v>83</v>
+      </c>
+      <c r="H368" t="s">
+        <v>74</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>2</v>
+      </c>
+      <c r="M368">
+        <v>1</v>
+      </c>
+      <c r="N368">
+        <v>3</v>
+      </c>
+      <c r="O368" t="s">
+        <v>345</v>
+      </c>
+      <c r="P368" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q368">
+        <v>10</v>
+      </c>
+      <c r="R368">
+        <v>2</v>
+      </c>
+      <c r="S368">
+        <v>12</v>
+      </c>
+      <c r="T368">
+        <v>2.38</v>
+      </c>
+      <c r="U368">
+        <v>2.3</v>
+      </c>
+      <c r="V368">
+        <v>4.5</v>
+      </c>
+      <c r="W368">
+        <v>1.33</v>
+      </c>
+      <c r="X368">
+        <v>3.25</v>
+      </c>
+      <c r="Y368">
+        <v>2.63</v>
+      </c>
+      <c r="Z368">
+        <v>1.44</v>
+      </c>
+      <c r="AA368">
+        <v>6.5</v>
+      </c>
+      <c r="AB368">
+        <v>1.11</v>
+      </c>
+      <c r="AC368">
+        <v>1.72</v>
+      </c>
+      <c r="AD368">
+        <v>3.73</v>
+      </c>
+      <c r="AE368">
+        <v>3.83</v>
+      </c>
+      <c r="AF368">
+        <v>1.02</v>
+      </c>
+      <c r="AG368">
+        <v>10</v>
+      </c>
+      <c r="AH368">
+        <v>1.22</v>
+      </c>
+      <c r="AI368">
+        <v>3.8</v>
+      </c>
+      <c r="AJ368">
+        <v>1.72</v>
+      </c>
+      <c r="AK368">
+        <v>2.1</v>
+      </c>
+      <c r="AL368">
+        <v>1.7</v>
+      </c>
+      <c r="AM368">
+        <v>2.05</v>
+      </c>
+      <c r="AN368">
+        <v>1.17</v>
+      </c>
+      <c r="AO368">
+        <v>1.22</v>
+      </c>
+      <c r="AP368">
+        <v>2.38</v>
+      </c>
+      <c r="AQ368">
+        <v>2.15</v>
+      </c>
+      <c r="AR368">
+        <v>0.83</v>
+      </c>
+      <c r="AS368">
+        <v>2.21</v>
+      </c>
+      <c r="AT368">
+        <v>0.77</v>
+      </c>
+      <c r="AU368">
+        <v>1.71</v>
+      </c>
+      <c r="AV368">
+        <v>1.22</v>
+      </c>
+      <c r="AW368">
+        <v>2.93</v>
+      </c>
+      <c r="AX368">
+        <v>1.54</v>
+      </c>
+      <c r="AY368">
+        <v>8</v>
+      </c>
+      <c r="AZ368">
+        <v>2.95</v>
+      </c>
+      <c r="BA368">
+        <v>1.28</v>
+      </c>
+      <c r="BB368">
+        <v>1.52</v>
+      </c>
+      <c r="BC368">
+        <v>1.9</v>
+      </c>
+      <c r="BD368">
+        <v>2.38</v>
+      </c>
+      <c r="BE368">
+        <v>3.15</v>
+      </c>
+      <c r="BF368">
+        <v>7</v>
+      </c>
+      <c r="BG368">
+        <v>5</v>
+      </c>
+      <c r="BH368">
+        <v>9</v>
+      </c>
+      <c r="BI368">
+        <v>0</v>
+      </c>
+      <c r="BJ368">
+        <v>16</v>
+      </c>
+      <c r="BK368">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:63">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>4926314</v>
+      </c>
+      <c r="C369" t="s">
+        <v>63</v>
+      </c>
+      <c r="D369" t="s">
+        <v>64</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45168.89583333334</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369" t="s">
+        <v>73</v>
+      </c>
+      <c r="H369" t="s">
+        <v>76</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369">
+        <v>2</v>
+      </c>
+      <c r="N369">
+        <v>3</v>
+      </c>
+      <c r="O369" t="s">
+        <v>157</v>
+      </c>
+      <c r="P369" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q369">
+        <v>3</v>
+      </c>
+      <c r="R369">
+        <v>6</v>
+      </c>
+      <c r="S369">
+        <v>9</v>
+      </c>
+      <c r="T369">
+        <v>2.5</v>
+      </c>
+      <c r="U369">
+        <v>2.25</v>
+      </c>
+      <c r="V369">
+        <v>4.33</v>
+      </c>
+      <c r="W369">
+        <v>1.36</v>
+      </c>
+      <c r="X369">
+        <v>3</v>
+      </c>
+      <c r="Y369">
+        <v>2.63</v>
+      </c>
+      <c r="Z369">
+        <v>1.44</v>
+      </c>
+      <c r="AA369">
+        <v>7</v>
+      </c>
+      <c r="AB369">
+        <v>1.1</v>
+      </c>
+      <c r="AC369">
+        <v>2.03</v>
+      </c>
+      <c r="AD369">
+        <v>3.5</v>
+      </c>
+      <c r="AE369">
+        <v>3</v>
+      </c>
+      <c r="AF369">
+        <v>1.04</v>
+      </c>
+      <c r="AG369">
+        <v>13</v>
+      </c>
+      <c r="AH369">
+        <v>1.28</v>
+      </c>
+      <c r="AI369">
+        <v>3.6</v>
+      </c>
+      <c r="AJ369">
+        <v>1.8</v>
+      </c>
+      <c r="AK369">
+        <v>2</v>
+      </c>
+      <c r="AL369">
+        <v>1.7</v>
+      </c>
+      <c r="AM369">
+        <v>2.05</v>
+      </c>
+      <c r="AN369">
+        <v>1.33</v>
+      </c>
+      <c r="AO369">
+        <v>1.25</v>
+      </c>
+      <c r="AP369">
+        <v>1.75</v>
+      </c>
+      <c r="AQ369">
+        <v>1.75</v>
+      </c>
+      <c r="AR369">
+        <v>1.25</v>
+      </c>
+      <c r="AS369">
+        <v>1.62</v>
+      </c>
+      <c r="AT369">
+        <v>1.38</v>
+      </c>
+      <c r="AU369">
+        <v>1.52</v>
+      </c>
+      <c r="AV369">
+        <v>1.22</v>
+      </c>
+      <c r="AW369">
+        <v>2.74</v>
+      </c>
+      <c r="AX369">
+        <v>1.65</v>
+      </c>
+      <c r="AY369">
+        <v>7.5</v>
+      </c>
+      <c r="AZ369">
+        <v>2.63</v>
+      </c>
+      <c r="BA369">
+        <v>1.29</v>
+      </c>
+      <c r="BB369">
+        <v>1.55</v>
+      </c>
+      <c r="BC369">
+        <v>1.93</v>
+      </c>
+      <c r="BD369">
+        <v>2.45</v>
+      </c>
+      <c r="BE369">
+        <v>3.25</v>
+      </c>
+      <c r="BF369">
+        <v>7</v>
+      </c>
+      <c r="BG369">
+        <v>4</v>
+      </c>
+      <c r="BH369">
+        <v>7</v>
+      </c>
+      <c r="BI369">
+        <v>5</v>
+      </c>
+      <c r="BJ369">
+        <v>14</v>
+      </c>
+      <c r="BK369">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:63">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>4926315</v>
+      </c>
+      <c r="C370" t="s">
+        <v>63</v>
+      </c>
+      <c r="D370" t="s">
+        <v>64</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45168.89583333334</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370" t="s">
+        <v>82</v>
+      </c>
+      <c r="H370" t="s">
+        <v>75</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>1</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+      <c r="M370">
+        <v>1</v>
+      </c>
+      <c r="N370">
+        <v>1</v>
+      </c>
+      <c r="O370" t="s">
+        <v>96</v>
+      </c>
+      <c r="P370" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q370">
+        <v>4</v>
+      </c>
+      <c r="R370">
+        <v>5</v>
+      </c>
+      <c r="S370">
+        <v>9</v>
+      </c>
+      <c r="T370">
+        <v>2.63</v>
+      </c>
+      <c r="U370">
+        <v>2.38</v>
+      </c>
+      <c r="V370">
+        <v>3.6</v>
+      </c>
+      <c r="W370">
+        <v>1.3</v>
+      </c>
+      <c r="X370">
+        <v>3.4</v>
+      </c>
+      <c r="Y370">
+        <v>2.5</v>
+      </c>
+      <c r="Z370">
+        <v>1.5</v>
+      </c>
+      <c r="AA370">
+        <v>6</v>
+      </c>
+      <c r="AB370">
+        <v>1.13</v>
+      </c>
+      <c r="AC370">
+        <v>2.05</v>
+      </c>
+      <c r="AD370">
+        <v>3.73</v>
+      </c>
+      <c r="AE370">
+        <v>2.78</v>
+      </c>
+      <c r="AF370">
+        <v>1.02</v>
+      </c>
+      <c r="AG370">
+        <v>15</v>
+      </c>
+      <c r="AH370">
+        <v>1.2</v>
+      </c>
+      <c r="AI370">
+        <v>4.33</v>
+      </c>
+      <c r="AJ370">
+        <v>1.62</v>
+      </c>
+      <c r="AK370">
+        <v>2.25</v>
+      </c>
+      <c r="AL370">
+        <v>1.53</v>
+      </c>
+      <c r="AM370">
+        <v>2.38</v>
+      </c>
+      <c r="AN370">
+        <v>1.4</v>
+      </c>
+      <c r="AO370">
+        <v>1.22</v>
+      </c>
+      <c r="AP370">
+        <v>1.66</v>
+      </c>
+      <c r="AQ370">
+        <v>1.62</v>
+      </c>
+      <c r="AR370">
+        <v>0.9</v>
+      </c>
+      <c r="AS370">
+        <v>1.5</v>
+      </c>
+      <c r="AT370">
+        <v>1.09</v>
+      </c>
+      <c r="AU370">
+        <v>1.15</v>
+      </c>
+      <c r="AV370">
+        <v>1.36</v>
+      </c>
+      <c r="AW370">
+        <v>2.51</v>
+      </c>
+      <c r="AX370">
+        <v>1.71</v>
+      </c>
+      <c r="AY370">
+        <v>7.5</v>
+      </c>
+      <c r="AZ370">
+        <v>2.48</v>
+      </c>
+      <c r="BA370">
+        <v>1.26</v>
+      </c>
+      <c r="BB370">
+        <v>1.48</v>
+      </c>
+      <c r="BC370">
+        <v>1.84</v>
+      </c>
+      <c r="BD370">
+        <v>2.3</v>
+      </c>
+      <c r="BE370">
+        <v>3.05</v>
+      </c>
+      <c r="BF370">
+        <v>4</v>
+      </c>
+      <c r="BG370">
+        <v>5</v>
+      </c>
+      <c r="BH370">
+        <v>7</v>
+      </c>
+      <c r="BI370">
+        <v>3</v>
+      </c>
+      <c r="BJ370">
+        <v>11</v>
+      </c>
+      <c r="BK370">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:63">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>4926316</v>
+      </c>
+      <c r="C371" t="s">
+        <v>63</v>
+      </c>
+      <c r="D371" t="s">
+        <v>64</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45168.89583333334</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371" t="s">
+        <v>92</v>
+      </c>
+      <c r="H371" t="s">
+        <v>79</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
+      <c r="L371">
+        <v>2</v>
+      </c>
+      <c r="M371">
+        <v>0</v>
+      </c>
+      <c r="N371">
+        <v>2</v>
+      </c>
+      <c r="O371" t="s">
+        <v>346</v>
+      </c>
+      <c r="P371" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q371">
+        <v>5</v>
+      </c>
+      <c r="R371">
+        <v>12</v>
+      </c>
+      <c r="S371">
+        <v>17</v>
+      </c>
+      <c r="T371">
+        <v>2.63</v>
+      </c>
+      <c r="U371">
+        <v>2.3</v>
+      </c>
+      <c r="V371">
+        <v>3.75</v>
+      </c>
+      <c r="W371">
+        <v>1.33</v>
+      </c>
+      <c r="X371">
+        <v>3.25</v>
+      </c>
+      <c r="Y371">
+        <v>2.63</v>
+      </c>
+      <c r="Z371">
+        <v>1.44</v>
+      </c>
+      <c r="AA371">
+        <v>6.5</v>
+      </c>
+      <c r="AB371">
+        <v>1.11</v>
+      </c>
+      <c r="AC371">
+        <v>2</v>
+      </c>
+      <c r="AD371">
+        <v>3.78</v>
+      </c>
+      <c r="AE371">
+        <v>2.88</v>
+      </c>
+      <c r="AF371">
+        <v>1.03</v>
+      </c>
+      <c r="AG371">
+        <v>15</v>
+      </c>
+      <c r="AH371">
+        <v>1.22</v>
+      </c>
+      <c r="AI371">
+        <v>4.2</v>
+      </c>
+      <c r="AJ371">
+        <v>1.72</v>
+      </c>
+      <c r="AK371">
+        <v>2.1</v>
+      </c>
+      <c r="AL371">
+        <v>1.62</v>
+      </c>
+      <c r="AM371">
+        <v>2.2</v>
+      </c>
+      <c r="AN371">
+        <v>1.38</v>
+      </c>
+      <c r="AO371">
+        <v>1.22</v>
+      </c>
+      <c r="AP371">
+        <v>1.68</v>
+      </c>
+      <c r="AQ371">
+        <v>2.17</v>
+      </c>
+      <c r="AR371">
+        <v>0.82</v>
+      </c>
+      <c r="AS371">
+        <v>2.23</v>
+      </c>
+      <c r="AT371">
+        <v>0.75</v>
+      </c>
+      <c r="AU371">
+        <v>1.48</v>
+      </c>
+      <c r="AV371">
+        <v>1.4</v>
+      </c>
+      <c r="AW371">
+        <v>2.88</v>
+      </c>
+      <c r="AX371">
+        <v>1.74</v>
+      </c>
+      <c r="AY371">
+        <v>7.5</v>
+      </c>
+      <c r="AZ371">
+        <v>2.45</v>
+      </c>
+      <c r="BA371">
+        <v>1.26</v>
+      </c>
+      <c r="BB371">
+        <v>1.49</v>
+      </c>
+      <c r="BC371">
+        <v>1.84</v>
+      </c>
+      <c r="BD371">
+        <v>2.3</v>
+      </c>
+      <c r="BE371">
+        <v>3</v>
+      </c>
+      <c r="BF371">
+        <v>7</v>
+      </c>
+      <c r="BG371">
+        <v>4</v>
+      </c>
+      <c r="BH371">
+        <v>4</v>
+      </c>
+      <c r="BI371">
+        <v>4</v>
+      </c>
+      <c r="BJ371">
+        <v>11</v>
+      </c>
+      <c r="BK371">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:63">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>4926317</v>
+      </c>
+      <c r="C372" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45168.89583333334</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372" t="s">
+        <v>89</v>
+      </c>
+      <c r="H372" t="s">
+        <v>84</v>
+      </c>
+      <c r="I372">
+        <v>3</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>3</v>
+      </c>
+      <c r="L372">
+        <v>3</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>3</v>
+      </c>
+      <c r="O372" t="s">
+        <v>347</v>
+      </c>
+      <c r="P372" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q372">
+        <v>5</v>
+      </c>
+      <c r="R372">
+        <v>9</v>
+      </c>
+      <c r="S372">
+        <v>14</v>
+      </c>
+      <c r="T372">
+        <v>2.25</v>
+      </c>
+      <c r="U372">
+        <v>2.25</v>
+      </c>
+      <c r="V372">
+        <v>5.5</v>
+      </c>
+      <c r="W372">
+        <v>1.36</v>
+      </c>
+      <c r="X372">
+        <v>3</v>
+      </c>
+      <c r="Y372">
+        <v>2.75</v>
+      </c>
+      <c r="Z372">
+        <v>1.4</v>
+      </c>
+      <c r="AA372">
+        <v>8</v>
+      </c>
+      <c r="AB372">
+        <v>1.08</v>
+      </c>
+      <c r="AC372">
+        <v>1.63</v>
+      </c>
+      <c r="AD372">
+        <v>3.88</v>
+      </c>
+      <c r="AE372">
+        <v>4.1</v>
+      </c>
+      <c r="AF372">
+        <v>1.04</v>
+      </c>
+      <c r="AG372">
+        <v>12</v>
+      </c>
+      <c r="AH372">
+        <v>1.28</v>
+      </c>
+      <c r="AI372">
+        <v>3.6</v>
+      </c>
+      <c r="AJ372">
+        <v>1.87</v>
+      </c>
+      <c r="AK372">
+        <v>1.9</v>
+      </c>
+      <c r="AL372">
+        <v>1.91</v>
+      </c>
+      <c r="AM372">
+        <v>1.91</v>
+      </c>
+      <c r="AN372">
+        <v>1.16</v>
+      </c>
+      <c r="AO372">
+        <v>1.2</v>
+      </c>
+      <c r="AP372">
+        <v>2.3</v>
+      </c>
+      <c r="AQ372">
+        <v>1.18</v>
+      </c>
+      <c r="AR372">
+        <v>0.75</v>
+      </c>
+      <c r="AS372">
+        <v>1.33</v>
+      </c>
+      <c r="AT372">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU372">
+        <v>1.68</v>
+      </c>
+      <c r="AV372">
+        <v>1.13</v>
+      </c>
+      <c r="AW372">
+        <v>2.81</v>
+      </c>
+      <c r="AX372">
+        <v>1.47</v>
+      </c>
+      <c r="AY372">
+        <v>8</v>
+      </c>
+      <c r="AZ372">
+        <v>3.25</v>
+      </c>
+      <c r="BA372">
+        <v>1.29</v>
+      </c>
+      <c r="BB372">
+        <v>1.54</v>
+      </c>
+      <c r="BC372">
+        <v>1.92</v>
+      </c>
+      <c r="BD372">
+        <v>2.43</v>
+      </c>
+      <c r="BE372">
+        <v>3.2</v>
+      </c>
+      <c r="BF372">
+        <v>8</v>
+      </c>
+      <c r="BG372">
+        <v>6</v>
+      </c>
+      <c r="BH372">
+        <v>5</v>
+      </c>
+      <c r="BI372">
+        <v>5</v>
+      </c>
+      <c r="BJ372">
+        <v>13</v>
+      </c>
+      <c r="BK372">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:63">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>4926320</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45168.97916666666</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373" t="s">
+        <v>85</v>
+      </c>
+      <c r="H373" t="s">
+        <v>93</v>
+      </c>
+      <c r="I373">
+        <v>2</v>
+      </c>
+      <c r="J373">
+        <v>1</v>
+      </c>
+      <c r="K373">
+        <v>3</v>
+      </c>
+      <c r="L373">
+        <v>2</v>
+      </c>
+      <c r="M373">
+        <v>3</v>
+      </c>
+      <c r="N373">
+        <v>5</v>
+      </c>
+      <c r="O373" t="s">
+        <v>320</v>
+      </c>
+      <c r="P373" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q373">
+        <v>11</v>
+      </c>
+      <c r="R373">
+        <v>7</v>
+      </c>
+      <c r="S373">
+        <v>18</v>
+      </c>
+      <c r="T373">
+        <v>2.3</v>
+      </c>
+      <c r="U373">
+        <v>2.38</v>
+      </c>
+      <c r="V373">
+        <v>4.5</v>
+      </c>
+      <c r="W373">
+        <v>1.3</v>
+      </c>
+      <c r="X373">
+        <v>3.4</v>
+      </c>
+      <c r="Y373">
+        <v>2.5</v>
+      </c>
+      <c r="Z373">
+        <v>1.5</v>
+      </c>
+      <c r="AA373">
+        <v>6</v>
+      </c>
+      <c r="AB373">
+        <v>1.13</v>
+      </c>
+      <c r="AC373">
+        <v>1.99</v>
+      </c>
+      <c r="AD373">
+        <v>3.45</v>
+      </c>
+      <c r="AE373">
+        <v>3.1</v>
+      </c>
+      <c r="AF373">
+        <v>1.01</v>
+      </c>
+      <c r="AG373">
+        <v>9.9</v>
+      </c>
+      <c r="AH373">
+        <v>1.18</v>
+      </c>
+      <c r="AI373">
+        <v>4.15</v>
+      </c>
+      <c r="AJ373">
+        <v>1.83</v>
+      </c>
+      <c r="AK373">
+        <v>1.95</v>
+      </c>
+      <c r="AL373">
+        <v>1.62</v>
+      </c>
+      <c r="AM373">
+        <v>2.2</v>
+      </c>
+      <c r="AN373">
+        <v>1.3</v>
+      </c>
+      <c r="AO373">
+        <v>1.27</v>
+      </c>
+      <c r="AP373">
+        <v>1.81</v>
+      </c>
+      <c r="AQ373">
+        <v>2.08</v>
+      </c>
+      <c r="AR373">
+        <v>0.67</v>
+      </c>
+      <c r="AS373">
+        <v>1.92</v>
+      </c>
+      <c r="AT373">
+        <v>0.85</v>
+      </c>
+      <c r="AU373">
+        <v>1.42</v>
+      </c>
+      <c r="AV373">
+        <v>1.27</v>
+      </c>
+      <c r="AW373">
+        <v>2.69</v>
+      </c>
+      <c r="AX373">
+        <v>1.64</v>
+      </c>
+      <c r="AY373">
+        <v>8</v>
+      </c>
+      <c r="AZ373">
+        <v>2.65</v>
+      </c>
+      <c r="BA373">
+        <v>1.26</v>
+      </c>
+      <c r="BB373">
+        <v>1.48</v>
+      </c>
+      <c r="BC373">
+        <v>1.84</v>
+      </c>
+      <c r="BD373">
+        <v>2.3</v>
+      </c>
+      <c r="BE373">
+        <v>3</v>
+      </c>
+      <c r="BF373">
+        <v>5</v>
+      </c>
+      <c r="BG373">
+        <v>6</v>
+      </c>
+      <c r="BH373">
+        <v>9</v>
+      </c>
+      <c r="BI373">
+        <v>4</v>
+      </c>
+      <c r="BJ373">
+        <v>14</v>
+      </c>
+      <c r="BK373">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:63">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>4926319</v>
+      </c>
+      <c r="C374" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45168.97916666666</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374" t="s">
+        <v>77</v>
+      </c>
+      <c r="H374" t="s">
+        <v>90</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>2</v>
+      </c>
+      <c r="M374">
+        <v>1</v>
+      </c>
+      <c r="N374">
+        <v>3</v>
+      </c>
+      <c r="O374" t="s">
+        <v>348</v>
+      </c>
+      <c r="P374" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q374">
+        <v>3</v>
+      </c>
+      <c r="R374">
+        <v>7</v>
+      </c>
+      <c r="S374">
+        <v>10</v>
+      </c>
+      <c r="T374">
+        <v>2.88</v>
+      </c>
+      <c r="U374">
+        <v>2.3</v>
+      </c>
+      <c r="V374">
+        <v>3.4</v>
+      </c>
+      <c r="W374">
+        <v>1.33</v>
+      </c>
+      <c r="X374">
+        <v>3.25</v>
+      </c>
+      <c r="Y374">
+        <v>2.63</v>
+      </c>
+      <c r="Z374">
+        <v>1.44</v>
+      </c>
+      <c r="AA374">
+        <v>6.5</v>
+      </c>
+      <c r="AB374">
+        <v>1.11</v>
+      </c>
+      <c r="AC374">
+        <v>2.08</v>
+      </c>
+      <c r="AD374">
+        <v>3.68</v>
+      </c>
+      <c r="AE374">
+        <v>2.77</v>
+      </c>
+      <c r="AF374">
+        <v>1.03</v>
+      </c>
+      <c r="AG374">
+        <v>15</v>
+      </c>
+      <c r="AH374">
+        <v>1.22</v>
+      </c>
+      <c r="AI374">
+        <v>4.2</v>
+      </c>
+      <c r="AJ374">
+        <v>1.68</v>
+      </c>
+      <c r="AK374">
+        <v>2.15</v>
+      </c>
+      <c r="AL374">
+        <v>1.62</v>
+      </c>
+      <c r="AM374">
+        <v>2.2</v>
+      </c>
+      <c r="AN374">
+        <v>1.45</v>
+      </c>
+      <c r="AO374">
+        <v>1.25</v>
+      </c>
+      <c r="AP374">
+        <v>1.6</v>
+      </c>
+      <c r="AQ374">
+        <v>1.5</v>
+      </c>
+      <c r="AR374">
+        <v>1.75</v>
+      </c>
+      <c r="AS374">
+        <v>1.62</v>
+      </c>
+      <c r="AT374">
+        <v>1.62</v>
+      </c>
+      <c r="AU374">
+        <v>1.61</v>
+      </c>
+      <c r="AV374">
+        <v>1.52</v>
+      </c>
+      <c r="AW374">
+        <v>3.13</v>
+      </c>
+      <c r="AX374">
+        <v>1.78</v>
+      </c>
+      <c r="AY374">
+        <v>7.5</v>
+      </c>
+      <c r="AZ374">
+        <v>2.35</v>
+      </c>
+      <c r="BA374">
+        <v>1.28</v>
+      </c>
+      <c r="BB374">
+        <v>1.52</v>
+      </c>
+      <c r="BC374">
+        <v>1.89</v>
+      </c>
+      <c r="BD374">
+        <v>2.4</v>
+      </c>
+      <c r="BE374">
+        <v>3.15</v>
+      </c>
+      <c r="BF374">
+        <v>3</v>
+      </c>
+      <c r="BG374">
+        <v>6</v>
+      </c>
+      <c r="BH374">
+        <v>2</v>
+      </c>
+      <c r="BI374">
+        <v>6</v>
+      </c>
+      <c r="BJ374">
+        <v>5</v>
+      </c>
+      <c r="BK374">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="485">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1048,7 +1048,7 @@
     <t>['23', '58', '63']</t>
   </si>
   <si>
-    <t>['29', '37']</t>
+    <t>['30', '37']</t>
   </si>
   <si>
     <t>['82', '85']</t>
@@ -1061,6 +1061,30 @@
   </si>
   <si>
     <t>['13', '64']</t>
+  </si>
+  <si>
+    <t>['52', '68']</t>
+  </si>
+  <si>
+    <t>['9', '20', '40', '90+1']</t>
+  </si>
+  <si>
+    <t>['28', '47']</t>
+  </si>
+  <si>
+    <t>['4', '62']</t>
+  </si>
+  <si>
+    <t>['31', '44']</t>
+  </si>
+  <si>
+    <t>['19', '49']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['9', '30']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -1360,9 +1384,6 @@
     <t>['23', '69']</t>
   </si>
   <si>
-    <t>['52', '68']</t>
-  </si>
-  <si>
     <t>['59', '68']</t>
   </si>
   <si>
@@ -1433,6 +1454,21 @@
   </si>
   <si>
     <t>['82']</t>
+  </si>
+  <si>
+    <t>['14', '22', '43', '65']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['27', '90+4']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['67', '70']</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK374"/>
+  <dimension ref="A1:BK386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2125,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT2">
         <v>0.67</v>
@@ -2229,7 +2265,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2611,7 +2647,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2698,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT5">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2802,7 +2838,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2889,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT6">
         <v>0.31</v>
@@ -3465,7 +3501,7 @@
         <v>2.36</v>
       </c>
       <c r="AT9">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3566,7 +3602,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3656,7 +3692,7 @@
         <v>1.62</v>
       </c>
       <c r="AT10">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3757,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3844,10 +3880,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT11">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3948,7 +3984,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -4226,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT13">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4521,7 +4557,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4611,7 +4647,7 @@
         <v>2.08</v>
       </c>
       <c r="AT15">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -5372,10 +5408,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT19">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -6049,7 +6085,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6327,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT24">
         <v>0.85</v>
@@ -6900,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT27">
         <v>1.62</v>
@@ -7091,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT28">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7195,7 +7231,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7285,7 +7321,7 @@
         <v>1.38</v>
       </c>
       <c r="AT29">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU29">
         <v>1.85</v>
@@ -7664,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT31">
         <v>1.38</v>
@@ -7855,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT32">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU32">
         <v>1.43</v>
@@ -8046,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT33">
         <v>0.58</v>
@@ -8240,7 +8276,7 @@
         <v>2.36</v>
       </c>
       <c r="AT34">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU34">
         <v>1.59</v>
@@ -8431,7 +8467,7 @@
         <v>1.29</v>
       </c>
       <c r="AT35">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8619,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT36">
         <v>0.85</v>
@@ -9001,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT38">
         <v>0.57</v>
@@ -9105,7 +9141,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9192,10 +9228,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT39">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9296,7 +9332,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9386,7 +9422,7 @@
         <v>1.62</v>
       </c>
       <c r="AT40">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU40">
         <v>1.06</v>
@@ -9574,10 +9610,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT41">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -9956,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT43">
         <v>1.08</v>
@@ -10150,7 +10186,7 @@
         <v>1.93</v>
       </c>
       <c r="AT44">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU44">
         <v>2.1</v>
@@ -10251,7 +10287,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10338,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT45">
         <v>1.21</v>
@@ -10529,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT46">
         <v>0.93</v>
@@ -10633,7 +10669,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10723,7 +10759,7 @@
         <v>1.57</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU47">
         <v>1.15</v>
@@ -10824,7 +10860,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10911,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -11015,7 +11051,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11397,7 +11433,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11588,7 +11624,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11675,7 +11711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT52">
         <v>0.6899999999999999</v>
@@ -11869,7 +11905,7 @@
         <v>2.23</v>
       </c>
       <c r="AT53">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -12161,7 +12197,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12251,7 +12287,7 @@
         <v>0.83</v>
       </c>
       <c r="AT55">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -12439,10 +12475,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12734,7 +12770,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12824,7 +12860,7 @@
         <v>2.36</v>
       </c>
       <c r="AT58">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU58">
         <v>1.5</v>
@@ -12925,7 +12961,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -13012,7 +13048,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT59">
         <v>1.08</v>
@@ -13116,7 +13152,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13206,7 +13242,7 @@
         <v>1.25</v>
       </c>
       <c r="AT60">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU60">
         <v>1.52</v>
@@ -13307,7 +13343,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13498,7 +13534,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13588,7 +13624,7 @@
         <v>2.36</v>
       </c>
       <c r="AT62">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU62">
         <v>1.31</v>
@@ -13779,7 +13815,7 @@
         <v>1.62</v>
       </c>
       <c r="AT63">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU63">
         <v>1.34</v>
@@ -14071,7 +14107,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14158,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT65">
         <v>1.38</v>
@@ -14352,7 +14388,7 @@
         <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU66">
         <v>1.14</v>
@@ -14453,7 +14489,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14540,7 +14576,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT67">
         <v>1.54</v>
@@ -14644,7 +14680,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14731,10 +14767,10 @@
         <v>3</v>
       </c>
       <c r="AS68">
+        <v>1.36</v>
+      </c>
+      <c r="AT68">
         <v>1.23</v>
-      </c>
-      <c r="AT68">
-        <v>1.33</v>
       </c>
       <c r="AU68">
         <v>1.9</v>
@@ -14835,7 +14871,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -15113,7 +15149,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT70">
         <v>0.31</v>
@@ -15217,7 +15253,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15408,7 +15444,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15686,7 +15722,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT73">
         <v>0.67</v>
@@ -15790,7 +15826,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15877,7 +15913,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT74">
         <v>1.38</v>
@@ -16259,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT76">
         <v>0.58</v>
@@ -16832,10 +16868,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT79">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU79">
         <v>1.27</v>
@@ -17026,7 +17062,7 @@
         <v>2.21</v>
       </c>
       <c r="AT80">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU80">
         <v>1.69</v>
@@ -17509,7 +17545,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17596,10 +17632,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT83">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17978,10 +18014,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT85">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU85">
         <v>1.58</v>
@@ -18169,7 +18205,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT86">
         <v>0.57</v>
@@ -18655,7 +18691,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18742,10 +18778,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT89">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU89">
         <v>1.59</v>
@@ -18933,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT90">
         <v>1.21</v>
@@ -19127,7 +19163,7 @@
         <v>2.08</v>
       </c>
       <c r="AT91">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU91">
         <v>1.97</v>
@@ -19318,7 +19354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU92">
         <v>1.11</v>
@@ -19697,10 +19733,10 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT94">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -19888,7 +19924,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT95">
         <v>0.31</v>
@@ -20079,7 +20115,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -20270,10 +20306,10 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT97">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU97">
         <v>1.83</v>
@@ -20464,7 +20500,7 @@
         <v>1.79</v>
       </c>
       <c r="AT98">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU98">
         <v>2.05</v>
@@ -20652,7 +20688,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT99">
         <v>0.93</v>
@@ -20843,7 +20879,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20947,7 +20983,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21037,7 +21073,7 @@
         <v>1.29</v>
       </c>
       <c r="AT101">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU101">
         <v>1.25</v>
@@ -21138,7 +21174,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21228,7 +21264,7 @@
         <v>1.38</v>
       </c>
       <c r="AT102">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU102">
         <v>1.34</v>
@@ -21610,7 +21646,7 @@
         <v>1.57</v>
       </c>
       <c r="AT104">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU104">
         <v>1.41</v>
@@ -21801,7 +21837,7 @@
         <v>1.62</v>
       </c>
       <c r="AT105">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU105">
         <v>1.29</v>
@@ -22180,7 +22216,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT107">
         <v>1.62</v>
@@ -22284,7 +22320,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22374,7 +22410,7 @@
         <v>1.33</v>
       </c>
       <c r="AT108">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU108">
         <v>1.02</v>
@@ -22753,7 +22789,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT110">
         <v>0.6899999999999999</v>
@@ -22857,7 +22893,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23048,7 +23084,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23135,7 +23171,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
         <v>1.08</v>
@@ -23329,7 +23365,7 @@
         <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU113">
         <v>1.37</v>
@@ -23517,10 +23553,10 @@
         <v>0.25</v>
       </c>
       <c r="AS114">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT114">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU114">
         <v>1.17</v>
@@ -23708,7 +23744,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT115">
         <v>0.58</v>
@@ -23812,7 +23848,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23899,7 +23935,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT116">
         <v>0.6899999999999999</v>
@@ -24003,7 +24039,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -24090,7 +24126,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT117">
         <v>0.77</v>
@@ -24194,7 +24230,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24385,7 +24421,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24767,7 +24803,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24854,7 +24890,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT121">
         <v>1.08</v>
@@ -25045,7 +25081,7 @@
         <v>0.33</v>
       </c>
       <c r="AS122">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT122">
         <v>0.77</v>
@@ -25239,7 +25275,7 @@
         <v>0.83</v>
       </c>
       <c r="AT123">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25427,10 +25463,10 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT124">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -25618,10 +25654,10 @@
         <v>2.25</v>
       </c>
       <c r="AS125">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT125">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU125">
         <v>1.74</v>
@@ -25812,7 +25848,7 @@
         <v>1.93</v>
       </c>
       <c r="AT126">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -26000,10 +26036,10 @@
         <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT127">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU127">
         <v>1.32</v>
@@ -26104,7 +26140,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26382,7 +26418,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -26573,7 +26609,7 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT130">
         <v>1.54</v>
@@ -27059,7 +27095,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27149,7 +27185,7 @@
         <v>2.21</v>
       </c>
       <c r="AT133">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU133">
         <v>1.66</v>
@@ -27250,7 +27286,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27337,7 +27373,7 @@
         <v>0</v>
       </c>
       <c r="AS134">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT134">
         <v>0.57</v>
@@ -27632,7 +27668,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27910,7 +27946,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT137">
         <v>1.38</v>
@@ -28104,7 +28140,7 @@
         <v>1.79</v>
       </c>
       <c r="AT138">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU138">
         <v>2.02</v>
@@ -28674,7 +28710,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT141">
         <v>1.08</v>
@@ -28778,7 +28814,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -29056,7 +29092,7 @@
         <v>1.4</v>
       </c>
       <c r="AS143">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -29250,7 +29286,7 @@
         <v>1.25</v>
       </c>
       <c r="AT144">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -29438,10 +29474,10 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT145">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU145">
         <v>1.17</v>
@@ -30011,10 +30047,10 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT148">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU148">
         <v>1.31</v>
@@ -30115,7 +30151,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30202,10 +30238,10 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT149">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU149">
         <v>1.91</v>
@@ -30306,7 +30342,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30396,7 +30432,7 @@
         <v>1.79</v>
       </c>
       <c r="AT150">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU150">
         <v>2</v>
@@ -30497,7 +30533,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30587,7 +30623,7 @@
         <v>1.62</v>
       </c>
       <c r="AT151">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU151">
         <v>1.3</v>
@@ -30688,7 +30724,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30775,7 +30811,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT152">
         <v>0.6899999999999999</v>
@@ -30969,7 +31005,7 @@
         <v>1.5</v>
       </c>
       <c r="AT153">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU153">
         <v>1.16</v>
@@ -31261,7 +31297,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31452,7 +31488,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31542,7 +31578,7 @@
         <v>2.36</v>
       </c>
       <c r="AT156">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU156">
         <v>1.85</v>
@@ -31643,7 +31679,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31730,7 +31766,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT157">
         <v>0.93</v>
@@ -32112,7 +32148,7 @@
         <v>0.6</v>
       </c>
       <c r="AS159">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT159">
         <v>0.31</v>
@@ -32303,10 +32339,10 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT160">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU160">
         <v>1.68</v>
@@ -32598,7 +32634,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32789,7 +32825,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32980,7 +33016,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33067,7 +33103,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT164">
         <v>1.08</v>
@@ -33261,7 +33297,7 @@
         <v>1.62</v>
       </c>
       <c r="AT165">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU165">
         <v>1.3</v>
@@ -33449,7 +33485,7 @@
         <v>0.4</v>
       </c>
       <c r="AS166">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT166">
         <v>0.77</v>
@@ -34025,7 +34061,7 @@
         <v>1.93</v>
       </c>
       <c r="AT169">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -34126,7 +34162,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34216,7 +34252,7 @@
         <v>1.38</v>
       </c>
       <c r="AT170">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU170">
         <v>1.31</v>
@@ -34404,7 +34440,7 @@
         <v>0.5</v>
       </c>
       <c r="AS171">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT171">
         <v>0.57</v>
@@ -34890,7 +34926,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34977,7 +35013,7 @@
         <v>0.6</v>
       </c>
       <c r="AS174">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT174">
         <v>0.58</v>
@@ -35171,7 +35207,7 @@
         <v>1.33</v>
       </c>
       <c r="AT175">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -35359,10 +35395,10 @@
         <v>0.6</v>
       </c>
       <c r="AS176">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT176">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU176">
         <v>1.23</v>
@@ -35463,7 +35499,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35654,7 +35690,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35741,10 +35777,10 @@
         <v>0.8</v>
       </c>
       <c r="AS178">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT178">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU178">
         <v>1.6</v>
@@ -35932,10 +35968,10 @@
         <v>0.67</v>
       </c>
       <c r="AS179">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT179">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU179">
         <v>1.84</v>
@@ -36036,7 +36072,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36418,7 +36454,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36508,7 +36544,7 @@
         <v>1.25</v>
       </c>
       <c r="AT182">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36696,7 +36732,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT183">
         <v>0.85</v>
@@ -36800,7 +36836,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36887,10 +36923,10 @@
         <v>0.8</v>
       </c>
       <c r="AS184">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT184">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU184">
         <v>1.32</v>
@@ -36991,7 +37027,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37373,7 +37409,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37463,7 +37499,7 @@
         <v>1.5</v>
       </c>
       <c r="AT187">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU187">
         <v>1.19</v>
@@ -37651,10 +37687,10 @@
         <v>0.2</v>
       </c>
       <c r="AS188">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT188">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU188">
         <v>1.27</v>
@@ -37755,7 +37791,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38328,7 +38364,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38418,7 +38454,7 @@
         <v>1.62</v>
       </c>
       <c r="AT192">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU192">
         <v>1.4</v>
@@ -38710,7 +38746,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38991,7 +39027,7 @@
         <v>1.69</v>
       </c>
       <c r="AT195">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU195">
         <v>1.42</v>
@@ -39092,7 +39128,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39179,7 +39215,7 @@
         <v>1.17</v>
       </c>
       <c r="AS196">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT196">
         <v>1.21</v>
@@ -39283,7 +39319,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39370,10 +39406,10 @@
         <v>0.6</v>
       </c>
       <c r="AS197">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT197">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU197">
         <v>1.56</v>
@@ -39561,7 +39597,7 @@
         <v>0.5</v>
       </c>
       <c r="AS198">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT198">
         <v>0.58</v>
@@ -39755,7 +39791,7 @@
         <v>2.23</v>
       </c>
       <c r="AT199">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU199">
         <v>1.21</v>
@@ -40137,7 +40173,7 @@
         <v>2.21</v>
       </c>
       <c r="AT201">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU201">
         <v>1.55</v>
@@ -40238,7 +40274,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40429,7 +40465,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40516,7 +40552,7 @@
         <v>1.17</v>
       </c>
       <c r="AS203">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT203">
         <v>1</v>
@@ -40707,7 +40743,7 @@
         <v>1.33</v>
       </c>
       <c r="AS204">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT204">
         <v>0.77</v>
@@ -40898,7 +40934,7 @@
         <v>0.57</v>
       </c>
       <c r="AS205">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT205">
         <v>0.58</v>
@@ -41002,7 +41038,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -41089,10 +41125,10 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT206">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU206">
         <v>1.61</v>
@@ -41193,7 +41229,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41280,10 +41316,10 @@
         <v>0.67</v>
       </c>
       <c r="AS207">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT207">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU207">
         <v>1.6</v>
@@ -41384,7 +41420,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41575,7 +41611,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41662,7 +41698,7 @@
         <v>1.5</v>
       </c>
       <c r="AS209">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT209">
         <v>1.54</v>
@@ -42047,7 +42083,7 @@
         <v>1.29</v>
       </c>
       <c r="AT211">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU211">
         <v>1.43</v>
@@ -42148,7 +42184,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42235,7 +42271,7 @@
         <v>0.38</v>
       </c>
       <c r="AS212">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT212">
         <v>0.57</v>
@@ -42339,7 +42375,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42429,7 +42465,7 @@
         <v>2.36</v>
       </c>
       <c r="AT213">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU213">
         <v>1.9</v>
@@ -42811,7 +42847,7 @@
         <v>1.62</v>
       </c>
       <c r="AT215">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU215">
         <v>1.48</v>
@@ -42912,7 +42948,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42999,7 +43035,7 @@
         <v>0.29</v>
       </c>
       <c r="AS216">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT216">
         <v>0.85</v>
@@ -43190,7 +43226,7 @@
         <v>1.29</v>
       </c>
       <c r="AS217">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT217">
         <v>0.77</v>
@@ -43294,7 +43330,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43381,7 +43417,7 @@
         <v>0.29</v>
       </c>
       <c r="AS218">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT218">
         <v>0.77</v>
@@ -43485,7 +43521,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43575,7 +43611,7 @@
         <v>1.79</v>
       </c>
       <c r="AT219">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU219">
         <v>2</v>
@@ -43763,7 +43799,7 @@
         <v>1.38</v>
       </c>
       <c r="AS220">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT220">
         <v>1.08</v>
@@ -43954,10 +43990,10 @@
         <v>0.63</v>
       </c>
       <c r="AS221">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT221">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU221">
         <v>1.75</v>
@@ -44249,7 +44285,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44339,7 +44375,7 @@
         <v>1.57</v>
       </c>
       <c r="AT223">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU223">
         <v>1.62</v>
@@ -44440,7 +44476,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44718,10 +44754,10 @@
         <v>0.71</v>
       </c>
       <c r="AS225">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT225">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU225">
         <v>1.33</v>
@@ -44822,7 +44858,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -45013,7 +45049,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -45204,7 +45240,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45291,7 +45327,7 @@
         <v>1.33</v>
       </c>
       <c r="AS228">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT228">
         <v>0.93</v>
@@ -45676,7 +45712,7 @@
         <v>2.21</v>
       </c>
       <c r="AT230">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU230">
         <v>1.61</v>
@@ -45968,7 +46004,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46246,10 +46282,10 @@
         <v>1.67</v>
       </c>
       <c r="AS233">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT233">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU233">
         <v>1.33</v>
@@ -46440,7 +46476,7 @@
         <v>2.08</v>
       </c>
       <c r="AT234">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU234">
         <v>1.99</v>
@@ -46541,7 +46577,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -47114,7 +47150,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47201,7 +47237,7 @@
         <v>0.43</v>
       </c>
       <c r="AS238">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT238">
         <v>0.58</v>
@@ -47392,10 +47428,10 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT239">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU239">
         <v>1.34</v>
@@ -47586,7 +47622,7 @@
         <v>1.69</v>
       </c>
       <c r="AT240">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU240">
         <v>1.49</v>
@@ -47878,7 +47914,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -47968,7 +48004,7 @@
         <v>1.5</v>
       </c>
       <c r="AT242">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU242">
         <v>1.19</v>
@@ -48069,7 +48105,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -48156,10 +48192,10 @@
         <v>1</v>
       </c>
       <c r="AS243">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT243">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -48347,7 +48383,7 @@
         <v>0.38</v>
       </c>
       <c r="AS244">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT244">
         <v>0.67</v>
@@ -48729,7 +48765,7 @@
         <v>1.43</v>
       </c>
       <c r="AS246">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT246">
         <v>1.21</v>
@@ -49305,7 +49341,7 @@
         <v>2.08</v>
       </c>
       <c r="AT249">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU249">
         <v>2.06</v>
@@ -49406,7 +49442,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49493,10 +49529,10 @@
         <v>0.88</v>
       </c>
       <c r="AS250">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT250">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU250">
         <v>1.62</v>
@@ -49597,7 +49633,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49684,7 +49720,7 @@
         <v>1.38</v>
       </c>
       <c r="AS251">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT251">
         <v>1.62</v>
@@ -49875,10 +49911,10 @@
         <v>2</v>
       </c>
       <c r="AS252">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT252">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU252">
         <v>1.53</v>
@@ -49979,7 +50015,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -50066,7 +50102,7 @@
         <v>1.29</v>
       </c>
       <c r="AS253">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT253">
         <v>1.08</v>
@@ -50170,7 +50206,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50257,10 +50293,10 @@
         <v>1.43</v>
       </c>
       <c r="AS254">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT254">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU254">
         <v>1.66</v>
@@ -50448,10 +50484,10 @@
         <v>0.67</v>
       </c>
       <c r="AS255">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT255">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU255">
         <v>1.38</v>
@@ -50552,7 +50588,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50743,7 +50779,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -51021,7 +51057,7 @@
         <v>1.5</v>
       </c>
       <c r="AS258">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT258">
         <v>0.93</v>
@@ -51125,7 +51161,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51403,7 +51439,7 @@
         <v>0.5</v>
       </c>
       <c r="AS260">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT260">
         <v>0.31</v>
@@ -51507,7 +51543,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51698,7 +51734,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -52080,7 +52116,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52167,7 +52203,7 @@
         <v>0.7</v>
       </c>
       <c r="AS264">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT264">
         <v>0.6899999999999999</v>
@@ -52361,7 +52397,7 @@
         <v>1.62</v>
       </c>
       <c r="AT265">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU265">
         <v>1.61</v>
@@ -52653,7 +52689,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52740,7 +52776,7 @@
         <v>0.44</v>
       </c>
       <c r="AS267">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT267">
         <v>0.31</v>
@@ -52844,7 +52880,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -53122,7 +53158,7 @@
         <v>1.63</v>
       </c>
       <c r="AS269">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT269">
         <v>1.54</v>
@@ -53507,7 +53543,7 @@
         <v>1.57</v>
       </c>
       <c r="AT271">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU271">
         <v>1.58</v>
@@ -53886,10 +53922,10 @@
         <v>0.89</v>
       </c>
       <c r="AS273">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT273">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU273">
         <v>1.72</v>
@@ -54080,7 +54116,7 @@
         <v>1.62</v>
       </c>
       <c r="AT274">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU274">
         <v>1.55</v>
@@ -54372,7 +54408,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54459,10 +54495,10 @@
         <v>1.2</v>
       </c>
       <c r="AS276">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT276">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU276">
         <v>1.93</v>
@@ -54563,7 +54599,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54653,7 +54689,7 @@
         <v>2.08</v>
       </c>
       <c r="AT277">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU277">
         <v>1.93</v>
@@ -54841,10 +54877,10 @@
         <v>1.75</v>
       </c>
       <c r="AS278">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT278">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU278">
         <v>1.66</v>
@@ -54945,7 +54981,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -55032,10 +55068,10 @@
         <v>1.25</v>
       </c>
       <c r="AS279">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT279">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU279">
         <v>1.38</v>
@@ -55136,7 +55172,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55327,7 +55363,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55417,7 +55453,7 @@
         <v>1.25</v>
       </c>
       <c r="AT281">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU281">
         <v>1.25</v>
@@ -55709,7 +55745,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -55796,7 +55832,7 @@
         <v>1.33</v>
       </c>
       <c r="AS283">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT283">
         <v>1.08</v>
@@ -55990,7 +56026,7 @@
         <v>1.69</v>
       </c>
       <c r="AT284">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU284">
         <v>1.49</v>
@@ -56369,10 +56405,10 @@
         <v>0.75</v>
       </c>
       <c r="AS286">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT286">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU286">
         <v>1.72</v>
@@ -56560,7 +56596,7 @@
         <v>1.5</v>
       </c>
       <c r="AS287">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT287">
         <v>1.08</v>
@@ -56754,7 +56790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT288">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU288">
         <v>1.54</v>
@@ -56942,7 +56978,7 @@
         <v>1.1</v>
       </c>
       <c r="AS289">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT289">
         <v>1</v>
@@ -57136,7 +57172,7 @@
         <v>2.21</v>
       </c>
       <c r="AT290">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU290">
         <v>1.61</v>
@@ -57237,7 +57273,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57324,7 +57360,7 @@
         <v>0.55</v>
       </c>
       <c r="AS291">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT291">
         <v>0.67</v>
@@ -57428,7 +57464,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -57515,7 +57551,7 @@
         <v>0.7</v>
       </c>
       <c r="AS292">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT292">
         <v>0.85</v>
@@ -57706,10 +57742,10 @@
         <v>0.5</v>
       </c>
       <c r="AS293">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT293">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU293">
         <v>1.64</v>
@@ -58001,7 +58037,7 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -58091,7 +58127,7 @@
         <v>1.25</v>
       </c>
       <c r="AT295">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU295">
         <v>1.31</v>
@@ -58383,7 +58419,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -58470,7 +58506,7 @@
         <v>1</v>
       </c>
       <c r="AS297">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT297">
         <v>1</v>
@@ -58661,7 +58697,7 @@
         <v>1.33</v>
       </c>
       <c r="AS298">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT298">
         <v>1.08</v>
@@ -58852,7 +58888,7 @@
         <v>1.1</v>
       </c>
       <c r="AS299">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT299">
         <v>1</v>
@@ -58956,7 +58992,7 @@
         <v>303</v>
       </c>
       <c r="P300" t="s">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -59338,7 +59374,7 @@
         <v>305</v>
       </c>
       <c r="P302" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Q302">
         <v>6</v>
@@ -59425,7 +59461,7 @@
         <v>0.33</v>
       </c>
       <c r="AS302">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT302">
         <v>0.58</v>
@@ -59529,7 +59565,7 @@
         <v>96</v>
       </c>
       <c r="P303" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q303">
         <v>5</v>
@@ -59619,7 +59655,7 @@
         <v>1.29</v>
       </c>
       <c r="AT303">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU303">
         <v>1.43</v>
@@ -59720,7 +59756,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59807,10 +59843,10 @@
         <v>0.8</v>
       </c>
       <c r="AS304">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT304">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU304">
         <v>1.4</v>
@@ -60293,7 +60329,7 @@
         <v>306</v>
       </c>
       <c r="P307" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60484,7 +60520,7 @@
         <v>307</v>
       </c>
       <c r="P308" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q308">
         <v>14</v>
@@ -60574,7 +60610,7 @@
         <v>1.33</v>
       </c>
       <c r="AT308">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU308">
         <v>1.62</v>
@@ -60762,10 +60798,10 @@
         <v>1.67</v>
       </c>
       <c r="AS309">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT309">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU309">
         <v>1.96</v>
@@ -61144,7 +61180,7 @@
         <v>1.1</v>
       </c>
       <c r="AS311">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT311">
         <v>1.21</v>
@@ -61248,7 +61284,7 @@
         <v>311</v>
       </c>
       <c r="P312" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61630,7 +61666,7 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -61821,7 +61857,7 @@
         <v>313</v>
       </c>
       <c r="P315" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="Q315">
         <v>5</v>
@@ -61908,10 +61944,10 @@
         <v>1</v>
       </c>
       <c r="AS315">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT315">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU315">
         <v>1.5</v>
@@ -62012,7 +62048,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="Q316">
         <v>9</v>
@@ -62102,7 +62138,7 @@
         <v>2.23</v>
       </c>
       <c r="AT316">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU316">
         <v>1.39</v>
@@ -62203,7 +62239,7 @@
         <v>314</v>
       </c>
       <c r="P317" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -62290,7 +62326,7 @@
         <v>1.82</v>
       </c>
       <c r="AS317">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT317">
         <v>1.62</v>
@@ -62394,7 +62430,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="Q318">
         <v>7</v>
@@ -62481,7 +62517,7 @@
         <v>1</v>
       </c>
       <c r="AS318">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT318">
         <v>1.21</v>
@@ -62675,7 +62711,7 @@
         <v>0.83</v>
       </c>
       <c r="AT319">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU319">
         <v>1.46</v>
@@ -63054,7 +63090,7 @@
         <v>1.4</v>
       </c>
       <c r="AS321">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT321">
         <v>1.38</v>
@@ -63248,7 +63284,7 @@
         <v>2.08</v>
       </c>
       <c r="AT322">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU322">
         <v>1.93</v>
@@ -63439,7 +63475,7 @@
         <v>1.79</v>
       </c>
       <c r="AT323">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU323">
         <v>1.79</v>
@@ -63627,7 +63663,7 @@
         <v>1.17</v>
       </c>
       <c r="AS324">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT324">
         <v>1</v>
@@ -63731,7 +63767,7 @@
         <v>124</v>
       </c>
       <c r="P325" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="Q325">
         <v>7</v>
@@ -63821,7 +63857,7 @@
         <v>1.93</v>
       </c>
       <c r="AT325">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU325">
         <v>1.68</v>
@@ -64009,7 +64045,7 @@
         <v>1.09</v>
       </c>
       <c r="AS326">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT326">
         <v>1</v>
@@ -64773,7 +64809,7 @@
         <v>1.09</v>
       </c>
       <c r="AS330">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT330">
         <v>0.93</v>
@@ -65155,7 +65191,7 @@
         <v>0.7</v>
       </c>
       <c r="AS332">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT332">
         <v>0.58</v>
@@ -65349,7 +65385,7 @@
         <v>0.83</v>
       </c>
       <c r="AT333">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU333">
         <v>1.42</v>
@@ -65450,7 +65486,7 @@
         <v>325</v>
       </c>
       <c r="P334" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65641,7 +65677,7 @@
         <v>326</v>
       </c>
       <c r="P335" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65731,7 +65767,7 @@
         <v>1.62</v>
       </c>
       <c r="AT335">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU335">
         <v>1.62</v>
@@ -65832,7 +65868,7 @@
         <v>327</v>
       </c>
       <c r="P336" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -65919,7 +65955,7 @@
         <v>0.82</v>
       </c>
       <c r="AS336">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT336">
         <v>0.77</v>
@@ -66023,7 +66059,7 @@
         <v>328</v>
       </c>
       <c r="P337" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="Q337">
         <v>4</v>
@@ -66596,7 +66632,7 @@
         <v>96</v>
       </c>
       <c r="P340" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="Q340">
         <v>3</v>
@@ -66683,10 +66719,10 @@
         <v>1.33</v>
       </c>
       <c r="AS340">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT340">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU340">
         <v>1.62</v>
@@ -66787,7 +66823,7 @@
         <v>330</v>
       </c>
       <c r="P341" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Q341">
         <v>7</v>
@@ -67068,7 +67104,7 @@
         <v>2.23</v>
       </c>
       <c r="AT342">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU342">
         <v>1.47</v>
@@ -67169,7 +67205,7 @@
         <v>287</v>
       </c>
       <c r="P343" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67259,7 +67295,7 @@
         <v>1.5</v>
       </c>
       <c r="AT343">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU343">
         <v>1.15</v>
@@ -67360,7 +67396,7 @@
         <v>332</v>
       </c>
       <c r="P344" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="Q344">
         <v>2</v>
@@ -67450,7 +67486,7 @@
         <v>2.21</v>
       </c>
       <c r="AT344">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU344">
         <v>1.69</v>
@@ -67551,7 +67587,7 @@
         <v>96</v>
       </c>
       <c r="P345" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q345">
         <v>6</v>
@@ -67742,7 +67778,7 @@
         <v>96</v>
       </c>
       <c r="P346" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="Q346">
         <v>8</v>
@@ -67829,10 +67865,10 @@
         <v>0.92</v>
       </c>
       <c r="AS346">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT346">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU346">
         <v>1.61</v>
@@ -68023,7 +68059,7 @@
         <v>2.08</v>
       </c>
       <c r="AT347">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU347">
         <v>1.87</v>
@@ -68784,7 +68820,7 @@
         <v>1.18</v>
       </c>
       <c r="AS351">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT351">
         <v>1.08</v>
@@ -69169,7 +69205,7 @@
         <v>1.69</v>
       </c>
       <c r="AT353">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU353">
         <v>1.59</v>
@@ -69270,7 +69306,7 @@
         <v>111</v>
       </c>
       <c r="P354" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="Q354">
         <v>7</v>
@@ -69357,7 +69393,7 @@
         <v>1.17</v>
       </c>
       <c r="AS354">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT354">
         <v>1.21</v>
@@ -69548,7 +69584,7 @@
         <v>0.71</v>
       </c>
       <c r="AS355">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT355">
         <v>0.67</v>
@@ -69739,7 +69775,7 @@
         <v>0.83</v>
       </c>
       <c r="AS356">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT356">
         <v>0.77</v>
@@ -69930,10 +69966,10 @@
         <v>0.92</v>
       </c>
       <c r="AS357">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT357">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU357">
         <v>1.25</v>
@@ -70034,7 +70070,7 @@
         <v>96</v>
       </c>
       <c r="P358" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="Q358">
         <v>5</v>
@@ -70121,10 +70157,10 @@
         <v>0.5</v>
       </c>
       <c r="AS358">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT358">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU358">
         <v>1.86</v>
@@ -70225,7 +70261,7 @@
         <v>341</v>
       </c>
       <c r="P359" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="Q359">
         <v>6</v>
@@ -70315,7 +70351,7 @@
         <v>1.62</v>
       </c>
       <c r="AT359">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU359">
         <v>1.61</v>
@@ -70503,10 +70539,10 @@
         <v>1</v>
       </c>
       <c r="AS360">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT360">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU360">
         <v>1.77</v>
@@ -70798,7 +70834,7 @@
         <v>192</v>
       </c>
       <c r="P362" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="Q362">
         <v>6</v>
@@ -70995,10 +71031,10 @@
         <v>4</v>
       </c>
       <c r="R363">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S363">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T363">
         <v>2.3</v>
@@ -71458,7 +71494,7 @@
         <v>0.62</v>
       </c>
       <c r="AS365">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT365">
         <v>0.57</v>
@@ -71649,7 +71685,7 @@
         <v>0.64</v>
       </c>
       <c r="AS366">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT366">
         <v>0.58</v>
@@ -71843,7 +71879,7 @@
         <v>1.38</v>
       </c>
       <c r="AT367">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU367">
         <v>1.31</v>
@@ -71944,7 +71980,7 @@
         <v>345</v>
       </c>
       <c r="P368" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q368">
         <v>10</v>
@@ -72135,7 +72171,7 @@
         <v>157</v>
       </c>
       <c r="P369" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q369">
         <v>3</v>
@@ -72326,7 +72362,7 @@
         <v>96</v>
       </c>
       <c r="P370" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="Q370">
         <v>4</v>
@@ -72416,7 +72452,7 @@
         <v>1.5</v>
       </c>
       <c r="AT370">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU370">
         <v>1.15</v>
@@ -72607,7 +72643,7 @@
         <v>2.23</v>
       </c>
       <c r="AT371">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU371">
         <v>1.48</v>
@@ -72798,7 +72834,7 @@
         <v>1.33</v>
       </c>
       <c r="AT372">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU372">
         <v>1.68</v>
@@ -72899,7 +72935,7 @@
         <v>320</v>
       </c>
       <c r="P373" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="Q373">
         <v>11</v>
@@ -72986,7 +73022,7 @@
         <v>0.67</v>
       </c>
       <c r="AS373">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT373">
         <v>0.85</v>
@@ -73090,7 +73126,7 @@
         <v>348</v>
       </c>
       <c r="P374" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q374">
         <v>3</v>
@@ -73232,6 +73268,2298 @@
       </c>
       <c r="BK374">
         <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:63">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>4926321</v>
+      </c>
+      <c r="C375" t="s">
+        <v>63</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45171.6875</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375" t="s">
+        <v>86</v>
+      </c>
+      <c r="H375" t="s">
+        <v>75</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375">
+        <v>1</v>
+      </c>
+      <c r="N375">
+        <v>2</v>
+      </c>
+      <c r="O375" t="s">
+        <v>147</v>
+      </c>
+      <c r="P375" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q375">
+        <v>2</v>
+      </c>
+      <c r="R375">
+        <v>2</v>
+      </c>
+      <c r="S375">
+        <v>4</v>
+      </c>
+      <c r="T375">
+        <v>2.63</v>
+      </c>
+      <c r="U375">
+        <v>2.3</v>
+      </c>
+      <c r="V375">
+        <v>3.75</v>
+      </c>
+      <c r="W375">
+        <v>1.33</v>
+      </c>
+      <c r="X375">
+        <v>3.25</v>
+      </c>
+      <c r="Y375">
+        <v>2.5</v>
+      </c>
+      <c r="Z375">
+        <v>1.5</v>
+      </c>
+      <c r="AA375">
+        <v>6.5</v>
+      </c>
+      <c r="AB375">
+        <v>1.11</v>
+      </c>
+      <c r="AC375">
+        <v>2.09</v>
+      </c>
+      <c r="AD375">
+        <v>3.62</v>
+      </c>
+      <c r="AE375">
+        <v>3.34</v>
+      </c>
+      <c r="AF375">
+        <v>1.04</v>
+      </c>
+      <c r="AG375">
+        <v>11</v>
+      </c>
+      <c r="AH375">
+        <v>1.22</v>
+      </c>
+      <c r="AI375">
+        <v>3.9</v>
+      </c>
+      <c r="AJ375">
+        <v>1.67</v>
+      </c>
+      <c r="AK375">
+        <v>2.15</v>
+      </c>
+      <c r="AL375">
+        <v>1.62</v>
+      </c>
+      <c r="AM375">
+        <v>2.2</v>
+      </c>
+      <c r="AN375">
+        <v>1.31</v>
+      </c>
+      <c r="AO375">
+        <v>1.28</v>
+      </c>
+      <c r="AP375">
+        <v>1.78</v>
+      </c>
+      <c r="AQ375">
+        <v>1.58</v>
+      </c>
+      <c r="AR375">
+        <v>1.09</v>
+      </c>
+      <c r="AS375">
+        <v>1.54</v>
+      </c>
+      <c r="AT375">
+        <v>1.08</v>
+      </c>
+      <c r="AU375">
+        <v>1.62</v>
+      </c>
+      <c r="AV375">
+        <v>1.34</v>
+      </c>
+      <c r="AW375">
+        <v>2.96</v>
+      </c>
+      <c r="AX375">
+        <v>1.67</v>
+      </c>
+      <c r="AY375">
+        <v>7.5</v>
+      </c>
+      <c r="AZ375">
+        <v>2.6</v>
+      </c>
+      <c r="BA375">
+        <v>1.27</v>
+      </c>
+      <c r="BB375">
+        <v>1.52</v>
+      </c>
+      <c r="BC375">
+        <v>1.88</v>
+      </c>
+      <c r="BD375">
+        <v>2.38</v>
+      </c>
+      <c r="BE375">
+        <v>3.1</v>
+      </c>
+      <c r="BF375">
+        <v>4</v>
+      </c>
+      <c r="BG375">
+        <v>3</v>
+      </c>
+      <c r="BH375">
+        <v>10</v>
+      </c>
+      <c r="BI375">
+        <v>3</v>
+      </c>
+      <c r="BJ375">
+        <v>14</v>
+      </c>
+      <c r="BK375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:63">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>4926324</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45171.85416666666</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376" t="s">
+        <v>91</v>
+      </c>
+      <c r="H376" t="s">
+        <v>79</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>3</v>
+      </c>
+      <c r="K376">
+        <v>3</v>
+      </c>
+      <c r="L376">
+        <v>2</v>
+      </c>
+      <c r="M376">
+        <v>4</v>
+      </c>
+      <c r="N376">
+        <v>6</v>
+      </c>
+      <c r="O376" t="s">
+        <v>349</v>
+      </c>
+      <c r="P376" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q376">
+        <v>4</v>
+      </c>
+      <c r="R376">
+        <v>1</v>
+      </c>
+      <c r="S376">
+        <v>5</v>
+      </c>
+      <c r="T376">
+        <v>2.8</v>
+      </c>
+      <c r="U376">
+        <v>2.26</v>
+      </c>
+      <c r="V376">
+        <v>3.4</v>
+      </c>
+      <c r="W376">
+        <v>1.33</v>
+      </c>
+      <c r="X376">
+        <v>3</v>
+      </c>
+      <c r="Y376">
+        <v>2.45</v>
+      </c>
+      <c r="Z376">
+        <v>1.47</v>
+      </c>
+      <c r="AA376">
+        <v>6</v>
+      </c>
+      <c r="AB376">
+        <v>1.11</v>
+      </c>
+      <c r="AC376">
+        <v>2.45</v>
+      </c>
+      <c r="AD376">
+        <v>3.4</v>
+      </c>
+      <c r="AE376">
+        <v>2.7</v>
+      </c>
+      <c r="AF376">
+        <v>1.04</v>
+      </c>
+      <c r="AG376">
+        <v>10.5</v>
+      </c>
+      <c r="AH376">
+        <v>1.22</v>
+      </c>
+      <c r="AI376">
+        <v>3.9</v>
+      </c>
+      <c r="AJ376">
+        <v>1.68</v>
+      </c>
+      <c r="AK376">
+        <v>2.14</v>
+      </c>
+      <c r="AL376">
+        <v>1.58</v>
+      </c>
+      <c r="AM376">
+        <v>2.29</v>
+      </c>
+      <c r="AN376">
+        <v>1.42</v>
+      </c>
+      <c r="AO376">
+        <v>1.28</v>
+      </c>
+      <c r="AP376">
+        <v>1.61</v>
+      </c>
+      <c r="AQ376">
+        <v>2.25</v>
+      </c>
+      <c r="AR376">
+        <v>0.75</v>
+      </c>
+      <c r="AS376">
+        <v>2.08</v>
+      </c>
+      <c r="AT376">
+        <v>0.92</v>
+      </c>
+      <c r="AU376">
+        <v>1.42</v>
+      </c>
+      <c r="AV376">
+        <v>1.38</v>
+      </c>
+      <c r="AW376">
+        <v>2.8</v>
+      </c>
+      <c r="AX376">
+        <v>1.83</v>
+      </c>
+      <c r="AY376">
+        <v>7.5</v>
+      </c>
+      <c r="AZ376">
+        <v>2.28</v>
+      </c>
+      <c r="BA376">
+        <v>1.28</v>
+      </c>
+      <c r="BB376">
+        <v>1.53</v>
+      </c>
+      <c r="BC376">
+        <v>1.9</v>
+      </c>
+      <c r="BD376">
+        <v>2.4</v>
+      </c>
+      <c r="BE376">
+        <v>3.15</v>
+      </c>
+      <c r="BF376">
+        <v>7</v>
+      </c>
+      <c r="BG376">
+        <v>5</v>
+      </c>
+      <c r="BH376">
+        <v>5</v>
+      </c>
+      <c r="BI376">
+        <v>4</v>
+      </c>
+      <c r="BJ376">
+        <v>12</v>
+      </c>
+      <c r="BK376">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:63">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>4926323</v>
+      </c>
+      <c r="C377" t="s">
+        <v>63</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45171.85416666666</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377" t="s">
+        <v>69</v>
+      </c>
+      <c r="H377" t="s">
+        <v>82</v>
+      </c>
+      <c r="I377">
+        <v>3</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>3</v>
+      </c>
+      <c r="L377">
+        <v>4</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>4</v>
+      </c>
+      <c r="O377" t="s">
+        <v>350</v>
+      </c>
+      <c r="P377" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q377">
+        <v>2</v>
+      </c>
+      <c r="R377">
+        <v>5</v>
+      </c>
+      <c r="S377">
+        <v>7</v>
+      </c>
+      <c r="T377">
+        <v>2.57</v>
+      </c>
+      <c r="U377">
+        <v>2.25</v>
+      </c>
+      <c r="V377">
+        <v>3.98</v>
+      </c>
+      <c r="W377">
+        <v>1.33</v>
+      </c>
+      <c r="X377">
+        <v>3</v>
+      </c>
+      <c r="Y377">
+        <v>2.45</v>
+      </c>
+      <c r="Z377">
+        <v>1.49</v>
+      </c>
+      <c r="AA377">
+        <v>5.75</v>
+      </c>
+      <c r="AB377">
+        <v>1.11</v>
+      </c>
+      <c r="AC377">
+        <v>2.1</v>
+      </c>
+      <c r="AD377">
+        <v>3.5</v>
+      </c>
+      <c r="AE377">
+        <v>3.4</v>
+      </c>
+      <c r="AF377">
+        <v>1.04</v>
+      </c>
+      <c r="AG377">
+        <v>10.5</v>
+      </c>
+      <c r="AH377">
+        <v>1.22</v>
+      </c>
+      <c r="AI377">
+        <v>3.9</v>
+      </c>
+      <c r="AJ377">
+        <v>1.67</v>
+      </c>
+      <c r="AK377">
+        <v>2.18</v>
+      </c>
+      <c r="AL377">
+        <v>1.63</v>
+      </c>
+      <c r="AM377">
+        <v>2.22</v>
+      </c>
+      <c r="AN377">
+        <v>1.31</v>
+      </c>
+      <c r="AO377">
+        <v>1.28</v>
+      </c>
+      <c r="AP377">
+        <v>1.78</v>
+      </c>
+      <c r="AQ377">
+        <v>1.33</v>
+      </c>
+      <c r="AR377">
+        <v>0.92</v>
+      </c>
+      <c r="AS377">
+        <v>1.46</v>
+      </c>
+      <c r="AT377">
+        <v>0.85</v>
+      </c>
+      <c r="AU377">
+        <v>1.56</v>
+      </c>
+      <c r="AV377">
+        <v>1.09</v>
+      </c>
+      <c r="AW377">
+        <v>2.65</v>
+      </c>
+      <c r="AX377">
+        <v>1.7</v>
+      </c>
+      <c r="AY377">
+        <v>7.5</v>
+      </c>
+      <c r="AZ377">
+        <v>2.5</v>
+      </c>
+      <c r="BA377">
+        <v>1.28</v>
+      </c>
+      <c r="BB377">
+        <v>1.5</v>
+      </c>
+      <c r="BC377">
+        <v>1.9</v>
+      </c>
+      <c r="BD377">
+        <v>2.4</v>
+      </c>
+      <c r="BE377">
+        <v>3.15</v>
+      </c>
+      <c r="BF377">
+        <v>5</v>
+      </c>
+      <c r="BG377">
+        <v>3</v>
+      </c>
+      <c r="BH377">
+        <v>3</v>
+      </c>
+      <c r="BI377">
+        <v>7</v>
+      </c>
+      <c r="BJ377">
+        <v>8</v>
+      </c>
+      <c r="BK377">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:63">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>4926322</v>
+      </c>
+      <c r="C378" t="s">
+        <v>63</v>
+      </c>
+      <c r="D378" t="s">
+        <v>64</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45171.85416666666</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378" t="s">
+        <v>68</v>
+      </c>
+      <c r="H378" t="s">
+        <v>71</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>1</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+      <c r="M378">
+        <v>1</v>
+      </c>
+      <c r="N378">
+        <v>1</v>
+      </c>
+      <c r="O378" t="s">
+        <v>96</v>
+      </c>
+      <c r="P378" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q378">
+        <v>2</v>
+      </c>
+      <c r="R378">
+        <v>5</v>
+      </c>
+      <c r="S378">
+        <v>7</v>
+      </c>
+      <c r="T378">
+        <v>2.38</v>
+      </c>
+      <c r="U378">
+        <v>2.33</v>
+      </c>
+      <c r="V378">
+        <v>4.15</v>
+      </c>
+      <c r="W378">
+        <v>1.31</v>
+      </c>
+      <c r="X378">
+        <v>3.1</v>
+      </c>
+      <c r="Y378">
+        <v>2.35</v>
+      </c>
+      <c r="Z378">
+        <v>1.52</v>
+      </c>
+      <c r="AA378">
+        <v>5.5</v>
+      </c>
+      <c r="AB378">
+        <v>1.13</v>
+      </c>
+      <c r="AC378">
+        <v>1.95</v>
+      </c>
+      <c r="AD378">
+        <v>3.5</v>
+      </c>
+      <c r="AE378">
+        <v>3.75</v>
+      </c>
+      <c r="AF378">
+        <v>1.04</v>
+      </c>
+      <c r="AG378">
+        <v>11.5</v>
+      </c>
+      <c r="AH378">
+        <v>1.2</v>
+      </c>
+      <c r="AI378">
+        <v>4.2</v>
+      </c>
+      <c r="AJ378">
+        <v>1.6</v>
+      </c>
+      <c r="AK378">
+        <v>2.3</v>
+      </c>
+      <c r="AL378">
+        <v>1.58</v>
+      </c>
+      <c r="AM378">
+        <v>2.29</v>
+      </c>
+      <c r="AN378">
+        <v>1.27</v>
+      </c>
+      <c r="AO378">
+        <v>1.26</v>
+      </c>
+      <c r="AP378">
+        <v>1.9</v>
+      </c>
+      <c r="AQ378">
+        <v>2.85</v>
+      </c>
+      <c r="AR378">
+        <v>1.69</v>
+      </c>
+      <c r="AS378">
+        <v>2.64</v>
+      </c>
+      <c r="AT378">
+        <v>1.79</v>
+      </c>
+      <c r="AU378">
+        <v>1.41</v>
+      </c>
+      <c r="AV378">
+        <v>1.27</v>
+      </c>
+      <c r="AW378">
+        <v>2.68</v>
+      </c>
+      <c r="AX378">
+        <v>1.61</v>
+      </c>
+      <c r="AY378">
+        <v>7.5</v>
+      </c>
+      <c r="AZ378">
+        <v>2.75</v>
+      </c>
+      <c r="BA378">
+        <v>1.26</v>
+      </c>
+      <c r="BB378">
+        <v>1.5</v>
+      </c>
+      <c r="BC378">
+        <v>1.85</v>
+      </c>
+      <c r="BD378">
+        <v>2.33</v>
+      </c>
+      <c r="BE378">
+        <v>3.05</v>
+      </c>
+      <c r="BF378">
+        <v>5</v>
+      </c>
+      <c r="BG378">
+        <v>2</v>
+      </c>
+      <c r="BH378">
+        <v>7</v>
+      </c>
+      <c r="BI378">
+        <v>3</v>
+      </c>
+      <c r="BJ378">
+        <v>12</v>
+      </c>
+      <c r="BK378">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:63">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>4926325</v>
+      </c>
+      <c r="C379" t="s">
+        <v>63</v>
+      </c>
+      <c r="D379" t="s">
+        <v>64</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45171.85416666666</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379" t="s">
+        <v>80</v>
+      </c>
+      <c r="H379" t="s">
+        <v>73</v>
+      </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379">
+        <v>1</v>
+      </c>
+      <c r="K379">
+        <v>2</v>
+      </c>
+      <c r="L379">
+        <v>2</v>
+      </c>
+      <c r="M379">
+        <v>2</v>
+      </c>
+      <c r="N379">
+        <v>4</v>
+      </c>
+      <c r="O379" t="s">
+        <v>351</v>
+      </c>
+      <c r="P379" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q379">
+        <v>10</v>
+      </c>
+      <c r="R379">
+        <v>3</v>
+      </c>
+      <c r="S379">
+        <v>13</v>
+      </c>
+      <c r="T379">
+        <v>2.24</v>
+      </c>
+      <c r="U379">
+        <v>2.36</v>
+      </c>
+      <c r="V379">
+        <v>4.5</v>
+      </c>
+      <c r="W379">
+        <v>1.3</v>
+      </c>
+      <c r="X379">
+        <v>3.34</v>
+      </c>
+      <c r="Y379">
+        <v>2.39</v>
+      </c>
+      <c r="Z379">
+        <v>1.54</v>
+      </c>
+      <c r="AA379">
+        <v>5.55</v>
+      </c>
+      <c r="AB379">
+        <v>1.13</v>
+      </c>
+      <c r="AC379">
+        <v>1.73</v>
+      </c>
+      <c r="AD379">
+        <v>3.8</v>
+      </c>
+      <c r="AE379">
+        <v>4.4</v>
+      </c>
+      <c r="AF379">
+        <v>1.04</v>
+      </c>
+      <c r="AG379">
+        <v>11.5</v>
+      </c>
+      <c r="AH379">
+        <v>1.21</v>
+      </c>
+      <c r="AI379">
+        <v>4</v>
+      </c>
+      <c r="AJ379">
+        <v>1.58</v>
+      </c>
+      <c r="AK379">
+        <v>2.35</v>
+      </c>
+      <c r="AL379">
+        <v>1.62</v>
+      </c>
+      <c r="AM379">
+        <v>2.21</v>
+      </c>
+      <c r="AN379">
+        <v>1.2</v>
+      </c>
+      <c r="AO379">
+        <v>1.24</v>
+      </c>
+      <c r="AP379">
+        <v>2.11</v>
+      </c>
+      <c r="AQ379">
+        <v>2.54</v>
+      </c>
+      <c r="AR379">
+        <v>0.85</v>
+      </c>
+      <c r="AS379">
+        <v>2.43</v>
+      </c>
+      <c r="AT379">
+        <v>0.86</v>
+      </c>
+      <c r="AU379">
+        <v>1.56</v>
+      </c>
+      <c r="AV379">
+        <v>1.27</v>
+      </c>
+      <c r="AW379">
+        <v>2.83</v>
+      </c>
+      <c r="AX379">
+        <v>1.53</v>
+      </c>
+      <c r="AY379">
+        <v>8</v>
+      </c>
+      <c r="AZ379">
+        <v>3</v>
+      </c>
+      <c r="BA379">
+        <v>1.26</v>
+      </c>
+      <c r="BB379">
+        <v>1.48</v>
+      </c>
+      <c r="BC379">
+        <v>1.83</v>
+      </c>
+      <c r="BD379">
+        <v>2.3</v>
+      </c>
+      <c r="BE379">
+        <v>3</v>
+      </c>
+      <c r="BF379">
+        <v>7</v>
+      </c>
+      <c r="BG379">
+        <v>6</v>
+      </c>
+      <c r="BH379">
+        <v>6</v>
+      </c>
+      <c r="BI379">
+        <v>5</v>
+      </c>
+      <c r="BJ379">
+        <v>13</v>
+      </c>
+      <c r="BK379">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" spans="1:63">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>4926326</v>
+      </c>
+      <c r="C380" t="s">
+        <v>63</v>
+      </c>
+      <c r="D380" t="s">
+        <v>64</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45171.89583333334</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380" t="s">
+        <v>74</v>
+      </c>
+      <c r="H380" t="s">
+        <v>66</v>
+      </c>
+      <c r="I380">
+        <v>1</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+      <c r="K380">
+        <v>2</v>
+      </c>
+      <c r="L380">
+        <v>2</v>
+      </c>
+      <c r="M380">
+        <v>2</v>
+      </c>
+      <c r="N380">
+        <v>4</v>
+      </c>
+      <c r="O380" t="s">
+        <v>352</v>
+      </c>
+      <c r="P380" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q380">
+        <v>3</v>
+      </c>
+      <c r="R380">
+        <v>5</v>
+      </c>
+      <c r="S380">
+        <v>8</v>
+      </c>
+      <c r="T380">
+        <v>2.88</v>
+      </c>
+      <c r="U380">
+        <v>2.25</v>
+      </c>
+      <c r="V380">
+        <v>3.5</v>
+      </c>
+      <c r="W380">
+        <v>1.36</v>
+      </c>
+      <c r="X380">
+        <v>3</v>
+      </c>
+      <c r="Y380">
+        <v>2.63</v>
+      </c>
+      <c r="Z380">
+        <v>1.44</v>
+      </c>
+      <c r="AA380">
+        <v>7</v>
+      </c>
+      <c r="AB380">
+        <v>1.1</v>
+      </c>
+      <c r="AC380">
+        <v>2.38</v>
+      </c>
+      <c r="AD380">
+        <v>3.3</v>
+      </c>
+      <c r="AE380">
+        <v>2.9</v>
+      </c>
+      <c r="AF380">
+        <v>1.01</v>
+      </c>
+      <c r="AG380">
+        <v>9.9</v>
+      </c>
+      <c r="AH380">
+        <v>1.24</v>
+      </c>
+      <c r="AI380">
+        <v>3.55</v>
+      </c>
+      <c r="AJ380">
+        <v>1.76</v>
+      </c>
+      <c r="AK380">
+        <v>2.04</v>
+      </c>
+      <c r="AL380">
+        <v>1.62</v>
+      </c>
+      <c r="AM380">
+        <v>2.2</v>
+      </c>
+      <c r="AN380">
+        <v>1.41</v>
+      </c>
+      <c r="AO380">
+        <v>1.3</v>
+      </c>
+      <c r="AP380">
+        <v>1.59</v>
+      </c>
+      <c r="AQ380">
+        <v>1.92</v>
+      </c>
+      <c r="AR380">
+        <v>1.08</v>
+      </c>
+      <c r="AS380">
+        <v>1.85</v>
+      </c>
+      <c r="AT380">
+        <v>1.07</v>
+      </c>
+      <c r="AU380">
+        <v>1.27</v>
+      </c>
+      <c r="AV380">
+        <v>1.31</v>
+      </c>
+      <c r="AW380">
+        <v>2.58</v>
+      </c>
+      <c r="AX380">
+        <v>1.77</v>
+      </c>
+      <c r="AY380">
+        <v>7.5</v>
+      </c>
+      <c r="AZ380">
+        <v>2.4</v>
+      </c>
+      <c r="BA380">
+        <v>1.29</v>
+      </c>
+      <c r="BB380">
+        <v>1.54</v>
+      </c>
+      <c r="BC380">
+        <v>1.92</v>
+      </c>
+      <c r="BD380">
+        <v>2.45</v>
+      </c>
+      <c r="BE380">
+        <v>3.25</v>
+      </c>
+      <c r="BF380">
+        <v>5</v>
+      </c>
+      <c r="BG380">
+        <v>7</v>
+      </c>
+      <c r="BH380">
+        <v>9</v>
+      </c>
+      <c r="BI380">
+        <v>4</v>
+      </c>
+      <c r="BJ380">
+        <v>14</v>
+      </c>
+      <c r="BK380">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:63">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>4926327</v>
+      </c>
+      <c r="C381" t="s">
+        <v>63</v>
+      </c>
+      <c r="D381" t="s">
+        <v>64</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45171.89583333334</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381" t="s">
+        <v>88</v>
+      </c>
+      <c r="H381" t="s">
+        <v>83</v>
+      </c>
+      <c r="I381">
+        <v>2</v>
+      </c>
+      <c r="J381">
+        <v>1</v>
+      </c>
+      <c r="K381">
+        <v>3</v>
+      </c>
+      <c r="L381">
+        <v>2</v>
+      </c>
+      <c r="M381">
+        <v>1</v>
+      </c>
+      <c r="N381">
+        <v>3</v>
+      </c>
+      <c r="O381" t="s">
+        <v>353</v>
+      </c>
+      <c r="P381" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q381">
+        <v>7</v>
+      </c>
+      <c r="R381">
+        <v>5</v>
+      </c>
+      <c r="S381">
+        <v>12</v>
+      </c>
+      <c r="T381">
+        <v>2.63</v>
+      </c>
+      <c r="U381">
+        <v>2.38</v>
+      </c>
+      <c r="V381">
+        <v>3.6</v>
+      </c>
+      <c r="W381">
+        <v>1.3</v>
+      </c>
+      <c r="X381">
+        <v>3.4</v>
+      </c>
+      <c r="Y381">
+        <v>2.5</v>
+      </c>
+      <c r="Z381">
+        <v>1.5</v>
+      </c>
+      <c r="AA381">
+        <v>6</v>
+      </c>
+      <c r="AB381">
+        <v>1.13</v>
+      </c>
+      <c r="AC381">
+        <v>2.88</v>
+      </c>
+      <c r="AD381">
+        <v>3.5</v>
+      </c>
+      <c r="AE381">
+        <v>2.3</v>
+      </c>
+      <c r="AF381">
+        <v>1.03</v>
+      </c>
+      <c r="AG381">
+        <v>16</v>
+      </c>
+      <c r="AH381">
+        <v>1.17</v>
+      </c>
+      <c r="AI381">
+        <v>4.3</v>
+      </c>
+      <c r="AJ381">
+        <v>1.61</v>
+      </c>
+      <c r="AK381">
+        <v>2.3</v>
+      </c>
+      <c r="AL381">
+        <v>1.53</v>
+      </c>
+      <c r="AM381">
+        <v>2.38</v>
+      </c>
+      <c r="AN381">
+        <v>1.35</v>
+      </c>
+      <c r="AO381">
+        <v>1.29</v>
+      </c>
+      <c r="AP381">
+        <v>1.73</v>
+      </c>
+      <c r="AQ381">
+        <v>1.54</v>
+      </c>
+      <c r="AR381">
+        <v>1.33</v>
+      </c>
+      <c r="AS381">
+        <v>1.64</v>
+      </c>
+      <c r="AT381">
+        <v>1.23</v>
+      </c>
+      <c r="AU381">
+        <v>1.71</v>
+      </c>
+      <c r="AV381">
+        <v>1.36</v>
+      </c>
+      <c r="AW381">
+        <v>3.07</v>
+      </c>
+      <c r="AX381">
+        <v>1.7</v>
+      </c>
+      <c r="AY381">
+        <v>7.5</v>
+      </c>
+      <c r="AZ381">
+        <v>2.5</v>
+      </c>
+      <c r="BA381">
+        <v>1.26</v>
+      </c>
+      <c r="BB381">
+        <v>1.49</v>
+      </c>
+      <c r="BC381">
+        <v>1.84</v>
+      </c>
+      <c r="BD381">
+        <v>2.33</v>
+      </c>
+      <c r="BE381">
+        <v>3.05</v>
+      </c>
+      <c r="BF381">
+        <v>7</v>
+      </c>
+      <c r="BG381">
+        <v>3</v>
+      </c>
+      <c r="BH381">
+        <v>0</v>
+      </c>
+      <c r="BI381">
+        <v>3</v>
+      </c>
+      <c r="BJ381">
+        <v>7</v>
+      </c>
+      <c r="BK381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:63">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>4926328</v>
+      </c>
+      <c r="C382" t="s">
+        <v>63</v>
+      </c>
+      <c r="D382" t="s">
+        <v>64</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45171.89583333334</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382" t="s">
+        <v>65</v>
+      </c>
+      <c r="H382" t="s">
+        <v>67</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="M382">
+        <v>1</v>
+      </c>
+      <c r="N382">
+        <v>2</v>
+      </c>
+      <c r="O382" t="s">
+        <v>169</v>
+      </c>
+      <c r="P382" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q382">
+        <v>5</v>
+      </c>
+      <c r="R382">
+        <v>7</v>
+      </c>
+      <c r="S382">
+        <v>12</v>
+      </c>
+      <c r="T382">
+        <v>2.4</v>
+      </c>
+      <c r="U382">
+        <v>2.2</v>
+      </c>
+      <c r="V382">
+        <v>4.5</v>
+      </c>
+      <c r="W382">
+        <v>1.36</v>
+      </c>
+      <c r="X382">
+        <v>3</v>
+      </c>
+      <c r="Y382">
+        <v>2.75</v>
+      </c>
+      <c r="Z382">
+        <v>1.4</v>
+      </c>
+      <c r="AA382">
+        <v>8</v>
+      </c>
+      <c r="AB382">
+        <v>1.08</v>
+      </c>
+      <c r="AC382">
+        <v>1.85</v>
+      </c>
+      <c r="AD382">
+        <v>3.4</v>
+      </c>
+      <c r="AE382">
+        <v>4.33</v>
+      </c>
+      <c r="AF382">
+        <v>1.06</v>
+      </c>
+      <c r="AG382">
+        <v>11.25</v>
+      </c>
+      <c r="AH382">
+        <v>1.29</v>
+      </c>
+      <c r="AI382">
+        <v>3.63</v>
+      </c>
+      <c r="AJ382">
+        <v>1.85</v>
+      </c>
+      <c r="AK382">
+        <v>1.93</v>
+      </c>
+      <c r="AL382">
+        <v>1.8</v>
+      </c>
+      <c r="AM382">
+        <v>1.95</v>
+      </c>
+      <c r="AN382">
+        <v>1.22</v>
+      </c>
+      <c r="AO382">
+        <v>1.27</v>
+      </c>
+      <c r="AP382">
+        <v>2</v>
+      </c>
+      <c r="AQ382">
+        <v>2.17</v>
+      </c>
+      <c r="AR382">
+        <v>1</v>
+      </c>
+      <c r="AS382">
+        <v>2.08</v>
+      </c>
+      <c r="AT382">
+        <v>1</v>
+      </c>
+      <c r="AU382">
+        <v>1.59</v>
+      </c>
+      <c r="AV382">
+        <v>1.03</v>
+      </c>
+      <c r="AW382">
+        <v>2.62</v>
+      </c>
+      <c r="AX382">
+        <v>1.55</v>
+      </c>
+      <c r="AY382">
+        <v>8</v>
+      </c>
+      <c r="AZ382">
+        <v>2.95</v>
+      </c>
+      <c r="BA382">
+        <v>1.3</v>
+      </c>
+      <c r="BB382">
+        <v>1.57</v>
+      </c>
+      <c r="BC382">
+        <v>1.97</v>
+      </c>
+      <c r="BD382">
+        <v>2.5</v>
+      </c>
+      <c r="BE382">
+        <v>3.35</v>
+      </c>
+      <c r="BF382">
+        <v>6</v>
+      </c>
+      <c r="BG382">
+        <v>3</v>
+      </c>
+      <c r="BH382">
+        <v>3</v>
+      </c>
+      <c r="BI382">
+        <v>5</v>
+      </c>
+      <c r="BJ382">
+        <v>9</v>
+      </c>
+      <c r="BK382">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:63">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>4926329</v>
+      </c>
+      <c r="C383" t="s">
+        <v>63</v>
+      </c>
+      <c r="D383" t="s">
+        <v>64</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45171.9375</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383" t="s">
+        <v>90</v>
+      </c>
+      <c r="H383" t="s">
+        <v>84</v>
+      </c>
+      <c r="I383">
+        <v>1</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>1</v>
+      </c>
+      <c r="L383">
+        <v>2</v>
+      </c>
+      <c r="M383">
+        <v>0</v>
+      </c>
+      <c r="N383">
+        <v>2</v>
+      </c>
+      <c r="O383" t="s">
+        <v>354</v>
+      </c>
+      <c r="P383" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q383">
+        <v>8</v>
+      </c>
+      <c r="R383">
+        <v>4</v>
+      </c>
+      <c r="S383">
+        <v>12</v>
+      </c>
+      <c r="T383">
+        <v>2.38</v>
+      </c>
+      <c r="U383">
+        <v>2.2</v>
+      </c>
+      <c r="V383">
+        <v>4.75</v>
+      </c>
+      <c r="W383">
+        <v>1.36</v>
+      </c>
+      <c r="X383">
+        <v>3</v>
+      </c>
+      <c r="Y383">
+        <v>2.75</v>
+      </c>
+      <c r="Z383">
+        <v>1.4</v>
+      </c>
+      <c r="AA383">
+        <v>8</v>
+      </c>
+      <c r="AB383">
+        <v>1.08</v>
+      </c>
+      <c r="AC383">
+        <v>1.8</v>
+      </c>
+      <c r="AD383">
+        <v>3.5</v>
+      </c>
+      <c r="AE383">
+        <v>4.6</v>
+      </c>
+      <c r="AF383">
+        <v>1.05</v>
+      </c>
+      <c r="AG383">
+        <v>11</v>
+      </c>
+      <c r="AH383">
+        <v>1.28</v>
+      </c>
+      <c r="AI383">
+        <v>3.6</v>
+      </c>
+      <c r="AJ383">
+        <v>1.82</v>
+      </c>
+      <c r="AK383">
+        <v>1.96</v>
+      </c>
+      <c r="AL383">
+        <v>1.8</v>
+      </c>
+      <c r="AM383">
+        <v>1.95</v>
+      </c>
+      <c r="AN383">
+        <v>1.2</v>
+      </c>
+      <c r="AO383">
+        <v>1.3</v>
+      </c>
+      <c r="AP383">
+        <v>2</v>
+      </c>
+      <c r="AQ383">
+        <v>1.23</v>
+      </c>
+      <c r="AR383">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS383">
+        <v>1.36</v>
+      </c>
+      <c r="AT383">
+        <v>0.64</v>
+      </c>
+      <c r="AU383">
+        <v>1.79</v>
+      </c>
+      <c r="AV383">
+        <v>1.15</v>
+      </c>
+      <c r="AW383">
+        <v>2.94</v>
+      </c>
+      <c r="AX383">
+        <v>1.49</v>
+      </c>
+      <c r="AY383">
+        <v>8</v>
+      </c>
+      <c r="AZ383">
+        <v>3.2</v>
+      </c>
+      <c r="BA383">
+        <v>1.3</v>
+      </c>
+      <c r="BB383">
+        <v>1.57</v>
+      </c>
+      <c r="BC383">
+        <v>1.97</v>
+      </c>
+      <c r="BD383">
+        <v>2.5</v>
+      </c>
+      <c r="BE383">
+        <v>3.35</v>
+      </c>
+      <c r="BF383">
+        <v>6</v>
+      </c>
+      <c r="BG383">
+        <v>4</v>
+      </c>
+      <c r="BH383">
+        <v>6</v>
+      </c>
+      <c r="BI383">
+        <v>2</v>
+      </c>
+      <c r="BJ383">
+        <v>12</v>
+      </c>
+      <c r="BK383">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:63">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>4926332</v>
+      </c>
+      <c r="C384" t="s">
+        <v>63</v>
+      </c>
+      <c r="D384" t="s">
+        <v>64</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45171.97916666666</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384" t="s">
+        <v>85</v>
+      </c>
+      <c r="H384" t="s">
+        <v>89</v>
+      </c>
+      <c r="I384">
+        <v>1</v>
+      </c>
+      <c r="J384">
+        <v>1</v>
+      </c>
+      <c r="K384">
+        <v>2</v>
+      </c>
+      <c r="L384">
+        <v>1</v>
+      </c>
+      <c r="M384">
+        <v>1</v>
+      </c>
+      <c r="N384">
+        <v>2</v>
+      </c>
+      <c r="O384" t="s">
+        <v>355</v>
+      </c>
+      <c r="P384" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q384">
+        <v>9</v>
+      </c>
+      <c r="R384">
+        <v>5</v>
+      </c>
+      <c r="S384">
+        <v>14</v>
+      </c>
+      <c r="T384">
+        <v>2.63</v>
+      </c>
+      <c r="U384">
+        <v>2.2</v>
+      </c>
+      <c r="V384">
+        <v>4</v>
+      </c>
+      <c r="W384">
+        <v>1.4</v>
+      </c>
+      <c r="X384">
+        <v>2.75</v>
+      </c>
+      <c r="Y384">
+        <v>2.75</v>
+      </c>
+      <c r="Z384">
+        <v>1.4</v>
+      </c>
+      <c r="AA384">
+        <v>8</v>
+      </c>
+      <c r="AB384">
+        <v>1.08</v>
+      </c>
+      <c r="AC384">
+        <v>2</v>
+      </c>
+      <c r="AD384">
+        <v>3.4</v>
+      </c>
+      <c r="AE384">
+        <v>3.75</v>
+      </c>
+      <c r="AF384">
+        <v>1.05</v>
+      </c>
+      <c r="AG384">
+        <v>11.75</v>
+      </c>
+      <c r="AH384">
+        <v>1.29</v>
+      </c>
+      <c r="AI384">
+        <v>3.62</v>
+      </c>
+      <c r="AJ384">
+        <v>1.85</v>
+      </c>
+      <c r="AK384">
+        <v>1.93</v>
+      </c>
+      <c r="AL384">
+        <v>1.75</v>
+      </c>
+      <c r="AM384">
+        <v>2</v>
+      </c>
+      <c r="AN384">
+        <v>1.3</v>
+      </c>
+      <c r="AO384">
+        <v>1.3</v>
+      </c>
+      <c r="AP384">
+        <v>1.78</v>
+      </c>
+      <c r="AQ384">
+        <v>1.92</v>
+      </c>
+      <c r="AR384">
+        <v>1.46</v>
+      </c>
+      <c r="AS384">
+        <v>1.86</v>
+      </c>
+      <c r="AT384">
+        <v>1.43</v>
+      </c>
+      <c r="AU384">
+        <v>1.45</v>
+      </c>
+      <c r="AV384">
+        <v>1.29</v>
+      </c>
+      <c r="AW384">
+        <v>2.74</v>
+      </c>
+      <c r="AX384">
+        <v>1.65</v>
+      </c>
+      <c r="AY384">
+        <v>7.5</v>
+      </c>
+      <c r="AZ384">
+        <v>2.65</v>
+      </c>
+      <c r="BA384">
+        <v>1.3</v>
+      </c>
+      <c r="BB384">
+        <v>1.58</v>
+      </c>
+      <c r="BC384">
+        <v>1.98</v>
+      </c>
+      <c r="BD384">
+        <v>2.5</v>
+      </c>
+      <c r="BE384">
+        <v>3.35</v>
+      </c>
+      <c r="BF384">
+        <v>7</v>
+      </c>
+      <c r="BG384">
+        <v>8</v>
+      </c>
+      <c r="BH384">
+        <v>8</v>
+      </c>
+      <c r="BI384">
+        <v>4</v>
+      </c>
+      <c r="BJ384">
+        <v>15</v>
+      </c>
+      <c r="BK384">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385" spans="1:63">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>4926333</v>
+      </c>
+      <c r="C385" t="s">
+        <v>63</v>
+      </c>
+      <c r="D385" t="s">
+        <v>64</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45171.97916666666</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385" t="s">
+        <v>76</v>
+      </c>
+      <c r="H385" t="s">
+        <v>77</v>
+      </c>
+      <c r="I385">
+        <v>2</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>2</v>
+      </c>
+      <c r="L385">
+        <v>2</v>
+      </c>
+      <c r="M385">
+        <v>2</v>
+      </c>
+      <c r="N385">
+        <v>4</v>
+      </c>
+      <c r="O385" t="s">
+        <v>356</v>
+      </c>
+      <c r="P385" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q385">
+        <v>5</v>
+      </c>
+      <c r="R385">
+        <v>3</v>
+      </c>
+      <c r="S385">
+        <v>8</v>
+      </c>
+      <c r="T385">
+        <v>2.3</v>
+      </c>
+      <c r="U385">
+        <v>2.3</v>
+      </c>
+      <c r="V385">
+        <v>5</v>
+      </c>
+      <c r="W385">
+        <v>1.33</v>
+      </c>
+      <c r="X385">
+        <v>3.25</v>
+      </c>
+      <c r="Y385">
+        <v>2.63</v>
+      </c>
+      <c r="Z385">
+        <v>1.44</v>
+      </c>
+      <c r="AA385">
+        <v>7</v>
+      </c>
+      <c r="AB385">
+        <v>1.1</v>
+      </c>
+      <c r="AC385">
+        <v>1.85</v>
+      </c>
+      <c r="AD385">
+        <v>3.6</v>
+      </c>
+      <c r="AE385">
+        <v>4</v>
+      </c>
+      <c r="AF385">
+        <v>1.03</v>
+      </c>
+      <c r="AG385">
+        <v>13</v>
+      </c>
+      <c r="AH385">
+        <v>1.22</v>
+      </c>
+      <c r="AI385">
+        <v>4</v>
+      </c>
+      <c r="AJ385">
+        <v>1.7</v>
+      </c>
+      <c r="AK385">
+        <v>2.14</v>
+      </c>
+      <c r="AL385">
+        <v>1.75</v>
+      </c>
+      <c r="AM385">
+        <v>2</v>
+      </c>
+      <c r="AN385">
+        <v>1.19</v>
+      </c>
+      <c r="AO385">
+        <v>1.25</v>
+      </c>
+      <c r="AP385">
+        <v>2.14</v>
+      </c>
+      <c r="AQ385">
+        <v>1.57</v>
+      </c>
+      <c r="AR385">
+        <v>0.62</v>
+      </c>
+      <c r="AS385">
+        <v>1.53</v>
+      </c>
+      <c r="AT385">
+        <v>0.64</v>
+      </c>
+      <c r="AU385">
+        <v>1.59</v>
+      </c>
+      <c r="AV385">
+        <v>1.09</v>
+      </c>
+      <c r="AW385">
+        <v>2.68</v>
+      </c>
+      <c r="AX385">
+        <v>1.49</v>
+      </c>
+      <c r="AY385">
+        <v>8</v>
+      </c>
+      <c r="AZ385">
+        <v>3.15</v>
+      </c>
+      <c r="BA385">
+        <v>1.29</v>
+      </c>
+      <c r="BB385">
+        <v>1.53</v>
+      </c>
+      <c r="BC385">
+        <v>1.9</v>
+      </c>
+      <c r="BD385">
+        <v>2.4</v>
+      </c>
+      <c r="BE385">
+        <v>3.15</v>
+      </c>
+      <c r="BF385">
+        <v>8</v>
+      </c>
+      <c r="BG385">
+        <v>6</v>
+      </c>
+      <c r="BH385">
+        <v>3</v>
+      </c>
+      <c r="BI385">
+        <v>5</v>
+      </c>
+      <c r="BJ385">
+        <v>11</v>
+      </c>
+      <c r="BK385">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:63">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>4926330</v>
+      </c>
+      <c r="C386" t="s">
+        <v>63</v>
+      </c>
+      <c r="D386" t="s">
+        <v>64</v>
+      </c>
+      <c r="E386" s="2">
+        <v>45171.97916666666</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386" t="s">
+        <v>93</v>
+      </c>
+      <c r="H386" t="s">
+        <v>92</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="M386">
+        <v>0</v>
+      </c>
+      <c r="N386">
+        <v>0</v>
+      </c>
+      <c r="O386" t="s">
+        <v>96</v>
+      </c>
+      <c r="P386" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q386">
+        <v>8</v>
+      </c>
+      <c r="R386">
+        <v>2</v>
+      </c>
+      <c r="S386">
+        <v>10</v>
+      </c>
+      <c r="T386">
+        <v>2.35</v>
+      </c>
+      <c r="U386">
+        <v>2.25</v>
+      </c>
+      <c r="V386">
+        <v>4.1</v>
+      </c>
+      <c r="W386">
+        <v>1.32</v>
+      </c>
+      <c r="X386">
+        <v>3.15</v>
+      </c>
+      <c r="Y386">
+        <v>2.45</v>
+      </c>
+      <c r="Z386">
+        <v>1.48</v>
+      </c>
+      <c r="AA386">
+        <v>6.25</v>
+      </c>
+      <c r="AB386">
+        <v>1.11</v>
+      </c>
+      <c r="AC386">
+        <v>1.91</v>
+      </c>
+      <c r="AD386">
+        <v>3.5</v>
+      </c>
+      <c r="AE386">
+        <v>3.9</v>
+      </c>
+      <c r="AF386">
+        <v>1.04</v>
+      </c>
+      <c r="AG386">
+        <v>14.5</v>
+      </c>
+      <c r="AH386">
+        <v>1.23</v>
+      </c>
+      <c r="AI386">
+        <v>4.25</v>
+      </c>
+      <c r="AJ386">
+        <v>1.67</v>
+      </c>
+      <c r="AK386">
+        <v>2.18</v>
+      </c>
+      <c r="AL386">
+        <v>1.65</v>
+      </c>
+      <c r="AM386">
+        <v>2.2</v>
+      </c>
+      <c r="AN386">
+        <v>1.25</v>
+      </c>
+      <c r="AO386">
+        <v>1.26</v>
+      </c>
+      <c r="AP386">
+        <v>1.94</v>
+      </c>
+      <c r="AQ386">
+        <v>1.55</v>
+      </c>
+      <c r="AR386">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS386">
+        <v>1.5</v>
+      </c>
+      <c r="AT386">
+        <v>0.71</v>
+      </c>
+      <c r="AU386">
+        <v>1.79</v>
+      </c>
+      <c r="AV386">
+        <v>1.21</v>
+      </c>
+      <c r="AW386">
+        <v>3</v>
+      </c>
+      <c r="AX386">
+        <v>1.58</v>
+      </c>
+      <c r="AY386">
+        <v>8</v>
+      </c>
+      <c r="AZ386">
+        <v>2.8</v>
+      </c>
+      <c r="BA386">
+        <v>1.23</v>
+      </c>
+      <c r="BB386">
+        <v>1.45</v>
+      </c>
+      <c r="BC386">
+        <v>1.89</v>
+      </c>
+      <c r="BD386">
+        <v>2.23</v>
+      </c>
+      <c r="BE386">
+        <v>2.9</v>
+      </c>
+      <c r="BF386">
+        <v>5</v>
+      </c>
+      <c r="BG386">
+        <v>4</v>
+      </c>
+      <c r="BH386">
+        <v>3</v>
+      </c>
+      <c r="BI386">
+        <v>5</v>
+      </c>
+      <c r="BJ386">
+        <v>8</v>
+      </c>
+      <c r="BK386">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="487">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1087,6 +1087,9 @@
     <t>['9', '30']</t>
   </si>
   <si>
+    <t>['29', '57', '58', '76']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1470,6 +1473,9 @@
   <si>
     <t>['67', '70']</t>
   </si>
+  <si>
+    <t>['14', '51', '83']</t>
+  </si>
 </sst>
 </file>
 
@@ -1830,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK386"/>
+  <dimension ref="A1:BK388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2265,7 +2271,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2647,7 +2653,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2838,7 +2844,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -3310,7 +3316,7 @@
         <v>1.69</v>
       </c>
       <c r="AT8">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3498,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT9">
         <v>0.92</v>
@@ -3602,7 +3608,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3793,7 +3799,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3984,7 +3990,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -4557,7 +4563,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4644,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT15">
         <v>0.64</v>
@@ -6085,7 +6091,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -7231,7 +7237,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -8085,7 +8091,7 @@
         <v>1.54</v>
       </c>
       <c r="AT33">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -8273,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT34">
         <v>0.85</v>
@@ -8849,7 +8855,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -9141,7 +9147,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9332,7 +9338,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9801,7 +9807,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT42">
         <v>1.08</v>
@@ -10287,7 +10293,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10669,7 +10675,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10860,7 +10866,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11051,7 +11057,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11332,7 +11338,7 @@
         <v>1.29</v>
       </c>
       <c r="AT50">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -11433,7 +11439,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11624,7 +11630,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -12197,7 +12203,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12770,7 +12776,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12857,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT58">
         <v>1.79</v>
@@ -12961,7 +12967,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -13152,7 +13158,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13343,7 +13349,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13433,7 +13439,7 @@
         <v>1.38</v>
       </c>
       <c r="AT61">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU61">
         <v>1.6</v>
@@ -13534,7 +13540,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -14107,7 +14113,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14489,7 +14495,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14680,7 +14686,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14871,7 +14877,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14958,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT69">
         <v>0.77</v>
@@ -15253,7 +15259,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15444,7 +15450,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15826,7 +15832,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -16298,7 +16304,7 @@
         <v>2.64</v>
       </c>
       <c r="AT76">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU76">
         <v>1.31</v>
@@ -16489,7 +16495,7 @@
         <v>1.93</v>
       </c>
       <c r="AT77">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU77">
         <v>2.05</v>
@@ -17250,7 +17256,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT81">
         <v>0.6899999999999999</v>
@@ -17545,7 +17551,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -18691,7 +18697,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19160,7 +19166,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT91">
         <v>0.86</v>
@@ -20983,7 +20989,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21174,7 +21180,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22320,7 +22326,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22893,7 +22899,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23084,7 +23090,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23747,7 +23753,7 @@
         <v>2.08</v>
       </c>
       <c r="AT115">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU115">
         <v>1.21</v>
@@ -23848,7 +23854,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24039,7 +24045,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -24230,7 +24236,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24421,7 +24427,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24508,7 +24514,7 @@
         <v>0.75</v>
       </c>
       <c r="AS119">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT119">
         <v>0.31</v>
@@ -24702,7 +24708,7 @@
         <v>2.23</v>
       </c>
       <c r="AT120">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU120">
         <v>1.28</v>
@@ -24803,7 +24809,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -26140,7 +26146,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26230,7 +26236,7 @@
         <v>2.36</v>
       </c>
       <c r="AT128">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU128">
         <v>1.75</v>
@@ -27095,7 +27101,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27286,7 +27292,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27567,7 +27573,7 @@
         <v>1.5</v>
       </c>
       <c r="AT135">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU135">
         <v>1.16</v>
@@ -27668,7 +27674,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -28814,7 +28820,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -30151,7 +30157,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30342,7 +30348,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30533,7 +30539,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30724,7 +30730,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -31297,7 +31303,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31488,7 +31494,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31679,7 +31685,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -32634,7 +32640,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32825,7 +32831,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -33016,7 +33022,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33870,7 +33876,7 @@
         <v>1.29</v>
       </c>
       <c r="AT168">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU168">
         <v>1.41</v>
@@ -34162,7 +34168,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34822,7 +34828,7 @@
         <v>1.17</v>
       </c>
       <c r="AS173">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT173">
         <v>1</v>
@@ -34926,7 +34932,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -35016,7 +35022,7 @@
         <v>2.08</v>
       </c>
       <c r="AT174">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU174">
         <v>1.55</v>
@@ -35499,7 +35505,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35586,7 +35592,7 @@
         <v>0.71</v>
       </c>
       <c r="AS177">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT177">
         <v>0.6899999999999999</v>
@@ -35690,7 +35696,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -36072,7 +36078,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36350,7 +36356,7 @@
         <v>1.67</v>
       </c>
       <c r="AS181">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT181">
         <v>1.08</v>
@@ -36454,7 +36460,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36836,7 +36842,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -37027,7 +37033,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37409,7 +37415,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37791,7 +37797,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38260,7 +38266,7 @@
         <v>0.33</v>
       </c>
       <c r="AS191">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT191">
         <v>0.77</v>
@@ -38364,7 +38370,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38746,7 +38752,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -39128,7 +39134,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39319,7 +39325,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39600,7 +39606,7 @@
         <v>2.08</v>
       </c>
       <c r="AT198">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU198">
         <v>1.31</v>
@@ -40274,7 +40280,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40465,7 +40471,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40937,7 +40943,7 @@
         <v>1.53</v>
       </c>
       <c r="AT205">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU205">
         <v>1.65</v>
@@ -41038,7 +41044,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -41229,7 +41235,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41420,7 +41426,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41611,7 +41617,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41889,7 +41895,7 @@
         <v>1.43</v>
       </c>
       <c r="AS210">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT210">
         <v>1</v>
@@ -42184,7 +42190,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42375,7 +42381,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42656,7 +42662,7 @@
         <v>1.25</v>
       </c>
       <c r="AT214">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU214">
         <v>1.34</v>
@@ -42948,7 +42954,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -43330,7 +43336,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43521,7 +43527,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -44181,7 +44187,7 @@
         <v>0.44</v>
       </c>
       <c r="AS222">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT222">
         <v>0.57</v>
@@ -44285,7 +44291,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44476,7 +44482,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44858,7 +44864,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -45049,7 +45055,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -45240,7 +45246,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -46004,7 +46010,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46473,7 +46479,7 @@
         <v>0.88</v>
       </c>
       <c r="AS234">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT234">
         <v>1.07</v>
@@ -46577,7 +46583,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -47150,7 +47156,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47240,7 +47246,7 @@
         <v>2.43</v>
       </c>
       <c r="AT238">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU238">
         <v>1.57</v>
@@ -47914,7 +47920,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -48105,7 +48111,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -49338,7 +49344,7 @@
         <v>0.25</v>
       </c>
       <c r="AS249">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT249">
         <v>0.71</v>
@@ -49442,7 +49448,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49633,7 +49639,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -50015,7 +50021,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -50206,7 +50212,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50588,7 +50594,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50779,7 +50785,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -51161,7 +51167,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51543,7 +51549,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51734,7 +51740,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -52012,7 +52018,7 @@
         <v>1.38</v>
       </c>
       <c r="AS263">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT263">
         <v>1.38</v>
@@ -52116,7 +52122,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52689,7 +52695,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52880,7 +52886,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -52967,10 +52973,10 @@
         <v>0.38</v>
       </c>
       <c r="AS268">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT268">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU268">
         <v>1.74</v>
@@ -54408,7 +54414,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54599,7 +54605,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54686,7 +54692,7 @@
         <v>0.43</v>
       </c>
       <c r="AS277">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT277">
         <v>1.08</v>
@@ -54981,7 +54987,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -55172,7 +55178,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55363,7 +55369,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55644,7 +55650,7 @@
         <v>2.36</v>
       </c>
       <c r="AT282">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU282">
         <v>1.9</v>
@@ -55745,7 +55751,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -57273,7 +57279,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57464,7 +57470,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -58037,7 +58043,7 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -58419,7 +58425,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -59374,7 +59380,7 @@
         <v>305</v>
       </c>
       <c r="P302" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q302">
         <v>6</v>
@@ -59464,7 +59470,7 @@
         <v>1.46</v>
       </c>
       <c r="AT302">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU302">
         <v>1.5</v>
@@ -59565,7 +59571,7 @@
         <v>96</v>
       </c>
       <c r="P303" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q303">
         <v>5</v>
@@ -59756,7 +59762,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60329,7 +60335,7 @@
         <v>306</v>
       </c>
       <c r="P307" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60520,7 +60526,7 @@
         <v>307</v>
       </c>
       <c r="P308" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q308">
         <v>14</v>
@@ -61284,7 +61290,7 @@
         <v>311</v>
       </c>
       <c r="P312" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61562,7 +61568,7 @@
         <v>0.6</v>
       </c>
       <c r="AS313">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT313">
         <v>0.77</v>
@@ -61666,7 +61672,7 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -61857,7 +61863,7 @@
         <v>313</v>
       </c>
       <c r="P315" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q315">
         <v>5</v>
@@ -62048,7 +62054,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q316">
         <v>9</v>
@@ -62239,7 +62245,7 @@
         <v>314</v>
       </c>
       <c r="P317" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -62430,7 +62436,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q318">
         <v>7</v>
@@ -63281,7 +63287,7 @@
         <v>1.6</v>
       </c>
       <c r="AS322">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT322">
         <v>1.23</v>
@@ -63767,7 +63773,7 @@
         <v>124</v>
       </c>
       <c r="P325" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q325">
         <v>7</v>
@@ -64236,7 +64242,7 @@
         <v>0.77</v>
       </c>
       <c r="AS327">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT327">
         <v>0.67</v>
@@ -65003,7 +65009,7 @@
         <v>2.21</v>
       </c>
       <c r="AT331">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU331">
         <v>1.64</v>
@@ -65194,7 +65200,7 @@
         <v>1.36</v>
       </c>
       <c r="AT332">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU332">
         <v>1.92</v>
@@ -65486,7 +65492,7 @@
         <v>325</v>
       </c>
       <c r="P334" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65677,7 +65683,7 @@
         <v>326</v>
       </c>
       <c r="P335" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65868,7 +65874,7 @@
         <v>327</v>
       </c>
       <c r="P336" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -66059,7 +66065,7 @@
         <v>328</v>
       </c>
       <c r="P337" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q337">
         <v>4</v>
@@ -66632,7 +66638,7 @@
         <v>96</v>
       </c>
       <c r="P340" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q340">
         <v>3</v>
@@ -66823,7 +66829,7 @@
         <v>330</v>
       </c>
       <c r="P341" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q341">
         <v>7</v>
@@ -67205,7 +67211,7 @@
         <v>287</v>
       </c>
       <c r="P343" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67396,7 +67402,7 @@
         <v>332</v>
       </c>
       <c r="P344" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q344">
         <v>2</v>
@@ -67587,7 +67593,7 @@
         <v>96</v>
       </c>
       <c r="P345" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q345">
         <v>6</v>
@@ -67778,7 +67784,7 @@
         <v>96</v>
       </c>
       <c r="P346" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q346">
         <v>8</v>
@@ -68056,7 +68062,7 @@
         <v>0.82</v>
       </c>
       <c r="AS347">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT347">
         <v>0.64</v>
@@ -69014,7 +69020,7 @@
         <v>1.57</v>
       </c>
       <c r="AT352">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU352">
         <v>1.54</v>
@@ -69306,7 +69312,7 @@
         <v>111</v>
       </c>
       <c r="P354" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q354">
         <v>7</v>
@@ -70070,7 +70076,7 @@
         <v>96</v>
       </c>
       <c r="P358" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q358">
         <v>5</v>
@@ -70261,7 +70267,7 @@
         <v>341</v>
       </c>
       <c r="P359" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q359">
         <v>6</v>
@@ -70834,7 +70840,7 @@
         <v>192</v>
       </c>
       <c r="P362" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q362">
         <v>6</v>
@@ -71688,7 +71694,7 @@
         <v>2.43</v>
       </c>
       <c r="AT366">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU366">
         <v>1.55</v>
@@ -71980,7 +71986,7 @@
         <v>345</v>
       </c>
       <c r="P368" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q368">
         <v>10</v>
@@ -72171,7 +72177,7 @@
         <v>157</v>
       </c>
       <c r="P369" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q369">
         <v>3</v>
@@ -72362,7 +72368,7 @@
         <v>96</v>
       </c>
       <c r="P370" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q370">
         <v>4</v>
@@ -72935,7 +72941,7 @@
         <v>320</v>
       </c>
       <c r="P373" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q373">
         <v>11</v>
@@ -73126,7 +73132,7 @@
         <v>348</v>
       </c>
       <c r="P374" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q374">
         <v>3</v>
@@ -73508,7 +73514,7 @@
         <v>349</v>
       </c>
       <c r="P376" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q376">
         <v>4</v>
@@ -73890,7 +73896,7 @@
         <v>96</v>
       </c>
       <c r="P378" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q378">
         <v>2</v>
@@ -74081,7 +74087,7 @@
         <v>351</v>
       </c>
       <c r="P379" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q379">
         <v>10</v>
@@ -74654,7 +74660,7 @@
         <v>169</v>
       </c>
       <c r="P382" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q382">
         <v>5</v>
@@ -75036,7 +75042,7 @@
         <v>355</v>
       </c>
       <c r="P384" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q384">
         <v>9</v>
@@ -75227,7 +75233,7 @@
         <v>356</v>
       </c>
       <c r="P385" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q385">
         <v>5</v>
@@ -75559,6 +75565,388 @@
         <v>8</v>
       </c>
       <c r="BK386">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:63">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>4926334</v>
+      </c>
+      <c r="C387" t="s">
+        <v>63</v>
+      </c>
+      <c r="D387" t="s">
+        <v>64</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45172.85416666666</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387" t="s">
+        <v>72</v>
+      </c>
+      <c r="H387" t="s">
+        <v>81</v>
+      </c>
+      <c r="I387">
+        <v>1</v>
+      </c>
+      <c r="J387">
+        <v>1</v>
+      </c>
+      <c r="K387">
+        <v>2</v>
+      </c>
+      <c r="L387">
+        <v>4</v>
+      </c>
+      <c r="M387">
+        <v>1</v>
+      </c>
+      <c r="N387">
+        <v>5</v>
+      </c>
+      <c r="O387" t="s">
+        <v>357</v>
+      </c>
+      <c r="P387" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q387">
+        <v>6</v>
+      </c>
+      <c r="R387">
+        <v>2</v>
+      </c>
+      <c r="S387">
+        <v>8</v>
+      </c>
+      <c r="T387">
+        <v>2.4</v>
+      </c>
+      <c r="U387">
+        <v>2.2</v>
+      </c>
+      <c r="V387">
+        <v>4.75</v>
+      </c>
+      <c r="W387">
+        <v>1.36</v>
+      </c>
+      <c r="X387">
+        <v>3</v>
+      </c>
+      <c r="Y387">
+        <v>2.75</v>
+      </c>
+      <c r="Z387">
+        <v>1.4</v>
+      </c>
+      <c r="AA387">
+        <v>8</v>
+      </c>
+      <c r="AB387">
+        <v>1.08</v>
+      </c>
+      <c r="AC387">
+        <v>1.9</v>
+      </c>
+      <c r="AD387">
+        <v>3.45</v>
+      </c>
+      <c r="AE387">
+        <v>3.8</v>
+      </c>
+      <c r="AF387">
+        <v>1.06</v>
+      </c>
+      <c r="AG387">
+        <v>11.5</v>
+      </c>
+      <c r="AH387">
+        <v>1.29</v>
+      </c>
+      <c r="AI387">
+        <v>3.62</v>
+      </c>
+      <c r="AJ387">
+        <v>1.99</v>
+      </c>
+      <c r="AK387">
+        <v>1.71</v>
+      </c>
+      <c r="AL387">
+        <v>1.8</v>
+      </c>
+      <c r="AM387">
+        <v>1.95</v>
+      </c>
+      <c r="AN387">
+        <v>1.22</v>
+      </c>
+      <c r="AO387">
+        <v>1.3</v>
+      </c>
+      <c r="AP387">
+        <v>1.95</v>
+      </c>
+      <c r="AQ387">
+        <v>2.36</v>
+      </c>
+      <c r="AR387">
+        <v>0.58</v>
+      </c>
+      <c r="AS387">
+        <v>2.42</v>
+      </c>
+      <c r="AT387">
+        <v>0.54</v>
+      </c>
+      <c r="AU387">
+        <v>1.6</v>
+      </c>
+      <c r="AV387">
+        <v>1.46</v>
+      </c>
+      <c r="AW387">
+        <v>3.06</v>
+      </c>
+      <c r="AX387">
+        <v>1.56</v>
+      </c>
+      <c r="AY387">
+        <v>8</v>
+      </c>
+      <c r="AZ387">
+        <v>2.9</v>
+      </c>
+      <c r="BA387">
+        <v>1.3</v>
+      </c>
+      <c r="BB387">
+        <v>1.58</v>
+      </c>
+      <c r="BC387">
+        <v>1.97</v>
+      </c>
+      <c r="BD387">
+        <v>2.5</v>
+      </c>
+      <c r="BE387">
+        <v>3.35</v>
+      </c>
+      <c r="BF387">
+        <v>7</v>
+      </c>
+      <c r="BG387">
+        <v>5</v>
+      </c>
+      <c r="BH387">
+        <v>2</v>
+      </c>
+      <c r="BI387">
+        <v>2</v>
+      </c>
+      <c r="BJ387">
+        <v>9</v>
+      </c>
+      <c r="BK387">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:63">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>4926331</v>
+      </c>
+      <c r="C388" t="s">
+        <v>63</v>
+      </c>
+      <c r="D388" t="s">
+        <v>64</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45172.95833333334</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388" t="s">
+        <v>78</v>
+      </c>
+      <c r="H388" t="s">
+        <v>70</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>1</v>
+      </c>
+      <c r="K388">
+        <v>1</v>
+      </c>
+      <c r="L388">
+        <v>1</v>
+      </c>
+      <c r="M388">
+        <v>3</v>
+      </c>
+      <c r="N388">
+        <v>4</v>
+      </c>
+      <c r="O388" t="s">
+        <v>121</v>
+      </c>
+      <c r="P388" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q388">
+        <v>10</v>
+      </c>
+      <c r="R388">
+        <v>2</v>
+      </c>
+      <c r="S388">
+        <v>12</v>
+      </c>
+      <c r="T388">
+        <v>2.75</v>
+      </c>
+      <c r="U388">
+        <v>2.3</v>
+      </c>
+      <c r="V388">
+        <v>3.5</v>
+      </c>
+      <c r="W388">
+        <v>1.3</v>
+      </c>
+      <c r="X388">
+        <v>3.4</v>
+      </c>
+      <c r="Y388">
+        <v>2.5</v>
+      </c>
+      <c r="Z388">
+        <v>1.5</v>
+      </c>
+      <c r="AA388">
+        <v>6</v>
+      </c>
+      <c r="AB388">
+        <v>1.13</v>
+      </c>
+      <c r="AC388">
+        <v>2</v>
+      </c>
+      <c r="AD388">
+        <v>3.7</v>
+      </c>
+      <c r="AE388">
+        <v>3.35</v>
+      </c>
+      <c r="AF388">
+        <v>1.05</v>
+      </c>
+      <c r="AG388">
+        <v>9.5</v>
+      </c>
+      <c r="AH388">
+        <v>1.22</v>
+      </c>
+      <c r="AI388">
+        <v>4.2</v>
+      </c>
+      <c r="AJ388">
+        <v>1.67</v>
+      </c>
+      <c r="AK388">
+        <v>2.1</v>
+      </c>
+      <c r="AL388">
+        <v>1.53</v>
+      </c>
+      <c r="AM388">
+        <v>2.38</v>
+      </c>
+      <c r="AN388">
+        <v>1.36</v>
+      </c>
+      <c r="AO388">
+        <v>1.25</v>
+      </c>
+      <c r="AP388">
+        <v>1.65</v>
+      </c>
+      <c r="AQ388">
+        <v>2.08</v>
+      </c>
+      <c r="AR388">
+        <v>0.58</v>
+      </c>
+      <c r="AS388">
+        <v>1.93</v>
+      </c>
+      <c r="AT388">
+        <v>0.77</v>
+      </c>
+      <c r="AU388">
+        <v>1.9</v>
+      </c>
+      <c r="AV388">
+        <v>1.27</v>
+      </c>
+      <c r="AW388">
+        <v>3.17</v>
+      </c>
+      <c r="AX388">
+        <v>1.68</v>
+      </c>
+      <c r="AY388">
+        <v>7.5</v>
+      </c>
+      <c r="AZ388">
+        <v>2.55</v>
+      </c>
+      <c r="BA388">
+        <v>1.27</v>
+      </c>
+      <c r="BB388">
+        <v>1.5</v>
+      </c>
+      <c r="BC388">
+        <v>1.88</v>
+      </c>
+      <c r="BD388">
+        <v>2.38</v>
+      </c>
+      <c r="BE388">
+        <v>3.15</v>
+      </c>
+      <c r="BF388">
+        <v>7</v>
+      </c>
+      <c r="BG388">
+        <v>7</v>
+      </c>
+      <c r="BH388">
+        <v>11</v>
+      </c>
+      <c r="BI388">
+        <v>2</v>
+      </c>
+      <c r="BJ388">
+        <v>18</v>
+      </c>
+      <c r="BK388">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="490">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1090,6 +1090,15 @@
     <t>['29', '57', '58', '76']</t>
   </si>
   <si>
+    <t>['25', '45', '60']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['28', '53']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1256,9 +1265,6 @@
   </si>
   <si>
     <t>['29']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -1475,6 +1481,9 @@
   </si>
   <si>
     <t>['14', '51', '83']</t>
+  </si>
+  <si>
+    <t>['9', '78']</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK388"/>
+  <dimension ref="A1:BK392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2271,7 +2280,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2361,7 +2370,7 @@
         <v>1.93</v>
       </c>
       <c r="AT3">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2653,7 +2662,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2844,7 +2853,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2931,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT6">
         <v>0.31</v>
@@ -3122,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT7">
         <v>0.57</v>
@@ -3608,7 +3617,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3799,7 +3808,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3990,7 +3999,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -4459,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT14">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4563,7 +4572,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -5223,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT18">
         <v>1.21</v>
@@ -6091,7 +6100,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6754,7 +6763,7 @@
         <v>0.83</v>
       </c>
       <c r="AT26">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -7237,7 +7246,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7897,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT32">
         <v>1.79</v>
@@ -8852,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT37">
         <v>0.54</v>
@@ -9147,7 +9156,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9338,7 +9347,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9425,7 +9434,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT40">
         <v>1.23</v>
@@ -10001,7 +10010,7 @@
         <v>1.53</v>
       </c>
       <c r="AT43">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>2</v>
@@ -10293,7 +10302,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10675,7 +10684,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10866,7 +10875,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11057,7 +11066,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11439,7 +11448,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11630,7 +11639,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11720,7 +11729,7 @@
         <v>1.85</v>
       </c>
       <c r="AT52">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU52">
         <v>1.33</v>
@@ -12102,7 +12111,7 @@
         <v>2.21</v>
       </c>
       <c r="AT54">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU54">
         <v>1.38</v>
@@ -12203,7 +12212,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12672,7 +12681,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT57">
         <v>0.85</v>
@@ -12776,7 +12785,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12967,7 +12976,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -13054,7 +13063,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT59">
         <v>1.08</v>
@@ -13158,7 +13167,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13245,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
         <v>0.85</v>
@@ -13349,7 +13358,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13540,7 +13549,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -14113,7 +14122,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14391,7 +14400,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT66">
         <v>1.08</v>
@@ -14495,7 +14504,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14686,7 +14695,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14877,7 +14886,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -15259,7 +15268,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15450,7 +15459,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15832,7 +15841,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -17259,7 +17268,7 @@
         <v>2.42</v>
       </c>
       <c r="AT81">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -17450,7 +17459,7 @@
         <v>0.83</v>
       </c>
       <c r="AT82">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.36</v>
@@ -17551,7 +17560,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -18402,7 +18411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT87">
         <v>0.77</v>
@@ -18596,7 +18605,7 @@
         <v>1.57</v>
       </c>
       <c r="AT88">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU88">
         <v>1.29</v>
@@ -18697,7 +18706,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18784,7 +18793,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT89">
         <v>0.92</v>
@@ -20989,7 +20998,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21180,7 +21189,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22326,7 +22335,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22413,7 +22422,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT108">
         <v>1.79</v>
@@ -22604,7 +22613,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT109">
         <v>1.38</v>
@@ -22798,7 +22807,7 @@
         <v>1.86</v>
       </c>
       <c r="AT110">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU110">
         <v>1.56</v>
@@ -22899,7 +22908,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23090,7 +23099,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23180,7 +23189,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU112">
         <v>2.2</v>
@@ -23854,7 +23863,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23944,7 +23953,7 @@
         <v>2.43</v>
       </c>
       <c r="AT116">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU116">
         <v>1.46</v>
@@ -24045,7 +24054,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -24236,7 +24245,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24427,7 +24436,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24809,7 +24818,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24899,7 +24908,7 @@
         <v>2.08</v>
       </c>
       <c r="AT121">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <v>1.3</v>
@@ -25090,7 +25099,7 @@
         <v>1.36</v>
       </c>
       <c r="AT122">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26146,7 +26155,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26424,7 +26433,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -27101,7 +27110,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27292,7 +27301,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27674,7 +27683,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27764,7 +27773,7 @@
         <v>1.62</v>
       </c>
       <c r="AT136">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU136">
         <v>1.44</v>
@@ -28334,7 +28343,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT139">
         <v>0.77</v>
@@ -28719,7 +28728,7 @@
         <v>1.86</v>
       </c>
       <c r="AT141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU141">
         <v>1.54</v>
@@ -28820,7 +28829,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -29289,7 +29298,7 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT144">
         <v>1.07</v>
@@ -30157,7 +30166,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30348,7 +30357,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30539,7 +30548,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30626,7 +30635,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT151">
         <v>0.86</v>
@@ -30730,7 +30739,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30820,7 +30829,7 @@
         <v>1.53</v>
       </c>
       <c r="AT152">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU152">
         <v>1.67</v>
@@ -31303,7 +31312,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31494,7 +31503,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31685,7 +31694,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31772,7 +31781,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT157">
         <v>0.93</v>
@@ -31963,7 +31972,7 @@
         <v>2</v>
       </c>
       <c r="AS158">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT158">
         <v>1.08</v>
@@ -32640,7 +32649,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32831,7 +32840,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -33022,7 +33031,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33112,7 +33121,7 @@
         <v>1.36</v>
       </c>
       <c r="AT164">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU164">
         <v>1.78</v>
@@ -33300,7 +33309,7 @@
         <v>0.75</v>
       </c>
       <c r="AS165">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT165">
         <v>1.08</v>
@@ -33494,7 +33503,7 @@
         <v>1.5</v>
       </c>
       <c r="AT166">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU166">
         <v>2</v>
@@ -34168,7 +34177,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34932,7 +34941,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -35210,7 +35219,7 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT175">
         <v>0.71</v>
@@ -35505,7 +35514,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35595,7 +35604,7 @@
         <v>1.93</v>
       </c>
       <c r="AT177">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU177">
         <v>1.99</v>
@@ -35696,7 +35705,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -36078,7 +36087,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36460,7 +36469,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36547,7 +36556,7 @@
         <v>1.6</v>
       </c>
       <c r="AS182">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT182">
         <v>1.79</v>
@@ -36738,7 +36747,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT183">
         <v>0.85</v>
@@ -36842,7 +36851,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -37033,7 +37042,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37415,7 +37424,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37797,7 +37806,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38078,7 +38087,7 @@
         <v>2.21</v>
       </c>
       <c r="AT190">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU190">
         <v>1.53</v>
@@ -38269,7 +38278,7 @@
         <v>1.93</v>
       </c>
       <c r="AT191">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU191">
         <v>1.97</v>
@@ -38370,7 +38379,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38457,7 +38466,7 @@
         <v>1.29</v>
       </c>
       <c r="AS192">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT192">
         <v>1.43</v>
@@ -38752,7 +38761,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -39134,7 +39143,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39325,7 +39334,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39985,7 +39994,7 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT200">
         <v>1.62</v>
@@ -40280,7 +40289,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40471,7 +40480,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -41044,7 +41053,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -41235,7 +41244,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41426,7 +41435,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41617,7 +41626,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -42190,7 +42199,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42277,7 +42286,7 @@
         <v>0.38</v>
       </c>
       <c r="AS212">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT212">
         <v>0.57</v>
@@ -42381,7 +42390,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42659,7 +42668,7 @@
         <v>0.5</v>
       </c>
       <c r="AS214">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT214">
         <v>0.54</v>
@@ -42954,7 +42963,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -43336,7 +43345,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43426,7 +43435,7 @@
         <v>1.53</v>
       </c>
       <c r="AT218">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU218">
         <v>1.57</v>
@@ -43527,7 +43536,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -44291,7 +44300,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44482,7 +44491,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44569,7 +44578,7 @@
         <v>1</v>
       </c>
       <c r="AS224">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT224">
         <v>1</v>
@@ -44864,7 +44873,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -45055,7 +45064,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -45246,7 +45255,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45524,7 +45533,7 @@
         <v>0.43</v>
       </c>
       <c r="AS229">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT229">
         <v>0.31</v>
@@ -45909,7 +45918,7 @@
         <v>0.83</v>
       </c>
       <c r="AT231">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU231">
         <v>1.58</v>
@@ -46010,7 +46019,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46100,7 +46109,7 @@
         <v>1.79</v>
       </c>
       <c r="AT232">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU232">
         <v>2</v>
@@ -46583,7 +46592,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -47156,7 +47165,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47819,7 +47828,7 @@
         <v>2.23</v>
       </c>
       <c r="AT241">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU241">
         <v>1.31</v>
@@ -47920,7 +47929,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -48111,7 +48120,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -49153,7 +49162,7 @@
         <v>1.13</v>
       </c>
       <c r="AS248">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT248">
         <v>0.77</v>
@@ -49448,7 +49457,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49639,7 +49648,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49726,7 +49735,7 @@
         <v>1.38</v>
       </c>
       <c r="AS251">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT251">
         <v>1.62</v>
@@ -50021,7 +50030,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -50111,7 +50120,7 @@
         <v>1.64</v>
       </c>
       <c r="AT253">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU253">
         <v>1.69</v>
@@ -50212,7 +50221,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50594,7 +50603,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50785,7 +50794,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -51167,7 +51176,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51549,7 +51558,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51639,7 +51648,7 @@
         <v>2.23</v>
       </c>
       <c r="AT261">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU261">
         <v>1.33</v>
@@ -51740,7 +51749,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -52122,7 +52131,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52212,7 +52221,7 @@
         <v>1.5</v>
       </c>
       <c r="AT264">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU264">
         <v>1.93</v>
@@ -52400,7 +52409,7 @@
         <v>0.63</v>
       </c>
       <c r="AS265">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT265">
         <v>0.85</v>
@@ -52695,7 +52704,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52886,7 +52895,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -53164,7 +53173,7 @@
         <v>1.63</v>
       </c>
       <c r="AS269">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT269">
         <v>1.54</v>
@@ -54414,7 +54423,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54605,7 +54614,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54987,7 +54996,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -55178,7 +55187,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55265,7 +55274,7 @@
         <v>0.5</v>
       </c>
       <c r="AS280">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT280">
         <v>0.67</v>
@@ -55369,7 +55378,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55456,7 +55465,7 @@
         <v>0.88</v>
       </c>
       <c r="AS281">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT281">
         <v>0.86</v>
@@ -55751,7 +55760,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -56605,7 +56614,7 @@
         <v>1.85</v>
       </c>
       <c r="AT287">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU287">
         <v>1.33</v>
@@ -56793,7 +56802,7 @@
         <v>0.7</v>
       </c>
       <c r="AS288">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT288">
         <v>0.64</v>
@@ -57279,7 +57288,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57470,7 +57479,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -58043,7 +58052,7 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -58130,7 +58139,7 @@
         <v>0.89</v>
       </c>
       <c r="AS295">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT295">
         <v>0.92</v>
@@ -58425,7 +58434,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -58706,7 +58715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT298">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU298">
         <v>1.81</v>
@@ -59380,7 +59389,7 @@
         <v>305</v>
       </c>
       <c r="P302" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q302">
         <v>6</v>
@@ -59467,7 +59476,7 @@
         <v>0.33</v>
       </c>
       <c r="AS302">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT302">
         <v>0.77</v>
@@ -59571,7 +59580,7 @@
         <v>96</v>
       </c>
       <c r="P303" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q303">
         <v>5</v>
@@ -59762,7 +59771,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60335,7 +60344,7 @@
         <v>306</v>
       </c>
       <c r="P307" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60425,7 +60434,7 @@
         <v>2.23</v>
       </c>
       <c r="AT307">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU307">
         <v>1.35</v>
@@ -60526,7 +60535,7 @@
         <v>307</v>
       </c>
       <c r="P308" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q308">
         <v>14</v>
@@ -60613,7 +60622,7 @@
         <v>0.89</v>
       </c>
       <c r="AS308">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT308">
         <v>0.86</v>
@@ -61290,7 +61299,7 @@
         <v>311</v>
       </c>
       <c r="P312" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61571,7 +61580,7 @@
         <v>1.93</v>
       </c>
       <c r="AT313">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU313">
         <v>1.95</v>
@@ -61672,7 +61681,7 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -61863,7 +61872,7 @@
         <v>313</v>
       </c>
       <c r="P315" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="Q315">
         <v>5</v>
@@ -62054,7 +62063,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q316">
         <v>9</v>
@@ -62245,7 +62254,7 @@
         <v>314</v>
       </c>
       <c r="P317" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -62436,7 +62445,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q318">
         <v>7</v>
@@ -63773,7 +63782,7 @@
         <v>124</v>
       </c>
       <c r="P325" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q325">
         <v>7</v>
@@ -64433,10 +64442,10 @@
         <v>1.2</v>
       </c>
       <c r="AS328">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT328">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU328">
         <v>1.7</v>
@@ -65492,7 +65501,7 @@
         <v>325</v>
       </c>
       <c r="P334" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65582,7 +65591,7 @@
         <v>1.62</v>
       </c>
       <c r="AT334">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU334">
         <v>1.53</v>
@@ -65683,7 +65692,7 @@
         <v>326</v>
       </c>
       <c r="P335" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65770,7 +65779,7 @@
         <v>0.9</v>
       </c>
       <c r="AS335">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT335">
         <v>0.92</v>
@@ -65874,7 +65883,7 @@
         <v>327</v>
       </c>
       <c r="P336" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -66065,7 +66074,7 @@
         <v>328</v>
       </c>
       <c r="P337" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q337">
         <v>4</v>
@@ -66638,7 +66647,7 @@
         <v>96</v>
       </c>
       <c r="P340" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q340">
         <v>3</v>
@@ -66829,7 +66838,7 @@
         <v>330</v>
       </c>
       <c r="P341" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q341">
         <v>7</v>
@@ -67211,7 +67220,7 @@
         <v>287</v>
       </c>
       <c r="P343" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67402,7 +67411,7 @@
         <v>332</v>
       </c>
       <c r="P344" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q344">
         <v>2</v>
@@ -67593,7 +67602,7 @@
         <v>96</v>
       </c>
       <c r="P345" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q345">
         <v>6</v>
@@ -67683,7 +67692,7 @@
         <v>1.79</v>
       </c>
       <c r="AT345">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU345">
         <v>1.79</v>
@@ -67784,7 +67793,7 @@
         <v>96</v>
       </c>
       <c r="P346" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q346">
         <v>8</v>
@@ -68638,7 +68647,7 @@
         <v>1.38</v>
       </c>
       <c r="AT350">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU350">
         <v>1.28</v>
@@ -69312,7 +69321,7 @@
         <v>111</v>
       </c>
       <c r="P354" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q354">
         <v>7</v>
@@ -69399,7 +69408,7 @@
         <v>1.17</v>
       </c>
       <c r="AS354">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT354">
         <v>1.21</v>
@@ -69784,7 +69793,7 @@
         <v>1.64</v>
       </c>
       <c r="AT356">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU356">
         <v>1.7</v>
@@ -70076,7 +70085,7 @@
         <v>96</v>
       </c>
       <c r="P358" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q358">
         <v>5</v>
@@ -70267,7 +70276,7 @@
         <v>341</v>
       </c>
       <c r="P359" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q359">
         <v>6</v>
@@ -70354,7 +70363,7 @@
         <v>0.67</v>
       </c>
       <c r="AS359">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT359">
         <v>1.08</v>
@@ -70736,7 +70745,7 @@
         <v>1.27</v>
       </c>
       <c r="AS361">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT361">
         <v>1.38</v>
@@ -70840,7 +70849,7 @@
         <v>192</v>
       </c>
       <c r="P362" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q362">
         <v>6</v>
@@ -71118,7 +71127,7 @@
         <v>0.92</v>
       </c>
       <c r="AS363">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT363">
         <v>0.93</v>
@@ -71986,7 +71995,7 @@
         <v>345</v>
       </c>
       <c r="P368" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q368">
         <v>10</v>
@@ -72177,7 +72186,7 @@
         <v>157</v>
       </c>
       <c r="P369" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q369">
         <v>3</v>
@@ -72368,7 +72377,7 @@
         <v>96</v>
       </c>
       <c r="P370" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q370">
         <v>4</v>
@@ -72837,7 +72846,7 @@
         <v>0.75</v>
       </c>
       <c r="AS372">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT372">
         <v>0.64</v>
@@ -72941,7 +72950,7 @@
         <v>320</v>
       </c>
       <c r="P373" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q373">
         <v>11</v>
@@ -73132,7 +73141,7 @@
         <v>348</v>
       </c>
       <c r="P374" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q374">
         <v>3</v>
@@ -73219,7 +73228,7 @@
         <v>1.75</v>
       </c>
       <c r="AS374">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT374">
         <v>1.62</v>
@@ -73514,7 +73523,7 @@
         <v>349</v>
       </c>
       <c r="P376" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q376">
         <v>4</v>
@@ -73792,7 +73801,7 @@
         <v>0.92</v>
       </c>
       <c r="AS377">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT377">
         <v>0.85</v>
@@ -73896,7 +73905,7 @@
         <v>96</v>
       </c>
       <c r="P378" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q378">
         <v>2</v>
@@ -74087,7 +74096,7 @@
         <v>351</v>
       </c>
       <c r="P379" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q379">
         <v>10</v>
@@ -74660,7 +74669,7 @@
         <v>169</v>
       </c>
       <c r="P382" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="Q382">
         <v>5</v>
@@ -75042,7 +75051,7 @@
         <v>355</v>
       </c>
       <c r="P384" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q384">
         <v>9</v>
@@ -75233,7 +75242,7 @@
         <v>356</v>
       </c>
       <c r="P385" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q385">
         <v>5</v>
@@ -75615,7 +75624,7 @@
         <v>357</v>
       </c>
       <c r="P387" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q387">
         <v>6</v>
@@ -75806,7 +75815,7 @@
         <v>121</v>
       </c>
       <c r="P388" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q388">
         <v>10</v>
@@ -75948,6 +75957,770 @@
       </c>
       <c r="BK388">
         <v>9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:63">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>4926335</v>
+      </c>
+      <c r="C389" t="s">
+        <v>63</v>
+      </c>
+      <c r="D389" t="s">
+        <v>64</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45178.85416666666</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389" t="s">
+        <v>69</v>
+      </c>
+      <c r="H389" t="s">
+        <v>85</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
+      <c r="O389" t="s">
+        <v>96</v>
+      </c>
+      <c r="P389" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q389">
+        <v>7</v>
+      </c>
+      <c r="R389">
+        <v>5</v>
+      </c>
+      <c r="S389">
+        <v>12</v>
+      </c>
+      <c r="T389">
+        <v>2.38</v>
+      </c>
+      <c r="U389">
+        <v>2.3</v>
+      </c>
+      <c r="V389">
+        <v>4.5</v>
+      </c>
+      <c r="W389">
+        <v>1.33</v>
+      </c>
+      <c r="X389">
+        <v>3.25</v>
+      </c>
+      <c r="Y389">
+        <v>2.63</v>
+      </c>
+      <c r="Z389">
+        <v>1.44</v>
+      </c>
+      <c r="AA389">
+        <v>6.5</v>
+      </c>
+      <c r="AB389">
+        <v>1.11</v>
+      </c>
+      <c r="AC389">
+        <v>1.75</v>
+      </c>
+      <c r="AD389">
+        <v>3.5</v>
+      </c>
+      <c r="AE389">
+        <v>4</v>
+      </c>
+      <c r="AF389">
+        <v>1.02</v>
+      </c>
+      <c r="AG389">
+        <v>10</v>
+      </c>
+      <c r="AH389">
+        <v>1.22</v>
+      </c>
+      <c r="AI389">
+        <v>3.8</v>
+      </c>
+      <c r="AJ389">
+        <v>1.7</v>
+      </c>
+      <c r="AK389">
+        <v>2.05</v>
+      </c>
+      <c r="AL389">
+        <v>1.7</v>
+      </c>
+      <c r="AM389">
+        <v>2.05</v>
+      </c>
+      <c r="AN389">
+        <v>1.22</v>
+      </c>
+      <c r="AO389">
+        <v>1.29</v>
+      </c>
+      <c r="AP389">
+        <v>2</v>
+      </c>
+      <c r="AQ389">
+        <v>1.46</v>
+      </c>
+      <c r="AR389">
+        <v>0.77</v>
+      </c>
+      <c r="AS389">
+        <v>1.43</v>
+      </c>
+      <c r="AT389">
+        <v>0.79</v>
+      </c>
+      <c r="AU389">
+        <v>1.53</v>
+      </c>
+      <c r="AV389">
+        <v>1.1</v>
+      </c>
+      <c r="AW389">
+        <v>2.63</v>
+      </c>
+      <c r="AX389">
+        <v>1.55</v>
+      </c>
+      <c r="AY389">
+        <v>8</v>
+      </c>
+      <c r="AZ389">
+        <v>2.9</v>
+      </c>
+      <c r="BA389">
+        <v>1.29</v>
+      </c>
+      <c r="BB389">
+        <v>1.54</v>
+      </c>
+      <c r="BC389">
+        <v>1.93</v>
+      </c>
+      <c r="BD389">
+        <v>2.4</v>
+      </c>
+      <c r="BE389">
+        <v>3.15</v>
+      </c>
+      <c r="BF389">
+        <v>10</v>
+      </c>
+      <c r="BG389">
+        <v>4</v>
+      </c>
+      <c r="BH389">
+        <v>10</v>
+      </c>
+      <c r="BI389">
+        <v>8</v>
+      </c>
+      <c r="BJ389">
+        <v>20</v>
+      </c>
+      <c r="BK389">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:63">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>4926336</v>
+      </c>
+      <c r="C390" t="s">
+        <v>63</v>
+      </c>
+      <c r="D390" t="s">
+        <v>64</v>
+      </c>
+      <c r="E390" s="2">
+        <v>45178.85416666666</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390" t="s">
+        <v>70</v>
+      </c>
+      <c r="H390" t="s">
+        <v>88</v>
+      </c>
+      <c r="I390">
+        <v>2</v>
+      </c>
+      <c r="J390">
+        <v>1</v>
+      </c>
+      <c r="K390">
+        <v>3</v>
+      </c>
+      <c r="L390">
+        <v>3</v>
+      </c>
+      <c r="M390">
+        <v>2</v>
+      </c>
+      <c r="N390">
+        <v>5</v>
+      </c>
+      <c r="O390" t="s">
+        <v>358</v>
+      </c>
+      <c r="P390" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q390">
+        <v>2</v>
+      </c>
+      <c r="R390">
+        <v>7</v>
+      </c>
+      <c r="S390">
+        <v>9</v>
+      </c>
+      <c r="T390">
+        <v>2.75</v>
+      </c>
+      <c r="U390">
+        <v>2.38</v>
+      </c>
+      <c r="V390">
+        <v>3.4</v>
+      </c>
+      <c r="W390">
+        <v>1.29</v>
+      </c>
+      <c r="X390">
+        <v>3.5</v>
+      </c>
+      <c r="Y390">
+        <v>2.38</v>
+      </c>
+      <c r="Z390">
+        <v>1.53</v>
+      </c>
+      <c r="AA390">
+        <v>5.5</v>
+      </c>
+      <c r="AB390">
+        <v>1.14</v>
+      </c>
+      <c r="AC390">
+        <v>2</v>
+      </c>
+      <c r="AD390">
+        <v>3.4</v>
+      </c>
+      <c r="AE390">
+        <v>3.1</v>
+      </c>
+      <c r="AF390">
+        <v>1.02</v>
+      </c>
+      <c r="AG390">
+        <v>19</v>
+      </c>
+      <c r="AH390">
+        <v>1.18</v>
+      </c>
+      <c r="AI390">
+        <v>4.75</v>
+      </c>
+      <c r="AJ390">
+        <v>1.58</v>
+      </c>
+      <c r="AK390">
+        <v>2.33</v>
+      </c>
+      <c r="AL390">
+        <v>1.53</v>
+      </c>
+      <c r="AM390">
+        <v>2.38</v>
+      </c>
+      <c r="AN390">
+        <v>1.38</v>
+      </c>
+      <c r="AO390">
+        <v>1.26</v>
+      </c>
+      <c r="AP390">
+        <v>1.69</v>
+      </c>
+      <c r="AQ390">
+        <v>1.25</v>
+      </c>
+      <c r="AR390">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS390">
+        <v>1.38</v>
+      </c>
+      <c r="AT390">
+        <v>0.64</v>
+      </c>
+      <c r="AU390">
+        <v>1.32</v>
+      </c>
+      <c r="AV390">
+        <v>1.38</v>
+      </c>
+      <c r="AW390">
+        <v>2.7</v>
+      </c>
+      <c r="AX390">
+        <v>1.85</v>
+      </c>
+      <c r="AY390">
+        <v>7</v>
+      </c>
+      <c r="AZ390">
+        <v>2.28</v>
+      </c>
+      <c r="BA390">
+        <v>1.28</v>
+      </c>
+      <c r="BB390">
+        <v>1.53</v>
+      </c>
+      <c r="BC390">
+        <v>1.91</v>
+      </c>
+      <c r="BD390">
+        <v>2.43</v>
+      </c>
+      <c r="BE390">
+        <v>3.25</v>
+      </c>
+      <c r="BF390">
+        <v>6</v>
+      </c>
+      <c r="BG390">
+        <v>6</v>
+      </c>
+      <c r="BH390">
+        <v>2</v>
+      </c>
+      <c r="BI390">
+        <v>7</v>
+      </c>
+      <c r="BJ390">
+        <v>8</v>
+      </c>
+      <c r="BK390">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:63">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>4926200</v>
+      </c>
+      <c r="C391" t="s">
+        <v>63</v>
+      </c>
+      <c r="D391" t="s">
+        <v>64</v>
+      </c>
+      <c r="E391" s="2">
+        <v>45178.89583333334</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391" t="s">
+        <v>89</v>
+      </c>
+      <c r="H391" t="s">
+        <v>80</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>1</v>
+      </c>
+      <c r="K391">
+        <v>1</v>
+      </c>
+      <c r="L391">
+        <v>1</v>
+      </c>
+      <c r="M391">
+        <v>1</v>
+      </c>
+      <c r="N391">
+        <v>2</v>
+      </c>
+      <c r="O391" t="s">
+        <v>359</v>
+      </c>
+      <c r="P391" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q391">
+        <v>15</v>
+      </c>
+      <c r="R391">
+        <v>1</v>
+      </c>
+      <c r="S391">
+        <v>16</v>
+      </c>
+      <c r="T391">
+        <v>2.4</v>
+      </c>
+      <c r="U391">
+        <v>2.4</v>
+      </c>
+      <c r="V391">
+        <v>4</v>
+      </c>
+      <c r="W391">
+        <v>1.29</v>
+      </c>
+      <c r="X391">
+        <v>3.5</v>
+      </c>
+      <c r="Y391">
+        <v>2.25</v>
+      </c>
+      <c r="Z391">
+        <v>1.57</v>
+      </c>
+      <c r="AA391">
+        <v>5.5</v>
+      </c>
+      <c r="AB391">
+        <v>1.14</v>
+      </c>
+      <c r="AC391">
+        <v>1.83</v>
+      </c>
+      <c r="AD391">
+        <v>3.5</v>
+      </c>
+      <c r="AE391">
+        <v>3.5</v>
+      </c>
+      <c r="AF391">
+        <v>1.02</v>
+      </c>
+      <c r="AG391">
+        <v>17</v>
+      </c>
+      <c r="AH391">
+        <v>1.18</v>
+      </c>
+      <c r="AI391">
+        <v>4.75</v>
+      </c>
+      <c r="AJ391">
+        <v>1.57</v>
+      </c>
+      <c r="AK391">
+        <v>2.3</v>
+      </c>
+      <c r="AL391">
+        <v>1.53</v>
+      </c>
+      <c r="AM391">
+        <v>2.38</v>
+      </c>
+      <c r="AN391">
+        <v>1.28</v>
+      </c>
+      <c r="AO391">
+        <v>1.24</v>
+      </c>
+      <c r="AP391">
+        <v>1.87</v>
+      </c>
+      <c r="AQ391">
+        <v>1.33</v>
+      </c>
+      <c r="AR391">
+        <v>1.08</v>
+      </c>
+      <c r="AS391">
+        <v>1.31</v>
+      </c>
+      <c r="AT391">
+        <v>1.08</v>
+      </c>
+      <c r="AU391">
+        <v>1.69</v>
+      </c>
+      <c r="AV391">
+        <v>1.18</v>
+      </c>
+      <c r="AW391">
+        <v>2.87</v>
+      </c>
+      <c r="AX391">
+        <v>1.64</v>
+      </c>
+      <c r="AY391">
+        <v>7.5</v>
+      </c>
+      <c r="AZ391">
+        <v>2.65</v>
+      </c>
+      <c r="BA391">
+        <v>1.26</v>
+      </c>
+      <c r="BB391">
+        <v>1.48</v>
+      </c>
+      <c r="BC391">
+        <v>1.84</v>
+      </c>
+      <c r="BD391">
+        <v>2.32</v>
+      </c>
+      <c r="BE391">
+        <v>3.05</v>
+      </c>
+      <c r="BF391">
+        <v>8</v>
+      </c>
+      <c r="BG391">
+        <v>5</v>
+      </c>
+      <c r="BH391">
+        <v>14</v>
+      </c>
+      <c r="BI391">
+        <v>3</v>
+      </c>
+      <c r="BJ391">
+        <v>22</v>
+      </c>
+      <c r="BK391">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:63">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>4926337</v>
+      </c>
+      <c r="C392" t="s">
+        <v>63</v>
+      </c>
+      <c r="D392" t="s">
+        <v>64</v>
+      </c>
+      <c r="E392" s="2">
+        <v>45178.97916666666</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392" t="s">
+        <v>77</v>
+      </c>
+      <c r="H392" t="s">
+        <v>78</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>1</v>
+      </c>
+      <c r="L392">
+        <v>2</v>
+      </c>
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>2</v>
+      </c>
+      <c r="O392" t="s">
+        <v>360</v>
+      </c>
+      <c r="P392" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q392">
+        <v>6</v>
+      </c>
+      <c r="R392">
+        <v>1</v>
+      </c>
+      <c r="S392">
+        <v>7</v>
+      </c>
+      <c r="T392">
+        <v>3.4</v>
+      </c>
+      <c r="U392">
+        <v>2.38</v>
+      </c>
+      <c r="V392">
+        <v>2.75</v>
+      </c>
+      <c r="W392">
+        <v>1.29</v>
+      </c>
+      <c r="X392">
+        <v>3.5</v>
+      </c>
+      <c r="Y392">
+        <v>2.25</v>
+      </c>
+      <c r="Z392">
+        <v>1.57</v>
+      </c>
+      <c r="AA392">
+        <v>5.5</v>
+      </c>
+      <c r="AB392">
+        <v>1.14</v>
+      </c>
+      <c r="AC392">
+        <v>2.7</v>
+      </c>
+      <c r="AD392">
+        <v>3.25</v>
+      </c>
+      <c r="AE392">
+        <v>2.25</v>
+      </c>
+      <c r="AF392">
+        <v>1.03</v>
+      </c>
+      <c r="AG392">
+        <v>12.5</v>
+      </c>
+      <c r="AH392">
+        <v>1.18</v>
+      </c>
+      <c r="AI392">
+        <v>4.4</v>
+      </c>
+      <c r="AJ392">
+        <v>1.67</v>
+      </c>
+      <c r="AK392">
+        <v>2.1</v>
+      </c>
+      <c r="AL392">
+        <v>1.5</v>
+      </c>
+      <c r="AM392">
+        <v>2.5</v>
+      </c>
+      <c r="AN392">
+        <v>1.65</v>
+      </c>
+      <c r="AO392">
+        <v>1.27</v>
+      </c>
+      <c r="AP392">
+        <v>1.3</v>
+      </c>
+      <c r="AQ392">
+        <v>1.62</v>
+      </c>
+      <c r="AR392">
+        <v>1.08</v>
+      </c>
+      <c r="AS392">
+        <v>1.71</v>
+      </c>
+      <c r="AT392">
+        <v>1</v>
+      </c>
+      <c r="AU392">
+        <v>1.56</v>
+      </c>
+      <c r="AV392">
+        <v>1.5</v>
+      </c>
+      <c r="AW392">
+        <v>3.06</v>
+      </c>
+      <c r="AX392">
+        <v>2.1</v>
+      </c>
+      <c r="AY392">
+        <v>7.5</v>
+      </c>
+      <c r="AZ392">
+        <v>1.97</v>
+      </c>
+      <c r="BA392">
+        <v>1.25</v>
+      </c>
+      <c r="BB392">
+        <v>1.49</v>
+      </c>
+      <c r="BC392">
+        <v>1.83</v>
+      </c>
+      <c r="BD392">
+        <v>2.32</v>
+      </c>
+      <c r="BE392">
+        <v>3</v>
+      </c>
+      <c r="BF392">
+        <v>6</v>
+      </c>
+      <c r="BG392">
+        <v>3</v>
+      </c>
+      <c r="BH392">
+        <v>4</v>
+      </c>
+      <c r="BI392">
+        <v>7</v>
+      </c>
+      <c r="BJ392">
+        <v>10</v>
+      </c>
+      <c r="BK392">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="492">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1099,6 +1099,9 @@
     <t>['28', '53']</t>
   </si>
   <si>
+    <t>['53', '82']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1485,6 +1488,9 @@
   <si>
     <t>['9', '78']</t>
   </si>
+  <si>
+    <t>['4', '28']</t>
+  </si>
 </sst>
 </file>
 
@@ -1845,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK392"/>
+  <dimension ref="A1:BK393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2280,7 +2286,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2662,7 +2668,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2853,7 +2859,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -3617,7 +3623,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3707,7 +3713,7 @@
         <v>1.62</v>
       </c>
       <c r="AT10">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3808,7 +3814,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3999,7 +4005,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -4572,7 +4578,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -6100,7 +6106,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -7246,7 +7252,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -9156,7 +9162,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9347,7 +9353,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9437,7 +9443,7 @@
         <v>1.71</v>
       </c>
       <c r="AT40">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU40">
         <v>1.06</v>
@@ -10302,7 +10308,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10684,7 +10690,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10875,7 +10881,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11066,7 +11072,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11448,7 +11454,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11639,7 +11645,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -12212,7 +12218,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12490,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT56">
         <v>1.08</v>
@@ -12785,7 +12791,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12976,7 +12982,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -13167,7 +13173,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13358,7 +13364,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13549,7 +13555,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -14122,7 +14128,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14504,7 +14510,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14695,7 +14701,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14785,7 +14791,7 @@
         <v>1.36</v>
       </c>
       <c r="AT68">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU68">
         <v>1.9</v>
@@ -14886,7 +14892,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -15268,7 +15274,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15459,7 +15465,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15841,7 +15847,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15928,7 +15934,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT74">
         <v>1.38</v>
@@ -17560,7 +17566,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -18706,7 +18712,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -20324,7 +20330,7 @@
         <v>1.53</v>
       </c>
       <c r="AT97">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU97">
         <v>1.83</v>
@@ -20998,7 +21004,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21189,7 +21195,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22335,7 +22341,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22908,7 +22914,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23099,7 +23105,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23186,7 +23192,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT112">
         <v>1</v>
@@ -23863,7 +23869,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24054,7 +24060,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -24245,7 +24251,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24436,7 +24442,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24818,7 +24824,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -25290,7 +25296,7 @@
         <v>0.83</v>
       </c>
       <c r="AT123">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25478,7 +25484,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT124">
         <v>0.86</v>
@@ -26155,7 +26161,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -27110,7 +27116,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27301,7 +27307,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27683,7 +27689,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -28829,7 +28835,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -30166,7 +30172,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30253,7 +30259,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT149">
         <v>0.64</v>
@@ -30357,7 +30363,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30548,7 +30554,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30739,7 +30745,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -31020,7 +31026,7 @@
         <v>1.5</v>
       </c>
       <c r="AT153">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU153">
         <v>1.16</v>
@@ -31312,7 +31318,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31503,7 +31509,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31694,7 +31700,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -32649,7 +32655,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32840,7 +32846,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -33031,7 +33037,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33500,7 +33506,7 @@
         <v>0.4</v>
       </c>
       <c r="AS166">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT166">
         <v>0.79</v>
@@ -34177,7 +34183,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -35514,7 +35520,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35705,7 +35711,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -36087,7 +36093,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36469,7 +36475,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36851,7 +36857,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -37042,7 +37048,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37424,7 +37430,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37806,7 +37812,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38379,7 +38385,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38761,7 +38767,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -39143,7 +39149,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39334,7 +39340,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -40289,7 +40295,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40480,7 +40486,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40567,7 +40573,7 @@
         <v>1.17</v>
       </c>
       <c r="AS203">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT203">
         <v>1</v>
@@ -41053,7 +41059,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -41244,7 +41250,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41435,7 +41441,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41626,7 +41632,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -42199,7 +42205,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42390,7 +42396,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42963,7 +42969,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -43345,7 +43351,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43536,7 +43542,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -44300,7 +44306,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44491,7 +44497,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44873,7 +44879,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -45064,7 +45070,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -45255,7 +45261,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -46019,7 +46025,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46300,7 +46306,7 @@
         <v>1.85</v>
       </c>
       <c r="AT233">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU233">
         <v>1.33</v>
@@ -46592,7 +46598,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -47165,7 +47171,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47929,7 +47935,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -48120,7 +48126,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -49457,7 +49463,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49648,7 +49654,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -50030,7 +50036,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -50221,7 +50227,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50311,7 +50317,7 @@
         <v>2.08</v>
       </c>
       <c r="AT254">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU254">
         <v>1.66</v>
@@ -50603,7 +50609,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50794,7 +50800,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -51176,7 +51182,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51558,7 +51564,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51749,7 +51755,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -52131,7 +52137,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52218,7 +52224,7 @@
         <v>0.7</v>
       </c>
       <c r="AS264">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT264">
         <v>0.64</v>
@@ -52704,7 +52710,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52895,7 +52901,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -54423,7 +54429,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54614,7 +54620,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54996,7 +55002,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -55086,7 +55092,7 @@
         <v>1.86</v>
       </c>
       <c r="AT279">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU279">
         <v>1.38</v>
@@ -55187,7 +55193,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55378,7 +55384,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55760,7 +55766,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -57288,7 +57294,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57479,7 +57485,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -58052,7 +58058,7 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -58434,7 +58440,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -58712,7 +58718,7 @@
         <v>1.33</v>
       </c>
       <c r="AS298">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT298">
         <v>1</v>
@@ -59389,7 +59395,7 @@
         <v>305</v>
       </c>
       <c r="P302" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q302">
         <v>6</v>
@@ -59580,7 +59586,7 @@
         <v>96</v>
       </c>
       <c r="P303" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q303">
         <v>5</v>
@@ -59670,7 +59676,7 @@
         <v>1.29</v>
       </c>
       <c r="AT303">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU303">
         <v>1.43</v>
@@ -59771,7 +59777,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60344,7 +60350,7 @@
         <v>306</v>
       </c>
       <c r="P307" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60535,7 +60541,7 @@
         <v>307</v>
       </c>
       <c r="P308" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q308">
         <v>14</v>
@@ -61195,7 +61201,7 @@
         <v>1.1</v>
       </c>
       <c r="AS311">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT311">
         <v>1.21</v>
@@ -61299,7 +61305,7 @@
         <v>311</v>
       </c>
       <c r="P312" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61681,7 +61687,7 @@
         <v>312</v>
       </c>
       <c r="P314" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -62063,7 +62069,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q316">
         <v>9</v>
@@ -62254,7 +62260,7 @@
         <v>314</v>
       </c>
       <c r="P317" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -62445,7 +62451,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q318">
         <v>7</v>
@@ -63299,7 +63305,7 @@
         <v>1.93</v>
       </c>
       <c r="AT322">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU322">
         <v>1.93</v>
@@ -63782,7 +63788,7 @@
         <v>124</v>
       </c>
       <c r="P325" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q325">
         <v>7</v>
@@ -65501,7 +65507,7 @@
         <v>325</v>
       </c>
       <c r="P334" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65692,7 +65698,7 @@
         <v>326</v>
       </c>
       <c r="P335" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65883,7 +65889,7 @@
         <v>327</v>
       </c>
       <c r="P336" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -66074,7 +66080,7 @@
         <v>328</v>
       </c>
       <c r="P337" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q337">
         <v>4</v>
@@ -66647,7 +66653,7 @@
         <v>96</v>
       </c>
       <c r="P340" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q340">
         <v>3</v>
@@ -66838,7 +66844,7 @@
         <v>330</v>
       </c>
       <c r="P341" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q341">
         <v>7</v>
@@ -67220,7 +67226,7 @@
         <v>287</v>
       </c>
       <c r="P343" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67411,7 +67417,7 @@
         <v>332</v>
       </c>
       <c r="P344" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q344">
         <v>2</v>
@@ -67602,7 +67608,7 @@
         <v>96</v>
       </c>
       <c r="P345" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q345">
         <v>6</v>
@@ -67793,7 +67799,7 @@
         <v>96</v>
       </c>
       <c r="P346" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q346">
         <v>8</v>
@@ -69220,7 +69226,7 @@
         <v>1.69</v>
       </c>
       <c r="AT353">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU353">
         <v>1.59</v>
@@ -69321,7 +69327,7 @@
         <v>111</v>
       </c>
       <c r="P354" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q354">
         <v>7</v>
@@ -70085,7 +70091,7 @@
         <v>96</v>
       </c>
       <c r="P358" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q358">
         <v>5</v>
@@ -70276,7 +70282,7 @@
         <v>341</v>
       </c>
       <c r="P359" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q359">
         <v>6</v>
@@ -70554,7 +70560,7 @@
         <v>1</v>
       </c>
       <c r="AS360">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT360">
         <v>0.85</v>
@@ -70849,7 +70855,7 @@
         <v>192</v>
       </c>
       <c r="P362" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q362">
         <v>6</v>
@@ -71995,7 +72001,7 @@
         <v>345</v>
       </c>
       <c r="P368" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q368">
         <v>10</v>
@@ -72186,7 +72192,7 @@
         <v>157</v>
       </c>
       <c r="P369" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q369">
         <v>3</v>
@@ -72377,7 +72383,7 @@
         <v>96</v>
       </c>
       <c r="P370" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q370">
         <v>4</v>
@@ -72950,7 +72956,7 @@
         <v>320</v>
       </c>
       <c r="P373" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q373">
         <v>11</v>
@@ -73141,7 +73147,7 @@
         <v>348</v>
       </c>
       <c r="P374" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q374">
         <v>3</v>
@@ -73523,7 +73529,7 @@
         <v>349</v>
       </c>
       <c r="P376" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q376">
         <v>4</v>
@@ -73905,7 +73911,7 @@
         <v>96</v>
       </c>
       <c r="P378" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q378">
         <v>2</v>
@@ -74096,7 +74102,7 @@
         <v>351</v>
       </c>
       <c r="P379" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q379">
         <v>10</v>
@@ -74568,7 +74574,7 @@
         <v>1.64</v>
       </c>
       <c r="AT381">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU381">
         <v>1.71</v>
@@ -75051,7 +75057,7 @@
         <v>355</v>
       </c>
       <c r="P384" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q384">
         <v>9</v>
@@ -75242,7 +75248,7 @@
         <v>356</v>
       </c>
       <c r="P385" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q385">
         <v>5</v>
@@ -75520,7 +75526,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS386">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT386">
         <v>0.71</v>
@@ -75624,7 +75630,7 @@
         <v>357</v>
       </c>
       <c r="P387" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q387">
         <v>6</v>
@@ -75815,7 +75821,7 @@
         <v>121</v>
       </c>
       <c r="P388" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q388">
         <v>10</v>
@@ -76197,7 +76203,7 @@
         <v>358</v>
       </c>
       <c r="P390" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q390">
         <v>2</v>
@@ -76721,6 +76727,197 @@
       </c>
       <c r="BK392">
         <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:63">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>4926238</v>
+      </c>
+      <c r="C393" t="s">
+        <v>63</v>
+      </c>
+      <c r="D393" t="s">
+        <v>64</v>
+      </c>
+      <c r="E393" s="2">
+        <v>45179.875</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393" t="s">
+        <v>93</v>
+      </c>
+      <c r="H393" t="s">
+        <v>83</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>2</v>
+      </c>
+      <c r="K393">
+        <v>2</v>
+      </c>
+      <c r="L393">
+        <v>2</v>
+      </c>
+      <c r="M393">
+        <v>2</v>
+      </c>
+      <c r="N393">
+        <v>4</v>
+      </c>
+      <c r="O393" t="s">
+        <v>361</v>
+      </c>
+      <c r="P393" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q393">
+        <v>8</v>
+      </c>
+      <c r="R393">
+        <v>2</v>
+      </c>
+      <c r="S393">
+        <v>10</v>
+      </c>
+      <c r="T393">
+        <v>2.38</v>
+      </c>
+      <c r="U393">
+        <v>2.5</v>
+      </c>
+      <c r="V393">
+        <v>3.75</v>
+      </c>
+      <c r="W393">
+        <v>1.25</v>
+      </c>
+      <c r="X393">
+        <v>3.75</v>
+      </c>
+      <c r="Y393">
+        <v>2.1</v>
+      </c>
+      <c r="Z393">
+        <v>1.67</v>
+      </c>
+      <c r="AA393">
+        <v>4.5</v>
+      </c>
+      <c r="AB393">
+        <v>1.18</v>
+      </c>
+      <c r="AC393">
+        <v>1.85</v>
+      </c>
+      <c r="AD393">
+        <v>3.9</v>
+      </c>
+      <c r="AE393">
+        <v>3.75</v>
+      </c>
+      <c r="AF393">
+        <v>1.04</v>
+      </c>
+      <c r="AG393">
+        <v>10</v>
+      </c>
+      <c r="AH393">
+        <v>1.14</v>
+      </c>
+      <c r="AI393">
+        <v>5.5</v>
+      </c>
+      <c r="AJ393">
+        <v>1.41</v>
+      </c>
+      <c r="AK393">
+        <v>2.78</v>
+      </c>
+      <c r="AL393">
+        <v>1.44</v>
+      </c>
+      <c r="AM393">
+        <v>2.63</v>
+      </c>
+      <c r="AN393">
+        <v>1.29</v>
+      </c>
+      <c r="AO393">
+        <v>1.23</v>
+      </c>
+      <c r="AP393">
+        <v>1.87</v>
+      </c>
+      <c r="AQ393">
+        <v>1.5</v>
+      </c>
+      <c r="AR393">
+        <v>1.23</v>
+      </c>
+      <c r="AS393">
+        <v>1.46</v>
+      </c>
+      <c r="AT393">
+        <v>1.21</v>
+      </c>
+      <c r="AU393">
+        <v>1.75</v>
+      </c>
+      <c r="AV393">
+        <v>1.32</v>
+      </c>
+      <c r="AW393">
+        <v>3.07</v>
+      </c>
+      <c r="AX393">
+        <v>1.66</v>
+      </c>
+      <c r="AY393">
+        <v>8</v>
+      </c>
+      <c r="AZ393">
+        <v>2.6</v>
+      </c>
+      <c r="BA393">
+        <v>1.2</v>
+      </c>
+      <c r="BB393">
+        <v>1.39</v>
+      </c>
+      <c r="BC393">
+        <v>1.7</v>
+      </c>
+      <c r="BD393">
+        <v>2.2</v>
+      </c>
+      <c r="BE393">
+        <v>3</v>
+      </c>
+      <c r="BF393">
+        <v>9</v>
+      </c>
+      <c r="BG393">
+        <v>4</v>
+      </c>
+      <c r="BH393">
+        <v>6</v>
+      </c>
+      <c r="BI393">
+        <v>2</v>
+      </c>
+      <c r="BJ393">
+        <v>15</v>
+      </c>
+      <c r="BK393">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK421"/>
+  <dimension ref="A1:BK435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT3" t="n">
         <v>0.73</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -3136,7 +3136,7 @@
         <v>1.53</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT14" t="n">
         <v>0.8</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU16" t="n">
         <v>2.25</v>
@@ -4354,7 +4354,7 @@
         <v>2.43</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.53</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT21" t="n">
         <v>1.47</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU22" t="n">
         <v>1.37</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT23" t="n">
         <v>0.67</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU24" t="n">
         <v>1.31</v>
@@ -5572,7 +5572,7 @@
         <v>2.13</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT31" t="n">
         <v>1.47</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT32" t="n">
         <v>1.67</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT34" t="n">
         <v>0.8</v>
@@ -7602,7 +7602,7 @@
         <v>1.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>2.08</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU38" t="n">
         <v>1.41</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT39" t="n">
         <v>0.87</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU40" t="n">
         <v>1.06</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT44" t="n">
         <v>0.8</v>
@@ -9835,7 +9835,7 @@
         <v>2.43</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU46" t="n">
         <v>1.37</v>
@@ -10038,7 +10038,7 @@
         <v>1.53</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU47" t="n">
         <v>1.15</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU49" t="n">
         <v>0.89</v>
@@ -10647,7 +10647,7 @@
         <v>1.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU50" t="n">
         <v>1.01</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT51" t="n">
         <v>1.47</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT52" t="n">
         <v>0.8</v>
@@ -11865,7 +11865,7 @@
         <v>1.57</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT58" t="n">
         <v>1.67</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>1.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU61" t="n">
         <v>1.6</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU63" t="n">
         <v>1.34</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT65" t="n">
         <v>1.47</v>
@@ -13892,10 +13892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU66" t="n">
         <v>1.14</v>
@@ -14298,10 +14298,10 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU68" t="n">
         <v>1.9</v>
@@ -14704,10 +14704,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU70" t="n">
         <v>1.67</v>
@@ -14910,7 +14910,7 @@
         <v>1.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU71" t="n">
         <v>1.3</v>
@@ -15110,10 +15110,10 @@
         <v>0.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU72" t="n">
         <v>1.24</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU76" t="n">
         <v>1.31</v>
@@ -16125,10 +16125,10 @@
         <v>0.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU77" t="n">
         <v>2.05</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT79" t="n">
         <v>0.8</v>
@@ -16937,7 +16937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT81" t="n">
         <v>0.8</v>
@@ -17343,10 +17343,10 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU83" t="n">
         <v>1.68</v>
@@ -17549,7 +17549,7 @@
         <v>1.79</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU84" t="n">
         <v>1.84</v>
@@ -17749,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT85" t="n">
         <v>1.07</v>
@@ -17955,7 +17955,7 @@
         <v>2.43</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU86" t="n">
         <v>1.24</v>
@@ -18561,10 +18561,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18764,7 +18764,7 @@
         <v>0</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT90" t="n">
         <v>1.2</v>
@@ -19170,7 +19170,7 @@
         <v>3</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT92" t="n">
         <v>1.33</v>
@@ -19376,7 +19376,7 @@
         <v>2.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU93" t="n">
         <v>1.29</v>
@@ -19576,10 +19576,10 @@
         <v>0.33</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU94" t="n">
         <v>1.87</v>
@@ -19782,7 +19782,7 @@
         <v>2.08</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU95" t="n">
         <v>1.36</v>
@@ -19982,10 +19982,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU96" t="n">
         <v>1.86</v>
@@ -20188,7 +20188,7 @@
         <v>1.53</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU97" t="n">
         <v>1.83</v>
@@ -20591,10 +20591,10 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU99" t="n">
         <v>1.49</v>
@@ -21203,7 +21203,7 @@
         <v>1.33</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU102" t="n">
         <v>1.34</v>
@@ -21609,7 +21609,7 @@
         <v>1.53</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU104" t="n">
         <v>1.41</v>
@@ -21809,10 +21809,10 @@
         <v>0.67</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU105" t="n">
         <v>1.29</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT106" t="n">
         <v>1.2</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT107" t="n">
         <v>1.5</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT108" t="n">
         <v>1.67</v>
@@ -22621,7 +22621,7 @@
         <v>2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT109" t="n">
         <v>1.47</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT110" t="n">
         <v>0.8</v>
@@ -23436,7 +23436,7 @@
         <v>1.33</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU113" t="n">
         <v>1.37</v>
@@ -23636,7 +23636,7 @@
         <v>0.25</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT114" t="n">
         <v>0.8</v>
@@ -23842,7 +23842,7 @@
         <v>1.93</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU115" t="n">
         <v>1.21</v>
@@ -24245,7 +24245,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT117" t="n">
         <v>0.93</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -24651,10 +24651,10 @@
         <v>0.75</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU119" t="n">
         <v>1.66</v>
@@ -24857,7 +24857,7 @@
         <v>2.2</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU120" t="n">
         <v>1.28</v>
@@ -25260,7 +25260,7 @@
         <v>0.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT122" t="n">
         <v>0.73</v>
@@ -25466,7 +25466,7 @@
         <v>0.93</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU123" t="n">
         <v>1.3</v>
@@ -26072,7 +26072,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT126" t="n">
         <v>0.8</v>
@@ -26481,7 +26481,7 @@
         <v>2.4</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU128" t="n">
         <v>1.75</v>
@@ -26681,10 +26681,10 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU129" t="n">
         <v>1.59</v>
@@ -27087,10 +27087,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU131" t="n">
         <v>1.42</v>
@@ -27696,10 +27696,10 @@
         <v>0</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU134" t="n">
         <v>1.68</v>
@@ -27899,10 +27899,10 @@
         <v>0.4</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU135" t="n">
         <v>1.16</v>
@@ -28102,7 +28102,7 @@
         <v>0.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT136" t="n">
         <v>0.73</v>
@@ -28305,7 +28305,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT137" t="n">
         <v>1.47</v>
@@ -28511,7 +28511,7 @@
         <v>1.79</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU138" t="n">
         <v>2.02</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT139" t="n">
         <v>0.93</v>
@@ -29117,7 +29117,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT141" t="n">
         <v>1</v>
@@ -29523,7 +29523,7 @@
         <v>1.4</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT143" t="n">
         <v>1</v>
@@ -30744,7 +30744,7 @@
         <v>1.57</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU149" t="n">
         <v>1.91</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT151" t="n">
         <v>0.87</v>
@@ -31553,10 +31553,10 @@
         <v>2</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU153" t="n">
         <v>1.16</v>
@@ -31959,10 +31959,10 @@
         <v>0.8</v>
       </c>
       <c r="AS155" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT155" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU155" t="n">
         <v>1.67</v>
@@ -32365,10 +32365,10 @@
         <v>1</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU157" t="n">
         <v>1.54</v>
@@ -32774,7 +32774,7 @@
         <v>1.93</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU159" t="n">
         <v>1.17</v>
@@ -32974,7 +32974,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT160" t="n">
         <v>1.33</v>
@@ -33177,7 +33177,7 @@
         <v>1</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT161" t="n">
         <v>0.93</v>
@@ -33786,7 +33786,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT164" t="n">
         <v>1</v>
@@ -33989,10 +33989,10 @@
         <v>0.75</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU165" t="n">
         <v>1.3</v>
@@ -34395,7 +34395,7 @@
         <v>0.29</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT167" t="n">
         <v>0.67</v>
@@ -34601,7 +34601,7 @@
         <v>1.2</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU168" t="n">
         <v>1.41</v>
@@ -34801,10 +34801,10 @@
         <v>1.29</v>
       </c>
       <c r="AS169" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU169" t="n">
         <v>1.63</v>
@@ -35207,10 +35207,10 @@
         <v>0.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU171" t="n">
         <v>1.27</v>
@@ -35413,7 +35413,7 @@
         <v>2.4</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU172" t="n">
         <v>1.99</v>
@@ -35613,7 +35613,7 @@
         <v>1.17</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT173" t="n">
         <v>1</v>
@@ -35819,7 +35819,7 @@
         <v>2.08</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU174" t="n">
         <v>1.55</v>
@@ -36019,10 +36019,10 @@
         <v>0.25</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU175" t="n">
         <v>1.37</v>
@@ -36222,10 +36222,10 @@
         <v>0.6</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU176" t="n">
         <v>1.23</v>
@@ -36831,7 +36831,7 @@
         <v>0.67</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT179" t="n">
         <v>0.8</v>
@@ -37037,7 +37037,7 @@
         <v>1.53</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU180" t="n">
         <v>1.57</v>
@@ -37237,7 +37237,7 @@
         <v>1.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT181" t="n">
         <v>1</v>
@@ -37643,10 +37643,10 @@
         <v>0.33</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU183" t="n">
         <v>1.47</v>
@@ -37846,10 +37846,10 @@
         <v>0.8</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU184" t="n">
         <v>1.32</v>
@@ -38052,7 +38052,7 @@
         <v>1.33</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU185" t="n">
         <v>1.29</v>
@@ -38252,10 +38252,10 @@
         <v>0.5</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU186" t="n">
         <v>1.45</v>
@@ -38455,7 +38455,7 @@
         <v>0.83</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT187" t="n">
         <v>1.07</v>
@@ -38658,10 +38658,10 @@
         <v>0.2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU188" t="n">
         <v>1.27</v>
@@ -39470,7 +39470,7 @@
         <v>1.29</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT192" t="n">
         <v>1.33</v>
@@ -40079,7 +40079,7 @@
         <v>0.86</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT195" t="n">
         <v>1.07</v>
@@ -40282,7 +40282,7 @@
         <v>1.17</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT196" t="n">
         <v>1.2</v>
@@ -40691,7 +40691,7 @@
         <v>1.93</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU198" t="n">
         <v>1.31</v>
@@ -41094,7 +41094,7 @@
         <v>1.17</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT200" t="n">
         <v>1.5</v>
@@ -41300,7 +41300,7 @@
         <v>2.13</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU201" t="n">
         <v>1.55</v>
@@ -41706,7 +41706,7 @@
         <v>1.57</v>
       </c>
       <c r="AT203" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU203" t="n">
         <v>2</v>
@@ -41906,7 +41906,7 @@
         <v>1.33</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT204" t="n">
         <v>0.93</v>
@@ -42112,7 +42112,7 @@
         <v>1.53</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU205" t="n">
         <v>1.65</v>
@@ -42312,7 +42312,7 @@
         <v>0.71</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT206" t="n">
         <v>0.8</v>
@@ -42518,7 +42518,7 @@
         <v>2.08</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU207" t="n">
         <v>1.6</v>
@@ -42718,7 +42718,7 @@
         <v>1.43</v>
       </c>
       <c r="AS208" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT208" t="n">
         <v>1</v>
@@ -42921,7 +42921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT209" t="n">
         <v>1.47</v>
@@ -43124,10 +43124,10 @@
         <v>1.43</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT210" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU210" t="n">
         <v>1.73</v>
@@ -43530,10 +43530,10 @@
         <v>0.38</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU212" t="n">
         <v>1.51</v>
@@ -43736,7 +43736,7 @@
         <v>2.4</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU213" t="n">
         <v>1.9</v>
@@ -43939,7 +43939,7 @@
         <v>1.5</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU214" t="n">
         <v>1.34</v>
@@ -44139,7 +44139,7 @@
         <v>1.5</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT215" t="n">
         <v>1.33</v>
@@ -44342,10 +44342,10 @@
         <v>0.29</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU216" t="n">
         <v>1.87</v>
@@ -44545,7 +44545,7 @@
         <v>1.29</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT217" t="n">
         <v>0.93</v>
@@ -44954,7 +44954,7 @@
         <v>1.79</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU219" t="n">
         <v>2</v>
@@ -45154,7 +45154,7 @@
         <v>1.38</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT220" t="n">
         <v>1</v>
@@ -45560,10 +45560,10 @@
         <v>0.44</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU222" t="n">
         <v>1.7</v>
@@ -46169,7 +46169,7 @@
         <v>0.71</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT225" t="n">
         <v>0.8</v>
@@ -46375,7 +46375,7 @@
         <v>2.4</v>
       </c>
       <c r="AT226" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU226" t="n">
         <v>1.93</v>
@@ -46575,7 +46575,7 @@
         <v>1.14</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT227" t="n">
         <v>1.5</v>
@@ -46778,10 +46778,10 @@
         <v>1.33</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU228" t="n">
         <v>1.31</v>
@@ -46981,10 +46981,10 @@
         <v>0.43</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU229" t="n">
         <v>1.51</v>
@@ -47187,7 +47187,7 @@
         <v>2.13</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU230" t="n">
         <v>1.61</v>
@@ -47793,10 +47793,10 @@
         <v>1.67</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU233" t="n">
         <v>1.33</v>
@@ -48405,7 +48405,7 @@
         <v>1.2</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU236" t="n">
         <v>1.52</v>
@@ -48605,7 +48605,7 @@
         <v>1.22</v>
       </c>
       <c r="AS237" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT237" t="n">
         <v>1</v>
@@ -48811,7 +48811,7 @@
         <v>2.43</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU238" t="n">
         <v>1.57</v>
@@ -49214,10 +49214,10 @@
         <v>1</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU240" t="n">
         <v>1.49</v>
@@ -49620,10 +49620,10 @@
         <v>0.57</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU242" t="n">
         <v>1.19</v>
@@ -49823,7 +49823,7 @@
         <v>1</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT243" t="n">
         <v>0.87</v>
@@ -50026,7 +50026,7 @@
         <v>0.38</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT244" t="n">
         <v>0.67</v>
@@ -50432,7 +50432,7 @@
         <v>1.43</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT246" t="n">
         <v>1.2</v>
@@ -50638,7 +50638,7 @@
         <v>2.13</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU247" t="n">
         <v>1.58</v>
@@ -50838,7 +50838,7 @@
         <v>1.13</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT248" t="n">
         <v>0.93</v>
@@ -51044,7 +51044,7 @@
         <v>2</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU249" t="n">
         <v>2.06</v>
@@ -51244,10 +51244,10 @@
         <v>0.88</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU250" t="n">
         <v>1.62</v>
@@ -51447,7 +51447,7 @@
         <v>1.38</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT251" t="n">
         <v>1.5</v>
@@ -51853,7 +51853,7 @@
         <v>1.29</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT253" t="n">
         <v>1</v>
@@ -52059,7 +52059,7 @@
         <v>2.08</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU254" t="n">
         <v>1.66</v>
@@ -52259,7 +52259,7 @@
         <v>0.67</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT255" t="n">
         <v>0.8</v>
@@ -52462,7 +52462,7 @@
         <v>1.25</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT256" t="n">
         <v>1.2</v>
@@ -52668,7 +52668,7 @@
         <v>1.53</v>
       </c>
       <c r="AT257" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU257" t="n">
         <v>1.57</v>
@@ -52871,7 +52871,7 @@
         <v>1.93</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU258" t="n">
         <v>1.37</v>
@@ -53071,7 +53071,7 @@
         <v>0.44</v>
       </c>
       <c r="AS259" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT259" t="n">
         <v>0.67</v>
@@ -53274,10 +53274,10 @@
         <v>0.5</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU260" t="n">
         <v>1.3</v>
@@ -54289,7 +54289,7 @@
         <v>0.63</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT265" t="n">
         <v>0.8</v>
@@ -54492,7 +54492,7 @@
         <v>1</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT266" t="n">
         <v>0.93</v>
@@ -54698,7 +54698,7 @@
         <v>2.43</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU267" t="n">
         <v>1.53</v>
@@ -54898,10 +54898,10 @@
         <v>0.38</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU268" t="n">
         <v>1.74</v>
@@ -55101,7 +55101,7 @@
         <v>1.63</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT269" t="n">
         <v>1.47</v>
@@ -55307,7 +55307,7 @@
         <v>2.4</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU270" t="n">
         <v>1.94</v>
@@ -55713,7 +55713,7 @@
         <v>1.33</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU272" t="n">
         <v>1.3</v>
@@ -55913,7 +55913,7 @@
         <v>0.89</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT273" t="n">
         <v>0.8</v>
@@ -56116,10 +56116,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU274" t="n">
         <v>1.55</v>
@@ -56322,7 +56322,7 @@
         <v>0.93</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU275" t="n">
         <v>1.54</v>
@@ -56522,7 +56522,7 @@
         <v>1.2</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT276" t="n">
         <v>1.33</v>
@@ -56728,7 +56728,7 @@
         <v>2</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU277" t="n">
         <v>1.93</v>
@@ -57131,10 +57131,10 @@
         <v>1.25</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU279" t="n">
         <v>1.38</v>
@@ -57334,7 +57334,7 @@
         <v>0.5</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT280" t="n">
         <v>0.67</v>
@@ -57743,7 +57743,7 @@
         <v>2.4</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU282" t="n">
         <v>1.9</v>
@@ -57943,7 +57943,7 @@
         <v>1.33</v>
       </c>
       <c r="AS283" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT283" t="n">
         <v>1</v>
@@ -58146,7 +58146,7 @@
         <v>1.1</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT284" t="n">
         <v>0.8</v>
@@ -58552,10 +58552,10 @@
         <v>0.75</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU286" t="n">
         <v>1.72</v>
@@ -58755,7 +58755,7 @@
         <v>1.5</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT287" t="n">
         <v>1</v>
@@ -58958,7 +58958,7 @@
         <v>0.7</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT288" t="n">
         <v>0.8</v>
@@ -59367,7 +59367,7 @@
         <v>2.13</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU290" t="n">
         <v>1.61</v>
@@ -59770,10 +59770,10 @@
         <v>0.7</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU292" t="n">
         <v>1.43</v>
@@ -59976,7 +59976,7 @@
         <v>1.53</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU293" t="n">
         <v>1.64</v>
@@ -60176,7 +60176,7 @@
         <v>1.22</v>
       </c>
       <c r="AS294" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT294" t="n">
         <v>1.2</v>
@@ -60382,7 +60382,7 @@
         <v>1.5</v>
       </c>
       <c r="AT295" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU295" t="n">
         <v>1.31</v>
@@ -60582,10 +60582,10 @@
         <v>0.4</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU296" t="n">
         <v>1.54</v>
@@ -60785,7 +60785,7 @@
         <v>1</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT297" t="n">
         <v>1</v>
@@ -61191,10 +61191,10 @@
         <v>1.1</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT299" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU299" t="n">
         <v>1.6</v>
@@ -61800,10 +61800,10 @@
         <v>0.33</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT302" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU302" t="n">
         <v>1.5</v>
@@ -62006,7 +62006,7 @@
         <v>1.2</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU303" t="n">
         <v>1.43</v>
@@ -62612,10 +62612,10 @@
         <v>1.2</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU306" t="n">
         <v>1.16</v>
@@ -63018,7 +63018,7 @@
         <v>0.89</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT308" t="n">
         <v>0.87</v>
@@ -63221,7 +63221,7 @@
         <v>1.67</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT309" t="n">
         <v>1.67</v>
@@ -64845,7 +64845,7 @@
         <v>1.82</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT317" t="n">
         <v>1.5</v>
@@ -65454,10 +65454,10 @@
         <v>0.45</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT320" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU320" t="n">
         <v>1.12</v>
@@ -65657,7 +65657,7 @@
         <v>1.4</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT321" t="n">
         <v>1.47</v>
@@ -65863,7 +65863,7 @@
         <v>2</v>
       </c>
       <c r="AT322" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU322" t="n">
         <v>1.93</v>
@@ -66469,7 +66469,7 @@
         <v>1.5</v>
       </c>
       <c r="AS325" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT325" t="n">
         <v>1.67</v>
@@ -66675,7 +66675,7 @@
         <v>1.93</v>
       </c>
       <c r="AT326" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU326" t="n">
         <v>1.39</v>
@@ -66875,7 +66875,7 @@
         <v>0.77</v>
       </c>
       <c r="AS327" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT327" t="n">
         <v>0.67</v>
@@ -67078,7 +67078,7 @@
         <v>1.2</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT328" t="n">
         <v>1</v>
@@ -67281,10 +67281,10 @@
         <v>0.36</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT329" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU329" t="n">
         <v>1.11</v>
@@ -67484,10 +67484,10 @@
         <v>1.09</v>
       </c>
       <c r="AS330" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT330" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU330" t="n">
         <v>1.4</v>
@@ -67690,7 +67690,7 @@
         <v>2.13</v>
       </c>
       <c r="AT331" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU331" t="n">
         <v>1.64</v>
@@ -67890,10 +67890,10 @@
         <v>0.7</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT332" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU332" t="n">
         <v>1.92</v>
@@ -68096,7 +68096,7 @@
         <v>0.93</v>
       </c>
       <c r="AT333" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU333" t="n">
         <v>1.42</v>
@@ -68296,7 +68296,7 @@
         <v>0.75</v>
       </c>
       <c r="AS334" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT334" t="n">
         <v>0.8</v>
@@ -68499,10 +68499,10 @@
         <v>0.9</v>
       </c>
       <c r="AS335" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT335" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU335" t="n">
         <v>1.62</v>
@@ -68908,7 +68908,7 @@
         <v>1.79</v>
       </c>
       <c r="AT337" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU337" t="n">
         <v>1.77</v>
@@ -69514,7 +69514,7 @@
         <v>1.33</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT340" t="n">
         <v>1.33</v>
@@ -69720,7 +69720,7 @@
         <v>1.2</v>
       </c>
       <c r="AT341" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU341" t="n">
         <v>1.42</v>
@@ -70123,7 +70123,7 @@
         <v>1.64</v>
       </c>
       <c r="AS343" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT343" t="n">
         <v>1.67</v>
@@ -70938,7 +70938,7 @@
         <v>2</v>
       </c>
       <c r="AT347" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU347" t="n">
         <v>1.87</v>
@@ -71138,10 +71138,10 @@
         <v>1</v>
       </c>
       <c r="AS348" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT348" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU348" t="n">
         <v>1.68</v>
@@ -71344,7 +71344,7 @@
         <v>2.4</v>
       </c>
       <c r="AT349" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU349" t="n">
         <v>1.81</v>
@@ -71953,7 +71953,7 @@
         <v>1.53</v>
       </c>
       <c r="AT352" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU352" t="n">
         <v>1.54</v>
@@ -72153,10 +72153,10 @@
         <v>1.45</v>
       </c>
       <c r="AS353" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT353" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU353" t="n">
         <v>1.59</v>
@@ -72356,7 +72356,7 @@
         <v>1.17</v>
       </c>
       <c r="AS354" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT354" t="n">
         <v>1.2</v>
@@ -72559,7 +72559,7 @@
         <v>0.71</v>
       </c>
       <c r="AS355" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT355" t="n">
         <v>0.67</v>
@@ -72762,7 +72762,7 @@
         <v>0.83</v>
       </c>
       <c r="AS356" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT356" t="n">
         <v>0.73</v>
@@ -72965,7 +72965,7 @@
         <v>0.92</v>
       </c>
       <c r="AS357" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT357" t="n">
         <v>0.87</v>
@@ -73168,10 +73168,10 @@
         <v>0.5</v>
       </c>
       <c r="AS358" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT358" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU358" t="n">
         <v>1.86</v>
@@ -73371,10 +73371,10 @@
         <v>0.67</v>
       </c>
       <c r="AS359" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT359" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU359" t="n">
         <v>1.61</v>
@@ -73777,7 +73777,7 @@
         <v>1.27</v>
       </c>
       <c r="AS361" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT361" t="n">
         <v>1.47</v>
@@ -73980,7 +73980,7 @@
         <v>1.42</v>
       </c>
       <c r="AS362" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT362" t="n">
         <v>1.47</v>
@@ -74186,7 +74186,7 @@
         <v>1.5</v>
       </c>
       <c r="AT363" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU363" t="n">
         <v>1.31</v>
@@ -74589,10 +74589,10 @@
         <v>0.62</v>
       </c>
       <c r="AS365" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT365" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU365" t="n">
         <v>1.63</v>
@@ -74795,7 +74795,7 @@
         <v>2.43</v>
       </c>
       <c r="AT366" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU366" t="n">
         <v>1.55</v>
@@ -75401,7 +75401,7 @@
         <v>1.25</v>
       </c>
       <c r="AS369" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT369" t="n">
         <v>1.47</v>
@@ -75604,10 +75604,10 @@
         <v>0.9</v>
       </c>
       <c r="AS370" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT370" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU370" t="n">
         <v>1.15</v>
@@ -75810,7 +75810,7 @@
         <v>2.2</v>
       </c>
       <c r="AT371" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU371" t="n">
         <v>1.48</v>
@@ -76010,10 +76010,10 @@
         <v>0.75</v>
       </c>
       <c r="AS372" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT372" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU372" t="n">
         <v>1.68</v>
@@ -76213,10 +76213,10 @@
         <v>0.67</v>
       </c>
       <c r="AS373" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT373" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU373" t="n">
         <v>1.42</v>
@@ -76416,7 +76416,7 @@
         <v>1.75</v>
       </c>
       <c r="AS374" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT374" t="n">
         <v>1.5</v>
@@ -76619,10 +76619,10 @@
         <v>1.09</v>
       </c>
       <c r="AS375" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT375" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU375" t="n">
         <v>1.62</v>
@@ -76825,7 +76825,7 @@
         <v>1.93</v>
       </c>
       <c r="AT376" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU376" t="n">
         <v>1.42</v>
@@ -77025,7 +77025,7 @@
         <v>0.92</v>
       </c>
       <c r="AS377" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT377" t="n">
         <v>0.8</v>
@@ -77228,7 +77228,7 @@
         <v>1.69</v>
       </c>
       <c r="AS378" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT378" t="n">
         <v>1.67</v>
@@ -77634,7 +77634,7 @@
         <v>1.08</v>
       </c>
       <c r="AS380" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT380" t="n">
         <v>1.07</v>
@@ -77837,10 +77837,10 @@
         <v>1.33</v>
       </c>
       <c r="AS381" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT381" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU381" t="n">
         <v>1.71</v>
@@ -78043,7 +78043,7 @@
         <v>2.08</v>
       </c>
       <c r="AT382" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU382" t="n">
         <v>1.59</v>
@@ -78243,10 +78243,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS383" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT383" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU383" t="n">
         <v>1.79</v>
@@ -78446,7 +78446,7 @@
         <v>1.46</v>
       </c>
       <c r="AS384" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT384" t="n">
         <v>1.33</v>
@@ -78855,7 +78855,7 @@
         <v>1.57</v>
       </c>
       <c r="AT386" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU386" t="n">
         <v>1.79</v>
@@ -79055,10 +79055,10 @@
         <v>0.58</v>
       </c>
       <c r="AS387" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT387" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU387" t="n">
         <v>1.6</v>
@@ -79261,7 +79261,7 @@
         <v>2</v>
       </c>
       <c r="AT388" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU388" t="n">
         <v>1.9</v>
@@ -79461,7 +79461,7 @@
         <v>0.77</v>
       </c>
       <c r="AS389" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT389" t="n">
         <v>0.73</v>
@@ -79867,7 +79867,7 @@
         <v>1.08</v>
       </c>
       <c r="AS391" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT391" t="n">
         <v>1</v>
@@ -80070,7 +80070,7 @@
         <v>1.08</v>
       </c>
       <c r="AS392" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT392" t="n">
         <v>1</v>
@@ -80276,7 +80276,7 @@
         <v>1.57</v>
       </c>
       <c r="AT393" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU393" t="n">
         <v>1.75</v>
@@ -80476,10 +80476,10 @@
         <v>0.54</v>
       </c>
       <c r="AS394" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT394" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU394" t="n">
         <v>1.6</v>
@@ -80679,10 +80679,10 @@
         <v>0.77</v>
       </c>
       <c r="AS395" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT395" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU395" t="n">
         <v>1.68</v>
@@ -81288,10 +81288,10 @@
         <v>0.92</v>
       </c>
       <c r="AS398" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT398" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU398" t="n">
         <v>1.55</v>
@@ -81491,7 +81491,7 @@
         <v>1.54</v>
       </c>
       <c r="AS399" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT399" t="n">
         <v>1.47</v>
@@ -81697,7 +81697,7 @@
         <v>1.2</v>
       </c>
       <c r="AT400" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU400" t="n">
         <v>1.41</v>
@@ -81900,7 +81900,7 @@
         <v>2.2</v>
       </c>
       <c r="AT401" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU401" t="n">
         <v>1.48</v>
@@ -82100,7 +82100,7 @@
         <v>0.64</v>
       </c>
       <c r="AS402" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT402" t="n">
         <v>0.8</v>
@@ -82303,7 +82303,7 @@
         <v>1.38</v>
       </c>
       <c r="AS403" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT403" t="n">
         <v>1.47</v>
@@ -82712,7 +82712,7 @@
         <v>2</v>
       </c>
       <c r="AT405" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU405" t="n">
         <v>1.91</v>
@@ -82912,7 +82912,7 @@
         <v>1.62</v>
       </c>
       <c r="AS406" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT406" t="n">
         <v>1.5</v>
@@ -83115,7 +83115,7 @@
         <v>0.64</v>
       </c>
       <c r="AS407" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT407" t="n">
         <v>0.8</v>
@@ -83177,7 +83177,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>4926357</v>
+        <v>4926356</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -83197,22 +83197,22 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>New York RB</t>
+          <t>Montreal Impact</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="I408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>1</v>
@@ -83225,154 +83225,154 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['90+7']</t>
         </is>
       </c>
       <c r="Q408" t="n">
+        <v>5</v>
+      </c>
+      <c r="R408" t="n">
         <v>7</v>
       </c>
-      <c r="R408" t="n">
-        <v>3</v>
-      </c>
       <c r="S408" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T408" t="n">
         <v>2.5</v>
       </c>
       <c r="U408" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V408" t="n">
-        <v>4</v>
+        <v>3.82</v>
       </c>
       <c r="W408" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X408" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="Y408" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="Z408" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AA408" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AB408" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AC408" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AD408" t="n">
         <v>3.75</v>
       </c>
       <c r="AE408" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AF408" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG408" t="n">
         <v>15</v>
       </c>
       <c r="AH408" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AI408" t="n">
-        <v>4.22</v>
+        <v>4.25</v>
       </c>
       <c r="AJ408" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AK408" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AL408" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AM408" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AN408" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AO408" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AP408" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AQ408" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR408" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS408" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT408" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU408" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV408" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW408" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX408" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY408" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ408" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA408" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB408" t="n">
         <v>1.57</v>
       </c>
-      <c r="AR408" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AS408" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AT408" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AU408" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AV408" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AW408" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AX408" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AY408" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ408" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="BA408" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BB408" t="n">
-        <v>1.54</v>
-      </c>
       <c r="BC408" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BD408" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="BE408" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BF408" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG408" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH408" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI408" t="n">
         <v>8</v>
       </c>
-      <c r="BI408" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ408" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BK408" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="409">
@@ -83927,7 +83927,7 @@
         <v>1.07</v>
       </c>
       <c r="AS411" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT411" t="n">
         <v>1.07</v>
@@ -84133,7 +84133,7 @@
         <v>1.5</v>
       </c>
       <c r="AT412" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU412" t="n">
         <v>1.31</v>
@@ -84192,7 +84192,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>4926356</v>
+        <v>4926357</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -84212,22 +84212,22 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>Montreal Impact</t>
+          <t>New York RB</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="I413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L413" t="n">
         <v>1</v>
@@ -84240,154 +84240,154 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="P413" t="inlineStr">
         <is>
-          <t>['90+7']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="Q413" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R413" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S413" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T413" t="n">
         <v>2.5</v>
       </c>
       <c r="U413" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V413" t="n">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="W413" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X413" t="n">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="Y413" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="Z413" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AA413" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AB413" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC413" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AD413" t="n">
         <v>3.75</v>
       </c>
       <c r="AE413" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AF413" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG413" t="n">
         <v>15</v>
       </c>
       <c r="AH413" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AI413" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="AJ413" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK413" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL413" t="n">
         <v>1.65</v>
       </c>
-      <c r="AK413" t="n">
+      <c r="AM413" t="n">
         <v>2.2</v>
       </c>
-      <c r="AL413" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AM413" t="n">
-        <v>2.33</v>
-      </c>
       <c r="AN413" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AO413" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AP413" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AQ413" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AR413" t="n">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="AS413" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="AT413" t="n">
-        <v>1.47</v>
+        <v>0.87</v>
       </c>
       <c r="AU413" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AV413" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AW413" t="n">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="AX413" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AY413" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ413" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BA413" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB413" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC413" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD413" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE413" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF413" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG413" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH413" t="n">
         <v>8</v>
       </c>
-      <c r="AZ413" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="BA413" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BB413" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC413" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BD413" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BE413" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BF413" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG413" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH413" t="n">
-        <v>2</v>
-      </c>
       <c r="BI413" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BJ413" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK413" t="n">
         <v>4</v>
-      </c>
-      <c r="BK413" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="414">
@@ -84536,7 +84536,7 @@
         <v>1.79</v>
       </c>
       <c r="AS414" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT414" t="n">
         <v>1.67</v>
@@ -84598,7 +84598,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>4926359</v>
+        <v>4926361</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -84618,182 +84618,182 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="I415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J415" t="n">
         <v>0</v>
       </c>
       <c r="K415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N415" t="n">
+        <v>0</v>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q415" t="n">
         <v>5</v>
       </c>
-      <c r="O415" t="inlineStr">
-        <is>
-          <t>['13', '44', '73', '84']</t>
-        </is>
-      </c>
-      <c r="P415" t="inlineStr">
-        <is>
-          <t>['90']</t>
-        </is>
-      </c>
-      <c r="Q415" t="n">
-        <v>0</v>
-      </c>
       <c r="R415" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S415" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="T415" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="U415" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="V415" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="W415" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X415" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Y415" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Z415" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AA415" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AB415" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AC415" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD415" t="n">
         <v>4.2</v>
       </c>
       <c r="AE415" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="AF415" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG415" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH415" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AI415" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AJ415" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AK415" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AL415" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="AM415" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="AN415" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AO415" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AP415" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="AQ415" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="AR415" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AS415" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT415" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU415" t="n">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="AV415" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AW415" t="n">
-        <v>2.82</v>
+        <v>3.21</v>
       </c>
       <c r="AX415" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AY415" t="n">
         <v>8</v>
       </c>
       <c r="AZ415" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="BA415" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="BB415" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="BC415" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="BD415" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BE415" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="BF415" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG415" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH415" t="n">
         <v>5</v>
       </c>
-      <c r="BH415" t="n">
-        <v>1</v>
-      </c>
       <c r="BI415" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ415" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK415" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416">
@@ -84801,7 +84801,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>4926360</v>
+        <v>4926359</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -84821,182 +84821,182 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>Sporting KC</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="I416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L416" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M416" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N416" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13', '44', '73', '84']</t>
         </is>
       </c>
       <c r="P416" t="inlineStr">
         <is>
-          <t>['29', '66', '76']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q416" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R416" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S416" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T416" t="n">
         <v>2.2</v>
       </c>
       <c r="U416" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V416" t="n">
+        <v>5</v>
+      </c>
+      <c r="W416" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X416" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y416" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z416" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA416" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB416" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC416" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD416" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE416" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF416" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG416" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH416" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI416" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ416" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK416" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL416" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM416" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN416" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO416" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP416" t="n">
         <v>2.3</v>
       </c>
-      <c r="V416" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="W416" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X416" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y416" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Z416" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AA416" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB416" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC416" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD416" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE416" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AF416" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG416" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="AH416" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI416" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AJ416" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK416" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AL416" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AM416" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN416" t="n">
+      <c r="AQ416" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR416" t="n">
         <v>1.23</v>
       </c>
-      <c r="AO416" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP416" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ416" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AR416" t="n">
-        <v>0.93</v>
-      </c>
       <c r="AS416" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="AT416" t="n">
         <v>1.07</v>
       </c>
       <c r="AU416" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="AV416" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="AW416" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AX416" t="n">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="AY416" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ416" t="n">
-        <v>3.07</v>
+        <v>2.1</v>
       </c>
       <c r="BA416" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="BB416" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="BC416" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="BD416" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BE416" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="BF416" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG416" t="n">
         <v>5</v>
       </c>
       <c r="BH416" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI416" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ416" t="n">
         <v>7</v>
       </c>
-      <c r="BI416" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ416" t="n">
-        <v>10</v>
-      </c>
       <c r="BK416" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417">
@@ -85004,7 +85004,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>4926361</v>
+        <v>4926360</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -85024,31 +85024,31 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Sporting KC</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
       <c r="J417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L417" t="n">
         <v>0</v>
       </c>
       <c r="M417" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N417" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O417" t="inlineStr">
         <is>
@@ -85057,149 +85057,149 @@
       </c>
       <c r="P417" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['29', '66', '76']</t>
         </is>
       </c>
       <c r="Q417" t="n">
         <v>5</v>
       </c>
       <c r="R417" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S417" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T417" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="U417" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V417" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="W417" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X417" t="n">
         <v>3.4</v>
       </c>
       <c r="Y417" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z417" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA417" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB417" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC417" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD417" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE417" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF417" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG417" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AH417" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI417" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ417" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK417" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL417" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM417" t="n">
         <v>2.25</v>
       </c>
-      <c r="Z417" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA417" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AB417" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC417" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AD417" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE417" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AF417" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG417" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH417" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI417" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AJ417" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK417" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AL417" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM417" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AN417" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="AO417" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP417" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="AQ417" t="n">
-        <v>2.21</v>
+        <v>1.64</v>
       </c>
       <c r="AR417" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AS417" t="n">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AT417" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AU417" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AV417" t="n">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="AW417" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="AX417" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="AY417" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ417" t="n">
-        <v>2.33</v>
+        <v>3.07</v>
       </c>
       <c r="BA417" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BB417" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="BC417" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="BD417" t="n">
-        <v>2.28</v>
+        <v>2.43</v>
       </c>
       <c r="BE417" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BF417" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG417" t="n">
         <v>5</v>
       </c>
-      <c r="BG417" t="n">
-        <v>3</v>
-      </c>
       <c r="BH417" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI417" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BJ417" t="n">
         <v>10</v>
       </c>
       <c r="BK417" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418">
@@ -85348,7 +85348,7 @@
         <v>0.77</v>
       </c>
       <c r="AS418" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT418" t="n">
         <v>0.93</v>
@@ -85754,7 +85754,7 @@
         <v>0.79</v>
       </c>
       <c r="AS420" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT420" t="n">
         <v>0.73</v>
@@ -86012,6 +86012,2848 @@
       </c>
       <c r="BK421" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" t="n">
+        <v>5018275</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E422" s="2" t="n">
+        <v>45192.85416666666</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0</v>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>2</v>
+      </c>
+      <c r="J422" t="n">
+        <v>1</v>
+      </c>
+      <c r="K422" t="n">
+        <v>3</v>
+      </c>
+      <c r="L422" t="n">
+        <v>4</v>
+      </c>
+      <c r="M422" t="n">
+        <v>1</v>
+      </c>
+      <c r="N422" t="n">
+        <v>5</v>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>['30', '33', '46', '89']</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q422" t="n">
+        <v>6</v>
+      </c>
+      <c r="R422" t="n">
+        <v>2</v>
+      </c>
+      <c r="S422" t="n">
+        <v>8</v>
+      </c>
+      <c r="T422" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U422" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V422" t="n">
+        <v>5</v>
+      </c>
+      <c r="W422" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X422" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y422" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z422" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA422" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB422" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC422" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD422" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE422" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF422" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG422" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH422" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI422" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ422" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK422" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL422" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM422" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN422" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO422" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP422" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ422" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR422" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS422" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT422" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU422" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV422" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW422" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX422" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY422" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ422" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA422" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB422" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC422" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD422" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE422" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF422" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG422" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH422" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI422" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ422" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK422" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" t="n">
+        <v>4926369</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E423" s="2" t="n">
+        <v>45192.85416666666</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0</v>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>0</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0</v>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R423" t="n">
+        <v>5</v>
+      </c>
+      <c r="S423" t="n">
+        <v>5</v>
+      </c>
+      <c r="T423" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U423" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V423" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W423" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X423" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z423" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA423" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB423" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC423" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD423" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE423" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF423" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG423" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH423" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI423" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ423" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK423" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL423" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM423" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN423" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO423" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP423" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ423" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR423" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS423" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT423" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU423" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV423" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW423" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX423" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY423" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ423" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA423" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB423" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC423" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD423" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE423" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF423" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG423" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH423" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI423" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ423" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK423" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" t="n">
+        <v>4926366</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E424" s="2" t="n">
+        <v>45192.85416666666</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0</v>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="I424" t="n">
+        <v>1</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K424" t="n">
+        <v>1</v>
+      </c>
+      <c r="L424" t="n">
+        <v>3</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N424" t="n">
+        <v>3</v>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>['45+1', '50', '78']</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q424" t="n">
+        <v>3</v>
+      </c>
+      <c r="R424" t="n">
+        <v>6</v>
+      </c>
+      <c r="S424" t="n">
+        <v>9</v>
+      </c>
+      <c r="T424" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U424" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V424" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W424" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X424" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z424" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA424" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB424" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC424" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD424" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE424" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF424" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG424" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH424" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI424" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ424" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK424" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL424" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM424" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN424" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO424" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP424" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ424" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AR424" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS424" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT424" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU424" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV424" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW424" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX424" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY424" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ424" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA424" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB424" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC424" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD424" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE424" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF424" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG424" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH424" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI424" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ424" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK424" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" t="n">
+        <v>4926367</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E425" s="2" t="n">
+        <v>45192.85416666666</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
+        <v>3</v>
+      </c>
+      <c r="J425" t="n">
+        <v>3</v>
+      </c>
+      <c r="K425" t="n">
+        <v>6</v>
+      </c>
+      <c r="L425" t="n">
+        <v>3</v>
+      </c>
+      <c r="M425" t="n">
+        <v>5</v>
+      </c>
+      <c r="N425" t="n">
+        <v>8</v>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>['21', '36', '45+2']</t>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>['17', '44', '45+5', '58', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q425" t="n">
+        <v>3</v>
+      </c>
+      <c r="R425" t="n">
+        <v>5</v>
+      </c>
+      <c r="S425" t="n">
+        <v>8</v>
+      </c>
+      <c r="T425" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U425" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V425" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W425" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X425" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y425" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z425" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA425" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB425" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC425" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD425" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE425" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF425" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG425" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH425" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI425" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ425" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK425" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL425" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM425" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN425" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO425" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP425" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ425" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR425" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS425" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT425" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU425" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV425" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW425" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX425" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY425" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ425" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA425" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB425" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC425" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD425" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE425" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF425" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG425" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH425" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI425" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ425" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK425" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" t="n">
+        <v>4926373</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E426" s="2" t="n">
+        <v>45192.89583333334</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0</v>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="n">
+        <v>2</v>
+      </c>
+      <c r="N426" t="n">
+        <v>3</v>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t>['64', '73']</t>
+        </is>
+      </c>
+      <c r="Q426" t="n">
+        <v>5</v>
+      </c>
+      <c r="R426" t="n">
+        <v>3</v>
+      </c>
+      <c r="S426" t="n">
+        <v>8</v>
+      </c>
+      <c r="T426" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U426" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V426" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W426" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X426" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y426" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z426" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA426" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB426" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC426" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD426" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE426" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF426" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG426" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH426" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI426" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ426" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK426" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL426" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM426" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN426" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO426" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP426" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ426" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR426" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS426" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT426" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU426" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV426" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW426" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX426" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY426" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ426" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA426" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB426" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC426" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD426" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE426" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF426" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG426" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH426" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI426" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ426" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK426" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" t="n">
+        <v>4926372</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E427" s="2" t="n">
+        <v>45192.89583333334</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="I427" t="n">
+        <v>2</v>
+      </c>
+      <c r="J427" t="n">
+        <v>1</v>
+      </c>
+      <c r="K427" t="n">
+        <v>3</v>
+      </c>
+      <c r="L427" t="n">
+        <v>2</v>
+      </c>
+      <c r="M427" t="n">
+        <v>1</v>
+      </c>
+      <c r="N427" t="n">
+        <v>3</v>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>['7', '45+6']</t>
+        </is>
+      </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>['45+9']</t>
+        </is>
+      </c>
+      <c r="Q427" t="n">
+        <v>3</v>
+      </c>
+      <c r="R427" t="n">
+        <v>6</v>
+      </c>
+      <c r="S427" t="n">
+        <v>9</v>
+      </c>
+      <c r="T427" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U427" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V427" t="n">
+        <v>4</v>
+      </c>
+      <c r="W427" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X427" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y427" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z427" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA427" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB427" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC427" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD427" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE427" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF427" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG427" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH427" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI427" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ427" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK427" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL427" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM427" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN427" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO427" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP427" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ427" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR427" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS427" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT427" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU427" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV427" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW427" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX427" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY427" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ427" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA427" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB427" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC427" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD427" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE427" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF427" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG427" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH427" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI427" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ427" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK427" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" t="n">
+        <v>4926371</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E428" s="2" t="n">
+        <v>45192.89583333334</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0</v>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="I428" t="n">
+        <v>1</v>
+      </c>
+      <c r="J428" t="n">
+        <v>1</v>
+      </c>
+      <c r="K428" t="n">
+        <v>2</v>
+      </c>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="n">
+        <v>1</v>
+      </c>
+      <c r="N428" t="n">
+        <v>2</v>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q428" t="n">
+        <v>3</v>
+      </c>
+      <c r="R428" t="n">
+        <v>8</v>
+      </c>
+      <c r="S428" t="n">
+        <v>11</v>
+      </c>
+      <c r="T428" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U428" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V428" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W428" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X428" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y428" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z428" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA428" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB428" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC428" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD428" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE428" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF428" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG428" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH428" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI428" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ428" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK428" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL428" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM428" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN428" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO428" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP428" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ428" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR428" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS428" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT428" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU428" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV428" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW428" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX428" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY428" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ428" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA428" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB428" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC428" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD428" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE428" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF428" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG428" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH428" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI428" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ428" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK428" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="n">
+        <v>4926370</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E429" s="2" t="n">
+        <v>45192.89583333334</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0</v>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="I429" t="n">
+        <v>1</v>
+      </c>
+      <c r="J429" t="n">
+        <v>1</v>
+      </c>
+      <c r="K429" t="n">
+        <v>2</v>
+      </c>
+      <c r="L429" t="n">
+        <v>2</v>
+      </c>
+      <c r="M429" t="n">
+        <v>2</v>
+      </c>
+      <c r="N429" t="n">
+        <v>4</v>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>['18', '54']</t>
+        </is>
+      </c>
+      <c r="P429" t="inlineStr">
+        <is>
+          <t>['17', '59']</t>
+        </is>
+      </c>
+      <c r="Q429" t="n">
+        <v>4</v>
+      </c>
+      <c r="R429" t="n">
+        <v>6</v>
+      </c>
+      <c r="S429" t="n">
+        <v>10</v>
+      </c>
+      <c r="T429" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U429" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V429" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W429" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X429" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y429" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z429" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA429" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB429" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC429" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD429" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE429" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF429" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG429" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH429" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI429" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ429" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK429" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL429" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM429" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN429" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO429" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP429" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ429" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR429" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS429" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT429" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU429" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV429" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW429" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX429" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY429" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ429" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA429" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB429" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC429" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD429" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE429" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF429" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG429" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH429" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI429" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ429" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK429" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="n">
+        <v>4926374</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E430" s="2" t="n">
+        <v>45192.9375</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="I430" t="n">
+        <v>0</v>
+      </c>
+      <c r="J430" t="n">
+        <v>1</v>
+      </c>
+      <c r="K430" t="n">
+        <v>1</v>
+      </c>
+      <c r="L430" t="n">
+        <v>2</v>
+      </c>
+      <c r="M430" t="n">
+        <v>1</v>
+      </c>
+      <c r="N430" t="n">
+        <v>3</v>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>['47', '65']</t>
+        </is>
+      </c>
+      <c r="P430" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q430" t="n">
+        <v>9</v>
+      </c>
+      <c r="R430" t="n">
+        <v>3</v>
+      </c>
+      <c r="S430" t="n">
+        <v>12</v>
+      </c>
+      <c r="T430" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U430" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V430" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W430" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X430" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y430" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z430" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA430" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB430" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC430" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD430" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE430" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AF430" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG430" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH430" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI430" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ430" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK430" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL430" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM430" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN430" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO430" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP430" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ430" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR430" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS430" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT430" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU430" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV430" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW430" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX430" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY430" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ430" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA430" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB430" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC430" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD430" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE430" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF430" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG430" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH430" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI430" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ430" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK430" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="n">
+        <v>4926375</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E431" s="2" t="n">
+        <v>45192.97916666666</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="I431" t="n">
+        <v>2</v>
+      </c>
+      <c r="J431" t="n">
+        <v>2</v>
+      </c>
+      <c r="K431" t="n">
+        <v>4</v>
+      </c>
+      <c r="L431" t="n">
+        <v>3</v>
+      </c>
+      <c r="M431" t="n">
+        <v>2</v>
+      </c>
+      <c r="N431" t="n">
+        <v>5</v>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>['19', '29', '71']</t>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>['31', '43']</t>
+        </is>
+      </c>
+      <c r="Q431" t="n">
+        <v>6</v>
+      </c>
+      <c r="R431" t="n">
+        <v>2</v>
+      </c>
+      <c r="S431" t="n">
+        <v>8</v>
+      </c>
+      <c r="T431" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U431" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V431" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W431" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X431" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y431" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z431" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA431" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB431" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC431" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD431" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE431" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF431" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG431" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH431" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI431" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ431" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK431" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL431" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM431" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN431" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO431" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP431" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ431" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR431" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS431" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT431" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU431" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV431" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW431" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX431" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY431" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ431" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA431" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB431" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC431" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD431" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE431" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF431" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG431" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH431" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI431" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ431" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK431" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" t="n">
+        <v>4926376</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E432" s="2" t="n">
+        <v>45192.97916666666</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0</v>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="n">
+        <v>1</v>
+      </c>
+      <c r="N432" t="n">
+        <v>2</v>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q432" t="n">
+        <v>7</v>
+      </c>
+      <c r="R432" t="n">
+        <v>5</v>
+      </c>
+      <c r="S432" t="n">
+        <v>12</v>
+      </c>
+      <c r="T432" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U432" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V432" t="n">
+        <v>4</v>
+      </c>
+      <c r="W432" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X432" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y432" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z432" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA432" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB432" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC432" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD432" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE432" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF432" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG432" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH432" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI432" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ432" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK432" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL432" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM432" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN432" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO432" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP432" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ432" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR432" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS432" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT432" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU432" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV432" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW432" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX432" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY432" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ432" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA432" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB432" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC432" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD432" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE432" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF432" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG432" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH432" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI432" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ432" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK432" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" t="n">
+        <v>4926368</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E433" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0</v>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I433" t="n">
+        <v>2</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0</v>
+      </c>
+      <c r="K433" t="n">
+        <v>2</v>
+      </c>
+      <c r="L433" t="n">
+        <v>3</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N433" t="n">
+        <v>3</v>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>['2', '45+4', '54']</t>
+        </is>
+      </c>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q433" t="n">
+        <v>5</v>
+      </c>
+      <c r="R433" t="n">
+        <v>3</v>
+      </c>
+      <c r="S433" t="n">
+        <v>8</v>
+      </c>
+      <c r="T433" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U433" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V433" t="n">
+        <v>6</v>
+      </c>
+      <c r="W433" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X433" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y433" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z433" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA433" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB433" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC433" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD433" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE433" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF433" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG433" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH433" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI433" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ433" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK433" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL433" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM433" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN433" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO433" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP433" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ433" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR433" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS433" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT433" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AU433" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV433" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW433" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX433" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY433" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ433" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA433" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB433" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC433" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD433" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE433" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF433" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG433" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH433" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI433" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ433" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK433" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="n">
+        <v>4926377</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E434" s="2" t="n">
+        <v>45193.85416666666</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0</v>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
+        <v>0</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="n">
+        <v>1</v>
+      </c>
+      <c r="N434" t="n">
+        <v>2</v>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R434" t="n">
+        <v>7</v>
+      </c>
+      <c r="S434" t="n">
+        <v>7</v>
+      </c>
+      <c r="T434" t="n">
+        <v>3</v>
+      </c>
+      <c r="U434" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V434" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W434" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X434" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y434" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z434" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA434" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB434" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC434" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD434" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE434" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF434" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG434" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH434" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI434" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ434" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK434" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL434" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM434" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN434" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO434" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP434" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ434" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR434" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS434" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT434" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU434" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV434" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW434" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX434" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY434" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ434" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA434" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB434" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC434" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD434" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE434" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF434" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG434" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH434" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI434" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ434" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK434" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" t="n">
+        <v>4926378</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E435" s="2" t="n">
+        <v>45194.05902777778</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="I435" t="n">
+        <v>2</v>
+      </c>
+      <c r="J435" t="n">
+        <v>1</v>
+      </c>
+      <c r="K435" t="n">
+        <v>3</v>
+      </c>
+      <c r="L435" t="n">
+        <v>3</v>
+      </c>
+      <c r="M435" t="n">
+        <v>3</v>
+      </c>
+      <c r="N435" t="n">
+        <v>6</v>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>['11', '45+6', '75']</t>
+        </is>
+      </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>['45+2', '89', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q435" t="n">
+        <v>8</v>
+      </c>
+      <c r="R435" t="n">
+        <v>8</v>
+      </c>
+      <c r="S435" t="n">
+        <v>16</v>
+      </c>
+      <c r="T435" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U435" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V435" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W435" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X435" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y435" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z435" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA435" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB435" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC435" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD435" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE435" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF435" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG435" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH435" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI435" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ435" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK435" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL435" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM435" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN435" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO435" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP435" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ435" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR435" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS435" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT435" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU435" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV435" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW435" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX435" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY435" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ435" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA435" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB435" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC435" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD435" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE435" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF435" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG435" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH435" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI435" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ435" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK435" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -88838,22 +88838,22 @@
         <v>3.05</v>
       </c>
       <c r="BF435" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG435" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BH435" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI435" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ435" t="n">
         <v>8</v>
       </c>
       <c r="BK435" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -88838,22 +88838,22 @@
         <v>3.05</v>
       </c>
       <c r="BF435" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG435" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH435" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI435" t="n">
         <v>4</v>
-      </c>
-      <c r="BG435" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH435" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI435" t="n">
-        <v>6</v>
       </c>
       <c r="BJ435" t="n">
         <v>8</v>
       </c>
       <c r="BK435" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ435"/>
+  <dimension ref="A1:AZ437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.87</v>
@@ -5259,7 +5259,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.8</v>
@@ -10019,7 +10019,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR56" t="n">
         <v>0</v>
@@ -10356,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.67</v>
@@ -11719,7 +11719,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR66" t="n">
         <v>1.14</v>
@@ -14266,7 +14266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.8</v>
@@ -18349,7 +18349,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR105" t="n">
         <v>1.29</v>
@@ -20726,7 +20726,7 @@
         <v>0.75</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.27</v>
@@ -28549,7 +28549,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR165" t="n">
         <v>1.3</v>
@@ -29906,7 +29906,7 @@
         <v>1.17</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ173" t="n">
         <v>1</v>
@@ -30419,7 +30419,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR176" t="n">
         <v>1.23</v>
@@ -31266,7 +31266,7 @@
         <v>1.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ181" t="n">
         <v>1</v>
@@ -34669,7 +34669,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR201" t="n">
         <v>1.55</v>
@@ -36196,7 +36196,7 @@
         <v>1.43</v>
       </c>
       <c r="AP210" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ210" t="n">
         <v>0.93</v>
@@ -38236,7 +38236,7 @@
         <v>0.44</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ222" t="n">
         <v>0.53</v>
@@ -46056,7 +46056,7 @@
         <v>0.38</v>
       </c>
       <c r="AP268" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ268" t="n">
         <v>0.73</v>
@@ -47589,7 +47589,7 @@
         <v>2</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR277" t="n">
         <v>1.93</v>
@@ -49119,7 +49119,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ286" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR286" t="n">
         <v>1.72</v>
@@ -56086,7 +56086,7 @@
         <v>0.77</v>
       </c>
       <c r="AP327" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ327" t="n">
         <v>0.67</v>
@@ -61529,7 +61529,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ359" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR359" t="n">
         <v>1.61</v>
@@ -63399,7 +63399,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ370" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR370" t="n">
         <v>1.15</v>
@@ -64249,7 +64249,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ375" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR375" t="n">
         <v>1.62</v>
@@ -66286,7 +66286,7 @@
         <v>0.58</v>
       </c>
       <c r="AP387" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ387" t="n">
         <v>0.73</v>
@@ -68326,7 +68326,7 @@
         <v>1.54</v>
       </c>
       <c r="AP399" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ399" t="n">
         <v>1.47</v>
@@ -68499,7 +68499,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ400" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR400" t="n">
         <v>1.41</v>
@@ -71219,7 +71219,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ416" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR416" t="n">
         <v>1.46</v>
@@ -72406,7 +72406,7 @@
         <v>1</v>
       </c>
       <c r="AP423" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ423" t="n">
         <v>1</v>
@@ -73599,7 +73599,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ430" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR430" t="n">
         <v>1.78</v>
@@ -74477,6 +74477,346 @@
       </c>
       <c r="AZ435" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" t="n">
+        <v>4926284</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E436" s="2" t="n">
+        <v>45196.85416666666</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0</v>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="I436" t="n">
+        <v>1</v>
+      </c>
+      <c r="J436" t="n">
+        <v>1</v>
+      </c>
+      <c r="K436" t="n">
+        <v>2</v>
+      </c>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="n">
+        <v>1</v>
+      </c>
+      <c r="N436" t="n">
+        <v>2</v>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q436" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R436" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S436" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T436" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U436" t="n">
+        <v>3</v>
+      </c>
+      <c r="V436" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W436" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X436" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y436" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z436" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA436" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB436" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC436" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD436" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE436" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF436" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG436" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH436" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI436" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ436" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK436" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL436" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM436" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN436" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AO436" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP436" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ436" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR436" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS436" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT436" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU436" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV436" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW436" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX436" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY436" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ436" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" t="n">
+        <v>4926202</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E437" s="2" t="n">
+        <v>45196.9375</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0</v>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="I437" t="n">
+        <v>0</v>
+      </c>
+      <c r="J437" t="n">
+        <v>1</v>
+      </c>
+      <c r="K437" t="n">
+        <v>1</v>
+      </c>
+      <c r="L437" t="n">
+        <v>2</v>
+      </c>
+      <c r="M437" t="n">
+        <v>2</v>
+      </c>
+      <c r="N437" t="n">
+        <v>4</v>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>['47', '67']</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>['11', '78']</t>
+        </is>
+      </c>
+      <c r="Q437" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R437" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S437" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T437" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U437" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V437" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W437" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X437" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y437" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z437" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA437" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB437" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC437" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD437" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE437" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF437" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG437" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH437" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI437" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ437" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK437" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL437" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM437" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN437" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AO437" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP437" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AQ437" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR437" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS437" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT437" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU437" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV437" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW437" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX437" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY437" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ437" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ437"/>
+  <dimension ref="A1:AZ450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.73</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.5</v>
@@ -2879,7 +2879,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR18" t="n">
         <v>2.18</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.67</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.06</v>
@@ -4066,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR21" t="n">
         <v>0.93</v>
@@ -4239,7 +4239,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.37</v>
@@ -4409,7 +4409,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -4746,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -5596,10 +5596,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR30" t="n">
         <v>2.28</v>
@@ -5769,7 +5769,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR31" t="n">
         <v>1.7</v>
@@ -6279,7 +6279,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR34" t="n">
         <v>1.59</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.87</v>
@@ -6956,10 +6956,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.41</v>
@@ -7129,7 +7129,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR44" t="n">
         <v>2.1</v>
@@ -8149,7 +8149,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.06</v>
@@ -8486,7 +8486,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.87</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR49" t="n">
         <v>0.89</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.73</v>
@@ -9169,7 +9169,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR51" t="n">
         <v>0.99</v>
@@ -9339,7 +9339,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR52" t="n">
         <v>1.33</v>
@@ -9506,10 +9506,10 @@
         <v>3</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR53" t="n">
         <v>0</v>
@@ -9676,10 +9676,10 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR54" t="n">
         <v>1.38</v>
@@ -9846,7 +9846,7 @@
         <v>3</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.33</v>
@@ -10016,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.06</v>
@@ -10696,10 +10696,10 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60" t="n">
         <v>1.52</v>
@@ -11036,7 +11036,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.07</v>
@@ -11376,10 +11376,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR64" t="n">
         <v>1.56</v>
@@ -11549,7 +11549,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR65" t="n">
         <v>2.67</v>
@@ -11886,10 +11886,10 @@
         <v>1</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR67" t="n">
         <v>1.3</v>
@@ -12229,7 +12229,7 @@
         <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69" t="n">
         <v>1.85</v>
@@ -12566,10 +12566,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR71" t="n">
         <v>1.3</v>
@@ -12736,7 +12736,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.06</v>
@@ -12906,10 +12906,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR73" t="n">
         <v>1.3</v>
@@ -13076,10 +13076,10 @@
         <v>1.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR74" t="n">
         <v>1.99</v>
@@ -13246,7 +13246,7 @@
         <v>1.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.5</v>
@@ -13929,7 +13929,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR79" t="n">
         <v>1.27</v>
@@ -14096,7 +14096,7 @@
         <v>3</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.33</v>
@@ -14269,7 +14269,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR81" t="n">
         <v>1.74</v>
@@ -14436,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -14776,10 +14776,10 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR84" t="n">
         <v>1.84</v>
@@ -15116,10 +15116,10 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR86" t="n">
         <v>1.24</v>
@@ -15286,10 +15286,10 @@
         <v>0.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR87" t="n">
         <v>1.49</v>
@@ -15456,10 +15456,10 @@
         <v>0</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR88" t="n">
         <v>1.29</v>
@@ -15799,7 +15799,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR90" t="n">
         <v>1.26</v>
@@ -15969,7 +15969,7 @@
         <v>2</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR91" t="n">
         <v>1.97</v>
@@ -16306,7 +16306,7 @@
         <v>0.67</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.8</v>
@@ -16646,7 +16646,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.27</v>
@@ -16819,7 +16819,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR96" t="n">
         <v>1.86</v>
@@ -17156,10 +17156,10 @@
         <v>0.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR98" t="n">
         <v>2.05</v>
@@ -17666,7 +17666,7 @@
         <v>1.33</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.07</v>
@@ -18006,7 +18006,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -18176,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.67</v>
@@ -18519,7 +18519,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR106" t="n">
         <v>1.15</v>
@@ -19029,7 +19029,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR109" t="n">
         <v>1.13</v>
@@ -19199,7 +19199,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR110" t="n">
         <v>1.56</v>
@@ -19366,10 +19366,10 @@
         <v>1.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR111" t="n">
         <v>1.69</v>
@@ -19536,7 +19536,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -19879,7 +19879,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR114" t="n">
         <v>1.17</v>
@@ -20216,10 +20216,10 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR116" t="n">
         <v>1.46</v>
@@ -20389,7 +20389,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR117" t="n">
         <v>1.49</v>
@@ -20556,7 +20556,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ118" t="n">
         <v>1</v>
@@ -20896,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.73</v>
@@ -21066,7 +21066,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ121" t="n">
         <v>1</v>
@@ -21239,7 +21239,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR122" t="n">
         <v>2</v>
@@ -21406,7 +21406,7 @@
         <v>2.25</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.31</v>
@@ -21576,10 +21576,10 @@
         <v>1</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR124" t="n">
         <v>1.96</v>
@@ -21919,7 +21919,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR126" t="n">
         <v>1.8</v>
@@ -22086,7 +22086,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.07</v>
@@ -22256,7 +22256,7 @@
         <v>0</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.73</v>
@@ -22429,7 +22429,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR129" t="n">
         <v>1.59</v>
@@ -22596,10 +22596,10 @@
         <v>1.25</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR130" t="n">
         <v>1.54</v>
@@ -22766,7 +22766,7 @@
         <v>0.5</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.8</v>
@@ -22936,10 +22936,10 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR132" t="n">
         <v>1.23</v>
@@ -23106,10 +23106,10 @@
         <v>0.2</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR133" t="n">
         <v>1.66</v>
@@ -23279,7 +23279,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR134" t="n">
         <v>1.68</v>
@@ -23619,7 +23619,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR136" t="n">
         <v>1.44</v>
@@ -23789,7 +23789,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR137" t="n">
         <v>1.87</v>
@@ -23956,7 +23956,7 @@
         <v>1</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.6</v>
@@ -24129,7 +24129,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR139" t="n">
         <v>1.22</v>
@@ -24296,7 +24296,7 @@
         <v>1.75</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -24639,7 +24639,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR142" t="n">
         <v>1.33</v>
@@ -24976,7 +24976,7 @@
         <v>1</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.07</v>
@@ -25316,10 +25316,10 @@
         <v>0.25</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR146" t="n">
         <v>1.58</v>
@@ -25486,7 +25486,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.5</v>
@@ -25656,10 +25656,10 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR148" t="n">
         <v>1.31</v>
@@ -25826,7 +25826,7 @@
         <v>1</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.6</v>
@@ -25996,7 +25996,7 @@
         <v>1.8</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.33</v>
@@ -26169,7 +26169,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR151" t="n">
         <v>1.3</v>
@@ -26339,7 +26339,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR152" t="n">
         <v>1.67</v>
@@ -26676,10 +26676,10 @@
         <v>0.33</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR154" t="n">
         <v>1.64</v>
@@ -26849,7 +26849,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR155" t="n">
         <v>1.67</v>
@@ -27016,7 +27016,7 @@
         <v>1.75</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.67</v>
@@ -27356,7 +27356,7 @@
         <v>2</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158" t="n">
         <v>1</v>
@@ -27869,7 +27869,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR161" t="n">
         <v>1.45</v>
@@ -28036,10 +28036,10 @@
         <v>1.4</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR162" t="n">
         <v>1.32</v>
@@ -28206,10 +28206,10 @@
         <v>0.8</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR163" t="n">
         <v>1.61</v>
@@ -28716,10 +28716,10 @@
         <v>0.4</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR166" t="n">
         <v>2</v>
@@ -28886,10 +28886,10 @@
         <v>0.29</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR167" t="n">
         <v>1.42</v>
@@ -29056,7 +29056,7 @@
         <v>0.5</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.73</v>
@@ -29399,7 +29399,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170" t="n">
         <v>1.31</v>
@@ -29569,7 +29569,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR171" t="n">
         <v>1.27</v>
@@ -29736,7 +29736,7 @@
         <v>0.4</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.8</v>
@@ -30076,7 +30076,7 @@
         <v>0.6</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.73</v>
@@ -30589,7 +30589,7 @@
         <v>2</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR177" t="n">
         <v>1.99</v>
@@ -30759,7 +30759,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR178" t="n">
         <v>1.6</v>
@@ -30929,7 +30929,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR179" t="n">
         <v>1.84</v>
@@ -31096,10 +31096,10 @@
         <v>0.43</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR180" t="n">
         <v>1.57</v>
@@ -31436,7 +31436,7 @@
         <v>1.6</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.67</v>
@@ -32626,7 +32626,7 @@
         <v>0.8</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.5</v>
@@ -32796,10 +32796,10 @@
         <v>0.75</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR190" t="n">
         <v>1.53</v>
@@ -32969,7 +32969,7 @@
         <v>2</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR191" t="n">
         <v>1.97</v>
@@ -33306,10 +33306,10 @@
         <v>1.67</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR193" t="n">
         <v>2.02</v>
@@ -33476,7 +33476,7 @@
         <v>1.14</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ194" t="n">
         <v>1</v>
@@ -33646,7 +33646,7 @@
         <v>0.86</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.07</v>
@@ -33819,7 +33819,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR196" t="n">
         <v>1.54</v>
@@ -33986,10 +33986,10 @@
         <v>0.6</v>
       </c>
       <c r="AP197" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR197" t="n">
         <v>1.56</v>
@@ -34326,10 +34326,10 @@
         <v>1.17</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR199" t="n">
         <v>1.21</v>
@@ -34666,7 +34666,7 @@
         <v>0.5</v>
       </c>
       <c r="AP201" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.06</v>
@@ -34836,10 +34836,10 @@
         <v>1.2</v>
       </c>
       <c r="AP202" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR202" t="n">
         <v>1.6</v>
@@ -35006,10 +35006,10 @@
         <v>1.17</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR203" t="n">
         <v>2</v>
@@ -35179,7 +35179,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR204" t="n">
         <v>1.47</v>
@@ -35519,7 +35519,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR206" t="n">
         <v>1.61</v>
@@ -35686,7 +35686,7 @@
         <v>0.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.87</v>
@@ -36029,7 +36029,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR209" t="n">
         <v>1.63</v>
@@ -36199,7 +36199,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR210" t="n">
         <v>1.73</v>
@@ -36366,10 +36366,10 @@
         <v>0.67</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR211" t="n">
         <v>1.43</v>
@@ -36539,7 +36539,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR212" t="n">
         <v>1.51</v>
@@ -36706,7 +36706,7 @@
         <v>1.13</v>
       </c>
       <c r="AP213" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ213" t="n">
         <v>0.6</v>
@@ -36876,7 +36876,7 @@
         <v>0.5</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214" t="n">
         <v>0.73</v>
@@ -37389,7 +37389,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR217" t="n">
         <v>1.69</v>
@@ -37559,7 +37559,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR218" t="n">
         <v>1.57</v>
@@ -37726,7 +37726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.67</v>
@@ -38069,7 +38069,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR221" t="n">
         <v>1.75</v>
@@ -38239,7 +38239,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR222" t="n">
         <v>1.7</v>
@@ -38406,7 +38406,7 @@
         <v>1.83</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ223" t="n">
         <v>1.67</v>
@@ -38576,7 +38576,7 @@
         <v>1</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ224" t="n">
         <v>1</v>
@@ -38749,7 +38749,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR225" t="n">
         <v>1.33</v>
@@ -38916,10 +38916,10 @@
         <v>1.25</v>
       </c>
       <c r="AP226" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR226" t="n">
         <v>1.93</v>
@@ -39596,7 +39596,7 @@
         <v>0.29</v>
       </c>
       <c r="AP230" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ230" t="n">
         <v>0.67</v>
@@ -39766,10 +39766,10 @@
         <v>0.63</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR231" t="n">
         <v>1.58</v>
@@ -39936,10 +39936,10 @@
         <v>0.67</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR232" t="n">
         <v>2</v>
@@ -40449,7 +40449,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR235" t="n">
         <v>1.32</v>
@@ -40616,7 +40616,7 @@
         <v>1.57</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ236" t="n">
         <v>1.06</v>
@@ -40956,7 +40956,7 @@
         <v>0.43</v>
       </c>
       <c r="AP238" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ238" t="n">
         <v>0.73</v>
@@ -41296,7 +41296,7 @@
         <v>1</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ240" t="n">
         <v>0.6</v>
@@ -41466,7 +41466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ241" t="n">
         <v>1</v>
@@ -41809,7 +41809,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR243" t="n">
         <v>1.72</v>
@@ -41979,7 +41979,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR244" t="n">
         <v>1.94</v>
@@ -42146,10 +42146,10 @@
         <v>1.71</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ245" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR245" t="n">
         <v>1.89</v>
@@ -42319,7 +42319,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR246" t="n">
         <v>1.41</v>
@@ -42486,7 +42486,7 @@
         <v>0.63</v>
       </c>
       <c r="AP247" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ247" t="n">
         <v>0.8</v>
@@ -42659,7 +42659,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ248" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR248" t="n">
         <v>1.53</v>
@@ -43336,7 +43336,7 @@
         <v>2</v>
       </c>
       <c r="AP252" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ252" t="n">
         <v>1.67</v>
@@ -43676,7 +43676,7 @@
         <v>1.43</v>
       </c>
       <c r="AP254" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.31</v>
@@ -43849,7 +43849,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR255" t="n">
         <v>1.38</v>
@@ -44016,10 +44016,10 @@
         <v>1.25</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR256" t="n">
         <v>1.52</v>
@@ -44186,10 +44186,10 @@
         <v>1.11</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR257" t="n">
         <v>1.57</v>
@@ -44529,7 +44529,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR259" t="n">
         <v>1.76</v>
@@ -44866,10 +44866,10 @@
         <v>0.67</v>
       </c>
       <c r="AP261" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ261" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR261" t="n">
         <v>1.33</v>
@@ -45036,7 +45036,7 @@
         <v>1.56</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ262" t="n">
         <v>1.5</v>
@@ -45209,7 +45209,7 @@
         <v>2</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR263" t="n">
         <v>1.98</v>
@@ -45376,10 +45376,10 @@
         <v>0.7</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR264" t="n">
         <v>1.93</v>
@@ -45549,7 +45549,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ265" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR265" t="n">
         <v>1.61</v>
@@ -45719,7 +45719,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR266" t="n">
         <v>1.5</v>
@@ -45886,7 +45886,7 @@
         <v>0.44</v>
       </c>
       <c r="AP267" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ267" t="n">
         <v>0.27</v>
@@ -46229,7 +46229,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR269" t="n">
         <v>1.49</v>
@@ -46396,7 +46396,7 @@
         <v>1.33</v>
       </c>
       <c r="AP270" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.06</v>
@@ -46566,7 +46566,7 @@
         <v>0.89</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ271" t="n">
         <v>1.07</v>
@@ -46739,7 +46739,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ272" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR272" t="n">
         <v>1.3</v>
@@ -46909,7 +46909,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR273" t="n">
         <v>1.72</v>
@@ -47246,7 +47246,7 @@
         <v>0.67</v>
       </c>
       <c r="AP275" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ275" t="n">
         <v>0.8</v>
@@ -48099,7 +48099,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ280" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR280" t="n">
         <v>1.61</v>
@@ -48266,10 +48266,10 @@
         <v>0.88</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR281" t="n">
         <v>1.25</v>
@@ -48436,7 +48436,7 @@
         <v>0.78</v>
       </c>
       <c r="AP282" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ282" t="n">
         <v>0.73</v>
@@ -48776,10 +48776,10 @@
         <v>1.1</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ284" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR284" t="n">
         <v>1.49</v>
@@ -48946,7 +48946,7 @@
         <v>1.7</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ285" t="n">
         <v>1.5</v>
@@ -49459,7 +49459,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ288" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR288" t="n">
         <v>1.54</v>
@@ -49626,7 +49626,7 @@
         <v>1.1</v>
       </c>
       <c r="AP289" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ289" t="n">
         <v>1</v>
@@ -49796,7 +49796,7 @@
         <v>0.9</v>
       </c>
       <c r="AP290" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ290" t="n">
         <v>0.6</v>
@@ -49969,7 +49969,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ291" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR291" t="n">
         <v>1.4</v>
@@ -50479,7 +50479,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ294" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR294" t="n">
         <v>1.7</v>
@@ -50646,7 +50646,7 @@
         <v>0.89</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ295" t="n">
         <v>0.87</v>
@@ -50816,7 +50816,7 @@
         <v>0.4</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ296" t="n">
         <v>0.27</v>
@@ -51156,7 +51156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ298" t="n">
         <v>1</v>
@@ -51329,7 +51329,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR299" t="n">
         <v>1.6</v>
@@ -51499,7 +51499,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR300" t="n">
         <v>1.31</v>
@@ -51666,7 +51666,7 @@
         <v>1.3</v>
       </c>
       <c r="AP301" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ301" t="n">
         <v>1</v>
@@ -52006,7 +52006,7 @@
         <v>1.44</v>
       </c>
       <c r="AP303" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ303" t="n">
         <v>1.31</v>
@@ -52346,10 +52346,10 @@
         <v>0.75</v>
       </c>
       <c r="AP305" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ305" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR305" t="n">
         <v>1.81</v>
@@ -52686,10 +52686,10 @@
         <v>0.73</v>
       </c>
       <c r="AP307" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ307" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR307" t="n">
         <v>1.35</v>
@@ -52859,7 +52859,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ308" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR308" t="n">
         <v>1.62</v>
@@ -53196,10 +53196,10 @@
         <v>0.9</v>
       </c>
       <c r="AP310" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ310" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR310" t="n">
         <v>1.48</v>
@@ -53366,10 +53366,10 @@
         <v>1.1</v>
       </c>
       <c r="AP311" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ311" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR311" t="n">
         <v>1.76</v>
@@ -53536,10 +53536,10 @@
         <v>1.22</v>
       </c>
       <c r="AP312" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ312" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR312" t="n">
         <v>1.82</v>
@@ -53709,7 +53709,7 @@
         <v>2</v>
       </c>
       <c r="AQ313" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR313" t="n">
         <v>1.95</v>
@@ -53876,10 +53876,10 @@
         <v>1.4</v>
       </c>
       <c r="AP314" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ314" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR314" t="n">
         <v>1.61</v>
@@ -54046,7 +54046,7 @@
         <v>1</v>
       </c>
       <c r="AP315" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ315" t="n">
         <v>1.07</v>
@@ -54216,7 +54216,7 @@
         <v>1.18</v>
       </c>
       <c r="AP316" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ316" t="n">
         <v>1.33</v>
@@ -54556,10 +54556,10 @@
         <v>1</v>
       </c>
       <c r="AP318" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ318" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR318" t="n">
         <v>1.59</v>
@@ -54726,10 +54726,10 @@
         <v>0.64</v>
       </c>
       <c r="AP319" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ319" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR319" t="n">
         <v>1.46</v>
@@ -54899,7 +54899,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ320" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR320" t="n">
         <v>1.12</v>
@@ -55069,7 +55069,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ321" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR321" t="n">
         <v>1.43</v>
@@ -55406,10 +55406,10 @@
         <v>1.1</v>
       </c>
       <c r="AP323" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ323" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR323" t="n">
         <v>1.79</v>
@@ -55576,7 +55576,7 @@
         <v>1.17</v>
       </c>
       <c r="AP324" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ324" t="n">
         <v>1</v>
@@ -55919,7 +55919,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ326" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR326" t="n">
         <v>1.39</v>
@@ -56089,7 +56089,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ327" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR327" t="n">
         <v>1.67</v>
@@ -56766,7 +56766,7 @@
         <v>0.4</v>
       </c>
       <c r="AP331" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ331" t="n">
         <v>0.73</v>
@@ -57106,7 +57106,7 @@
         <v>0.45</v>
       </c>
       <c r="AP333" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ333" t="n">
         <v>0.67</v>
@@ -57279,7 +57279,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ334" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR334" t="n">
         <v>1.53</v>
@@ -57619,7 +57619,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR336" t="n">
         <v>1.62</v>
@@ -57786,7 +57786,7 @@
         <v>0.73</v>
       </c>
       <c r="AP337" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ337" t="n">
         <v>0.8</v>
@@ -57956,10 +57956,10 @@
         <v>1.55</v>
       </c>
       <c r="AP338" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ338" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR338" t="n">
         <v>1.79</v>
@@ -58126,7 +58126,7 @@
         <v>1.08</v>
       </c>
       <c r="AP339" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ339" t="n">
         <v>1</v>
@@ -58466,10 +58466,10 @@
         <v>0.42</v>
       </c>
       <c r="AP341" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ341" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR341" t="n">
         <v>1.42</v>
@@ -58636,10 +58636,10 @@
         <v>0.67</v>
       </c>
       <c r="AP342" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ342" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR342" t="n">
         <v>1.47</v>
@@ -58976,10 +58976,10 @@
         <v>1</v>
       </c>
       <c r="AP344" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ344" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR344" t="n">
         <v>1.69</v>
@@ -59146,10 +59146,10 @@
         <v>0.64</v>
       </c>
       <c r="AP345" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ345" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR345" t="n">
         <v>1.79</v>
@@ -59826,7 +59826,7 @@
         <v>0.33</v>
       </c>
       <c r="AP349" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ349" t="n">
         <v>0.27</v>
@@ -60336,7 +60336,7 @@
         <v>0.36</v>
       </c>
       <c r="AP352" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ352" t="n">
         <v>0.73</v>
@@ -60506,7 +60506,7 @@
         <v>1.45</v>
       </c>
       <c r="AP353" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ353" t="n">
         <v>1.31</v>
@@ -60679,7 +60679,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ354" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR354" t="n">
         <v>1.55</v>
@@ -60849,7 +60849,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ355" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR355" t="n">
         <v>1.42</v>
@@ -61019,7 +61019,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ356" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR356" t="n">
         <v>1.7</v>
@@ -61189,7 +61189,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ357" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR357" t="n">
         <v>1.25</v>
@@ -61696,10 +61696,10 @@
         <v>1</v>
       </c>
       <c r="AP360" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ360" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR360" t="n">
         <v>1.77</v>
@@ -61869,7 +61869,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ361" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR361" t="n">
         <v>1.68</v>
@@ -62039,7 +62039,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ362" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR362" t="n">
         <v>1.73</v>
@@ -62206,7 +62206,7 @@
         <v>0.92</v>
       </c>
       <c r="AP363" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ363" t="n">
         <v>1.06</v>
@@ -62376,10 +62376,10 @@
         <v>1.31</v>
       </c>
       <c r="AP364" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ364" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR364" t="n">
         <v>1.4</v>
@@ -62549,7 +62549,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ365" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR365" t="n">
         <v>1.63</v>
@@ -62716,7 +62716,7 @@
         <v>0.64</v>
       </c>
       <c r="AP366" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ366" t="n">
         <v>0.73</v>
@@ -63056,10 +63056,10 @@
         <v>0.83</v>
       </c>
       <c r="AP368" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ368" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR368" t="n">
         <v>1.71</v>
@@ -63229,7 +63229,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ369" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR369" t="n">
         <v>1.52</v>
@@ -63566,7 +63566,7 @@
         <v>0.82</v>
       </c>
       <c r="AP371" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ371" t="n">
         <v>0.87</v>
@@ -64589,7 +64589,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ377" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR377" t="n">
         <v>1.56</v>
@@ -64926,10 +64926,10 @@
         <v>0.85</v>
       </c>
       <c r="AP379" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ379" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR379" t="n">
         <v>1.56</v>
@@ -65436,10 +65436,10 @@
         <v>1</v>
       </c>
       <c r="AP382" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ382" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR382" t="n">
         <v>1.59</v>
@@ -65949,7 +65949,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ385" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR385" t="n">
         <v>1.59</v>
@@ -66116,7 +66116,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP386" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ386" t="n">
         <v>0.67</v>
@@ -66629,7 +66629,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ389" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR389" t="n">
         <v>1.53</v>
@@ -66796,10 +66796,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP390" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ390" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR390" t="n">
         <v>1.32</v>
@@ -67306,7 +67306,7 @@
         <v>1.23</v>
       </c>
       <c r="AP393" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ393" t="n">
         <v>1.31</v>
@@ -67989,7 +67989,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ397" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR397" t="n">
         <v>1.42</v>
@@ -68156,7 +68156,7 @@
         <v>0.92</v>
       </c>
       <c r="AP398" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ398" t="n">
         <v>0.87</v>
@@ -68329,7 +68329,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ399" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR399" t="n">
         <v>1.58</v>
@@ -68496,7 +68496,7 @@
         <v>1.08</v>
       </c>
       <c r="AP400" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ400" t="n">
         <v>1.06</v>
@@ -68666,7 +68666,7 @@
         <v>1.21</v>
       </c>
       <c r="AP401" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ401" t="n">
         <v>1.31</v>
@@ -68839,7 +68839,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ402" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR402" t="n">
         <v>1.76</v>
@@ -69009,7 +69009,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ403" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR403" t="n">
         <v>1.28</v>
@@ -69176,7 +69176,7 @@
         <v>1.08</v>
       </c>
       <c r="AP404" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ404" t="n">
         <v>1</v>
@@ -69689,7 +69689,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ407" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR407" t="n">
         <v>1.54</v>
@@ -69859,7 +69859,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ408" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR408" t="n">
         <v>1.44</v>
@@ -70029,7 +70029,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ409" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR409" t="n">
         <v>1.29</v>
@@ -70196,10 +70196,10 @@
         <v>0.86</v>
       </c>
       <c r="AP410" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ410" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR410" t="n">
         <v>1.87</v>
@@ -70536,7 +70536,7 @@
         <v>0.31</v>
       </c>
       <c r="AP412" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ412" t="n">
         <v>0.27</v>
@@ -70706,10 +70706,10 @@
         <v>0.86</v>
       </c>
       <c r="AP413" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ413" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR413" t="n">
         <v>1.53</v>
@@ -71046,7 +71046,7 @@
         <v>1</v>
       </c>
       <c r="AP415" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ415" t="n">
         <v>1</v>
@@ -71216,7 +71216,7 @@
         <v>1.23</v>
       </c>
       <c r="AP416" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ416" t="n">
         <v>1.06</v>
@@ -71559,7 +71559,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ418" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR418" t="n">
         <v>1.78</v>
@@ -71726,10 +71726,10 @@
         <v>1.36</v>
       </c>
       <c r="AP419" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ419" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR419" t="n">
         <v>1.4</v>
@@ -71899,7 +71899,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ420" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR420" t="n">
         <v>1.54</v>
@@ -72066,7 +72066,7 @@
         <v>1.43</v>
       </c>
       <c r="AP421" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ421" t="n">
         <v>1.33</v>
@@ -72239,7 +72239,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ422" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR422" t="n">
         <v>1.67</v>
@@ -72579,7 +72579,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ424" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR424" t="n">
         <v>1.42</v>
@@ -74276,7 +74276,7 @@
         <v>0.71</v>
       </c>
       <c r="AP434" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ434" t="n">
         <v>0.73</v>
@@ -74619,7 +74619,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ436" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR436" t="n">
         <v>1.51</v>
@@ -74786,7 +74786,7 @@
         <v>1.07</v>
       </c>
       <c r="AP437" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ437" t="n">
         <v>1.06</v>
@@ -74817,6 +74817,2216 @@
       </c>
       <c r="AZ437" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" t="n">
+        <v>4926381</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E438" s="2" t="n">
+        <v>45199.85416666666</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
+        <v>0</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L438" t="n">
+        <v>2</v>
+      </c>
+      <c r="M438" t="n">
+        <v>1</v>
+      </c>
+      <c r="N438" t="n">
+        <v>3</v>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>['64', '85']</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q438" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R438" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S438" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T438" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U438" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V438" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W438" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X438" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y438" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z438" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA438" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB438" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC438" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD438" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE438" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF438" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG438" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH438" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI438" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ438" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK438" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL438" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM438" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN438" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO438" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP438" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AQ438" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR438" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS438" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT438" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU438" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV438" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW438" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX438" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY438" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ438" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" t="n">
+        <v>4926384</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E439" s="2" t="n">
+        <v>45199.85416666666</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0</v>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="I439" t="n">
+        <v>2</v>
+      </c>
+      <c r="J439" t="n">
+        <v>2</v>
+      </c>
+      <c r="K439" t="n">
+        <v>4</v>
+      </c>
+      <c r="L439" t="n">
+        <v>2</v>
+      </c>
+      <c r="M439" t="n">
+        <v>3</v>
+      </c>
+      <c r="N439" t="n">
+        <v>5</v>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>['39', '44']</t>
+        </is>
+      </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>['28', '35', '72']</t>
+        </is>
+      </c>
+      <c r="Q439" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R439" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S439" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T439" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U439" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V439" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W439" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X439" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y439" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z439" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA439" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB439" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC439" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD439" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE439" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF439" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG439" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH439" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI439" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AJ439" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK439" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL439" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM439" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN439" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO439" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP439" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ439" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR439" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS439" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT439" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU439" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV439" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW439" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX439" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY439" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ439" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" t="n">
+        <v>4926383</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E440" s="2" t="n">
+        <v>45199.85416666666</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0</v>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="I440" t="n">
+        <v>1</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0</v>
+      </c>
+      <c r="K440" t="n">
+        <v>1</v>
+      </c>
+      <c r="L440" t="n">
+        <v>3</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N440" t="n">
+        <v>3</v>
+      </c>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>['19', '50', '54']</t>
+        </is>
+      </c>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q440" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R440" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S440" t="n">
+        <v>5</v>
+      </c>
+      <c r="T440" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U440" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V440" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W440" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X440" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y440" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z440" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA440" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB440" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC440" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD440" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE440" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF440" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG440" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH440" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI440" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ440" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK440" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL440" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM440" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN440" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO440" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AP440" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ440" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR440" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS440" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT440" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU440" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV440" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW440" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX440" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY440" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ440" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" t="n">
+        <v>4926382</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E441" s="2" t="n">
+        <v>45199.85416666666</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0</v>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>1</v>
+      </c>
+      <c r="N441" t="n">
+        <v>1</v>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q441" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R441" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S441" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T441" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U441" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V441" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W441" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X441" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y441" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z441" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA441" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB441" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC441" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD441" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE441" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF441" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG441" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH441" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI441" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ441" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK441" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL441" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM441" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN441" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO441" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP441" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ441" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR441" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS441" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT441" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU441" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV441" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW441" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX441" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY441" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ441" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" t="n">
+        <v>4926379</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E442" s="2" t="n">
+        <v>45199.85416666666</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="n">
+        <v>1</v>
+      </c>
+      <c r="N442" t="n">
+        <v>2</v>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q442" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R442" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S442" t="n">
+        <v>4</v>
+      </c>
+      <c r="T442" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U442" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V442" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W442" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X442" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y442" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z442" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA442" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB442" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC442" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD442" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE442" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF442" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG442" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH442" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI442" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ442" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK442" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL442" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM442" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN442" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO442" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP442" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AQ442" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR442" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS442" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT442" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU442" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV442" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW442" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX442" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY442" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ442" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" t="n">
+        <v>4926388</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E443" s="2" t="n">
+        <v>45199.89583333334</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="I443" t="n">
+        <v>0</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L443" t="n">
+        <v>4</v>
+      </c>
+      <c r="M443" t="n">
+        <v>1</v>
+      </c>
+      <c r="N443" t="n">
+        <v>5</v>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>['73', '75', '80', '85']</t>
+        </is>
+      </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q443" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R443" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S443" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T443" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U443" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V443" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W443" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X443" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y443" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z443" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA443" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB443" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC443" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD443" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE443" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF443" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG443" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH443" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI443" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ443" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK443" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL443" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM443" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN443" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO443" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP443" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AQ443" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR443" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS443" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT443" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU443" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV443" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW443" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX443" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY443" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ443" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" t="n">
+        <v>4926385</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E444" s="2" t="n">
+        <v>45199.89583333334</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0</v>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N444" t="n">
+        <v>0</v>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q444" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R444" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S444" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T444" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U444" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V444" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W444" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X444" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y444" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z444" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA444" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB444" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC444" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD444" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE444" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF444" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AG444" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH444" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI444" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ444" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK444" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL444" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM444" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN444" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO444" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP444" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ444" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR444" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS444" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT444" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU444" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV444" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW444" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX444" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY444" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ444" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" t="n">
+        <v>4926386</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E445" s="2" t="n">
+        <v>45199.89583333334</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0</v>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="n">
+        <v>1</v>
+      </c>
+      <c r="N445" t="n">
+        <v>2</v>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q445" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R445" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S445" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T445" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U445" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V445" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W445" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X445" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y445" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z445" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA445" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB445" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC445" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD445" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE445" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF445" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG445" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH445" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI445" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ445" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK445" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL445" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM445" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN445" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO445" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP445" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ445" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR445" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS445" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT445" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU445" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV445" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW445" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX445" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY445" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ445" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="n">
+        <v>4926387</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E446" s="2" t="n">
+        <v>45199.89583333334</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0</v>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N446" t="n">
+        <v>0</v>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q446" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R446" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S446" t="n">
+        <v>4</v>
+      </c>
+      <c r="T446" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U446" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V446" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W446" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X446" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y446" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z446" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA446" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB446" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC446" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD446" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE446" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF446" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG446" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH446" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI446" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ446" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK446" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL446" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM446" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN446" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO446" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP446" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ446" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR446" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS446" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT446" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU446" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV446" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW446" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX446" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY446" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ446" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="n">
+        <v>4926380</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E447" s="2" t="n">
+        <v>45199.89722222222</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0</v>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="n">
+        <v>1</v>
+      </c>
+      <c r="N447" t="n">
+        <v>2</v>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q447" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R447" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S447" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T447" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U447" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V447" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W447" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X447" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y447" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z447" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA447" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB447" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC447" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD447" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE447" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF447" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG447" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH447" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI447" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ447" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK447" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL447" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM447" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN447" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO447" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP447" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ447" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR447" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS447" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT447" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU447" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV447" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW447" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX447" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY447" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ447" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="n">
+        <v>4926389</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E448" s="2" t="n">
+        <v>45199.9375</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="I448" t="n">
+        <v>1</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
+      <c r="K448" t="n">
+        <v>1</v>
+      </c>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N448" t="n">
+        <v>1</v>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q448" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R448" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S448" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T448" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U448" t="n">
+        <v>3</v>
+      </c>
+      <c r="V448" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W448" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X448" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y448" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z448" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA448" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB448" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC448" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD448" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE448" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF448" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG448" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH448" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI448" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ448" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK448" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL448" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM448" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN448" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AO448" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AP448" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ448" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR448" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS448" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT448" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU448" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV448" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW448" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX448" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY448" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ448" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="n">
+        <v>4926390</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E449" s="2" t="n">
+        <v>45199.97916666666</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0</v>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="I449" t="n">
+        <v>3</v>
+      </c>
+      <c r="J449" t="n">
+        <v>2</v>
+      </c>
+      <c r="K449" t="n">
+        <v>5</v>
+      </c>
+      <c r="L449" t="n">
+        <v>3</v>
+      </c>
+      <c r="M449" t="n">
+        <v>3</v>
+      </c>
+      <c r="N449" t="n">
+        <v>6</v>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>['10', '43', '45+1']</t>
+        </is>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>['5', '38', '76']</t>
+        </is>
+      </c>
+      <c r="Q449" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R449" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S449" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T449" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U449" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V449" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W449" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X449" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y449" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z449" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA449" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB449" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC449" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD449" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE449" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF449" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG449" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH449" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI449" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ449" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK449" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL449" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM449" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN449" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO449" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP449" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ449" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR449" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS449" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT449" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU449" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV449" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW449" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX449" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY449" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ449" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="n">
+        <v>4926391</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E450" s="2" t="n">
+        <v>45199.97916666666</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0</v>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="I450" t="n">
+        <v>1</v>
+      </c>
+      <c r="J450" t="n">
+        <v>1</v>
+      </c>
+      <c r="K450" t="n">
+        <v>2</v>
+      </c>
+      <c r="L450" t="n">
+        <v>2</v>
+      </c>
+      <c r="M450" t="n">
+        <v>2</v>
+      </c>
+      <c r="N450" t="n">
+        <v>4</v>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>['2', '57']</t>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>['11', '62']</t>
+        </is>
+      </c>
+      <c r="Q450" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R450" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S450" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T450" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U450" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V450" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W450" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X450" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y450" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z450" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA450" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB450" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC450" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD450" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE450" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF450" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG450" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH450" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI450" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ450" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK450" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL450" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM450" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN450" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO450" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP450" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ450" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR450" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS450" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT450" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU450" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV450" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW450" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX450" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY450" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ450" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ450"/>
+  <dimension ref="A1:AZ451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,7 +2539,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.8100000000000001</v>
@@ -5089,7 +5089,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR27" t="n">
         <v>2.09</v>
@@ -7636,7 +7636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ42" t="n">
         <v>1</v>
@@ -12226,7 +12226,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.9399999999999999</v>
@@ -13249,7 +13249,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR75" t="n">
         <v>1.48</v>
@@ -15966,7 +15966,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.8100000000000001</v>
@@ -18689,7 +18689,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR107" t="n">
         <v>1.38</v>
@@ -25489,7 +25489,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR147" t="n">
         <v>1.24</v>
@@ -30586,7 +30586,7 @@
         <v>0.71</v>
       </c>
       <c r="AP177" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.75</v>
@@ -32629,7 +32629,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR189" t="n">
         <v>1.61</v>
@@ -32966,7 +32966,7 @@
         <v>0.33</v>
       </c>
       <c r="AP191" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.75</v>
@@ -34499,7 +34499,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR200" t="n">
         <v>1.44</v>
@@ -39089,7 +39089,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR227" t="n">
         <v>1.5</v>
@@ -40276,7 +40276,7 @@
         <v>0.88</v>
       </c>
       <c r="AP234" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.07</v>
@@ -42826,7 +42826,7 @@
         <v>0.25</v>
       </c>
       <c r="AP249" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ249" t="n">
         <v>0.67</v>
@@ -43169,7 +43169,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR251" t="n">
         <v>1.53</v>
@@ -45039,7 +45039,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR262" t="n">
         <v>1.65</v>
@@ -45206,7 +45206,7 @@
         <v>1.38</v>
       </c>
       <c r="AP263" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ263" t="n">
         <v>1.44</v>
@@ -47586,7 +47586,7 @@
         <v>0.43</v>
       </c>
       <c r="AP277" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ277" t="n">
         <v>1.06</v>
@@ -48949,7 +48949,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ285" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR285" t="n">
         <v>1.47</v>
@@ -53706,7 +53706,7 @@
         <v>0.6</v>
       </c>
       <c r="AP313" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ313" t="n">
         <v>0.75</v>
@@ -54389,7 +54389,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ317" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR317" t="n">
         <v>1.72</v>
@@ -55236,7 +55236,7 @@
         <v>1.6</v>
       </c>
       <c r="AP322" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ322" t="n">
         <v>1.31</v>
@@ -59486,7 +59486,7 @@
         <v>0.82</v>
       </c>
       <c r="AP347" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ347" t="n">
         <v>0.6</v>
@@ -64079,7 +64079,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ374" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR374" t="n">
         <v>1.61</v>
@@ -66456,7 +66456,7 @@
         <v>0.58</v>
       </c>
       <c r="AP388" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ388" t="n">
         <v>0.73</v>
@@ -69346,7 +69346,7 @@
         <v>0.85</v>
       </c>
       <c r="AP405" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ405" t="n">
         <v>0.8</v>
@@ -69519,7 +69519,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ406" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR406" t="n">
         <v>1.49</v>
@@ -75657,13 +75657,13 @@
         <v>3</v>
       </c>
       <c r="AW442" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX442" t="n">
         <v>9</v>
       </c>
       <c r="AY442" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ442" t="n">
         <v>12</v>
@@ -76501,22 +76501,22 @@
         <v>2.47</v>
       </c>
       <c r="AU447" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV447" t="n">
         <v>4</v>
       </c>
-      <c r="AV447" t="n">
-        <v>3</v>
-      </c>
       <c r="AW447" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX447" t="n">
         <v>5</v>
       </c>
       <c r="AY447" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ447" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ447" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="448">
@@ -77027,6 +77027,176 @@
       </c>
       <c r="AZ450" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="n">
+        <v>4926392</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E451" s="2" t="n">
+        <v>45200.875</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0</v>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="I451" t="n">
+        <v>0</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M451" t="n">
+        <v>1</v>
+      </c>
+      <c r="N451" t="n">
+        <v>1</v>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q451" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R451" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S451" t="n">
+        <v>5</v>
+      </c>
+      <c r="T451" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U451" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V451" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W451" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X451" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y451" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z451" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA451" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB451" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC451" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD451" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE451" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF451" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG451" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH451" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI451" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ451" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK451" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL451" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM451" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN451" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO451" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP451" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ451" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR451" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS451" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT451" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AU451" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV451" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW451" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX451" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY451" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ451" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -102086,7 +102086,7 @@
         <v>9</v>
       </c>
       <c r="AV466" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW466" t="n">
         <v>5</v>
@@ -102098,7 +102098,7 @@
         <v>14</v>
       </c>
       <c r="AZ466" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA466" t="n">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP476"/>
+  <dimension ref="A1:BP479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.65</v>
@@ -1355,7 +1355,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.25</v>
@@ -3099,7 +3099,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.71</v>
@@ -6369,7 +6369,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR27" t="n">
         <v>2.09</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.5</v>
@@ -9421,7 +9421,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR41" t="n">
         <v>1.88</v>
@@ -9639,7 +9639,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR42" t="n">
         <v>1.38</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.88</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.06</v>
@@ -13345,7 +13345,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR59" t="n">
         <v>1.59</v>
@@ -14217,7 +14217,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR63" t="n">
         <v>1.34</v>
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.65</v>
@@ -16612,7 +16612,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.44</v>
@@ -16833,7 +16833,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR75" t="n">
         <v>1.48</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.76</v>
@@ -20975,7 +20975,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR94" t="n">
         <v>1.87</v>
@@ -21190,7 +21190,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.24</v>
@@ -22719,7 +22719,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR102" t="n">
         <v>1.34</v>
@@ -22937,7 +22937,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR103" t="n">
         <v>1.63</v>
@@ -23806,10 +23806,10 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR107" t="n">
         <v>1.38</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.13</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.13</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.8100000000000001</v>
@@ -28166,7 +28166,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ127" t="n">
         <v>1</v>
@@ -30567,7 +30567,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR138" t="n">
         <v>2.02</v>
@@ -31003,7 +31003,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR140" t="n">
         <v>1.27</v>
@@ -32529,7 +32529,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR147" t="n">
         <v>1.24</v>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.9399999999999999</v>
@@ -32962,10 +32962,10 @@
         <v>1</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR149" t="n">
         <v>1.91</v>
@@ -34927,7 +34927,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR158" t="n">
         <v>1.41</v>
@@ -36668,7 +36668,7 @@
         <v>0.4</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.76</v>
@@ -37325,7 +37325,7 @@
         <v>2</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR169" t="n">
         <v>1.63</v>
@@ -38412,7 +38412,7 @@
         <v>0.6</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.6899999999999999</v>
@@ -38848,7 +38848,7 @@
         <v>0.6</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.06</v>
@@ -39941,7 +39941,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR181" t="n">
         <v>1.67</v>
@@ -41464,7 +41464,7 @@
         <v>0.2</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.6899999999999999</v>
@@ -41685,7 +41685,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR189" t="n">
         <v>1.61</v>
@@ -44083,7 +44083,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR200" t="n">
         <v>1.44</v>
@@ -44734,7 +44734,7 @@
         <v>1.17</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203" t="n">
         <v>1</v>
@@ -45606,7 +45606,7 @@
         <v>0.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ207" t="n">
         <v>1</v>
@@ -45827,7 +45827,7 @@
         <v>2</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR208" t="n">
         <v>1.79</v>
@@ -46917,7 +46917,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ213" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR213" t="n">
         <v>1.9</v>
@@ -48443,7 +48443,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR220" t="n">
         <v>1.63</v>
@@ -49969,7 +49969,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR227" t="n">
         <v>1.5</v>
@@ -50184,7 +50184,7 @@
         <v>1.33</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.06</v>
@@ -51274,7 +51274,7 @@
         <v>1.67</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.24</v>
@@ -52803,7 +52803,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR240" t="n">
         <v>1.49</v>
@@ -55201,7 +55201,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR251" t="n">
         <v>1.53</v>
@@ -55852,7 +55852,7 @@
         <v>1.43</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.24</v>
@@ -57599,7 +57599,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR262" t="n">
         <v>1.65</v>
@@ -58032,7 +58032,7 @@
         <v>0.7</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ264" t="n">
         <v>0.88</v>
@@ -62177,7 +62177,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ283" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR283" t="n">
         <v>1.32</v>
@@ -62613,7 +62613,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ285" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR285" t="n">
         <v>1.47</v>
@@ -63046,7 +63046,7 @@
         <v>1.5</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ287" t="n">
         <v>1.13</v>
@@ -63482,7 +63482,7 @@
         <v>1.1</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ289" t="n">
         <v>0.9399999999999999</v>
@@ -63703,7 +63703,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ290" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR290" t="n">
         <v>1.61</v>
@@ -65226,7 +65226,7 @@
         <v>1</v>
       </c>
       <c r="AP297" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ297" t="n">
         <v>0.9399999999999999</v>
@@ -65444,7 +65444,7 @@
         <v>1.33</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ298" t="n">
         <v>1.13</v>
@@ -66101,7 +66101,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ301" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR301" t="n">
         <v>1.56</v>
@@ -68278,7 +68278,7 @@
         <v>1.1</v>
       </c>
       <c r="AP311" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ311" t="n">
         <v>1.19</v>
@@ -69589,7 +69589,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ317" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR317" t="n">
         <v>1.72</v>
@@ -69804,7 +69804,7 @@
         <v>1</v>
       </c>
       <c r="AP318" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ318" t="n">
         <v>1.19</v>
@@ -76129,7 +76129,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ347" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR347" t="n">
         <v>1.87</v>
@@ -77001,7 +77001,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ351" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR351" t="n">
         <v>1.43</v>
@@ -78306,7 +78306,7 @@
         <v>0.92</v>
       </c>
       <c r="AP357" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ357" t="n">
         <v>0.8100000000000001</v>
@@ -78960,7 +78960,7 @@
         <v>1</v>
       </c>
       <c r="AP360" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ360" t="n">
         <v>0.9399999999999999</v>
@@ -81579,7 +81579,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ372" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR372" t="n">
         <v>1.68</v>
@@ -82015,7 +82015,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ374" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR374" t="n">
         <v>1.61</v>
@@ -83320,7 +83320,7 @@
         <v>1.08</v>
       </c>
       <c r="AP380" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ380" t="n">
         <v>1</v>
@@ -83756,7 +83756,7 @@
         <v>1</v>
       </c>
       <c r="AP382" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ382" t="n">
         <v>1</v>
@@ -83977,7 +83977,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ383" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR383" t="n">
         <v>1.79</v>
@@ -84628,7 +84628,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP386" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ386" t="n">
         <v>0.6899999999999999</v>
@@ -85721,7 +85721,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ391" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR391" t="n">
         <v>1.69</v>
@@ -86154,7 +86154,7 @@
         <v>1.23</v>
       </c>
       <c r="AP393" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ393" t="n">
         <v>1.24</v>
@@ -88334,7 +88334,7 @@
         <v>1.38</v>
       </c>
       <c r="AP403" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ403" t="n">
         <v>1.44</v>
@@ -88555,7 +88555,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ404" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR404" t="n">
         <v>1.41</v>
@@ -88991,7 +88991,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ406" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR406" t="n">
         <v>1.49</v>
@@ -92258,7 +92258,7 @@
         <v>1.43</v>
       </c>
       <c r="AP421" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ421" t="n">
         <v>1.25</v>
@@ -93784,7 +93784,7 @@
         <v>0.86</v>
       </c>
       <c r="AP428" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ428" t="n">
         <v>1</v>
@@ -94005,7 +94005,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ429" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR429" t="n">
         <v>1.17</v>
@@ -94441,7 +94441,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ431" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR431" t="n">
         <v>1.57</v>
@@ -97708,7 +97708,7 @@
         <v>1.47</v>
       </c>
       <c r="AP446" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ446" t="n">
         <v>1.44</v>
@@ -98362,7 +98362,7 @@
         <v>0.8</v>
       </c>
       <c r="AP449" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ449" t="n">
         <v>0.76</v>
@@ -98801,7 +98801,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ451" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR451" t="n">
         <v>1.91</v>
@@ -100542,7 +100542,7 @@
         <v>1.67</v>
       </c>
       <c r="AP459" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ459" t="n">
         <v>1.75</v>
@@ -102507,7 +102507,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ468" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR468" t="n">
         <v>1.56</v>
@@ -102940,7 +102940,7 @@
         <v>0.75</v>
       </c>
       <c r="AP470" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ470" t="n">
         <v>0.76</v>
@@ -103379,7 +103379,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ472" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR472" t="n">
         <v>1.45</v>
@@ -104327,6 +104327,660 @@
       </c>
       <c r="BP476" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B477" t="n">
+        <v>4926288</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E477" s="2" t="n">
+        <v>45213.89583333334</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0</v>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="I477" t="n">
+        <v>3</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0</v>
+      </c>
+      <c r="K477" t="n">
+        <v>3</v>
+      </c>
+      <c r="L477" t="n">
+        <v>3</v>
+      </c>
+      <c r="M477" t="n">
+        <v>2</v>
+      </c>
+      <c r="N477" t="n">
+        <v>5</v>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>['19', '30', '45+3']</t>
+        </is>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>['49', '71']</t>
+        </is>
+      </c>
+      <c r="Q477" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R477" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S477" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T477" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U477" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V477" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W477" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X477" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y477" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z477" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA477" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB477" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC477" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD477" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="AE477" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF477" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AG477" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH477" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AI477" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ477" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK477" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL477" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM477" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN477" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO477" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP477" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ477" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR477" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS477" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT477" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU477" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV477" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW477" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX477" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY477" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ477" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA477" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB477" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC477" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD477" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE477" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF477" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG477" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH477" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI477" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ477" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK477" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL477" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM477" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN477" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO477" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP477" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B478" t="n">
+        <v>4926399</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E478" s="2" t="n">
+        <v>45213.89583333334</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0</v>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="I478" t="n">
+        <v>1</v>
+      </c>
+      <c r="J478" t="n">
+        <v>1</v>
+      </c>
+      <c r="K478" t="n">
+        <v>2</v>
+      </c>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="n">
+        <v>1</v>
+      </c>
+      <c r="N478" t="n">
+        <v>2</v>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q478" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R478" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S478" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T478" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U478" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V478" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W478" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X478" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y478" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z478" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA478" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB478" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC478" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD478" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE478" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF478" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG478" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH478" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AI478" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ478" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK478" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL478" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM478" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN478" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO478" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP478" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ478" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AR478" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS478" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT478" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU478" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV478" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW478" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX478" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY478" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ478" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA478" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB478" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC478" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD478" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE478" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF478" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG478" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH478" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI478" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ478" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK478" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL478" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM478" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN478" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO478" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP478" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B479" t="n">
+        <v>4926290</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E479" s="2" t="n">
+        <v>45213.97916666666</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0</v>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="I479" t="n">
+        <v>2</v>
+      </c>
+      <c r="J479" t="n">
+        <v>1</v>
+      </c>
+      <c r="K479" t="n">
+        <v>3</v>
+      </c>
+      <c r="L479" t="n">
+        <v>2</v>
+      </c>
+      <c r="M479" t="n">
+        <v>2</v>
+      </c>
+      <c r="N479" t="n">
+        <v>4</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>['7', '34']</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>['45+1', '76']</t>
+        </is>
+      </c>
+      <c r="Q479" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R479" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S479" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T479" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U479" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V479" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W479" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X479" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y479" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z479" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AA479" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AB479" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AC479" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD479" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE479" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF479" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG479" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH479" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AI479" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ479" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK479" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL479" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM479" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN479" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO479" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP479" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ479" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR479" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS479" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT479" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU479" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV479" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW479" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX479" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY479" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ479" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA479" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB479" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC479" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD479" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE479" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF479" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG479" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH479" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI479" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ479" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK479" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL479" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM479" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN479" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO479" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP479" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP479"/>
+  <dimension ref="A1:BP480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.5</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.19</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.9399999999999999</v>
@@ -19446,7 +19446,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.9399999999999999</v>
@@ -31872,7 +31872,7 @@
         <v>1</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ144" t="n">
         <v>1</v>
@@ -34924,7 +34924,7 @@
         <v>2</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.88</v>
@@ -40156,7 +40156,7 @@
         <v>1.6</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.75</v>
@@ -47132,7 +47132,7 @@
         <v>0.5</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ214" t="n">
         <v>0.88</v>
@@ -49312,7 +49312,7 @@
         <v>1</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ224" t="n">
         <v>0.9399999999999999</v>
@@ -61738,7 +61738,7 @@
         <v>0.88</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ281" t="n">
         <v>0.8100000000000001</v>
@@ -64790,7 +64790,7 @@
         <v>0.89</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ295" t="n">
         <v>1</v>
@@ -79614,7 +79614,7 @@
         <v>0.92</v>
       </c>
       <c r="AP363" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ363" t="n">
         <v>1.06</v>
@@ -85500,7 +85500,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP390" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ390" t="n">
         <v>0.88</v>
@@ -90296,7 +90296,7 @@
         <v>0.31</v>
       </c>
       <c r="AP412" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ412" t="n">
         <v>0.24</v>
@@ -97926,7 +97926,7 @@
         <v>0.67</v>
       </c>
       <c r="AP447" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ447" t="n">
         <v>0.65</v>
@@ -101850,7 +101850,7 @@
         <v>1.56</v>
       </c>
       <c r="AP465" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ465" t="n">
         <v>1.65</v>
@@ -104981,6 +104981,224 @@
       </c>
       <c r="BP479" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B480" t="n">
+        <v>4926281</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E480" s="2" t="n">
+        <v>45217.875</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="I480" t="n">
+        <v>1</v>
+      </c>
+      <c r="J480" t="n">
+        <v>1</v>
+      </c>
+      <c r="K480" t="n">
+        <v>2</v>
+      </c>
+      <c r="L480" t="n">
+        <v>2</v>
+      </c>
+      <c r="M480" t="n">
+        <v>2</v>
+      </c>
+      <c r="N480" t="n">
+        <v>4</v>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>['45+6', '84']</t>
+        </is>
+      </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>['45', '52']</t>
+        </is>
+      </c>
+      <c r="Q480" t="n">
+        <v>3</v>
+      </c>
+      <c r="R480" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S480" t="n">
+        <v>3</v>
+      </c>
+      <c r="T480" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U480" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V480" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W480" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X480" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y480" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z480" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA480" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AB480" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="AC480" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD480" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE480" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF480" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG480" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH480" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI480" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ480" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK480" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL480" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM480" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN480" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO480" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP480" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ480" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR480" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS480" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT480" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU480" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV480" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW480" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX480" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY480" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ480" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA480" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB480" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC480" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD480" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE480" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF480" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BG480" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH480" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI480" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ480" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK480" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL480" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM480" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN480" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO480" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP480" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>
